--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -244,15 +244,15 @@
     <t>Lyngby</t>
   </si>
   <si>
+    <t>SønderjyskE</t>
+  </si>
+  <si>
     <t>Midtjylland</t>
   </si>
   <si>
     <t>AaB</t>
   </si>
   <si>
-    <t>SønderjyskE</t>
-  </si>
-  <si>
     <t>Randers</t>
   </si>
   <si>
@@ -280,6 +280,9 @@
     <t>[]</t>
   </si>
   <si>
+    <t>['14']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -290,6 +293,9 @@
   </si>
   <si>
     <t>['7', '30']</t>
+  </si>
+  <si>
+    <t>['20']</t>
   </si>
 </sst>
 </file>
@@ -651,7 +657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP7"/>
+  <dimension ref="A1:BP8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -886,7 +892,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -910,7 +916,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1092,7 +1098,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -1298,7 +1304,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1528,7 +1534,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1734,7 +1740,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -1940,7 +1946,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2097,6 +2103,212 @@
       </c>
       <c r="BP7">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7452261</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45499.58333333334</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>88</v>
+      </c>
+      <c r="P8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q8">
+        <v>2.75</v>
+      </c>
+      <c r="R8">
+        <v>2.2</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <v>1.36</v>
+      </c>
+      <c r="U8">
+        <v>3</v>
+      </c>
+      <c r="V8">
+        <v>2.75</v>
+      </c>
+      <c r="W8">
+        <v>1.4</v>
+      </c>
+      <c r="X8">
+        <v>8</v>
+      </c>
+      <c r="Y8">
+        <v>1.08</v>
+      </c>
+      <c r="Z8">
+        <v>2</v>
+      </c>
+      <c r="AA8">
+        <v>3.4</v>
+      </c>
+      <c r="AB8">
+        <v>3.8</v>
+      </c>
+      <c r="AC8">
+        <v>1.03</v>
+      </c>
+      <c r="AD8">
+        <v>11.5</v>
+      </c>
+      <c r="AE8">
+        <v>1.29</v>
+      </c>
+      <c r="AF8">
+        <v>3.55</v>
+      </c>
+      <c r="AG8">
+        <v>1.95</v>
+      </c>
+      <c r="AH8">
+        <v>1.85</v>
+      </c>
+      <c r="AI8">
+        <v>1.75</v>
+      </c>
+      <c r="AJ8">
+        <v>2</v>
+      </c>
+      <c r="AK8">
+        <v>1.3</v>
+      </c>
+      <c r="AL8">
+        <v>1.25</v>
+      </c>
+      <c r="AM8">
+        <v>1.83</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>1</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>5</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>17</v>
+      </c>
+      <c r="AX8">
+        <v>9</v>
+      </c>
+      <c r="AY8">
+        <v>22</v>
+      </c>
+      <c r="AZ8">
+        <v>9</v>
+      </c>
+      <c r="BA8">
+        <v>6</v>
+      </c>
+      <c r="BB8">
+        <v>4</v>
+      </c>
+      <c r="BC8">
+        <v>10</v>
+      </c>
+      <c r="BD8">
+        <v>1.7</v>
+      </c>
+      <c r="BE8">
+        <v>7.5</v>
+      </c>
+      <c r="BF8">
+        <v>2.71</v>
+      </c>
+      <c r="BG8">
+        <v>1.22</v>
+      </c>
+      <c r="BH8">
+        <v>3.75</v>
+      </c>
+      <c r="BI8">
+        <v>1.41</v>
+      </c>
+      <c r="BJ8">
+        <v>2.63</v>
+      </c>
+      <c r="BK8">
+        <v>2.2</v>
+      </c>
+      <c r="BL8">
+        <v>1.95</v>
+      </c>
+      <c r="BM8">
+        <v>2.18</v>
+      </c>
+      <c r="BN8">
+        <v>1.6</v>
+      </c>
+      <c r="BO8">
+        <v>2.88</v>
+      </c>
+      <c r="BP8">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -283,6 +283,9 @@
     <t>['14']</t>
   </si>
   <si>
+    <t>['29', '34']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -296,6 +299,9 @@
   </si>
   <si>
     <t>['20']</t>
+  </si>
+  <si>
+    <t>['11', '45']</t>
   </si>
 </sst>
 </file>
@@ -657,7 +663,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP8"/>
+  <dimension ref="A1:BP9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -916,7 +922,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1200,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -1534,7 +1540,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1740,7 +1746,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -1946,7 +1952,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2152,7 +2158,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2248,19 +2254,19 @@
         <v>5</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AX8">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AY8">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AZ8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BA8">
         <v>6</v>
@@ -2309,6 +2315,212 @@
       </c>
       <c r="BP8">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7452262</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45500.45833333334</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q9">
+        <v>2.5</v>
+      </c>
+      <c r="R9">
+        <v>2.4</v>
+      </c>
+      <c r="S9">
+        <v>3.75</v>
+      </c>
+      <c r="T9">
+        <v>1.24</v>
+      </c>
+      <c r="U9">
+        <v>3.65</v>
+      </c>
+      <c r="V9">
+        <v>2.19</v>
+      </c>
+      <c r="W9">
+        <v>1.6</v>
+      </c>
+      <c r="X9">
+        <v>4.85</v>
+      </c>
+      <c r="Y9">
+        <v>1.14</v>
+      </c>
+      <c r="Z9">
+        <v>1.9</v>
+      </c>
+      <c r="AA9">
+        <v>3.9</v>
+      </c>
+      <c r="AB9">
+        <v>3.5</v>
+      </c>
+      <c r="AC9">
+        <v>1.02</v>
+      </c>
+      <c r="AD9">
+        <v>20</v>
+      </c>
+      <c r="AE9">
+        <v>1.15</v>
+      </c>
+      <c r="AF9">
+        <v>5.45</v>
+      </c>
+      <c r="AG9">
+        <v>1.6</v>
+      </c>
+      <c r="AH9">
+        <v>2.35</v>
+      </c>
+      <c r="AI9">
+        <v>1.53</v>
+      </c>
+      <c r="AJ9">
+        <v>2.38</v>
+      </c>
+      <c r="AK9">
+        <v>1.33</v>
+      </c>
+      <c r="AL9">
+        <v>1.22</v>
+      </c>
+      <c r="AM9">
+        <v>1.85</v>
+      </c>
+      <c r="AN9">
+        <v>3</v>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AP9">
+        <v>2</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>1.96</v>
+      </c>
+      <c r="AS9">
+        <v>1.16</v>
+      </c>
+      <c r="AT9">
+        <v>3.12</v>
+      </c>
+      <c r="AU9">
+        <v>4</v>
+      </c>
+      <c r="AV9">
+        <v>3</v>
+      </c>
+      <c r="AW9">
+        <v>1</v>
+      </c>
+      <c r="AX9">
+        <v>5</v>
+      </c>
+      <c r="AY9">
+        <v>5</v>
+      </c>
+      <c r="AZ9">
+        <v>8</v>
+      </c>
+      <c r="BA9">
+        <v>3</v>
+      </c>
+      <c r="BB9">
+        <v>3</v>
+      </c>
+      <c r="BC9">
+        <v>6</v>
+      </c>
+      <c r="BD9">
+        <v>1.64</v>
+      </c>
+      <c r="BE9">
+        <v>7.6</v>
+      </c>
+      <c r="BF9">
+        <v>2.86</v>
+      </c>
+      <c r="BG9">
+        <v>1.25</v>
+      </c>
+      <c r="BH9">
+        <v>3.5</v>
+      </c>
+      <c r="BI9">
+        <v>1.47</v>
+      </c>
+      <c r="BJ9">
+        <v>2.48</v>
+      </c>
+      <c r="BK9">
+        <v>2.25</v>
+      </c>
+      <c r="BL9">
+        <v>1.98</v>
+      </c>
+      <c r="BM9">
+        <v>2.3</v>
+      </c>
+      <c r="BN9">
+        <v>1.53</v>
+      </c>
+      <c r="BO9">
+        <v>3.05</v>
+      </c>
+      <c r="BP9">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="102">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -247,21 +247,21 @@
     <t>SønderjyskE</t>
   </si>
   <si>
+    <t>Randers</t>
+  </si>
+  <si>
+    <t>AaB</t>
+  </si>
+  <si>
+    <t>København</t>
+  </si>
+  <si>
     <t>Midtjylland</t>
   </si>
   <si>
-    <t>AaB</t>
-  </si>
-  <si>
-    <t>Randers</t>
-  </si>
-  <si>
     <t>Brøndby</t>
   </si>
   <si>
-    <t>København</t>
-  </si>
-  <si>
     <t>['8']</t>
   </si>
   <si>
@@ -286,6 +286,15 @@
     <t>['29', '34']</t>
   </si>
   <si>
+    <t>['27', '45+4', '75']</t>
+  </si>
+  <si>
+    <t>['18', '52']</t>
+  </si>
+  <si>
+    <t>['27', '73', '78']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -302,6 +311,15 @@
   </si>
   <si>
     <t>['11', '45']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['13', '32']</t>
   </si>
 </sst>
 </file>
@@ -663,7 +681,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP9"/>
+  <dimension ref="A1:BP12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -898,7 +916,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -922,7 +940,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1516,7 +1534,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1540,7 +1558,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1722,7 +1740,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -1746,7 +1764,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -1928,7 +1946,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1952,7 +1970,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2158,7 +2176,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2340,7 +2358,7 @@
         <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -2364,7 +2382,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2521,6 +2539,624 @@
       </c>
       <c r="BP9">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7452263</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45501.375</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q10">
+        <v>2.63</v>
+      </c>
+      <c r="R10">
+        <v>2.3</v>
+      </c>
+      <c r="S10">
+        <v>3.75</v>
+      </c>
+      <c r="T10">
+        <v>1.33</v>
+      </c>
+      <c r="U10">
+        <v>3.25</v>
+      </c>
+      <c r="V10">
+        <v>2.5</v>
+      </c>
+      <c r="W10">
+        <v>1.5</v>
+      </c>
+      <c r="X10">
+        <v>6.5</v>
+      </c>
+      <c r="Y10">
+        <v>1.11</v>
+      </c>
+      <c r="Z10">
+        <v>2.05</v>
+      </c>
+      <c r="AA10">
+        <v>3.5</v>
+      </c>
+      <c r="AB10">
+        <v>3.4</v>
+      </c>
+      <c r="AC10">
+        <v>1.05</v>
+      </c>
+      <c r="AD10">
+        <v>9.5</v>
+      </c>
+      <c r="AE10">
+        <v>1.25</v>
+      </c>
+      <c r="AF10">
+        <v>3.95</v>
+      </c>
+      <c r="AG10">
+        <v>1.7</v>
+      </c>
+      <c r="AH10">
+        <v>2.1</v>
+      </c>
+      <c r="AI10">
+        <v>1.62</v>
+      </c>
+      <c r="AJ10">
+        <v>2.2</v>
+      </c>
+      <c r="AK10">
+        <v>1.3</v>
+      </c>
+      <c r="AL10">
+        <v>1.29</v>
+      </c>
+      <c r="AM10">
+        <v>1.83</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>3</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>5</v>
+      </c>
+      <c r="AV10">
+        <v>3</v>
+      </c>
+      <c r="AW10">
+        <v>2</v>
+      </c>
+      <c r="AX10">
+        <v>4</v>
+      </c>
+      <c r="AY10">
+        <v>7</v>
+      </c>
+      <c r="AZ10">
+        <v>7</v>
+      </c>
+      <c r="BA10">
+        <v>5</v>
+      </c>
+      <c r="BB10">
+        <v>8</v>
+      </c>
+      <c r="BC10">
+        <v>13</v>
+      </c>
+      <c r="BD10">
+        <v>1.6</v>
+      </c>
+      <c r="BE10">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF10">
+        <v>2.91</v>
+      </c>
+      <c r="BG10">
+        <v>1.2</v>
+      </c>
+      <c r="BH10">
+        <v>4</v>
+      </c>
+      <c r="BI10">
+        <v>1.37</v>
+      </c>
+      <c r="BJ10">
+        <v>2.8</v>
+      </c>
+      <c r="BK10">
+        <v>2.1</v>
+      </c>
+      <c r="BL10">
+        <v>2.05</v>
+      </c>
+      <c r="BM10">
+        <v>2.07</v>
+      </c>
+      <c r="BN10">
+        <v>1.66</v>
+      </c>
+      <c r="BO10">
+        <v>2.7</v>
+      </c>
+      <c r="BP10">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7452264</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45501.45833333334</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>91</v>
+      </c>
+      <c r="P11" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q11">
+        <v>3.1</v>
+      </c>
+      <c r="R11">
+        <v>2.25</v>
+      </c>
+      <c r="S11">
+        <v>3.1</v>
+      </c>
+      <c r="T11">
+        <v>1.36</v>
+      </c>
+      <c r="U11">
+        <v>3</v>
+      </c>
+      <c r="V11">
+        <v>2.63</v>
+      </c>
+      <c r="W11">
+        <v>1.44</v>
+      </c>
+      <c r="X11">
+        <v>7</v>
+      </c>
+      <c r="Y11">
+        <v>1.1</v>
+      </c>
+      <c r="Z11">
+        <v>2.55</v>
+      </c>
+      <c r="AA11">
+        <v>3.25</v>
+      </c>
+      <c r="AB11">
+        <v>2.6</v>
+      </c>
+      <c r="AC11">
+        <v>1.05</v>
+      </c>
+      <c r="AD11">
+        <v>9.5</v>
+      </c>
+      <c r="AE11">
+        <v>1.25</v>
+      </c>
+      <c r="AF11">
+        <v>3.8</v>
+      </c>
+      <c r="AG11">
+        <v>1.8</v>
+      </c>
+      <c r="AH11">
+        <v>1.9</v>
+      </c>
+      <c r="AI11">
+        <v>1.57</v>
+      </c>
+      <c r="AJ11">
+        <v>2.25</v>
+      </c>
+      <c r="AK11">
+        <v>1.48</v>
+      </c>
+      <c r="AL11">
+        <v>1.25</v>
+      </c>
+      <c r="AM11">
+        <v>1.5</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>3</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>5</v>
+      </c>
+      <c r="AV11">
+        <v>7</v>
+      </c>
+      <c r="AW11">
+        <v>4</v>
+      </c>
+      <c r="AX11">
+        <v>8</v>
+      </c>
+      <c r="AY11">
+        <v>9</v>
+      </c>
+      <c r="AZ11">
+        <v>15</v>
+      </c>
+      <c r="BA11">
+        <v>5</v>
+      </c>
+      <c r="BB11">
+        <v>11</v>
+      </c>
+      <c r="BC11">
+        <v>16</v>
+      </c>
+      <c r="BD11">
+        <v>2.07</v>
+      </c>
+      <c r="BE11">
+        <v>7.2</v>
+      </c>
+      <c r="BF11">
+        <v>2.1</v>
+      </c>
+      <c r="BG11">
+        <v>1.22</v>
+      </c>
+      <c r="BH11">
+        <v>3.75</v>
+      </c>
+      <c r="BI11">
+        <v>1.41</v>
+      </c>
+      <c r="BJ11">
+        <v>2.63</v>
+      </c>
+      <c r="BK11">
+        <v>2.2</v>
+      </c>
+      <c r="BL11">
+        <v>1.95</v>
+      </c>
+      <c r="BM11">
+        <v>2.18</v>
+      </c>
+      <c r="BN11">
+        <v>1.6</v>
+      </c>
+      <c r="BO11">
+        <v>2.88</v>
+      </c>
+      <c r="BP11">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7452265</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45501.54166666666</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q12">
+        <v>2.2</v>
+      </c>
+      <c r="R12">
+        <v>2.38</v>
+      </c>
+      <c r="S12">
+        <v>5</v>
+      </c>
+      <c r="T12">
+        <v>1.29</v>
+      </c>
+      <c r="U12">
+        <v>3.5</v>
+      </c>
+      <c r="V12">
+        <v>2.38</v>
+      </c>
+      <c r="W12">
+        <v>1.53</v>
+      </c>
+      <c r="X12">
+        <v>5.5</v>
+      </c>
+      <c r="Y12">
+        <v>1.14</v>
+      </c>
+      <c r="Z12">
+        <v>1.65</v>
+      </c>
+      <c r="AA12">
+        <v>4.1</v>
+      </c>
+      <c r="AB12">
+        <v>4.75</v>
+      </c>
+      <c r="AC12">
+        <v>1.03</v>
+      </c>
+      <c r="AD12">
+        <v>11</v>
+      </c>
+      <c r="AE12">
+        <v>1.18</v>
+      </c>
+      <c r="AF12">
+        <v>4.75</v>
+      </c>
+      <c r="AG12">
+        <v>1.73</v>
+      </c>
+      <c r="AH12">
+        <v>2.08</v>
+      </c>
+      <c r="AI12">
+        <v>1.75</v>
+      </c>
+      <c r="AJ12">
+        <v>2</v>
+      </c>
+      <c r="AK12">
+        <v>1.12</v>
+      </c>
+      <c r="AL12">
+        <v>1.14</v>
+      </c>
+      <c r="AM12">
+        <v>2.62</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>3</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>7</v>
+      </c>
+      <c r="AV12">
+        <v>4</v>
+      </c>
+      <c r="AW12">
+        <v>5</v>
+      </c>
+      <c r="AX12">
+        <v>3</v>
+      </c>
+      <c r="AY12">
+        <v>12</v>
+      </c>
+      <c r="AZ12">
+        <v>7</v>
+      </c>
+      <c r="BA12">
+        <v>2</v>
+      </c>
+      <c r="BB12">
+        <v>4</v>
+      </c>
+      <c r="BC12">
+        <v>6</v>
+      </c>
+      <c r="BD12">
+        <v>1.34</v>
+      </c>
+      <c r="BE12">
+        <v>8</v>
+      </c>
+      <c r="BF12">
+        <v>4.57</v>
+      </c>
+      <c r="BG12">
+        <v>1.27</v>
+      </c>
+      <c r="BH12">
+        <v>3.35</v>
+      </c>
+      <c r="BI12">
+        <v>1.49</v>
+      </c>
+      <c r="BJ12">
+        <v>2.4</v>
+      </c>
+      <c r="BK12">
+        <v>1.85</v>
+      </c>
+      <c r="BL12">
+        <v>1.85</v>
+      </c>
+      <c r="BM12">
+        <v>2.38</v>
+      </c>
+      <c r="BN12">
+        <v>1.5</v>
+      </c>
+      <c r="BO12">
+        <v>3.2</v>
+      </c>
+      <c r="BP12">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="104">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -256,12 +256,12 @@
     <t>København</t>
   </si>
   <si>
+    <t>Brøndby</t>
+  </si>
+  <si>
     <t>Midtjylland</t>
   </si>
   <si>
-    <t>Brøndby</t>
-  </si>
-  <si>
     <t>['8']</t>
   </si>
   <si>
@@ -295,6 +295,9 @@
     <t>['27', '73', '78']</t>
   </si>
   <si>
+    <t>['47', '52']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -320,6 +323,9 @@
   </si>
   <si>
     <t>['13', '32']</t>
+  </si>
+  <si>
+    <t>['40']</t>
   </si>
 </sst>
 </file>
@@ -681,7 +687,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP12"/>
+  <dimension ref="A1:BP13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -916,7 +922,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -940,7 +946,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1558,7 +1564,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1740,7 +1746,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -1764,7 +1770,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -1970,7 +1976,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2176,7 +2182,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2358,7 +2364,7 @@
         <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -2382,7 +2388,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2588,7 +2594,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -2794,7 +2800,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3000,7 +3006,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3157,6 +3163,212 @@
       </c>
       <c r="BP12">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7452266</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45502.58333333334</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q13">
+        <v>1.83</v>
+      </c>
+      <c r="R13">
+        <v>2.6</v>
+      </c>
+      <c r="S13">
+        <v>6.5</v>
+      </c>
+      <c r="T13">
+        <v>1.29</v>
+      </c>
+      <c r="U13">
+        <v>3.5</v>
+      </c>
+      <c r="V13">
+        <v>2.38</v>
+      </c>
+      <c r="W13">
+        <v>1.53</v>
+      </c>
+      <c r="X13">
+        <v>5.5</v>
+      </c>
+      <c r="Y13">
+        <v>1.14</v>
+      </c>
+      <c r="Z13">
+        <v>1.38</v>
+      </c>
+      <c r="AA13">
+        <v>5</v>
+      </c>
+      <c r="AB13">
+        <v>6.5</v>
+      </c>
+      <c r="AC13">
+        <v>1.01</v>
+      </c>
+      <c r="AD13">
+        <v>18.5</v>
+      </c>
+      <c r="AE13">
+        <v>1.19</v>
+      </c>
+      <c r="AF13">
+        <v>4.7</v>
+      </c>
+      <c r="AG13">
+        <v>1.53</v>
+      </c>
+      <c r="AH13">
+        <v>2.4</v>
+      </c>
+      <c r="AI13">
+        <v>1.8</v>
+      </c>
+      <c r="AJ13">
+        <v>1.95</v>
+      </c>
+      <c r="AK13">
+        <v>1.12</v>
+      </c>
+      <c r="AL13">
+        <v>1.16</v>
+      </c>
+      <c r="AM13">
+        <v>2.7</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>3</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>5</v>
+      </c>
+      <c r="AV13">
+        <v>4</v>
+      </c>
+      <c r="AW13">
+        <v>7</v>
+      </c>
+      <c r="AX13">
+        <v>8</v>
+      </c>
+      <c r="AY13">
+        <v>12</v>
+      </c>
+      <c r="AZ13">
+        <v>12</v>
+      </c>
+      <c r="BA13">
+        <v>8</v>
+      </c>
+      <c r="BB13">
+        <v>6</v>
+      </c>
+      <c r="BC13">
+        <v>14</v>
+      </c>
+      <c r="BD13">
+        <v>1.14</v>
+      </c>
+      <c r="BE13">
+        <v>12</v>
+      </c>
+      <c r="BF13">
+        <v>7.65</v>
+      </c>
+      <c r="BG13">
+        <v>1.22</v>
+      </c>
+      <c r="BH13">
+        <v>3.75</v>
+      </c>
+      <c r="BI13">
+        <v>1.41</v>
+      </c>
+      <c r="BJ13">
+        <v>2.63</v>
+      </c>
+      <c r="BK13">
+        <v>2.1</v>
+      </c>
+      <c r="BL13">
+        <v>2.05</v>
+      </c>
+      <c r="BM13">
+        <v>2.18</v>
+      </c>
+      <c r="BN13">
+        <v>1.6</v>
+      </c>
+      <c r="BO13">
+        <v>2.88</v>
+      </c>
+      <c r="BP13">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="105">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>['47', '52']</t>
+  </si>
+  <si>
+    <t>['35', '45+5', '49', '56']</t>
   </si>
   <si>
     <t>['47']</t>
@@ -687,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP13"/>
+  <dimension ref="A1:BP14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -946,7 +949,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1024,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1564,7 +1567,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1770,7 +1773,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -1976,7 +1979,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2182,7 +2185,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2388,7 +2391,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2594,7 +2597,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -2800,7 +2803,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3006,7 +3009,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3212,7 +3215,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q13">
         <v>1.83</v>
@@ -3369,6 +3372,212 @@
       </c>
       <c r="BP13">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7452268</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45506.58333333334</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q14">
+        <v>2.3</v>
+      </c>
+      <c r="R14">
+        <v>2.2</v>
+      </c>
+      <c r="S14">
+        <v>5</v>
+      </c>
+      <c r="T14">
+        <v>1.4</v>
+      </c>
+      <c r="U14">
+        <v>2.75</v>
+      </c>
+      <c r="V14">
+        <v>3</v>
+      </c>
+      <c r="W14">
+        <v>1.36</v>
+      </c>
+      <c r="X14">
+        <v>8</v>
+      </c>
+      <c r="Y14">
+        <v>1.08</v>
+      </c>
+      <c r="Z14">
+        <v>1.73</v>
+      </c>
+      <c r="AA14">
+        <v>3.8</v>
+      </c>
+      <c r="AB14">
+        <v>4.5</v>
+      </c>
+      <c r="AC14">
+        <v>1.05</v>
+      </c>
+      <c r="AD14">
+        <v>9.5</v>
+      </c>
+      <c r="AE14">
+        <v>1.3</v>
+      </c>
+      <c r="AF14">
+        <v>3.45</v>
+      </c>
+      <c r="AG14">
+        <v>1.85</v>
+      </c>
+      <c r="AH14">
+        <v>1.95</v>
+      </c>
+      <c r="AI14">
+        <v>1.8</v>
+      </c>
+      <c r="AJ14">
+        <v>1.95</v>
+      </c>
+      <c r="AK14">
+        <v>1.18</v>
+      </c>
+      <c r="AL14">
+        <v>1.22</v>
+      </c>
+      <c r="AM14">
+        <v>2.05</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>2</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>1.77</v>
+      </c>
+      <c r="AS14">
+        <v>1.18</v>
+      </c>
+      <c r="AT14">
+        <v>2.95</v>
+      </c>
+      <c r="AU14">
+        <v>8</v>
+      </c>
+      <c r="AV14">
+        <v>3</v>
+      </c>
+      <c r="AW14">
+        <v>4</v>
+      </c>
+      <c r="AX14">
+        <v>3</v>
+      </c>
+      <c r="AY14">
+        <v>12</v>
+      </c>
+      <c r="AZ14">
+        <v>6</v>
+      </c>
+      <c r="BA14">
+        <v>8</v>
+      </c>
+      <c r="BB14">
+        <v>4</v>
+      </c>
+      <c r="BC14">
+        <v>12</v>
+      </c>
+      <c r="BD14">
+        <v>1.49</v>
+      </c>
+      <c r="BE14">
+        <v>7.7</v>
+      </c>
+      <c r="BF14">
+        <v>3.45</v>
+      </c>
+      <c r="BG14">
+        <v>1.25</v>
+      </c>
+      <c r="BH14">
+        <v>3.7</v>
+      </c>
+      <c r="BI14">
+        <v>1.44</v>
+      </c>
+      <c r="BJ14">
+        <v>2.6</v>
+      </c>
+      <c r="BK14">
+        <v>2.2</v>
+      </c>
+      <c r="BL14">
+        <v>1.95</v>
+      </c>
+      <c r="BM14">
+        <v>2.2</v>
+      </c>
+      <c r="BN14">
+        <v>1.61</v>
+      </c>
+      <c r="BO14">
+        <v>2.9</v>
+      </c>
+      <c r="BP14">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="106">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t>['35', '45+5', '49', '56']</t>
+  </si>
+  <si>
+    <t>['44', '77']</t>
   </si>
   <si>
     <t>['47']</t>
@@ -690,7 +693,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP14"/>
+  <dimension ref="A1:BP15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -949,7 +952,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1567,7 +1570,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1773,7 +1776,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -1979,7 +1982,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2185,7 +2188,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2391,7 +2394,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2597,7 +2600,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -2803,7 +2806,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3009,7 +3012,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3215,7 +3218,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q13">
         <v>1.83</v>
@@ -3578,6 +3581,212 @@
       </c>
       <c r="BP14">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7452267</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45507.45833333334</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15" t="s">
+        <v>95</v>
+      </c>
+      <c r="P15" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q15">
+        <v>1.91</v>
+      </c>
+      <c r="R15">
+        <v>2.6</v>
+      </c>
+      <c r="S15">
+        <v>6</v>
+      </c>
+      <c r="T15">
+        <v>1.3</v>
+      </c>
+      <c r="U15">
+        <v>3.4</v>
+      </c>
+      <c r="V15">
+        <v>2.38</v>
+      </c>
+      <c r="W15">
+        <v>1.53</v>
+      </c>
+      <c r="X15">
+        <v>6</v>
+      </c>
+      <c r="Y15">
+        <v>1.13</v>
+      </c>
+      <c r="Z15">
+        <v>1.4</v>
+      </c>
+      <c r="AA15">
+        <v>4.6</v>
+      </c>
+      <c r="AB15">
+        <v>6.5</v>
+      </c>
+      <c r="AC15">
+        <v>1.04</v>
+      </c>
+      <c r="AD15">
+        <v>10</v>
+      </c>
+      <c r="AE15">
+        <v>1.16</v>
+      </c>
+      <c r="AF15">
+        <v>4.3</v>
+      </c>
+      <c r="AG15">
+        <v>1.6</v>
+      </c>
+      <c r="AH15">
+        <v>2.15</v>
+      </c>
+      <c r="AI15">
+        <v>1.7</v>
+      </c>
+      <c r="AJ15">
+        <v>2.05</v>
+      </c>
+      <c r="AK15">
+        <v>1.09</v>
+      </c>
+      <c r="AL15">
+        <v>1.18</v>
+      </c>
+      <c r="AM15">
+        <v>2.9</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>3</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>1.38</v>
+      </c>
+      <c r="AT15">
+        <v>1.38</v>
+      </c>
+      <c r="AU15">
+        <v>8</v>
+      </c>
+      <c r="AV15">
+        <v>4</v>
+      </c>
+      <c r="AW15">
+        <v>5</v>
+      </c>
+      <c r="AX15">
+        <v>9</v>
+      </c>
+      <c r="AY15">
+        <v>13</v>
+      </c>
+      <c r="AZ15">
+        <v>13</v>
+      </c>
+      <c r="BA15">
+        <v>7</v>
+      </c>
+      <c r="BB15">
+        <v>6</v>
+      </c>
+      <c r="BC15">
+        <v>13</v>
+      </c>
+      <c r="BD15">
+        <v>1.31</v>
+      </c>
+      <c r="BE15">
+        <v>8.6</v>
+      </c>
+      <c r="BF15">
+        <v>4.76</v>
+      </c>
+      <c r="BG15">
+        <v>1.21</v>
+      </c>
+      <c r="BH15">
+        <v>3.74</v>
+      </c>
+      <c r="BI15">
+        <v>1.41</v>
+      </c>
+      <c r="BJ15">
+        <v>2.65</v>
+      </c>
+      <c r="BK15">
+        <v>2.2</v>
+      </c>
+      <c r="BL15">
+        <v>1.95</v>
+      </c>
+      <c r="BM15">
+        <v>2.16</v>
+      </c>
+      <c r="BN15">
+        <v>1.6</v>
+      </c>
+      <c r="BO15">
+        <v>2.85</v>
+      </c>
+      <c r="BP15">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="110">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -304,6 +304,12 @@
     <t>['44', '77']</t>
   </si>
   <si>
+    <t>['9', '12', '40']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -332,6 +338,12 @@
   </si>
   <si>
     <t>['40']</t>
+  </si>
+  <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['6', '17']</t>
   </si>
 </sst>
 </file>
@@ -693,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP15"/>
+  <dimension ref="A1:BP18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -952,7 +964,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1570,7 +1582,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1651,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1776,7 +1788,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -1857,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -1982,7 +1994,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2188,7 +2200,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2394,7 +2406,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2600,7 +2612,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -2806,7 +2818,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3012,7 +3024,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3090,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>0</v>
@@ -3218,7 +3230,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q13">
         <v>1.83</v>
@@ -3786,6 +3798,624 @@
         <v>2.85</v>
       </c>
       <c r="BP15">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7452269</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45508.375</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16">
+        <v>2.5</v>
+      </c>
+      <c r="R16">
+        <v>2.3</v>
+      </c>
+      <c r="S16">
+        <v>4</v>
+      </c>
+      <c r="T16">
+        <v>1.4</v>
+      </c>
+      <c r="U16">
+        <v>2.75</v>
+      </c>
+      <c r="V16">
+        <v>2.75</v>
+      </c>
+      <c r="W16">
+        <v>1.4</v>
+      </c>
+      <c r="X16">
+        <v>8</v>
+      </c>
+      <c r="Y16">
+        <v>1.08</v>
+      </c>
+      <c r="Z16">
+        <v>1.9</v>
+      </c>
+      <c r="AA16">
+        <v>3.7</v>
+      </c>
+      <c r="AB16">
+        <v>3.7</v>
+      </c>
+      <c r="AC16">
+        <v>1.04</v>
+      </c>
+      <c r="AD16">
+        <v>10.5</v>
+      </c>
+      <c r="AE16">
+        <v>1.32</v>
+      </c>
+      <c r="AF16">
+        <v>3.35</v>
+      </c>
+      <c r="AG16">
+        <v>1.7</v>
+      </c>
+      <c r="AH16">
+        <v>2.1</v>
+      </c>
+      <c r="AI16">
+        <v>1.67</v>
+      </c>
+      <c r="AJ16">
+        <v>2.1</v>
+      </c>
+      <c r="AK16">
+        <v>1.44</v>
+      </c>
+      <c r="AL16">
+        <v>1.28</v>
+      </c>
+      <c r="AM16">
+        <v>1.58</v>
+      </c>
+      <c r="AN16">
+        <v>3</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>3</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>1.37</v>
+      </c>
+      <c r="AS16">
+        <v>1.14</v>
+      </c>
+      <c r="AT16">
+        <v>2.51</v>
+      </c>
+      <c r="AU16">
+        <v>5</v>
+      </c>
+      <c r="AV16">
+        <v>4</v>
+      </c>
+      <c r="AW16">
+        <v>2</v>
+      </c>
+      <c r="AX16">
+        <v>4</v>
+      </c>
+      <c r="AY16">
+        <v>7</v>
+      </c>
+      <c r="AZ16">
+        <v>8</v>
+      </c>
+      <c r="BA16">
+        <v>4</v>
+      </c>
+      <c r="BB16">
+        <v>1</v>
+      </c>
+      <c r="BC16">
+        <v>5</v>
+      </c>
+      <c r="BD16">
+        <v>1.69</v>
+      </c>
+      <c r="BE16">
+        <v>7.7</v>
+      </c>
+      <c r="BF16">
+        <v>2.71</v>
+      </c>
+      <c r="BG16">
+        <v>1.21</v>
+      </c>
+      <c r="BH16">
+        <v>3.74</v>
+      </c>
+      <c r="BI16">
+        <v>1.57</v>
+      </c>
+      <c r="BJ16">
+        <v>2.28</v>
+      </c>
+      <c r="BK16">
+        <v>2.1</v>
+      </c>
+      <c r="BL16">
+        <v>1.95</v>
+      </c>
+      <c r="BM16">
+        <v>2.5</v>
+      </c>
+      <c r="BN16">
+        <v>1.48</v>
+      </c>
+      <c r="BO16">
+        <v>2.85</v>
+      </c>
+      <c r="BP16">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7452270</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45508.45833333334</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17" t="s">
+        <v>97</v>
+      </c>
+      <c r="P17" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q17">
+        <v>1.95</v>
+      </c>
+      <c r="R17">
+        <v>2.6</v>
+      </c>
+      <c r="S17">
+        <v>5.5</v>
+      </c>
+      <c r="T17">
+        <v>1.29</v>
+      </c>
+      <c r="U17">
+        <v>3.5</v>
+      </c>
+      <c r="V17">
+        <v>2.25</v>
+      </c>
+      <c r="W17">
+        <v>1.57</v>
+      </c>
+      <c r="X17">
+        <v>5.5</v>
+      </c>
+      <c r="Y17">
+        <v>1.14</v>
+      </c>
+      <c r="Z17">
+        <v>1.51</v>
+      </c>
+      <c r="AA17">
+        <v>4.44</v>
+      </c>
+      <c r="AB17">
+        <v>5.42</v>
+      </c>
+      <c r="AC17">
+        <v>1.03</v>
+      </c>
+      <c r="AD17">
+        <v>18.5</v>
+      </c>
+      <c r="AE17">
+        <v>1.17</v>
+      </c>
+      <c r="AF17">
+        <v>4.95</v>
+      </c>
+      <c r="AG17">
+        <v>1.55</v>
+      </c>
+      <c r="AH17">
+        <v>2.43</v>
+      </c>
+      <c r="AI17">
+        <v>1.67</v>
+      </c>
+      <c r="AJ17">
+        <v>2.1</v>
+      </c>
+      <c r="AK17">
+        <v>1.12</v>
+      </c>
+      <c r="AL17">
+        <v>1.17</v>
+      </c>
+      <c r="AM17">
+        <v>2.65</v>
+      </c>
+      <c r="AN17">
+        <v>3</v>
+      </c>
+      <c r="AO17">
+        <v>3</v>
+      </c>
+      <c r="AP17">
+        <v>2</v>
+      </c>
+      <c r="AQ17">
+        <v>2</v>
+      </c>
+      <c r="AR17">
+        <v>1.41</v>
+      </c>
+      <c r="AS17">
+        <v>1.19</v>
+      </c>
+      <c r="AT17">
+        <v>2.6</v>
+      </c>
+      <c r="AU17">
+        <v>6</v>
+      </c>
+      <c r="AV17">
+        <v>5</v>
+      </c>
+      <c r="AW17">
+        <v>13</v>
+      </c>
+      <c r="AX17">
+        <v>1</v>
+      </c>
+      <c r="AY17">
+        <v>19</v>
+      </c>
+      <c r="AZ17">
+        <v>6</v>
+      </c>
+      <c r="BA17">
+        <v>12</v>
+      </c>
+      <c r="BB17">
+        <v>2</v>
+      </c>
+      <c r="BC17">
+        <v>14</v>
+      </c>
+      <c r="BD17">
+        <v>1.36</v>
+      </c>
+      <c r="BE17">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF17">
+        <v>4.26</v>
+      </c>
+      <c r="BG17">
+        <v>1.12</v>
+      </c>
+      <c r="BH17">
+        <v>5.05</v>
+      </c>
+      <c r="BI17">
+        <v>1.35</v>
+      </c>
+      <c r="BJ17">
+        <v>2.9</v>
+      </c>
+      <c r="BK17">
+        <v>2</v>
+      </c>
+      <c r="BL17">
+        <v>2.3</v>
+      </c>
+      <c r="BM17">
+        <v>1.85</v>
+      </c>
+      <c r="BN17">
+        <v>1.95</v>
+      </c>
+      <c r="BO17">
+        <v>2.35</v>
+      </c>
+      <c r="BP17">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7452271</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45508.54166666666</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18" t="s">
+        <v>87</v>
+      </c>
+      <c r="P18" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q18">
+        <v>4.75</v>
+      </c>
+      <c r="R18">
+        <v>2.3</v>
+      </c>
+      <c r="S18">
+        <v>2.3</v>
+      </c>
+      <c r="T18">
+        <v>1.33</v>
+      </c>
+      <c r="U18">
+        <v>3.25</v>
+      </c>
+      <c r="V18">
+        <v>2.63</v>
+      </c>
+      <c r="W18">
+        <v>1.44</v>
+      </c>
+      <c r="X18">
+        <v>6.5</v>
+      </c>
+      <c r="Y18">
+        <v>1.11</v>
+      </c>
+      <c r="Z18">
+        <v>4.75</v>
+      </c>
+      <c r="AA18">
+        <v>3.8</v>
+      </c>
+      <c r="AB18">
+        <v>1.7</v>
+      </c>
+      <c r="AC18">
+        <v>1.05</v>
+      </c>
+      <c r="AD18">
+        <v>9.5</v>
+      </c>
+      <c r="AE18">
+        <v>1.25</v>
+      </c>
+      <c r="AF18">
+        <v>3.9</v>
+      </c>
+      <c r="AG18">
+        <v>1.7</v>
+      </c>
+      <c r="AH18">
+        <v>2.1</v>
+      </c>
+      <c r="AI18">
+        <v>1.7</v>
+      </c>
+      <c r="AJ18">
+        <v>2.05</v>
+      </c>
+      <c r="AK18">
+        <v>2</v>
+      </c>
+      <c r="AL18">
+        <v>1.22</v>
+      </c>
+      <c r="AM18">
+        <v>1.2</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>1</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>2</v>
+      </c>
+      <c r="AR18">
+        <v>1.15</v>
+      </c>
+      <c r="AS18">
+        <v>2.9</v>
+      </c>
+      <c r="AT18">
+        <v>4.05</v>
+      </c>
+      <c r="AU18">
+        <v>3</v>
+      </c>
+      <c r="AV18">
+        <v>7</v>
+      </c>
+      <c r="AW18">
+        <v>5</v>
+      </c>
+      <c r="AX18">
+        <v>5</v>
+      </c>
+      <c r="AY18">
+        <v>8</v>
+      </c>
+      <c r="AZ18">
+        <v>12</v>
+      </c>
+      <c r="BA18">
+        <v>6</v>
+      </c>
+      <c r="BB18">
+        <v>3</v>
+      </c>
+      <c r="BC18">
+        <v>9</v>
+      </c>
+      <c r="BD18">
+        <v>2.91</v>
+      </c>
+      <c r="BE18">
+        <v>7.7</v>
+      </c>
+      <c r="BF18">
+        <v>1.62</v>
+      </c>
+      <c r="BG18">
+        <v>1.16</v>
+      </c>
+      <c r="BH18">
+        <v>4.35</v>
+      </c>
+      <c r="BI18">
+        <v>1.41</v>
+      </c>
+      <c r="BJ18">
+        <v>2.65</v>
+      </c>
+      <c r="BK18">
+        <v>2.1</v>
+      </c>
+      <c r="BL18">
+        <v>2.05</v>
+      </c>
+      <c r="BM18">
+        <v>2.16</v>
+      </c>
+      <c r="BN18">
+        <v>1.6</v>
+      </c>
+      <c r="BO18">
+        <v>2.85</v>
+      </c>
+      <c r="BP18">
         <v>1.36</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="111">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -344,6 +344,9 @@
   </si>
   <si>
     <t>['6', '17']</t>
+  </si>
+  <si>
+    <t>['62']</t>
   </si>
 </sst>
 </file>
@@ -705,7 +708,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP18"/>
+  <dimension ref="A1:BP19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4419,6 +4422,212 @@
         <v>1.36</v>
       </c>
     </row>
+    <row r="19" spans="1:68">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7452272</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45509.58333333334</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>87</v>
+      </c>
+      <c r="P19" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q19">
+        <v>4.5</v>
+      </c>
+      <c r="R19">
+        <v>2.4</v>
+      </c>
+      <c r="S19">
+        <v>2.2</v>
+      </c>
+      <c r="T19">
+        <v>1.3</v>
+      </c>
+      <c r="U19">
+        <v>3.4</v>
+      </c>
+      <c r="V19">
+        <v>2.5</v>
+      </c>
+      <c r="W19">
+        <v>1.5</v>
+      </c>
+      <c r="X19">
+        <v>6</v>
+      </c>
+      <c r="Y19">
+        <v>1.13</v>
+      </c>
+      <c r="Z19">
+        <v>4.5</v>
+      </c>
+      <c r="AA19">
+        <v>4.1</v>
+      </c>
+      <c r="AB19">
+        <v>1.67</v>
+      </c>
+      <c r="AC19">
+        <v>1.01</v>
+      </c>
+      <c r="AD19">
+        <v>11</v>
+      </c>
+      <c r="AE19">
+        <v>1.17</v>
+      </c>
+      <c r="AF19">
+        <v>4.15</v>
+      </c>
+      <c r="AG19">
+        <v>1.57</v>
+      </c>
+      <c r="AH19">
+        <v>2.35</v>
+      </c>
+      <c r="AI19">
+        <v>1.62</v>
+      </c>
+      <c r="AJ19">
+        <v>2.2</v>
+      </c>
+      <c r="AK19">
+        <v>2.2</v>
+      </c>
+      <c r="AL19">
+        <v>1.22</v>
+      </c>
+      <c r="AM19">
+        <v>1.17</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>3</v>
+      </c>
+      <c r="AR19">
+        <v>1.07</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>1.07</v>
+      </c>
+      <c r="AU19">
+        <v>3</v>
+      </c>
+      <c r="AV19">
+        <v>8</v>
+      </c>
+      <c r="AW19">
+        <v>6</v>
+      </c>
+      <c r="AX19">
+        <v>8</v>
+      </c>
+      <c r="AY19">
+        <v>9</v>
+      </c>
+      <c r="AZ19">
+        <v>16</v>
+      </c>
+      <c r="BA19">
+        <v>4</v>
+      </c>
+      <c r="BB19">
+        <v>5</v>
+      </c>
+      <c r="BC19">
+        <v>9</v>
+      </c>
+      <c r="BD19">
+        <v>3.45</v>
+      </c>
+      <c r="BE19">
+        <v>7.7</v>
+      </c>
+      <c r="BF19">
+        <v>1.49</v>
+      </c>
+      <c r="BG19">
+        <v>1.22</v>
+      </c>
+      <c r="BH19">
+        <v>3.75</v>
+      </c>
+      <c r="BI19">
+        <v>1.41</v>
+      </c>
+      <c r="BJ19">
+        <v>2.65</v>
+      </c>
+      <c r="BK19">
+        <v>2.1</v>
+      </c>
+      <c r="BL19">
+        <v>2.05</v>
+      </c>
+      <c r="BM19">
+        <v>2.05</v>
+      </c>
+      <c r="BN19">
+        <v>1.7</v>
+      </c>
+      <c r="BO19">
+        <v>2.85</v>
+      </c>
+      <c r="BP19">
+        <v>1.36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="112">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>['64']</t>
+  </si>
+  <si>
+    <t>['39', '58']</t>
   </si>
   <si>
     <t>['47']</t>
@@ -708,7 +711,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP19"/>
+  <dimension ref="A1:BP20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -967,7 +970,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1585,7 +1588,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1791,7 +1794,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -1997,7 +2000,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2203,7 +2206,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2409,7 +2412,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2615,7 +2618,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -2821,7 +2824,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3027,7 +3030,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3233,7 +3236,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q13">
         <v>1.83</v>
@@ -4057,7 +4060,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4263,7 +4266,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4469,7 +4472,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -4626,6 +4629,212 @@
       </c>
       <c r="BP19">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7452273</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45513.58333333334</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20" t="s">
+        <v>98</v>
+      </c>
+      <c r="P20" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q20">
+        <v>2.05</v>
+      </c>
+      <c r="R20">
+        <v>2.5</v>
+      </c>
+      <c r="S20">
+        <v>5.5</v>
+      </c>
+      <c r="T20">
+        <v>1.24</v>
+      </c>
+      <c r="U20">
+        <v>3.85</v>
+      </c>
+      <c r="V20">
+        <v>2.28</v>
+      </c>
+      <c r="W20">
+        <v>1.57</v>
+      </c>
+      <c r="X20">
+        <v>5.4</v>
+      </c>
+      <c r="Y20">
+        <v>1.13</v>
+      </c>
+      <c r="Z20">
+        <v>1.53</v>
+      </c>
+      <c r="AA20">
+        <v>4.2</v>
+      </c>
+      <c r="AB20">
+        <v>5.75</v>
+      </c>
+      <c r="AC20">
+        <v>1.02</v>
+      </c>
+      <c r="AD20">
+        <v>12</v>
+      </c>
+      <c r="AE20">
+        <v>1.15</v>
+      </c>
+      <c r="AF20">
+        <v>4.6</v>
+      </c>
+      <c r="AG20">
+        <v>1.57</v>
+      </c>
+      <c r="AH20">
+        <v>2.35</v>
+      </c>
+      <c r="AI20">
+        <v>1.67</v>
+      </c>
+      <c r="AJ20">
+        <v>2.1</v>
+      </c>
+      <c r="AK20">
+        <v>1.1</v>
+      </c>
+      <c r="AL20">
+        <v>1.18</v>
+      </c>
+      <c r="AM20">
+        <v>2.8</v>
+      </c>
+      <c r="AN20">
+        <v>3</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>3</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>1.75</v>
+      </c>
+      <c r="AS20">
+        <v>1.4</v>
+      </c>
+      <c r="AT20">
+        <v>3.15</v>
+      </c>
+      <c r="AU20">
+        <v>6</v>
+      </c>
+      <c r="AV20">
+        <v>4</v>
+      </c>
+      <c r="AW20">
+        <v>10</v>
+      </c>
+      <c r="AX20">
+        <v>6</v>
+      </c>
+      <c r="AY20">
+        <v>16</v>
+      </c>
+      <c r="AZ20">
+        <v>10</v>
+      </c>
+      <c r="BA20">
+        <v>14</v>
+      </c>
+      <c r="BB20">
+        <v>4</v>
+      </c>
+      <c r="BC20">
+        <v>18</v>
+      </c>
+      <c r="BD20">
+        <v>1.3</v>
+      </c>
+      <c r="BE20">
+        <v>9</v>
+      </c>
+      <c r="BF20">
+        <v>4.76</v>
+      </c>
+      <c r="BG20">
+        <v>1.17</v>
+      </c>
+      <c r="BH20">
+        <v>4.25</v>
+      </c>
+      <c r="BI20">
+        <v>1.34</v>
+      </c>
+      <c r="BJ20">
+        <v>2.88</v>
+      </c>
+      <c r="BK20">
+        <v>2.1</v>
+      </c>
+      <c r="BL20">
+        <v>2</v>
+      </c>
+      <c r="BM20">
+        <v>2.05</v>
+      </c>
+      <c r="BN20">
+        <v>1.72</v>
+      </c>
+      <c r="BO20">
+        <v>2.65</v>
+      </c>
+      <c r="BP20">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="117">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -313,6 +313,9 @@
     <t>['39', '58']</t>
   </si>
   <si>
+    <t>['15']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -350,6 +353,18 @@
   </si>
   <si>
     <t>['62']</t>
+  </si>
+  <si>
+    <t>['52', '66']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['17', '86']</t>
   </si>
 </sst>
 </file>
@@ -711,7 +726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP20"/>
+  <dimension ref="A1:BP24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -970,7 +985,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1254,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -1588,7 +1603,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1794,7 +1809,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2000,7 +2015,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2206,7 +2221,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2284,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -2412,7 +2427,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2490,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2618,7 +2633,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -2696,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -2824,7 +2839,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -2905,7 +2920,7 @@
         <v>3</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3030,7 +3045,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3111,7 +3126,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3236,7 +3251,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q13">
         <v>1.83</v>
@@ -3314,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>0</v>
@@ -4060,7 +4075,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4266,7 +4281,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4472,7 +4487,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -4835,6 +4850,830 @@
       </c>
       <c r="BP20">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7452274</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45515.375</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21" t="s">
+        <v>87</v>
+      </c>
+      <c r="P21" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q21">
+        <v>2.5</v>
+      </c>
+      <c r="R21">
+        <v>2.2</v>
+      </c>
+      <c r="S21">
+        <v>4.33</v>
+      </c>
+      <c r="T21">
+        <v>1.33</v>
+      </c>
+      <c r="U21">
+        <v>3</v>
+      </c>
+      <c r="V21">
+        <v>2.45</v>
+      </c>
+      <c r="W21">
+        <v>1.48</v>
+      </c>
+      <c r="X21">
+        <v>6.2</v>
+      </c>
+      <c r="Y21">
+        <v>1.1</v>
+      </c>
+      <c r="Z21">
+        <v>1.9</v>
+      </c>
+      <c r="AA21">
+        <v>3.4</v>
+      </c>
+      <c r="AB21">
+        <v>4.1</v>
+      </c>
+      <c r="AC21">
+        <v>1.05</v>
+      </c>
+      <c r="AD21">
+        <v>9.5</v>
+      </c>
+      <c r="AE21">
+        <v>1.25</v>
+      </c>
+      <c r="AF21">
+        <v>3.95</v>
+      </c>
+      <c r="AG21">
+        <v>1.95</v>
+      </c>
+      <c r="AH21">
+        <v>1.85</v>
+      </c>
+      <c r="AI21">
+        <v>1.75</v>
+      </c>
+      <c r="AJ21">
+        <v>2</v>
+      </c>
+      <c r="AK21">
+        <v>1.28</v>
+      </c>
+      <c r="AL21">
+        <v>1.22</v>
+      </c>
+      <c r="AM21">
+        <v>1.8</v>
+      </c>
+      <c r="AN21">
+        <v>3</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>1.5</v>
+      </c>
+      <c r="AQ21">
+        <v>1.5</v>
+      </c>
+      <c r="AR21">
+        <v>1.14</v>
+      </c>
+      <c r="AS21">
+        <v>1.79</v>
+      </c>
+      <c r="AT21">
+        <v>2.93</v>
+      </c>
+      <c r="AU21">
+        <v>5</v>
+      </c>
+      <c r="AV21">
+        <v>4</v>
+      </c>
+      <c r="AW21">
+        <v>4</v>
+      </c>
+      <c r="AX21">
+        <v>3</v>
+      </c>
+      <c r="AY21">
+        <v>9</v>
+      </c>
+      <c r="AZ21">
+        <v>7</v>
+      </c>
+      <c r="BA21">
+        <v>12</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>12</v>
+      </c>
+      <c r="BD21">
+        <v>1.64</v>
+      </c>
+      <c r="BE21">
+        <v>7.6</v>
+      </c>
+      <c r="BF21">
+        <v>2.86</v>
+      </c>
+      <c r="BG21">
+        <v>1.24</v>
+      </c>
+      <c r="BH21">
+        <v>3.55</v>
+      </c>
+      <c r="BI21">
+        <v>1.49</v>
+      </c>
+      <c r="BJ21">
+        <v>2.45</v>
+      </c>
+      <c r="BK21">
+        <v>2.25</v>
+      </c>
+      <c r="BL21">
+        <v>1.98</v>
+      </c>
+      <c r="BM21">
+        <v>2.25</v>
+      </c>
+      <c r="BN21">
+        <v>1.59</v>
+      </c>
+      <c r="BO21">
+        <v>3</v>
+      </c>
+      <c r="BP21">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7452275</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45515.375</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22" t="s">
+        <v>99</v>
+      </c>
+      <c r="P22" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q22">
+        <v>1.73</v>
+      </c>
+      <c r="R22">
+        <v>2.75</v>
+      </c>
+      <c r="S22">
+        <v>7</v>
+      </c>
+      <c r="T22">
+        <v>1.25</v>
+      </c>
+      <c r="U22">
+        <v>3.55</v>
+      </c>
+      <c r="V22">
+        <v>2.15</v>
+      </c>
+      <c r="W22">
+        <v>1.62</v>
+      </c>
+      <c r="X22">
+        <v>4.4</v>
+      </c>
+      <c r="Y22">
+        <v>1.17</v>
+      </c>
+      <c r="Z22">
+        <v>1.33</v>
+      </c>
+      <c r="AA22">
+        <v>5</v>
+      </c>
+      <c r="AB22">
+        <v>9</v>
+      </c>
+      <c r="AC22">
+        <v>1.02</v>
+      </c>
+      <c r="AD22">
+        <v>20</v>
+      </c>
+      <c r="AE22">
+        <v>1.17</v>
+      </c>
+      <c r="AF22">
+        <v>5</v>
+      </c>
+      <c r="AG22">
+        <v>1.48</v>
+      </c>
+      <c r="AH22">
+        <v>2.6</v>
+      </c>
+      <c r="AI22">
+        <v>1.75</v>
+      </c>
+      <c r="AJ22">
+        <v>2</v>
+      </c>
+      <c r="AK22">
+        <v>1.07</v>
+      </c>
+      <c r="AL22">
+        <v>1.12</v>
+      </c>
+      <c r="AM22">
+        <v>3.1</v>
+      </c>
+      <c r="AN22">
+        <v>2</v>
+      </c>
+      <c r="AO22">
+        <v>1</v>
+      </c>
+      <c r="AP22">
+        <v>1.67</v>
+      </c>
+      <c r="AQ22">
+        <v>1</v>
+      </c>
+      <c r="AR22">
+        <v>1.44</v>
+      </c>
+      <c r="AS22">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT22">
+        <v>2.25</v>
+      </c>
+      <c r="AU22">
+        <v>12</v>
+      </c>
+      <c r="AV22">
+        <v>4</v>
+      </c>
+      <c r="AW22">
+        <v>7</v>
+      </c>
+      <c r="AX22">
+        <v>2</v>
+      </c>
+      <c r="AY22">
+        <v>19</v>
+      </c>
+      <c r="AZ22">
+        <v>6</v>
+      </c>
+      <c r="BA22">
+        <v>12</v>
+      </c>
+      <c r="BB22">
+        <v>3</v>
+      </c>
+      <c r="BC22">
+        <v>15</v>
+      </c>
+      <c r="BD22">
+        <v>1.28</v>
+      </c>
+      <c r="BE22">
+        <v>10.5</v>
+      </c>
+      <c r="BF22">
+        <v>4.66</v>
+      </c>
+      <c r="BG22">
+        <v>1.13</v>
+      </c>
+      <c r="BH22">
+        <v>4.75</v>
+      </c>
+      <c r="BI22">
+        <v>1.28</v>
+      </c>
+      <c r="BJ22">
+        <v>3.2</v>
+      </c>
+      <c r="BK22">
+        <v>1.91</v>
+      </c>
+      <c r="BL22">
+        <v>2.34</v>
+      </c>
+      <c r="BM22">
+        <v>1.98</v>
+      </c>
+      <c r="BN22">
+        <v>1.82</v>
+      </c>
+      <c r="BO22">
+        <v>2.41</v>
+      </c>
+      <c r="BP22">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7452276</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45515.45833333334</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>87</v>
+      </c>
+      <c r="P23" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q23">
+        <v>2.88</v>
+      </c>
+      <c r="R23">
+        <v>2.2</v>
+      </c>
+      <c r="S23">
+        <v>3.75</v>
+      </c>
+      <c r="T23">
+        <v>1.33</v>
+      </c>
+      <c r="U23">
+        <v>3</v>
+      </c>
+      <c r="V23">
+        <v>2.6</v>
+      </c>
+      <c r="W23">
+        <v>1.44</v>
+      </c>
+      <c r="X23">
+        <v>6.35</v>
+      </c>
+      <c r="Y23">
+        <v>1.1</v>
+      </c>
+      <c r="Z23">
+        <v>2.15</v>
+      </c>
+      <c r="AA23">
+        <v>3.6</v>
+      </c>
+      <c r="AB23">
+        <v>3.1</v>
+      </c>
+      <c r="AC23">
+        <v>1.01</v>
+      </c>
+      <c r="AD23">
+        <v>10</v>
+      </c>
+      <c r="AE23">
+        <v>1.22</v>
+      </c>
+      <c r="AF23">
+        <v>3.66</v>
+      </c>
+      <c r="AG23">
+        <v>1.95</v>
+      </c>
+      <c r="AH23">
+        <v>1.85</v>
+      </c>
+      <c r="AI23">
+        <v>1.75</v>
+      </c>
+      <c r="AJ23">
+        <v>2</v>
+      </c>
+      <c r="AK23">
+        <v>1.36</v>
+      </c>
+      <c r="AL23">
+        <v>1.22</v>
+      </c>
+      <c r="AM23">
+        <v>1.67</v>
+      </c>
+      <c r="AN23">
+        <v>3</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>1.5</v>
+      </c>
+      <c r="AQ23">
+        <v>1.5</v>
+      </c>
+      <c r="AR23">
+        <v>1.53</v>
+      </c>
+      <c r="AS23">
+        <v>0.91</v>
+      </c>
+      <c r="AT23">
+        <v>2.44</v>
+      </c>
+      <c r="AU23">
+        <v>5</v>
+      </c>
+      <c r="AV23">
+        <v>4</v>
+      </c>
+      <c r="AW23">
+        <v>11</v>
+      </c>
+      <c r="AX23">
+        <v>2</v>
+      </c>
+      <c r="AY23">
+        <v>16</v>
+      </c>
+      <c r="AZ23">
+        <v>6</v>
+      </c>
+      <c r="BA23">
+        <v>6</v>
+      </c>
+      <c r="BB23">
+        <v>6</v>
+      </c>
+      <c r="BC23">
+        <v>12</v>
+      </c>
+      <c r="BD23">
+        <v>1.92</v>
+      </c>
+      <c r="BE23">
+        <v>7.2</v>
+      </c>
+      <c r="BF23">
+        <v>2.28</v>
+      </c>
+      <c r="BG23">
+        <v>1.26</v>
+      </c>
+      <c r="BH23">
+        <v>3.4</v>
+      </c>
+      <c r="BI23">
+        <v>1.49</v>
+      </c>
+      <c r="BJ23">
+        <v>2.45</v>
+      </c>
+      <c r="BK23">
+        <v>2.38</v>
+      </c>
+      <c r="BL23">
+        <v>1.92</v>
+      </c>
+      <c r="BM23">
+        <v>2.25</v>
+      </c>
+      <c r="BN23">
+        <v>1.59</v>
+      </c>
+      <c r="BO23">
+        <v>3.15</v>
+      </c>
+      <c r="BP23">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7452277</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45515.54166666666</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24" t="s">
+        <v>87</v>
+      </c>
+      <c r="P24" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q24">
+        <v>5</v>
+      </c>
+      <c r="R24">
+        <v>2.38</v>
+      </c>
+      <c r="S24">
+        <v>2.2</v>
+      </c>
+      <c r="T24">
+        <v>1.3</v>
+      </c>
+      <c r="U24">
+        <v>3.2</v>
+      </c>
+      <c r="V24">
+        <v>2.45</v>
+      </c>
+      <c r="W24">
+        <v>1.48</v>
+      </c>
+      <c r="X24">
+        <v>5.5</v>
+      </c>
+      <c r="Y24">
+        <v>1.11</v>
+      </c>
+      <c r="Z24">
+        <v>5</v>
+      </c>
+      <c r="AA24">
+        <v>4.2</v>
+      </c>
+      <c r="AB24">
+        <v>1.62</v>
+      </c>
+      <c r="AC24">
+        <v>1.03</v>
+      </c>
+      <c r="AD24">
+        <v>11</v>
+      </c>
+      <c r="AE24">
+        <v>1.2</v>
+      </c>
+      <c r="AF24">
+        <v>4.33</v>
+      </c>
+      <c r="AG24">
+        <v>1.67</v>
+      </c>
+      <c r="AH24">
+        <v>2.15</v>
+      </c>
+      <c r="AI24">
+        <v>1.7</v>
+      </c>
+      <c r="AJ24">
+        <v>2.05</v>
+      </c>
+      <c r="AK24">
+        <v>2.25</v>
+      </c>
+      <c r="AL24">
+        <v>1.18</v>
+      </c>
+      <c r="AM24">
+        <v>1.17</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
+        <v>3</v>
+      </c>
+      <c r="AP24">
+        <v>0.5</v>
+      </c>
+      <c r="AQ24">
+        <v>3</v>
+      </c>
+      <c r="AR24">
+        <v>1.85</v>
+      </c>
+      <c r="AS24">
+        <v>1.36</v>
+      </c>
+      <c r="AT24">
+        <v>3.21</v>
+      </c>
+      <c r="AU24">
+        <v>3</v>
+      </c>
+      <c r="AV24">
+        <v>6</v>
+      </c>
+      <c r="AW24">
+        <v>1</v>
+      </c>
+      <c r="AX24">
+        <v>8</v>
+      </c>
+      <c r="AY24">
+        <v>4</v>
+      </c>
+      <c r="AZ24">
+        <v>14</v>
+      </c>
+      <c r="BA24">
+        <v>5</v>
+      </c>
+      <c r="BB24">
+        <v>3</v>
+      </c>
+      <c r="BC24">
+        <v>8</v>
+      </c>
+      <c r="BD24">
+        <v>2.91</v>
+      </c>
+      <c r="BE24">
+        <v>7.7</v>
+      </c>
+      <c r="BF24">
+        <v>1.62</v>
+      </c>
+      <c r="BG24">
+        <v>1.22</v>
+      </c>
+      <c r="BH24">
+        <v>3.7</v>
+      </c>
+      <c r="BI24">
+        <v>1.42</v>
+      </c>
+      <c r="BJ24">
+        <v>2.6</v>
+      </c>
+      <c r="BK24">
+        <v>1.83</v>
+      </c>
+      <c r="BL24">
+        <v>2</v>
+      </c>
+      <c r="BM24">
+        <v>1.95</v>
+      </c>
+      <c r="BN24">
+        <v>1.78</v>
+      </c>
+      <c r="BO24">
+        <v>2.85</v>
+      </c>
+      <c r="BP24">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="119">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -316,6 +316,9 @@
     <t>['15']</t>
   </si>
   <si>
+    <t>['14', '45+8']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -365,6 +368,9 @@
   </si>
   <si>
     <t>['17', '86']</t>
+  </si>
+  <si>
+    <t>['35', '39', '56']</t>
   </si>
 </sst>
 </file>
@@ -726,7 +732,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP24"/>
+  <dimension ref="A1:BP25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -985,7 +991,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1272,7 +1278,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1603,7 +1609,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1809,7 +1815,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -1887,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ6">
         <v>2</v>
@@ -2015,7 +2021,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2221,7 +2227,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2427,7 +2433,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2633,7 +2639,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -2839,7 +2845,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3045,7 +3051,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3251,7 +3257,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q13">
         <v>1.83</v>
@@ -3744,7 +3750,7 @@
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4075,7 +4081,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4281,7 +4287,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4487,7 +4493,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -4899,7 +4905,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5105,7 +5111,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q22">
         <v>1.73</v>
@@ -5311,7 +5317,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5517,7 +5523,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5674,6 +5680,212 @@
       </c>
       <c r="BP24">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7452278</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45516.58333333334</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>5</v>
+      </c>
+      <c r="O25" t="s">
+        <v>100</v>
+      </c>
+      <c r="P25" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q25">
+        <v>2.5</v>
+      </c>
+      <c r="R25">
+        <v>2.38</v>
+      </c>
+      <c r="S25">
+        <v>4</v>
+      </c>
+      <c r="T25">
+        <v>1.3</v>
+      </c>
+      <c r="U25">
+        <v>3.4</v>
+      </c>
+      <c r="V25">
+        <v>2.5</v>
+      </c>
+      <c r="W25">
+        <v>1.5</v>
+      </c>
+      <c r="X25">
+        <v>6</v>
+      </c>
+      <c r="Y25">
+        <v>1.13</v>
+      </c>
+      <c r="Z25">
+        <v>1.9</v>
+      </c>
+      <c r="AA25">
+        <v>3.6</v>
+      </c>
+      <c r="AB25">
+        <v>3.9</v>
+      </c>
+      <c r="AC25">
+        <v>1.03</v>
+      </c>
+      <c r="AD25">
+        <v>16.25</v>
+      </c>
+      <c r="AE25">
+        <v>1.19</v>
+      </c>
+      <c r="AF25">
+        <v>4.7</v>
+      </c>
+      <c r="AG25">
+        <v>1.6</v>
+      </c>
+      <c r="AH25">
+        <v>2.3</v>
+      </c>
+      <c r="AI25">
+        <v>1.53</v>
+      </c>
+      <c r="AJ25">
+        <v>2.38</v>
+      </c>
+      <c r="AK25">
+        <v>1.28</v>
+      </c>
+      <c r="AL25">
+        <v>1.25</v>
+      </c>
+      <c r="AM25">
+        <v>1.8</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0.5</v>
+      </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
+      <c r="AR25">
+        <v>0.91</v>
+      </c>
+      <c r="AS25">
+        <v>1.44</v>
+      </c>
+      <c r="AT25">
+        <v>2.35</v>
+      </c>
+      <c r="AU25">
+        <v>10</v>
+      </c>
+      <c r="AV25">
+        <v>6</v>
+      </c>
+      <c r="AW25">
+        <v>5</v>
+      </c>
+      <c r="AX25">
+        <v>4</v>
+      </c>
+      <c r="AY25">
+        <v>15</v>
+      </c>
+      <c r="AZ25">
+        <v>10</v>
+      </c>
+      <c r="BA25">
+        <v>12</v>
+      </c>
+      <c r="BB25">
+        <v>3</v>
+      </c>
+      <c r="BC25">
+        <v>15</v>
+      </c>
+      <c r="BD25">
+        <v>1.82</v>
+      </c>
+      <c r="BE25">
+        <v>7.9</v>
+      </c>
+      <c r="BF25">
+        <v>2.42</v>
+      </c>
+      <c r="BG25">
+        <v>1.18</v>
+      </c>
+      <c r="BH25">
+        <v>4.2</v>
+      </c>
+      <c r="BI25">
+        <v>1.32</v>
+      </c>
+      <c r="BJ25">
+        <v>3.1</v>
+      </c>
+      <c r="BK25">
+        <v>1.91</v>
+      </c>
+      <c r="BL25">
+        <v>2.45</v>
+      </c>
+      <c r="BM25">
+        <v>1.95</v>
+      </c>
+      <c r="BN25">
+        <v>1.77</v>
+      </c>
+      <c r="BO25">
+        <v>2.25</v>
+      </c>
+      <c r="BP25">
+        <v>1.59</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="121">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -319,6 +319,9 @@
     <t>['14', '45+8']</t>
   </si>
   <si>
+    <t>['74']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -371,6 +374,9 @@
   </si>
   <si>
     <t>['35', '39', '56']</t>
+  </si>
+  <si>
+    <t>['65', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -732,7 +738,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP25"/>
+  <dimension ref="A1:BP26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -991,7 +997,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1072,7 +1078,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1609,7 +1615,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1815,7 +1821,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2021,7 +2027,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2227,7 +2233,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2433,7 +2439,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2514,7 +2520,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR9">
         <v>1.96</v>
@@ -2639,7 +2645,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -2845,7 +2851,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3051,7 +3057,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3257,7 +3263,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q13">
         <v>1.83</v>
@@ -4081,7 +4087,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4287,7 +4293,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4493,7 +4499,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -4905,7 +4911,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5111,7 +5117,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q22">
         <v>1.73</v>
@@ -5317,7 +5323,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5523,7 +5529,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5729,7 +5735,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -5886,6 +5892,212 @@
       </c>
       <c r="BP25">
         <v>1.59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7452279</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45520.58333333334</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26" t="s">
+        <v>101</v>
+      </c>
+      <c r="P26" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q26">
+        <v>4.5</v>
+      </c>
+      <c r="R26">
+        <v>2.3</v>
+      </c>
+      <c r="S26">
+        <v>2.3</v>
+      </c>
+      <c r="T26">
+        <v>1.32</v>
+      </c>
+      <c r="U26">
+        <v>3.22</v>
+      </c>
+      <c r="V26">
+        <v>2.56</v>
+      </c>
+      <c r="W26">
+        <v>1.5</v>
+      </c>
+      <c r="X26">
+        <v>5.95</v>
+      </c>
+      <c r="Y26">
+        <v>1.11</v>
+      </c>
+      <c r="Z26">
+        <v>4.5</v>
+      </c>
+      <c r="AA26">
+        <v>3.7</v>
+      </c>
+      <c r="AB26">
+        <v>1.75</v>
+      </c>
+      <c r="AC26">
+        <v>1.04</v>
+      </c>
+      <c r="AD26">
+        <v>14</v>
+      </c>
+      <c r="AE26">
+        <v>1.19</v>
+      </c>
+      <c r="AF26">
+        <v>3.92</v>
+      </c>
+      <c r="AG26">
+        <v>1.73</v>
+      </c>
+      <c r="AH26">
+        <v>2.08</v>
+      </c>
+      <c r="AI26">
+        <v>1.7</v>
+      </c>
+      <c r="AJ26">
+        <v>2.05</v>
+      </c>
+      <c r="AK26">
+        <v>2.09</v>
+      </c>
+      <c r="AL26">
+        <v>1.25</v>
+      </c>
+      <c r="AM26">
+        <v>1.21</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>1</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>1.67</v>
+      </c>
+      <c r="AR26">
+        <v>1.11</v>
+      </c>
+      <c r="AS26">
+        <v>1.11</v>
+      </c>
+      <c r="AT26">
+        <v>2.22</v>
+      </c>
+      <c r="AU26">
+        <v>3</v>
+      </c>
+      <c r="AV26">
+        <v>7</v>
+      </c>
+      <c r="AW26">
+        <v>5</v>
+      </c>
+      <c r="AX26">
+        <v>10</v>
+      </c>
+      <c r="AY26">
+        <v>8</v>
+      </c>
+      <c r="AZ26">
+        <v>17</v>
+      </c>
+      <c r="BA26">
+        <v>4</v>
+      </c>
+      <c r="BB26">
+        <v>6</v>
+      </c>
+      <c r="BC26">
+        <v>10</v>
+      </c>
+      <c r="BD26">
+        <v>3</v>
+      </c>
+      <c r="BE26">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF26">
+        <v>1.57</v>
+      </c>
+      <c r="BG26">
+        <v>1.27</v>
+      </c>
+      <c r="BH26">
+        <v>3.35</v>
+      </c>
+      <c r="BI26">
+        <v>1.4</v>
+      </c>
+      <c r="BJ26">
+        <v>2.75</v>
+      </c>
+      <c r="BK26">
+        <v>2.38</v>
+      </c>
+      <c r="BL26">
+        <v>1.92</v>
+      </c>
+      <c r="BM26">
+        <v>2.15</v>
+      </c>
+      <c r="BN26">
+        <v>1.62</v>
+      </c>
+      <c r="BO26">
+        <v>2.85</v>
+      </c>
+      <c r="BP26">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="127">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -322,6 +322,12 @@
     <t>['74']</t>
   </si>
   <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['33', '35', '71', '74']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -377,6 +383,18 @@
   </si>
   <si>
     <t>['65', '90+6']</t>
+  </si>
+  <si>
+    <t>['28', '48']</t>
+  </si>
+  <si>
+    <t>['31']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['33', '36', '56', '90']</t>
   </si>
 </sst>
 </file>
@@ -738,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP26"/>
+  <dimension ref="A1:BP30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -997,7 +1015,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1490,7 +1508,7 @@
         <v>3</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1615,7 +1633,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1821,7 +1839,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -1902,7 +1920,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2027,7 +2045,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2233,7 +2251,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2439,7 +2457,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2645,7 +2663,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -2723,10 +2741,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2851,7 +2869,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -2929,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>1.5</v>
@@ -3057,7 +3075,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3135,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ12">
         <v>1.5</v>
@@ -3263,7 +3281,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q13">
         <v>1.83</v>
@@ -3550,7 +3568,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>1.77</v>
@@ -3962,7 +3980,7 @@
         <v>3</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR16">
         <v>1.37</v>
@@ -4087,7 +4105,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4165,7 +4183,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ17">
         <v>2</v>
@@ -4293,7 +4311,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4374,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR18">
         <v>1.15</v>
@@ -4499,7 +4517,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -4580,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="AQ19">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR19">
         <v>1.07</v>
@@ -4911,7 +4929,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -4989,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>1.5</v>
@@ -5117,7 +5135,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q22">
         <v>1.73</v>
@@ -5323,7 +5341,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5529,7 +5547,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5735,7 +5753,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -5941,7 +5959,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6098,6 +6116,830 @@
       </c>
       <c r="BP26">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7452280</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45522.375</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27" t="s">
+        <v>102</v>
+      </c>
+      <c r="P27" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q27">
+        <v>2.25</v>
+      </c>
+      <c r="R27">
+        <v>2.3</v>
+      </c>
+      <c r="S27">
+        <v>4.75</v>
+      </c>
+      <c r="T27">
+        <v>1.36</v>
+      </c>
+      <c r="U27">
+        <v>3</v>
+      </c>
+      <c r="V27">
+        <v>2.63</v>
+      </c>
+      <c r="W27">
+        <v>1.44</v>
+      </c>
+      <c r="X27">
+        <v>7</v>
+      </c>
+      <c r="Y27">
+        <v>1.1</v>
+      </c>
+      <c r="Z27">
+        <v>1.7</v>
+      </c>
+      <c r="AA27">
+        <v>3.8</v>
+      </c>
+      <c r="AB27">
+        <v>4.75</v>
+      </c>
+      <c r="AC27">
+        <v>1.03</v>
+      </c>
+      <c r="AD27">
+        <v>12.5</v>
+      </c>
+      <c r="AE27">
+        <v>1.27</v>
+      </c>
+      <c r="AF27">
+        <v>3.7</v>
+      </c>
+      <c r="AG27">
+        <v>1.73</v>
+      </c>
+      <c r="AH27">
+        <v>2.08</v>
+      </c>
+      <c r="AI27">
+        <v>1.7</v>
+      </c>
+      <c r="AJ27">
+        <v>2.05</v>
+      </c>
+      <c r="AK27">
+        <v>1.18</v>
+      </c>
+      <c r="AL27">
+        <v>1.22</v>
+      </c>
+      <c r="AM27">
+        <v>2.2</v>
+      </c>
+      <c r="AN27">
+        <v>1.5</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>1</v>
+      </c>
+      <c r="AQ27">
+        <v>1</v>
+      </c>
+      <c r="AR27">
+        <v>1.35</v>
+      </c>
+      <c r="AS27">
+        <v>1.03</v>
+      </c>
+      <c r="AT27">
+        <v>2.38</v>
+      </c>
+      <c r="AU27">
+        <v>8</v>
+      </c>
+      <c r="AV27">
+        <v>6</v>
+      </c>
+      <c r="AW27">
+        <v>5</v>
+      </c>
+      <c r="AX27">
+        <v>6</v>
+      </c>
+      <c r="AY27">
+        <v>13</v>
+      </c>
+      <c r="AZ27">
+        <v>12</v>
+      </c>
+      <c r="BA27">
+        <v>7</v>
+      </c>
+      <c r="BB27">
+        <v>3</v>
+      </c>
+      <c r="BC27">
+        <v>10</v>
+      </c>
+      <c r="BD27">
+        <v>1.5</v>
+      </c>
+      <c r="BE27">
+        <v>8</v>
+      </c>
+      <c r="BF27">
+        <v>3.34</v>
+      </c>
+      <c r="BG27">
+        <v>1.2</v>
+      </c>
+      <c r="BH27">
+        <v>3.95</v>
+      </c>
+      <c r="BI27">
+        <v>1.38</v>
+      </c>
+      <c r="BJ27">
+        <v>2.75</v>
+      </c>
+      <c r="BK27">
+        <v>2.1</v>
+      </c>
+      <c r="BL27">
+        <v>2.05</v>
+      </c>
+      <c r="BM27">
+        <v>1.8</v>
+      </c>
+      <c r="BN27">
+        <v>1.92</v>
+      </c>
+      <c r="BO27">
+        <v>2.25</v>
+      </c>
+      <c r="BP27">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7452281</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45522.375</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>4</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>5</v>
+      </c>
+      <c r="O28" t="s">
+        <v>103</v>
+      </c>
+      <c r="P28" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q28">
+        <v>3.75</v>
+      </c>
+      <c r="R28">
+        <v>2.3</v>
+      </c>
+      <c r="S28">
+        <v>2.6</v>
+      </c>
+      <c r="T28">
+        <v>1.33</v>
+      </c>
+      <c r="U28">
+        <v>3.25</v>
+      </c>
+      <c r="V28">
+        <v>2.5</v>
+      </c>
+      <c r="W28">
+        <v>1.5</v>
+      </c>
+      <c r="X28">
+        <v>6</v>
+      </c>
+      <c r="Y28">
+        <v>1.13</v>
+      </c>
+      <c r="Z28">
+        <v>3.5</v>
+      </c>
+      <c r="AA28">
+        <v>3.7</v>
+      </c>
+      <c r="AB28">
+        <v>2</v>
+      </c>
+      <c r="AC28">
+        <v>1.02</v>
+      </c>
+      <c r="AD28">
+        <v>14.5</v>
+      </c>
+      <c r="AE28">
+        <v>1.22</v>
+      </c>
+      <c r="AF28">
+        <v>4.3</v>
+      </c>
+      <c r="AG28">
+        <v>1.67</v>
+      </c>
+      <c r="AH28">
+        <v>2.15</v>
+      </c>
+      <c r="AI28">
+        <v>1.62</v>
+      </c>
+      <c r="AJ28">
+        <v>2.2</v>
+      </c>
+      <c r="AK28">
+        <v>1.83</v>
+      </c>
+      <c r="AL28">
+        <v>1.22</v>
+      </c>
+      <c r="AM28">
+        <v>1.33</v>
+      </c>
+      <c r="AN28">
+        <v>3</v>
+      </c>
+      <c r="AO28">
+        <v>3</v>
+      </c>
+      <c r="AP28">
+        <v>3</v>
+      </c>
+      <c r="AQ28">
+        <v>1.5</v>
+      </c>
+      <c r="AR28">
+        <v>1.19</v>
+      </c>
+      <c r="AS28">
+        <v>1.96</v>
+      </c>
+      <c r="AT28">
+        <v>3.15</v>
+      </c>
+      <c r="AU28">
+        <v>7</v>
+      </c>
+      <c r="AV28">
+        <v>4</v>
+      </c>
+      <c r="AW28">
+        <v>4</v>
+      </c>
+      <c r="AX28">
+        <v>7</v>
+      </c>
+      <c r="AY28">
+        <v>11</v>
+      </c>
+      <c r="AZ28">
+        <v>11</v>
+      </c>
+      <c r="BA28">
+        <v>3</v>
+      </c>
+      <c r="BB28">
+        <v>3</v>
+      </c>
+      <c r="BC28">
+        <v>6</v>
+      </c>
+      <c r="BD28">
+        <v>2.81</v>
+      </c>
+      <c r="BE28">
+        <v>7.8</v>
+      </c>
+      <c r="BF28">
+        <v>1.65</v>
+      </c>
+      <c r="BG28">
+        <v>1.22</v>
+      </c>
+      <c r="BH28">
+        <v>3.75</v>
+      </c>
+      <c r="BI28">
+        <v>1.49</v>
+      </c>
+      <c r="BJ28">
+        <v>2.45</v>
+      </c>
+      <c r="BK28">
+        <v>2.2</v>
+      </c>
+      <c r="BL28">
+        <v>2</v>
+      </c>
+      <c r="BM28">
+        <v>2.25</v>
+      </c>
+      <c r="BN28">
+        <v>1.59</v>
+      </c>
+      <c r="BO28">
+        <v>2.88</v>
+      </c>
+      <c r="BP28">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7452282</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45522.45833333334</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29" t="s">
+        <v>84</v>
+      </c>
+      <c r="P29" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q29">
+        <v>2</v>
+      </c>
+      <c r="R29">
+        <v>2.6</v>
+      </c>
+      <c r="S29">
+        <v>5.5</v>
+      </c>
+      <c r="T29">
+        <v>1.25</v>
+      </c>
+      <c r="U29">
+        <v>3.75</v>
+      </c>
+      <c r="V29">
+        <v>2.2</v>
+      </c>
+      <c r="W29">
+        <v>1.62</v>
+      </c>
+      <c r="X29">
+        <v>5</v>
+      </c>
+      <c r="Y29">
+        <v>1.17</v>
+      </c>
+      <c r="Z29">
+        <v>1.5</v>
+      </c>
+      <c r="AA29">
+        <v>4.33</v>
+      </c>
+      <c r="AB29">
+        <v>6.25</v>
+      </c>
+      <c r="AC29">
+        <v>1.01</v>
+      </c>
+      <c r="AD29">
+        <v>20</v>
+      </c>
+      <c r="AE29">
+        <v>1.12</v>
+      </c>
+      <c r="AF29">
+        <v>5.1</v>
+      </c>
+      <c r="AG29">
+        <v>1.53</v>
+      </c>
+      <c r="AH29">
+        <v>2.4</v>
+      </c>
+      <c r="AI29">
+        <v>1.62</v>
+      </c>
+      <c r="AJ29">
+        <v>2.2</v>
+      </c>
+      <c r="AK29">
+        <v>1.08</v>
+      </c>
+      <c r="AL29">
+        <v>1.16</v>
+      </c>
+      <c r="AM29">
+        <v>3.14</v>
+      </c>
+      <c r="AN29">
+        <v>2</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>1.67</v>
+      </c>
+      <c r="AQ29">
+        <v>0.33</v>
+      </c>
+      <c r="AR29">
+        <v>1.88</v>
+      </c>
+      <c r="AS29">
+        <v>1.06</v>
+      </c>
+      <c r="AT29">
+        <v>2.94</v>
+      </c>
+      <c r="AU29">
+        <v>7</v>
+      </c>
+      <c r="AV29">
+        <v>4</v>
+      </c>
+      <c r="AW29">
+        <v>6</v>
+      </c>
+      <c r="AX29">
+        <v>9</v>
+      </c>
+      <c r="AY29">
+        <v>13</v>
+      </c>
+      <c r="AZ29">
+        <v>13</v>
+      </c>
+      <c r="BA29">
+        <v>11</v>
+      </c>
+      <c r="BB29">
+        <v>5</v>
+      </c>
+      <c r="BC29">
+        <v>16</v>
+      </c>
+      <c r="BD29">
+        <v>1.33</v>
+      </c>
+      <c r="BE29">
+        <v>8.4</v>
+      </c>
+      <c r="BF29">
+        <v>4.57</v>
+      </c>
+      <c r="BG29">
+        <v>1.11</v>
+      </c>
+      <c r="BH29">
+        <v>5.15</v>
+      </c>
+      <c r="BI29">
+        <v>1.27</v>
+      </c>
+      <c r="BJ29">
+        <v>3.35</v>
+      </c>
+      <c r="BK29">
+        <v>1.48</v>
+      </c>
+      <c r="BL29">
+        <v>2.45</v>
+      </c>
+      <c r="BM29">
+        <v>1.82</v>
+      </c>
+      <c r="BN29">
+        <v>1.98</v>
+      </c>
+      <c r="BO29">
+        <v>2.28</v>
+      </c>
+      <c r="BP29">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7452283</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45522.54166666666</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="O30" t="s">
+        <v>87</v>
+      </c>
+      <c r="P30" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q30">
+        <v>4</v>
+      </c>
+      <c r="R30">
+        <v>2.4</v>
+      </c>
+      <c r="S30">
+        <v>2.38</v>
+      </c>
+      <c r="T30">
+        <v>1.29</v>
+      </c>
+      <c r="U30">
+        <v>3.5</v>
+      </c>
+      <c r="V30">
+        <v>2.38</v>
+      </c>
+      <c r="W30">
+        <v>1.53</v>
+      </c>
+      <c r="X30">
+        <v>5.5</v>
+      </c>
+      <c r="Y30">
+        <v>1.14</v>
+      </c>
+      <c r="Z30">
+        <v>4.2</v>
+      </c>
+      <c r="AA30">
+        <v>3.75</v>
+      </c>
+      <c r="AB30">
+        <v>1.8</v>
+      </c>
+      <c r="AC30">
+        <v>1.04</v>
+      </c>
+      <c r="AD30">
+        <v>10</v>
+      </c>
+      <c r="AE30">
+        <v>1.2</v>
+      </c>
+      <c r="AF30">
+        <v>4.33</v>
+      </c>
+      <c r="AG30">
+        <v>1.6</v>
+      </c>
+      <c r="AH30">
+        <v>2.3</v>
+      </c>
+      <c r="AI30">
+        <v>1.57</v>
+      </c>
+      <c r="AJ30">
+        <v>2.25</v>
+      </c>
+      <c r="AK30">
+        <v>2</v>
+      </c>
+      <c r="AL30">
+        <v>1.22</v>
+      </c>
+      <c r="AM30">
+        <v>1.2</v>
+      </c>
+      <c r="AN30">
+        <v>3</v>
+      </c>
+      <c r="AO30">
+        <v>2</v>
+      </c>
+      <c r="AP30">
+        <v>1.5</v>
+      </c>
+      <c r="AQ30">
+        <v>2.33</v>
+      </c>
+      <c r="AR30">
+        <v>1.16</v>
+      </c>
+      <c r="AS30">
+        <v>2.17</v>
+      </c>
+      <c r="AT30">
+        <v>3.33</v>
+      </c>
+      <c r="AU30">
+        <v>4</v>
+      </c>
+      <c r="AV30">
+        <v>10</v>
+      </c>
+      <c r="AW30">
+        <v>6</v>
+      </c>
+      <c r="AX30">
+        <v>9</v>
+      </c>
+      <c r="AY30">
+        <v>10</v>
+      </c>
+      <c r="AZ30">
+        <v>19</v>
+      </c>
+      <c r="BA30">
+        <v>3</v>
+      </c>
+      <c r="BB30">
+        <v>10</v>
+      </c>
+      <c r="BC30">
+        <v>13</v>
+      </c>
+      <c r="BD30">
+        <v>3</v>
+      </c>
+      <c r="BE30">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF30">
+        <v>1.57</v>
+      </c>
+      <c r="BG30">
+        <v>1.2</v>
+      </c>
+      <c r="BH30">
+        <v>4</v>
+      </c>
+      <c r="BI30">
+        <v>1.38</v>
+      </c>
+      <c r="BJ30">
+        <v>2.8</v>
+      </c>
+      <c r="BK30">
+        <v>2.1</v>
+      </c>
+      <c r="BL30">
+        <v>2.05</v>
+      </c>
+      <c r="BM30">
+        <v>2.05</v>
+      </c>
+      <c r="BN30">
+        <v>1.7</v>
+      </c>
+      <c r="BO30">
+        <v>2.6</v>
+      </c>
+      <c r="BP30">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="129">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -328,6 +328,9 @@
     <t>['33', '35', '71', '74']</t>
   </si>
   <si>
+    <t>['6', '22', '32', '59', '65']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -395,6 +398,9 @@
   </si>
   <si>
     <t>['33', '36', '56', '90']</t>
+  </si>
+  <si>
+    <t>['36']</t>
   </si>
 </sst>
 </file>
@@ -756,7 +762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP30"/>
+  <dimension ref="A1:BP31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1015,7 +1021,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1093,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ2">
         <v>1.67</v>
@@ -1633,7 +1639,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1839,7 +1845,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2045,7 +2051,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2251,7 +2257,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2457,7 +2463,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2663,7 +2669,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -2869,7 +2875,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3075,7 +3081,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3281,7 +3287,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q13">
         <v>1.83</v>
@@ -3565,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4105,7 +4111,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4311,7 +4317,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4517,7 +4523,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -4929,7 +4935,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5135,7 +5141,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q22">
         <v>1.73</v>
@@ -5341,7 +5347,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5547,7 +5553,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5753,7 +5759,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -5959,7 +5965,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6165,7 +6171,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6371,7 +6377,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6577,7 +6583,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6783,7 +6789,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6940,6 +6946,212 @@
       </c>
       <c r="BP30">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7452284</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45523.58333333334</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+      <c r="L31">
+        <v>5</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>6</v>
+      </c>
+      <c r="O31" t="s">
+        <v>104</v>
+      </c>
+      <c r="P31" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q31">
+        <v>2.25</v>
+      </c>
+      <c r="R31">
+        <v>2.2</v>
+      </c>
+      <c r="S31">
+        <v>5.5</v>
+      </c>
+      <c r="T31">
+        <v>1.4</v>
+      </c>
+      <c r="U31">
+        <v>2.75</v>
+      </c>
+      <c r="V31">
+        <v>3</v>
+      </c>
+      <c r="W31">
+        <v>1.36</v>
+      </c>
+      <c r="X31">
+        <v>8</v>
+      </c>
+      <c r="Y31">
+        <v>1.08</v>
+      </c>
+      <c r="Z31">
+        <v>1.65</v>
+      </c>
+      <c r="AA31">
+        <v>3.9</v>
+      </c>
+      <c r="AB31">
+        <v>5.25</v>
+      </c>
+      <c r="AC31">
+        <v>1.02</v>
+      </c>
+      <c r="AD31">
+        <v>8.9</v>
+      </c>
+      <c r="AE31">
+        <v>1.28</v>
+      </c>
+      <c r="AF31">
+        <v>3.22</v>
+      </c>
+      <c r="AG31">
+        <v>1.95</v>
+      </c>
+      <c r="AH31">
+        <v>1.85</v>
+      </c>
+      <c r="AI31">
+        <v>1.95</v>
+      </c>
+      <c r="AJ31">
+        <v>1.8</v>
+      </c>
+      <c r="AK31">
+        <v>1.15</v>
+      </c>
+      <c r="AL31">
+        <v>1.22</v>
+      </c>
+      <c r="AM31">
+        <v>2.3</v>
+      </c>
+      <c r="AN31">
+        <v>2</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>2.33</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>1.74</v>
+      </c>
+      <c r="AS31">
+        <v>1.26</v>
+      </c>
+      <c r="AT31">
+        <v>3</v>
+      </c>
+      <c r="AU31">
+        <v>11</v>
+      </c>
+      <c r="AV31">
+        <v>7</v>
+      </c>
+      <c r="AW31">
+        <v>3</v>
+      </c>
+      <c r="AX31">
+        <v>2</v>
+      </c>
+      <c r="AY31">
+        <v>14</v>
+      </c>
+      <c r="AZ31">
+        <v>9</v>
+      </c>
+      <c r="BA31">
+        <v>8</v>
+      </c>
+      <c r="BB31">
+        <v>7</v>
+      </c>
+      <c r="BC31">
+        <v>15</v>
+      </c>
+      <c r="BD31">
+        <v>1.32</v>
+      </c>
+      <c r="BE31">
+        <v>8.5</v>
+      </c>
+      <c r="BF31">
+        <v>4.66</v>
+      </c>
+      <c r="BG31">
+        <v>1.25</v>
+      </c>
+      <c r="BH31">
+        <v>3.5</v>
+      </c>
+      <c r="BI31">
+        <v>1.43</v>
+      </c>
+      <c r="BJ31">
+        <v>2.65</v>
+      </c>
+      <c r="BK31">
+        <v>2.25</v>
+      </c>
+      <c r="BL31">
+        <v>2</v>
+      </c>
+      <c r="BM31">
+        <v>2.1</v>
+      </c>
+      <c r="BN31">
+        <v>1.67</v>
+      </c>
+      <c r="BO31">
+        <v>2.75</v>
+      </c>
+      <c r="BP31">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="130">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -401,6 +401,9 @@
   </si>
   <si>
     <t>['36']</t>
+  </si>
+  <si>
+    <t>['16', '20', '38', '85']</t>
   </si>
 </sst>
 </file>
@@ -762,7 +765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP31"/>
+  <dimension ref="A1:BP32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2953,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
         <v>1.5</v>
@@ -3162,7 +3165,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ12">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -5428,7 +5431,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>1.53</v>
@@ -6867,7 +6870,7 @@
         <v>2</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
         <v>2.33</v>
@@ -7152,6 +7155,212 @@
       </c>
       <c r="BP31">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7452286</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45527.58333333334</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>4</v>
+      </c>
+      <c r="N32">
+        <v>4</v>
+      </c>
+      <c r="O32" t="s">
+        <v>87</v>
+      </c>
+      <c r="P32" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q32">
+        <v>4.5</v>
+      </c>
+      <c r="R32">
+        <v>2.38</v>
+      </c>
+      <c r="S32">
+        <v>2.3</v>
+      </c>
+      <c r="T32">
+        <v>1.33</v>
+      </c>
+      <c r="U32">
+        <v>3.25</v>
+      </c>
+      <c r="V32">
+        <v>2.63</v>
+      </c>
+      <c r="W32">
+        <v>1.44</v>
+      </c>
+      <c r="X32">
+        <v>6.5</v>
+      </c>
+      <c r="Y32">
+        <v>1.11</v>
+      </c>
+      <c r="Z32">
+        <v>4.33</v>
+      </c>
+      <c r="AA32">
+        <v>4</v>
+      </c>
+      <c r="AB32">
+        <v>1.75</v>
+      </c>
+      <c r="AC32">
+        <v>1.04</v>
+      </c>
+      <c r="AD32">
+        <v>14.5</v>
+      </c>
+      <c r="AE32">
+        <v>1.24</v>
+      </c>
+      <c r="AF32">
+        <v>4.13</v>
+      </c>
+      <c r="AG32">
+        <v>1.6</v>
+      </c>
+      <c r="AH32">
+        <v>2.3</v>
+      </c>
+      <c r="AI32">
+        <v>1.62</v>
+      </c>
+      <c r="AJ32">
+        <v>2.2</v>
+      </c>
+      <c r="AK32">
+        <v>1.82</v>
+      </c>
+      <c r="AL32">
+        <v>1.28</v>
+      </c>
+      <c r="AM32">
+        <v>1.3</v>
+      </c>
+      <c r="AN32">
+        <v>1.5</v>
+      </c>
+      <c r="AO32">
+        <v>1.5</v>
+      </c>
+      <c r="AP32">
+        <v>1</v>
+      </c>
+      <c r="AQ32">
+        <v>2</v>
+      </c>
+      <c r="AR32">
+        <v>1.14</v>
+      </c>
+      <c r="AS32">
+        <v>0.96</v>
+      </c>
+      <c r="AT32">
+        <v>2.1</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>5</v>
+      </c>
+      <c r="AW32">
+        <v>4</v>
+      </c>
+      <c r="AX32">
+        <v>3</v>
+      </c>
+      <c r="AY32">
+        <v>4</v>
+      </c>
+      <c r="AZ32">
+        <v>8</v>
+      </c>
+      <c r="BA32">
+        <v>4</v>
+      </c>
+      <c r="BB32">
+        <v>6</v>
+      </c>
+      <c r="BC32">
+        <v>10</v>
+      </c>
+      <c r="BD32">
+        <v>3.4</v>
+      </c>
+      <c r="BE32">
+        <v>9</v>
+      </c>
+      <c r="BF32">
+        <v>1.42</v>
+      </c>
+      <c r="BG32">
+        <v>1.18</v>
+      </c>
+      <c r="BH32">
+        <v>4.15</v>
+      </c>
+      <c r="BI32">
+        <v>1.36</v>
+      </c>
+      <c r="BJ32">
+        <v>2.88</v>
+      </c>
+      <c r="BK32">
+        <v>2</v>
+      </c>
+      <c r="BL32">
+        <v>2.1</v>
+      </c>
+      <c r="BM32">
+        <v>2.05</v>
+      </c>
+      <c r="BN32">
+        <v>1.7</v>
+      </c>
+      <c r="BO32">
+        <v>2.67</v>
+      </c>
+      <c r="BP32">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="132">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -331,6 +331,9 @@
     <t>['6', '22', '32', '59', '65']</t>
   </si>
   <si>
+    <t>['15', '56', '76']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -404,6 +407,9 @@
   </si>
   <si>
     <t>['16', '20', '38', '85']</t>
+  </si>
+  <si>
+    <t>['4', '33']</t>
   </si>
 </sst>
 </file>
@@ -765,7 +771,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP32"/>
+  <dimension ref="A1:BP33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1024,7 +1030,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1517,7 +1523,7 @@
         <v>3</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1642,7 +1648,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1848,7 +1854,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2054,7 +2060,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2260,7 +2266,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2466,7 +2472,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2672,7 +2678,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -2878,7 +2884,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3084,7 +3090,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3290,7 +3296,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q13">
         <v>1.83</v>
@@ -3577,7 +3583,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR14">
         <v>1.77</v>
@@ -4114,7 +4120,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4320,7 +4326,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4526,7 +4532,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -4938,7 +4944,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5144,7 +5150,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q22">
         <v>1.73</v>
@@ -5350,7 +5356,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5556,7 +5562,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5762,7 +5768,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -5968,7 +5974,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6174,7 +6180,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6255,7 +6261,7 @@
         <v>1</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR27">
         <v>1.35</v>
@@ -6380,7 +6386,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6586,7 +6592,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6792,7 +6798,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6998,7 +7004,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7204,7 +7210,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7361,6 +7367,212 @@
       </c>
       <c r="BP32">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7452285</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45528.45833333334</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" t="s">
+        <v>76</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <v>5</v>
+      </c>
+      <c r="O33" t="s">
+        <v>105</v>
+      </c>
+      <c r="P33" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q33">
+        <v>2.25</v>
+      </c>
+      <c r="R33">
+        <v>2.5</v>
+      </c>
+      <c r="S33">
+        <v>4.33</v>
+      </c>
+      <c r="T33">
+        <v>1.29</v>
+      </c>
+      <c r="U33">
+        <v>3.5</v>
+      </c>
+      <c r="V33">
+        <v>2.25</v>
+      </c>
+      <c r="W33">
+        <v>1.57</v>
+      </c>
+      <c r="X33">
+        <v>5.5</v>
+      </c>
+      <c r="Y33">
+        <v>1.14</v>
+      </c>
+      <c r="Z33">
+        <v>1.7</v>
+      </c>
+      <c r="AA33">
+        <v>4.1</v>
+      </c>
+      <c r="AB33">
+        <v>4.33</v>
+      </c>
+      <c r="AC33">
+        <v>1.03</v>
+      </c>
+      <c r="AD33">
+        <v>11</v>
+      </c>
+      <c r="AE33">
+        <v>1.18</v>
+      </c>
+      <c r="AF33">
+        <v>4.75</v>
+      </c>
+      <c r="AG33">
+        <v>1.53</v>
+      </c>
+      <c r="AH33">
+        <v>2.4</v>
+      </c>
+      <c r="AI33">
+        <v>1.53</v>
+      </c>
+      <c r="AJ33">
+        <v>2.38</v>
+      </c>
+      <c r="AK33">
+        <v>1.12</v>
+      </c>
+      <c r="AL33">
+        <v>1.15</v>
+      </c>
+      <c r="AM33">
+        <v>2.55</v>
+      </c>
+      <c r="AN33">
+        <v>3</v>
+      </c>
+      <c r="AO33">
+        <v>1</v>
+      </c>
+      <c r="AP33">
+        <v>3</v>
+      </c>
+      <c r="AQ33">
+        <v>0.75</v>
+      </c>
+      <c r="AR33">
+        <v>1.8</v>
+      </c>
+      <c r="AS33">
+        <v>1.17</v>
+      </c>
+      <c r="AT33">
+        <v>2.97</v>
+      </c>
+      <c r="AU33">
+        <v>11</v>
+      </c>
+      <c r="AV33">
+        <v>6</v>
+      </c>
+      <c r="AW33">
+        <v>5</v>
+      </c>
+      <c r="AX33">
+        <v>6</v>
+      </c>
+      <c r="AY33">
+        <v>16</v>
+      </c>
+      <c r="AZ33">
+        <v>12</v>
+      </c>
+      <c r="BA33">
+        <v>7</v>
+      </c>
+      <c r="BB33">
+        <v>7</v>
+      </c>
+      <c r="BC33">
+        <v>14</v>
+      </c>
+      <c r="BD33">
+        <v>1.37</v>
+      </c>
+      <c r="BE33">
+        <v>9.5</v>
+      </c>
+      <c r="BF33">
+        <v>3.69</v>
+      </c>
+      <c r="BG33">
+        <v>1.2</v>
+      </c>
+      <c r="BH33">
+        <v>4</v>
+      </c>
+      <c r="BI33">
+        <v>1.38</v>
+      </c>
+      <c r="BJ33">
+        <v>2.8</v>
+      </c>
+      <c r="BK33">
+        <v>2.1</v>
+      </c>
+      <c r="BL33">
+        <v>2.08</v>
+      </c>
+      <c r="BM33">
+        <v>2.05</v>
+      </c>
+      <c r="BN33">
+        <v>1.7</v>
+      </c>
+      <c r="BO33">
+        <v>2.7</v>
+      </c>
+      <c r="BP33">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="138">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -334,6 +334,15 @@
     <t>['15', '56', '76']</t>
   </si>
   <si>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['3', '5', '30']</t>
+  </si>
+  <si>
+    <t>['72', '82']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -410,6 +419,15 @@
   </si>
   <si>
     <t>['4', '33']</t>
+  </si>
+  <si>
+    <t>['57', '73', '90+3']</t>
+  </si>
+  <si>
+    <t>['54', '78']</t>
+  </si>
+  <si>
+    <t>['34', '88']</t>
   </si>
 </sst>
 </file>
@@ -771,7 +789,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP33"/>
+  <dimension ref="A1:BP36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1030,7 +1048,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1314,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1648,7 +1666,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1729,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1854,7 +1872,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2060,7 +2078,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2141,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="AQ7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2266,7 +2284,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2472,7 +2490,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2550,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>1.67</v>
@@ -2678,7 +2696,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -2884,7 +2902,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -2965,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3090,7 +3108,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3296,7 +3314,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q13">
         <v>1.83</v>
@@ -3374,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13">
         <v>0</v>
@@ -4120,7 +4138,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4201,7 +4219,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR17">
         <v>1.41</v>
@@ -4326,7 +4344,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4532,7 +4550,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -4944,7 +4962,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5025,7 +5043,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <v>1.14</v>
@@ -5150,7 +5168,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q22">
         <v>1.73</v>
@@ -5228,7 +5246,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5356,7 +5374,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5434,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ23">
         <v>2</v>
@@ -5562,7 +5580,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5643,7 +5661,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR24">
         <v>1.85</v>
@@ -5768,7 +5786,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -5974,7 +5992,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6180,7 +6198,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6386,7 +6404,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6592,7 +6610,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6798,7 +6816,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7004,7 +7022,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7210,7 +7228,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7416,7 +7434,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7573,6 +7591,624 @@
       </c>
       <c r="BP33">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7452287</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45529.375</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>3</v>
+      </c>
+      <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="O34" t="s">
+        <v>106</v>
+      </c>
+      <c r="P34" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q34">
+        <v>3.75</v>
+      </c>
+      <c r="R34">
+        <v>2.2</v>
+      </c>
+      <c r="S34">
+        <v>2.75</v>
+      </c>
+      <c r="T34">
+        <v>1.36</v>
+      </c>
+      <c r="U34">
+        <v>3</v>
+      </c>
+      <c r="V34">
+        <v>2.75</v>
+      </c>
+      <c r="W34">
+        <v>1.4</v>
+      </c>
+      <c r="X34">
+        <v>7</v>
+      </c>
+      <c r="Y34">
+        <v>1.1</v>
+      </c>
+      <c r="Z34">
+        <v>3.2</v>
+      </c>
+      <c r="AA34">
+        <v>3.5</v>
+      </c>
+      <c r="AB34">
+        <v>2.15</v>
+      </c>
+      <c r="AC34">
+        <v>1.05</v>
+      </c>
+      <c r="AD34">
+        <v>9.5</v>
+      </c>
+      <c r="AE34">
+        <v>1.25</v>
+      </c>
+      <c r="AF34">
+        <v>3.7</v>
+      </c>
+      <c r="AG34">
+        <v>1.85</v>
+      </c>
+      <c r="AH34">
+        <v>1.95</v>
+      </c>
+      <c r="AI34">
+        <v>1.7</v>
+      </c>
+      <c r="AJ34">
+        <v>2.05</v>
+      </c>
+      <c r="AK34">
+        <v>1.73</v>
+      </c>
+      <c r="AL34">
+        <v>1.25</v>
+      </c>
+      <c r="AM34">
+        <v>1.3</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>1.5</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>2</v>
+      </c>
+      <c r="AR34">
+        <v>1.05</v>
+      </c>
+      <c r="AS34">
+        <v>1.34</v>
+      </c>
+      <c r="AT34">
+        <v>2.39</v>
+      </c>
+      <c r="AU34">
+        <v>12</v>
+      </c>
+      <c r="AV34">
+        <v>7</v>
+      </c>
+      <c r="AW34">
+        <v>11</v>
+      </c>
+      <c r="AX34">
+        <v>4</v>
+      </c>
+      <c r="AY34">
+        <v>23</v>
+      </c>
+      <c r="AZ34">
+        <v>11</v>
+      </c>
+      <c r="BA34">
+        <v>6</v>
+      </c>
+      <c r="BB34">
+        <v>2</v>
+      </c>
+      <c r="BC34">
+        <v>8</v>
+      </c>
+      <c r="BD34">
+        <v>2.42</v>
+      </c>
+      <c r="BE34">
+        <v>7.5</v>
+      </c>
+      <c r="BF34">
+        <v>1.84</v>
+      </c>
+      <c r="BG34">
+        <v>1.17</v>
+      </c>
+      <c r="BH34">
+        <v>4.25</v>
+      </c>
+      <c r="BI34">
+        <v>1.34</v>
+      </c>
+      <c r="BJ34">
+        <v>2.88</v>
+      </c>
+      <c r="BK34">
+        <v>2.1</v>
+      </c>
+      <c r="BL34">
+        <v>2.14</v>
+      </c>
+      <c r="BM34">
+        <v>2.06</v>
+      </c>
+      <c r="BN34">
+        <v>1.71</v>
+      </c>
+      <c r="BO34">
+        <v>2.69</v>
+      </c>
+      <c r="BP34">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7452288</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45529.45833333334</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" t="s">
+        <v>79</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
+      </c>
+      <c r="N35">
+        <v>5</v>
+      </c>
+      <c r="O35" t="s">
+        <v>107</v>
+      </c>
+      <c r="P35" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q35">
+        <v>3</v>
+      </c>
+      <c r="R35">
+        <v>2.38</v>
+      </c>
+      <c r="S35">
+        <v>3.1</v>
+      </c>
+      <c r="T35">
+        <v>1.32</v>
+      </c>
+      <c r="U35">
+        <v>3.1</v>
+      </c>
+      <c r="V35">
+        <v>2.3</v>
+      </c>
+      <c r="W35">
+        <v>1.55</v>
+      </c>
+      <c r="X35">
+        <v>5.2</v>
+      </c>
+      <c r="Y35">
+        <v>1.13</v>
+      </c>
+      <c r="Z35">
+        <v>2.45</v>
+      </c>
+      <c r="AA35">
+        <v>3.6</v>
+      </c>
+      <c r="AB35">
+        <v>2.63</v>
+      </c>
+      <c r="AC35">
+        <v>1.04</v>
+      </c>
+      <c r="AD35">
+        <v>8.5</v>
+      </c>
+      <c r="AE35">
+        <v>1.16</v>
+      </c>
+      <c r="AF35">
+        <v>4.4</v>
+      </c>
+      <c r="AG35">
+        <v>1.57</v>
+      </c>
+      <c r="AH35">
+        <v>2.35</v>
+      </c>
+      <c r="AI35">
+        <v>1.5</v>
+      </c>
+      <c r="AJ35">
+        <v>2.5</v>
+      </c>
+      <c r="AK35">
+        <v>1.47</v>
+      </c>
+      <c r="AL35">
+        <v>1.28</v>
+      </c>
+      <c r="AM35">
+        <v>1.57</v>
+      </c>
+      <c r="AN35">
+        <v>1.67</v>
+      </c>
+      <c r="AO35">
+        <v>3</v>
+      </c>
+      <c r="AP35">
+        <v>2</v>
+      </c>
+      <c r="AQ35">
+        <v>2</v>
+      </c>
+      <c r="AR35">
+        <v>1.81</v>
+      </c>
+      <c r="AS35">
+        <v>1.57</v>
+      </c>
+      <c r="AT35">
+        <v>3.38</v>
+      </c>
+      <c r="AU35">
+        <v>7</v>
+      </c>
+      <c r="AV35">
+        <v>10</v>
+      </c>
+      <c r="AW35">
+        <v>7</v>
+      </c>
+      <c r="AX35">
+        <v>6</v>
+      </c>
+      <c r="AY35">
+        <v>14</v>
+      </c>
+      <c r="AZ35">
+        <v>16</v>
+      </c>
+      <c r="BA35">
+        <v>3</v>
+      </c>
+      <c r="BB35">
+        <v>3</v>
+      </c>
+      <c r="BC35">
+        <v>6</v>
+      </c>
+      <c r="BD35">
+        <v>1.71</v>
+      </c>
+      <c r="BE35">
+        <v>7.4</v>
+      </c>
+      <c r="BF35">
+        <v>2.74</v>
+      </c>
+      <c r="BG35">
+        <v>1.15</v>
+      </c>
+      <c r="BH35">
+        <v>4.5</v>
+      </c>
+      <c r="BI35">
+        <v>1.31</v>
+      </c>
+      <c r="BJ35">
+        <v>3.04</v>
+      </c>
+      <c r="BK35">
+        <v>2</v>
+      </c>
+      <c r="BL35">
+        <v>2.18</v>
+      </c>
+      <c r="BM35">
+        <v>1.85</v>
+      </c>
+      <c r="BN35">
+        <v>1.85</v>
+      </c>
+      <c r="BO35">
+        <v>2.57</v>
+      </c>
+      <c r="BP35">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7452289</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45529.54166666666</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" t="s">
+        <v>77</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <v>4</v>
+      </c>
+      <c r="O36" t="s">
+        <v>108</v>
+      </c>
+      <c r="P36" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q36">
+        <v>2.2</v>
+      </c>
+      <c r="R36">
+        <v>2.4</v>
+      </c>
+      <c r="S36">
+        <v>5</v>
+      </c>
+      <c r="T36">
+        <v>1.29</v>
+      </c>
+      <c r="U36">
+        <v>3.25</v>
+      </c>
+      <c r="V36">
+        <v>2.4</v>
+      </c>
+      <c r="W36">
+        <v>1.49</v>
+      </c>
+      <c r="X36">
+        <v>5.85</v>
+      </c>
+      <c r="Y36">
+        <v>1.1</v>
+      </c>
+      <c r="Z36">
+        <v>1.65</v>
+      </c>
+      <c r="AA36">
+        <v>4</v>
+      </c>
+      <c r="AB36">
+        <v>4.75</v>
+      </c>
+      <c r="AC36">
+        <v>1.02</v>
+      </c>
+      <c r="AD36">
+        <v>14.5</v>
+      </c>
+      <c r="AE36">
+        <v>1.19</v>
+      </c>
+      <c r="AF36">
+        <v>3.98</v>
+      </c>
+      <c r="AG36">
+        <v>1.6</v>
+      </c>
+      <c r="AH36">
+        <v>2.3</v>
+      </c>
+      <c r="AI36">
+        <v>1.62</v>
+      </c>
+      <c r="AJ36">
+        <v>2.2</v>
+      </c>
+      <c r="AK36">
+        <v>1.19</v>
+      </c>
+      <c r="AL36">
+        <v>1.2</v>
+      </c>
+      <c r="AM36">
+        <v>2.2</v>
+      </c>
+      <c r="AN36">
+        <v>1.5</v>
+      </c>
+      <c r="AO36">
+        <v>2</v>
+      </c>
+      <c r="AP36">
+        <v>1.33</v>
+      </c>
+      <c r="AQ36">
+        <v>1.67</v>
+      </c>
+      <c r="AR36">
+        <v>1.69</v>
+      </c>
+      <c r="AS36">
+        <v>1.07</v>
+      </c>
+      <c r="AT36">
+        <v>2.76</v>
+      </c>
+      <c r="AU36">
+        <v>11</v>
+      </c>
+      <c r="AV36">
+        <v>6</v>
+      </c>
+      <c r="AW36">
+        <v>5</v>
+      </c>
+      <c r="AX36">
+        <v>3</v>
+      </c>
+      <c r="AY36">
+        <v>16</v>
+      </c>
+      <c r="AZ36">
+        <v>9</v>
+      </c>
+      <c r="BA36">
+        <v>7</v>
+      </c>
+      <c r="BB36">
+        <v>4</v>
+      </c>
+      <c r="BC36">
+        <v>11</v>
+      </c>
+      <c r="BD36">
+        <v>1.51</v>
+      </c>
+      <c r="BE36">
+        <v>8.4</v>
+      </c>
+      <c r="BF36">
+        <v>3.24</v>
+      </c>
+      <c r="BG36">
+        <v>1.18</v>
+      </c>
+      <c r="BH36">
+        <v>4.25</v>
+      </c>
+      <c r="BI36">
+        <v>1.34</v>
+      </c>
+      <c r="BJ36">
+        <v>2.95</v>
+      </c>
+      <c r="BK36">
+        <v>2</v>
+      </c>
+      <c r="BL36">
+        <v>2.17</v>
+      </c>
+      <c r="BM36">
+        <v>1.98</v>
+      </c>
+      <c r="BN36">
+        <v>1.72</v>
+      </c>
+      <c r="BO36">
+        <v>2.6</v>
+      </c>
+      <c r="BP36">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="139">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -341,6 +341,9 @@
   </si>
   <si>
     <t>['72', '82']</t>
+  </si>
+  <si>
+    <t>['57']</t>
   </si>
   <si>
     <t>['47']</t>
@@ -789,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP36"/>
+  <dimension ref="A1:BP37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1048,7 +1051,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1666,7 +1669,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1872,7 +1875,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -1950,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ6">
         <v>2.33</v>
@@ -2078,7 +2081,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2284,7 +2287,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2365,7 +2368,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2490,7 +2493,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2696,7 +2699,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -2902,7 +2905,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3108,7 +3111,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3314,7 +3317,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q13">
         <v>1.83</v>
@@ -4138,7 +4141,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4344,7 +4347,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4550,7 +4553,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -4962,7 +4965,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5168,7 +5171,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q22">
         <v>1.73</v>
@@ -5249,7 +5252,7 @@
         <v>2</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR22">
         <v>1.44</v>
@@ -5374,7 +5377,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5580,7 +5583,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5786,7 +5789,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -5864,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -5992,7 +5995,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6198,7 +6201,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6404,7 +6407,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6610,7 +6613,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6816,7 +6819,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7022,7 +7025,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7228,7 +7231,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7434,7 +7437,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7640,7 +7643,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -7846,7 +7849,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8052,7 +8055,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8209,6 +8212,212 @@
       </c>
       <c r="BP36">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7452290</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45530.58333333334</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37" t="s">
+        <v>74</v>
+      </c>
+      <c r="H37" t="s">
+        <v>75</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37" t="s">
+        <v>109</v>
+      </c>
+      <c r="P37" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q37">
+        <v>2.38</v>
+      </c>
+      <c r="R37">
+        <v>2.3</v>
+      </c>
+      <c r="S37">
+        <v>4.5</v>
+      </c>
+      <c r="T37">
+        <v>1.33</v>
+      </c>
+      <c r="U37">
+        <v>3.25</v>
+      </c>
+      <c r="V37">
+        <v>2.5</v>
+      </c>
+      <c r="W37">
+        <v>1.5</v>
+      </c>
+      <c r="X37">
+        <v>6</v>
+      </c>
+      <c r="Y37">
+        <v>1.13</v>
+      </c>
+      <c r="Z37">
+        <v>1.75</v>
+      </c>
+      <c r="AA37">
+        <v>3.6</v>
+      </c>
+      <c r="AB37">
+        <v>4.5</v>
+      </c>
+      <c r="AC37">
+        <v>1.01</v>
+      </c>
+      <c r="AD37">
+        <v>10.5</v>
+      </c>
+      <c r="AE37">
+        <v>1.19</v>
+      </c>
+      <c r="AF37">
+        <v>3.96</v>
+      </c>
+      <c r="AG37">
+        <v>1.7</v>
+      </c>
+      <c r="AH37">
+        <v>2.1</v>
+      </c>
+      <c r="AI37">
+        <v>1.67</v>
+      </c>
+      <c r="AJ37">
+        <v>2.1</v>
+      </c>
+      <c r="AK37">
+        <v>1.22</v>
+      </c>
+      <c r="AL37">
+        <v>1.22</v>
+      </c>
+      <c r="AM37">
+        <v>1.95</v>
+      </c>
+      <c r="AN37">
+        <v>0.5</v>
+      </c>
+      <c r="AO37">
+        <v>1</v>
+      </c>
+      <c r="AP37">
+        <v>1.33</v>
+      </c>
+      <c r="AQ37">
+        <v>0.67</v>
+      </c>
+      <c r="AR37">
+        <v>1.54</v>
+      </c>
+      <c r="AS37">
+        <v>0.8</v>
+      </c>
+      <c r="AT37">
+        <v>2.34</v>
+      </c>
+      <c r="AU37">
+        <v>6</v>
+      </c>
+      <c r="AV37">
+        <v>5</v>
+      </c>
+      <c r="AW37">
+        <v>5</v>
+      </c>
+      <c r="AX37">
+        <v>13</v>
+      </c>
+      <c r="AY37">
+        <v>11</v>
+      </c>
+      <c r="AZ37">
+        <v>18</v>
+      </c>
+      <c r="BA37">
+        <v>6</v>
+      </c>
+      <c r="BB37">
+        <v>7</v>
+      </c>
+      <c r="BC37">
+        <v>13</v>
+      </c>
+      <c r="BD37">
+        <v>1.64</v>
+      </c>
+      <c r="BE37">
+        <v>8</v>
+      </c>
+      <c r="BF37">
+        <v>2.81</v>
+      </c>
+      <c r="BG37">
+        <v>1.13</v>
+      </c>
+      <c r="BH37">
+        <v>4.85</v>
+      </c>
+      <c r="BI37">
+        <v>1.28</v>
+      </c>
+      <c r="BJ37">
+        <v>3.25</v>
+      </c>
+      <c r="BK37">
+        <v>1.5</v>
+      </c>
+      <c r="BL37">
+        <v>2.35</v>
+      </c>
+      <c r="BM37">
+        <v>1.9</v>
+      </c>
+      <c r="BN37">
+        <v>1.9</v>
+      </c>
+      <c r="BO37">
+        <v>2.35</v>
+      </c>
+      <c r="BP37">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="140">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -344,6 +344,9 @@
   </si>
   <si>
     <t>['57']</t>
+  </si>
+  <si>
+    <t>['21']</t>
   </si>
   <si>
     <t>['47']</t>
@@ -792,7 +795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP37"/>
+  <dimension ref="A1:BP38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1051,7 +1054,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1669,7 +1672,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1875,7 +1878,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2081,7 +2084,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2159,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ7">
         <v>2</v>
@@ -2287,7 +2290,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2493,7 +2496,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2699,7 +2702,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -2905,7 +2908,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3111,7 +3114,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3317,7 +3320,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q13">
         <v>1.83</v>
@@ -4141,7 +4144,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4347,7 +4350,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4425,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ18">
         <v>2.33</v>
@@ -4553,7 +4556,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -4965,7 +4968,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5171,7 +5174,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q22">
         <v>1.73</v>
@@ -5377,7 +5380,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5583,7 +5586,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5789,7 +5792,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -5995,7 +5998,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6073,7 +6076,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ26">
         <v>1.67</v>
@@ -6201,7 +6204,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6407,7 +6410,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6613,7 +6616,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6819,7 +6822,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7025,7 +7028,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7231,7 +7234,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7437,7 +7440,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7643,7 +7646,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -7849,7 +7852,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8055,7 +8058,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8418,6 +8421,212 @@
       </c>
       <c r="BP37">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7452291</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45534.58333333334</v>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" t="s">
+        <v>73</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38" t="s">
+        <v>110</v>
+      </c>
+      <c r="P38" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q38">
+        <v>2.88</v>
+      </c>
+      <c r="R38">
+        <v>2.25</v>
+      </c>
+      <c r="S38">
+        <v>3.4</v>
+      </c>
+      <c r="T38">
+        <v>1.36</v>
+      </c>
+      <c r="U38">
+        <v>3</v>
+      </c>
+      <c r="V38">
+        <v>2.75</v>
+      </c>
+      <c r="W38">
+        <v>1.4</v>
+      </c>
+      <c r="X38">
+        <v>8</v>
+      </c>
+      <c r="Y38">
+        <v>1.08</v>
+      </c>
+      <c r="Z38">
+        <v>2.3</v>
+      </c>
+      <c r="AA38">
+        <v>3.6</v>
+      </c>
+      <c r="AB38">
+        <v>2.88</v>
+      </c>
+      <c r="AC38">
+        <v>1.01</v>
+      </c>
+      <c r="AD38">
+        <v>9.6</v>
+      </c>
+      <c r="AE38">
+        <v>1.25</v>
+      </c>
+      <c r="AF38">
+        <v>3.42</v>
+      </c>
+      <c r="AG38">
+        <v>1.8</v>
+      </c>
+      <c r="AH38">
+        <v>2</v>
+      </c>
+      <c r="AI38">
+        <v>1.67</v>
+      </c>
+      <c r="AJ38">
+        <v>2.1</v>
+      </c>
+      <c r="AK38">
+        <v>1.39</v>
+      </c>
+      <c r="AL38">
+        <v>1.3</v>
+      </c>
+      <c r="AM38">
+        <v>1.62</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>0.75</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>1.09</v>
+      </c>
+      <c r="AS38">
+        <v>1.26</v>
+      </c>
+      <c r="AT38">
+        <v>2.35</v>
+      </c>
+      <c r="AU38">
+        <v>6</v>
+      </c>
+      <c r="AV38">
+        <v>2</v>
+      </c>
+      <c r="AW38">
+        <v>2</v>
+      </c>
+      <c r="AX38">
+        <v>8</v>
+      </c>
+      <c r="AY38">
+        <v>8</v>
+      </c>
+      <c r="AZ38">
+        <v>10</v>
+      </c>
+      <c r="BA38">
+        <v>10</v>
+      </c>
+      <c r="BB38">
+        <v>5</v>
+      </c>
+      <c r="BC38">
+        <v>15</v>
+      </c>
+      <c r="BD38">
+        <v>1.7</v>
+      </c>
+      <c r="BE38">
+        <v>7</v>
+      </c>
+      <c r="BF38">
+        <v>2.82</v>
+      </c>
+      <c r="BG38">
+        <v>1.1</v>
+      </c>
+      <c r="BH38">
+        <v>5.3</v>
+      </c>
+      <c r="BI38">
+        <v>1.24</v>
+      </c>
+      <c r="BJ38">
+        <v>3.48</v>
+      </c>
+      <c r="BK38">
+        <v>1.91</v>
+      </c>
+      <c r="BL38">
+        <v>2.57</v>
+      </c>
+      <c r="BM38">
+        <v>2</v>
+      </c>
+      <c r="BN38">
+        <v>1.8</v>
+      </c>
+      <c r="BO38">
+        <v>2.21</v>
+      </c>
+      <c r="BP38">
+        <v>1.59</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="142">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -349,6 +349,9 @@
     <t>['21']</t>
   </si>
   <si>
+    <t>['10', '49', '53', '89']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -434,6 +437,9 @@
   </si>
   <si>
     <t>['34', '88']</t>
+  </si>
+  <si>
+    <t>['11', '16']</t>
   </si>
 </sst>
 </file>
@@ -795,7 +801,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP38"/>
+  <dimension ref="A1:BP39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1054,7 +1060,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1132,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ2">
         <v>1.67</v>
@@ -1672,7 +1678,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1878,7 +1884,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2084,7 +2090,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2290,7 +2296,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2496,7 +2502,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2702,7 +2708,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -2908,7 +2914,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3114,7 +3120,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3320,7 +3326,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q13">
         <v>1.83</v>
@@ -3604,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ14">
         <v>0.75</v>
@@ -4144,7 +4150,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4350,7 +4356,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4556,7 +4562,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -4637,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>1.07</v>
@@ -4968,7 +4974,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5174,7 +5180,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q22">
         <v>1.73</v>
@@ -5380,7 +5386,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5586,7 +5592,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5792,7 +5798,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -5998,7 +6004,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6204,7 +6210,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6410,7 +6416,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6491,7 +6497,7 @@
         <v>3</v>
       </c>
       <c r="AQ28">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.19</v>
@@ -6616,7 +6622,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6822,7 +6828,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7028,7 +7034,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7106,7 +7112,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ31">
         <v>0</v>
@@ -7234,7 +7240,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7440,7 +7446,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7646,7 +7652,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -7852,7 +7858,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8058,7 +8064,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8627,6 +8633,212 @@
       </c>
       <c r="BP38">
         <v>1.59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7452292</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+      <c r="G39" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39" t="s">
+        <v>71</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="L39">
+        <v>4</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39">
+        <v>6</v>
+      </c>
+      <c r="O39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P39" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q39">
+        <v>2.88</v>
+      </c>
+      <c r="R39">
+        <v>2.25</v>
+      </c>
+      <c r="S39">
+        <v>3.6</v>
+      </c>
+      <c r="T39">
+        <v>1.33</v>
+      </c>
+      <c r="U39">
+        <v>3.33</v>
+      </c>
+      <c r="V39">
+        <v>2.61</v>
+      </c>
+      <c r="W39">
+        <v>1.49</v>
+      </c>
+      <c r="X39">
+        <v>5.5</v>
+      </c>
+      <c r="Y39">
+        <v>1.11</v>
+      </c>
+      <c r="Z39">
+        <v>2.2</v>
+      </c>
+      <c r="AA39">
+        <v>3.7</v>
+      </c>
+      <c r="AB39">
+        <v>3</v>
+      </c>
+      <c r="AC39">
+        <v>1.04</v>
+      </c>
+      <c r="AD39">
+        <v>15.5</v>
+      </c>
+      <c r="AE39">
+        <v>1.23</v>
+      </c>
+      <c r="AF39">
+        <v>4.2</v>
+      </c>
+      <c r="AG39">
+        <v>1.75</v>
+      </c>
+      <c r="AH39">
+        <v>2.05</v>
+      </c>
+      <c r="AI39">
+        <v>1.67</v>
+      </c>
+      <c r="AJ39">
+        <v>2.1</v>
+      </c>
+      <c r="AK39">
+        <v>1.35</v>
+      </c>
+      <c r="AL39">
+        <v>1.27</v>
+      </c>
+      <c r="AM39">
+        <v>1.78</v>
+      </c>
+      <c r="AN39">
+        <v>2.33</v>
+      </c>
+      <c r="AO39">
+        <v>1.5</v>
+      </c>
+      <c r="AP39">
+        <v>2.5</v>
+      </c>
+      <c r="AQ39">
+        <v>1</v>
+      </c>
+      <c r="AR39">
+        <v>1.84</v>
+      </c>
+      <c r="AS39">
+        <v>1.61</v>
+      </c>
+      <c r="AT39">
+        <v>3.45</v>
+      </c>
+      <c r="AU39">
+        <v>6</v>
+      </c>
+      <c r="AV39">
+        <v>6</v>
+      </c>
+      <c r="AW39">
+        <v>2</v>
+      </c>
+      <c r="AX39">
+        <v>3</v>
+      </c>
+      <c r="AY39">
+        <v>8</v>
+      </c>
+      <c r="AZ39">
+        <v>9</v>
+      </c>
+      <c r="BA39">
+        <v>7</v>
+      </c>
+      <c r="BB39">
+        <v>5</v>
+      </c>
+      <c r="BC39">
+        <v>12</v>
+      </c>
+      <c r="BD39">
+        <v>1.69</v>
+      </c>
+      <c r="BE39">
+        <v>8</v>
+      </c>
+      <c r="BF39">
+        <v>2.54</v>
+      </c>
+      <c r="BG39">
+        <v>1.22</v>
+      </c>
+      <c r="BH39">
+        <v>3.75</v>
+      </c>
+      <c r="BI39">
+        <v>1.41</v>
+      </c>
+      <c r="BJ39">
+        <v>2.63</v>
+      </c>
+      <c r="BK39">
+        <v>2.2</v>
+      </c>
+      <c r="BL39">
+        <v>1.98</v>
+      </c>
+      <c r="BM39">
+        <v>2.18</v>
+      </c>
+      <c r="BN39">
+        <v>1.6</v>
+      </c>
+      <c r="BO39">
+        <v>2.88</v>
+      </c>
+      <c r="BP39">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="148">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -352,6 +352,18 @@
     <t>['10', '49', '53', '89']</t>
   </si>
   <si>
+    <t>['4', '17', '75']</t>
+  </si>
+  <si>
+    <t>['34', '36']</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -370,9 +382,6 @@
     <t>['11', '45']</t>
   </si>
   <si>
-    <t>['39']</t>
-  </si>
-  <si>
     <t>['90']</t>
   </si>
   <si>
@@ -440,6 +449,15 @@
   </si>
   <si>
     <t>['11', '16']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['52', '72']</t>
+  </si>
+  <si>
+    <t>['4', '44', '77']</t>
   </si>
 </sst>
 </file>
@@ -801,7 +819,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP39"/>
+  <dimension ref="A1:BP43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1060,7 +1078,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1141,7 +1159,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ2">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1347,7 +1365,7 @@
         <v>2</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1550,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ4">
         <v>0.75</v>
@@ -1678,7 +1696,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1884,7 +1902,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -1965,7 +1983,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ6">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2090,7 +2108,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2296,7 +2314,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2374,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ8">
         <v>0.67</v>
@@ -2502,7 +2520,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2583,7 +2601,7 @@
         <v>2</v>
       </c>
       <c r="AQ9">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <v>1.96</v>
@@ -2708,7 +2726,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Q10">
         <v>2.63</v>
@@ -2786,10 +2804,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2914,7 +2932,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3120,7 +3138,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3198,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>2</v>
@@ -3326,7 +3344,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q13">
         <v>1.83</v>
@@ -3819,7 +3837,7 @@
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4022,10 +4040,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ16">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR16">
         <v>1.37</v>
@@ -4150,7 +4168,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4228,7 +4246,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>1.67</v>
@@ -4356,7 +4374,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4437,7 +4455,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ18">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR18">
         <v>1.15</v>
@@ -4562,7 +4580,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -4974,7 +4992,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5052,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21">
         <v>2</v>
@@ -5180,7 +5198,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q22">
         <v>1.73</v>
@@ -5386,7 +5404,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5592,7 +5610,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5670,7 +5688,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ24">
         <v>2</v>
@@ -5798,7 +5816,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -5879,7 +5897,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR25">
         <v>0.91</v>
@@ -6004,7 +6022,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6085,7 +6103,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ26">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR26">
         <v>1.11</v>
@@ -6210,7 +6228,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6288,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
         <v>0.75</v>
@@ -6416,7 +6434,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6494,7 +6512,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -6622,7 +6640,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6700,10 +6718,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR29">
         <v>1.88</v>
@@ -6828,7 +6846,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6909,7 +6927,7 @@
         <v>1</v>
       </c>
       <c r="AQ30">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR30">
         <v>1.16</v>
@@ -7034,7 +7052,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7240,7 +7258,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7446,7 +7464,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7652,7 +7670,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -7858,7 +7876,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8064,7 +8082,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8682,7 +8700,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -8839,6 +8857,830 @@
       </c>
       <c r="BP39">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7452294</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45536.375</v>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
+        <v>79</v>
+      </c>
+      <c r="H40" t="s">
+        <v>80</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>3</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>4</v>
+      </c>
+      <c r="O40" t="s">
+        <v>112</v>
+      </c>
+      <c r="P40" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q40">
+        <v>2.75</v>
+      </c>
+      <c r="R40">
+        <v>2.3</v>
+      </c>
+      <c r="S40">
+        <v>3.4</v>
+      </c>
+      <c r="T40">
+        <v>1.33</v>
+      </c>
+      <c r="U40">
+        <v>3.25</v>
+      </c>
+      <c r="V40">
+        <v>2.5</v>
+      </c>
+      <c r="W40">
+        <v>1.5</v>
+      </c>
+      <c r="X40">
+        <v>6.5</v>
+      </c>
+      <c r="Y40">
+        <v>1.11</v>
+      </c>
+      <c r="Z40">
+        <v>2.2</v>
+      </c>
+      <c r="AA40">
+        <v>3.7</v>
+      </c>
+      <c r="AB40">
+        <v>3</v>
+      </c>
+      <c r="AC40">
+        <v>1.01</v>
+      </c>
+      <c r="AD40">
+        <v>11</v>
+      </c>
+      <c r="AE40">
+        <v>1.17</v>
+      </c>
+      <c r="AF40">
+        <v>4.5</v>
+      </c>
+      <c r="AG40">
+        <v>1.65</v>
+      </c>
+      <c r="AH40">
+        <v>2.2</v>
+      </c>
+      <c r="AI40">
+        <v>1.53</v>
+      </c>
+      <c r="AJ40">
+        <v>2.38</v>
+      </c>
+      <c r="AK40">
+        <v>1.36</v>
+      </c>
+      <c r="AL40">
+        <v>1.29</v>
+      </c>
+      <c r="AM40">
+        <v>1.7</v>
+      </c>
+      <c r="AN40">
+        <v>1.67</v>
+      </c>
+      <c r="AO40">
+        <v>2.33</v>
+      </c>
+      <c r="AP40">
+        <v>2</v>
+      </c>
+      <c r="AQ40">
+        <v>1.75</v>
+      </c>
+      <c r="AR40">
+        <v>1.87</v>
+      </c>
+      <c r="AS40">
+        <v>2.27</v>
+      </c>
+      <c r="AT40">
+        <v>4.14</v>
+      </c>
+      <c r="AU40">
+        <v>5</v>
+      </c>
+      <c r="AV40">
+        <v>9</v>
+      </c>
+      <c r="AW40">
+        <v>1</v>
+      </c>
+      <c r="AX40">
+        <v>6</v>
+      </c>
+      <c r="AY40">
+        <v>6</v>
+      </c>
+      <c r="AZ40">
+        <v>15</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
+      </c>
+      <c r="BB40">
+        <v>10</v>
+      </c>
+      <c r="BC40">
+        <v>10</v>
+      </c>
+      <c r="BD40">
+        <v>1.87</v>
+      </c>
+      <c r="BE40">
+        <v>7.2</v>
+      </c>
+      <c r="BF40">
+        <v>2.4</v>
+      </c>
+      <c r="BG40">
+        <v>1.22</v>
+      </c>
+      <c r="BH40">
+        <v>3.75</v>
+      </c>
+      <c r="BI40">
+        <v>1.41</v>
+      </c>
+      <c r="BJ40">
+        <v>2.63</v>
+      </c>
+      <c r="BK40">
+        <v>2.1</v>
+      </c>
+      <c r="BL40">
+        <v>1.98</v>
+      </c>
+      <c r="BM40">
+        <v>2.18</v>
+      </c>
+      <c r="BN40">
+        <v>1.6</v>
+      </c>
+      <c r="BO40">
+        <v>2.88</v>
+      </c>
+      <c r="BP40">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7452293</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45536.375</v>
+      </c>
+      <c r="F41">
+        <v>7</v>
+      </c>
+      <c r="G41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41" t="s">
+        <v>74</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <v>4</v>
+      </c>
+      <c r="O41" t="s">
+        <v>113</v>
+      </c>
+      <c r="P41" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q41">
+        <v>3</v>
+      </c>
+      <c r="R41">
+        <v>2.3</v>
+      </c>
+      <c r="S41">
+        <v>3.25</v>
+      </c>
+      <c r="T41">
+        <v>1.33</v>
+      </c>
+      <c r="U41">
+        <v>3.25</v>
+      </c>
+      <c r="V41">
+        <v>2.5</v>
+      </c>
+      <c r="W41">
+        <v>1.5</v>
+      </c>
+      <c r="X41">
+        <v>6.5</v>
+      </c>
+      <c r="Y41">
+        <v>1.11</v>
+      </c>
+      <c r="Z41">
+        <v>2.4</v>
+      </c>
+      <c r="AA41">
+        <v>3.5</v>
+      </c>
+      <c r="AB41">
+        <v>2.75</v>
+      </c>
+      <c r="AC41">
+        <v>1.02</v>
+      </c>
+      <c r="AD41">
+        <v>10</v>
+      </c>
+      <c r="AE41">
+        <v>1.25</v>
+      </c>
+      <c r="AF41">
+        <v>3.6</v>
+      </c>
+      <c r="AG41">
+        <v>1.67</v>
+      </c>
+      <c r="AH41">
+        <v>2.15</v>
+      </c>
+      <c r="AI41">
+        <v>1.57</v>
+      </c>
+      <c r="AJ41">
+        <v>2.25</v>
+      </c>
+      <c r="AK41">
+        <v>1.4</v>
+      </c>
+      <c r="AL41">
+        <v>1.27</v>
+      </c>
+      <c r="AM41">
+        <v>1.5</v>
+      </c>
+      <c r="AN41">
+        <v>0.5</v>
+      </c>
+      <c r="AO41">
+        <v>0.33</v>
+      </c>
+      <c r="AP41">
+        <v>0.67</v>
+      </c>
+      <c r="AQ41">
+        <v>0.5</v>
+      </c>
+      <c r="AR41">
+        <v>1.35</v>
+      </c>
+      <c r="AS41">
+        <v>1.16</v>
+      </c>
+      <c r="AT41">
+        <v>2.51</v>
+      </c>
+      <c r="AU41">
+        <v>7</v>
+      </c>
+      <c r="AV41">
+        <v>7</v>
+      </c>
+      <c r="AW41">
+        <v>5</v>
+      </c>
+      <c r="AX41">
+        <v>8</v>
+      </c>
+      <c r="AY41">
+        <v>12</v>
+      </c>
+      <c r="AZ41">
+        <v>15</v>
+      </c>
+      <c r="BA41">
+        <v>7</v>
+      </c>
+      <c r="BB41">
+        <v>10</v>
+      </c>
+      <c r="BC41">
+        <v>17</v>
+      </c>
+      <c r="BD41">
+        <v>1.97</v>
+      </c>
+      <c r="BE41">
+        <v>7.3</v>
+      </c>
+      <c r="BF41">
+        <v>2.2</v>
+      </c>
+      <c r="BG41">
+        <v>1.18</v>
+      </c>
+      <c r="BH41">
+        <v>4.25</v>
+      </c>
+      <c r="BI41">
+        <v>1.34</v>
+      </c>
+      <c r="BJ41">
+        <v>2.95</v>
+      </c>
+      <c r="BK41">
+        <v>2</v>
+      </c>
+      <c r="BL41">
+        <v>2</v>
+      </c>
+      <c r="BM41">
+        <v>1.95</v>
+      </c>
+      <c r="BN41">
+        <v>1.77</v>
+      </c>
+      <c r="BO41">
+        <v>2.6</v>
+      </c>
+      <c r="BP41">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7452295</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45536.45833333334</v>
+      </c>
+      <c r="F42">
+        <v>7</v>
+      </c>
+      <c r="G42" t="s">
+        <v>72</v>
+      </c>
+      <c r="H42" t="s">
+        <v>81</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>3</v>
+      </c>
+      <c r="N42">
+        <v>4</v>
+      </c>
+      <c r="O42" t="s">
+        <v>114</v>
+      </c>
+      <c r="P42" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q42">
+        <v>3.4</v>
+      </c>
+      <c r="R42">
+        <v>2.38</v>
+      </c>
+      <c r="S42">
+        <v>2.75</v>
+      </c>
+      <c r="T42">
+        <v>1.3</v>
+      </c>
+      <c r="U42">
+        <v>3.4</v>
+      </c>
+      <c r="V42">
+        <v>2.38</v>
+      </c>
+      <c r="W42">
+        <v>1.53</v>
+      </c>
+      <c r="X42">
+        <v>6</v>
+      </c>
+      <c r="Y42">
+        <v>1.13</v>
+      </c>
+      <c r="Z42">
+        <v>2.88</v>
+      </c>
+      <c r="AA42">
+        <v>3.8</v>
+      </c>
+      <c r="AB42">
+        <v>2.2</v>
+      </c>
+      <c r="AC42">
+        <v>1.03</v>
+      </c>
+      <c r="AD42">
+        <v>17.75</v>
+      </c>
+      <c r="AE42">
+        <v>1.16</v>
+      </c>
+      <c r="AF42">
+        <v>4.4</v>
+      </c>
+      <c r="AG42">
+        <v>1.53</v>
+      </c>
+      <c r="AH42">
+        <v>2.4</v>
+      </c>
+      <c r="AI42">
+        <v>1.5</v>
+      </c>
+      <c r="AJ42">
+        <v>2.5</v>
+      </c>
+      <c r="AK42">
+        <v>1.5</v>
+      </c>
+      <c r="AL42">
+        <v>1.27</v>
+      </c>
+      <c r="AM42">
+        <v>1.4</v>
+      </c>
+      <c r="AN42">
+        <v>3</v>
+      </c>
+      <c r="AO42">
+        <v>1.67</v>
+      </c>
+      <c r="AP42">
+        <v>2.25</v>
+      </c>
+      <c r="AQ42">
+        <v>2</v>
+      </c>
+      <c r="AR42">
+        <v>1.27</v>
+      </c>
+      <c r="AS42">
+        <v>1.48</v>
+      </c>
+      <c r="AT42">
+        <v>2.75</v>
+      </c>
+      <c r="AU42">
+        <v>4</v>
+      </c>
+      <c r="AV42">
+        <v>7</v>
+      </c>
+      <c r="AW42">
+        <v>5</v>
+      </c>
+      <c r="AX42">
+        <v>3</v>
+      </c>
+      <c r="AY42">
+        <v>9</v>
+      </c>
+      <c r="AZ42">
+        <v>10</v>
+      </c>
+      <c r="BA42">
+        <v>3</v>
+      </c>
+      <c r="BB42">
+        <v>5</v>
+      </c>
+      <c r="BC42">
+        <v>8</v>
+      </c>
+      <c r="BD42">
+        <v>2.42</v>
+      </c>
+      <c r="BE42">
+        <v>7.4</v>
+      </c>
+      <c r="BF42">
+        <v>1.85</v>
+      </c>
+      <c r="BG42">
+        <v>1.22</v>
+      </c>
+      <c r="BH42">
+        <v>3.64</v>
+      </c>
+      <c r="BI42">
+        <v>1.44</v>
+      </c>
+      <c r="BJ42">
+        <v>2.57</v>
+      </c>
+      <c r="BK42">
+        <v>1.92</v>
+      </c>
+      <c r="BL42">
+        <v>1.88</v>
+      </c>
+      <c r="BM42">
+        <v>2.21</v>
+      </c>
+      <c r="BN42">
+        <v>1.63</v>
+      </c>
+      <c r="BO42">
+        <v>3.04</v>
+      </c>
+      <c r="BP42">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7452296</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45536.54166666666</v>
+      </c>
+      <c r="F43">
+        <v>7</v>
+      </c>
+      <c r="G43" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" t="s">
+        <v>78</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43" t="s">
+        <v>115</v>
+      </c>
+      <c r="P43" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q43">
+        <v>2.25</v>
+      </c>
+      <c r="R43">
+        <v>2.4</v>
+      </c>
+      <c r="S43">
+        <v>4.5</v>
+      </c>
+      <c r="T43">
+        <v>1.3</v>
+      </c>
+      <c r="U43">
+        <v>3.4</v>
+      </c>
+      <c r="V43">
+        <v>2.5</v>
+      </c>
+      <c r="W43">
+        <v>1.5</v>
+      </c>
+      <c r="X43">
+        <v>6</v>
+      </c>
+      <c r="Y43">
+        <v>1.13</v>
+      </c>
+      <c r="Z43">
+        <v>1.8</v>
+      </c>
+      <c r="AA43">
+        <v>3.7</v>
+      </c>
+      <c r="AB43">
+        <v>3.6</v>
+      </c>
+      <c r="AC43">
+        <v>1.04</v>
+      </c>
+      <c r="AD43">
+        <v>15</v>
+      </c>
+      <c r="AE43">
+        <v>1.22</v>
+      </c>
+      <c r="AF43">
+        <v>4.4</v>
+      </c>
+      <c r="AG43">
+        <v>1.7</v>
+      </c>
+      <c r="AH43">
+        <v>2</v>
+      </c>
+      <c r="AI43">
+        <v>1.62</v>
+      </c>
+      <c r="AJ43">
+        <v>2.2</v>
+      </c>
+      <c r="AK43">
+        <v>1.23</v>
+      </c>
+      <c r="AL43">
+        <v>1.28</v>
+      </c>
+      <c r="AM43">
+        <v>2</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
+        <v>1</v>
+      </c>
+      <c r="AP43">
+        <v>1.5</v>
+      </c>
+      <c r="AQ43">
+        <v>0.75</v>
+      </c>
+      <c r="AR43">
+        <v>1.52</v>
+      </c>
+      <c r="AS43">
+        <v>1.4</v>
+      </c>
+      <c r="AT43">
+        <v>2.92</v>
+      </c>
+      <c r="AU43">
+        <v>2</v>
+      </c>
+      <c r="AV43">
+        <v>2</v>
+      </c>
+      <c r="AW43">
+        <v>6</v>
+      </c>
+      <c r="AX43">
+        <v>8</v>
+      </c>
+      <c r="AY43">
+        <v>8</v>
+      </c>
+      <c r="AZ43">
+        <v>10</v>
+      </c>
+      <c r="BA43">
+        <v>4</v>
+      </c>
+      <c r="BB43">
+        <v>13</v>
+      </c>
+      <c r="BC43">
+        <v>17</v>
+      </c>
+      <c r="BD43">
+        <v>1.51</v>
+      </c>
+      <c r="BE43">
+        <v>7.7</v>
+      </c>
+      <c r="BF43">
+        <v>3.35</v>
+      </c>
+      <c r="BG43">
+        <v>1.18</v>
+      </c>
+      <c r="BH43">
+        <v>4.5</v>
+      </c>
+      <c r="BI43">
+        <v>1.34</v>
+      </c>
+      <c r="BJ43">
+        <v>3.1</v>
+      </c>
+      <c r="BK43">
+        <v>1.91</v>
+      </c>
+      <c r="BL43">
+        <v>2.29</v>
+      </c>
+      <c r="BM43">
+        <v>1.98</v>
+      </c>
+      <c r="BN43">
+        <v>1.82</v>
+      </c>
+      <c r="BO43">
+        <v>2.48</v>
+      </c>
+      <c r="BP43">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -9226,10 +9226,10 @@
         <v>7</v>
       </c>
       <c r="BB41">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC41">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD41">
         <v>1.97</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="150">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -364,6 +364,9 @@
     <t>['39']</t>
   </si>
   <si>
+    <t>['45+4', '90+5']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -458,6 +461,9 @@
   </si>
   <si>
     <t>['4', '44', '77']</t>
+  </si>
+  <si>
+    <t>['72']</t>
   </si>
 </sst>
 </file>
@@ -819,7 +825,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP43"/>
+  <dimension ref="A1:BP44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1078,7 +1084,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1696,7 +1702,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1902,7 +1908,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2108,7 +2114,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2314,7 +2320,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2395,7 +2401,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ8">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2520,7 +2526,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2932,7 +2938,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3010,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>2</v>
@@ -3138,7 +3144,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3344,7 +3350,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q13">
         <v>1.83</v>
@@ -4168,7 +4174,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4374,7 +4380,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4580,7 +4586,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -4992,7 +4998,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5198,7 +5204,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q22">
         <v>1.73</v>
@@ -5279,7 +5285,7 @@
         <v>2</v>
       </c>
       <c r="AQ22">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR22">
         <v>1.44</v>
@@ -5404,7 +5410,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5610,7 +5616,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5816,7 +5822,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6022,7 +6028,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6228,7 +6234,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6434,7 +6440,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6640,7 +6646,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6846,7 +6852,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6924,7 +6930,7 @@
         <v>2</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30">
         <v>1.75</v>
@@ -7052,7 +7058,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7258,7 +7264,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7336,7 +7342,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32">
         <v>2</v>
@@ -7464,7 +7470,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7670,7 +7676,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -7876,7 +7882,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8082,7 +8088,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8369,7 +8375,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ37">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR37">
         <v>1.54</v>
@@ -8700,7 +8706,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -8906,7 +8912,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9112,7 +9118,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9318,7 +9324,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9681,6 +9687,212 @@
       </c>
       <c r="BP43">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7452301</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45548.58333333334</v>
+      </c>
+      <c r="F44">
+        <v>8</v>
+      </c>
+      <c r="G44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H44" t="s">
+        <v>75</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>3</v>
+      </c>
+      <c r="O44" t="s">
+        <v>116</v>
+      </c>
+      <c r="P44" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q44">
+        <v>2.75</v>
+      </c>
+      <c r="R44">
+        <v>2.25</v>
+      </c>
+      <c r="S44">
+        <v>3.75</v>
+      </c>
+      <c r="T44">
+        <v>1.33</v>
+      </c>
+      <c r="U44">
+        <v>3.25</v>
+      </c>
+      <c r="V44">
+        <v>2.63</v>
+      </c>
+      <c r="W44">
+        <v>1.44</v>
+      </c>
+      <c r="X44">
+        <v>6.5</v>
+      </c>
+      <c r="Y44">
+        <v>1.11</v>
+      </c>
+      <c r="Z44">
+        <v>2.1</v>
+      </c>
+      <c r="AA44">
+        <v>3.7</v>
+      </c>
+      <c r="AB44">
+        <v>3.1</v>
+      </c>
+      <c r="AC44">
+        <v>1.03</v>
+      </c>
+      <c r="AD44">
+        <v>12.5</v>
+      </c>
+      <c r="AE44">
+        <v>1.23</v>
+      </c>
+      <c r="AF44">
+        <v>4.15</v>
+      </c>
+      <c r="AG44">
+        <v>1.8</v>
+      </c>
+      <c r="AH44">
+        <v>2</v>
+      </c>
+      <c r="AI44">
+        <v>1.7</v>
+      </c>
+      <c r="AJ44">
+        <v>2.05</v>
+      </c>
+      <c r="AK44">
+        <v>1.4</v>
+      </c>
+      <c r="AL44">
+        <v>1.26</v>
+      </c>
+      <c r="AM44">
+        <v>1.66</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
+        <v>0.67</v>
+      </c>
+      <c r="AP44">
+        <v>1.5</v>
+      </c>
+      <c r="AQ44">
+        <v>0.5</v>
+      </c>
+      <c r="AR44">
+        <v>0.9</v>
+      </c>
+      <c r="AS44">
+        <v>1.18</v>
+      </c>
+      <c r="AT44">
+        <v>2.08</v>
+      </c>
+      <c r="AU44">
+        <v>7</v>
+      </c>
+      <c r="AV44">
+        <v>6</v>
+      </c>
+      <c r="AW44">
+        <v>4</v>
+      </c>
+      <c r="AX44">
+        <v>5</v>
+      </c>
+      <c r="AY44">
+        <v>11</v>
+      </c>
+      <c r="AZ44">
+        <v>11</v>
+      </c>
+      <c r="BA44">
+        <v>1</v>
+      </c>
+      <c r="BB44">
+        <v>5</v>
+      </c>
+      <c r="BC44">
+        <v>6</v>
+      </c>
+      <c r="BD44">
+        <v>1.95</v>
+      </c>
+      <c r="BE44">
+        <v>8.5</v>
+      </c>
+      <c r="BF44">
+        <v>2.05</v>
+      </c>
+      <c r="BG44">
+        <v>1.13</v>
+      </c>
+      <c r="BH44">
+        <v>5.4</v>
+      </c>
+      <c r="BI44">
+        <v>1.26</v>
+      </c>
+      <c r="BJ44">
+        <v>3.6</v>
+      </c>
+      <c r="BK44">
+        <v>1.5</v>
+      </c>
+      <c r="BL44">
+        <v>2.45</v>
+      </c>
+      <c r="BM44">
+        <v>1.82</v>
+      </c>
+      <c r="BN44">
+        <v>1.98</v>
+      </c>
+      <c r="BO44">
+        <v>2.25</v>
+      </c>
+      <c r="BP44">
+        <v>1.59</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="150">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -364,7 +364,10 @@
     <t>['39']</t>
   </si>
   <si>
-    <t>['45+4', '90+5']</t>
+    <t>['45+4', '90+4']</t>
+  </si>
+  <si>
+    <t>['69', '79']</t>
   </si>
   <si>
     <t>['47']</t>
@@ -461,9 +464,6 @@
   </si>
   <si>
     <t>['4', '44', '77']</t>
-  </si>
-  <si>
-    <t>['72']</t>
   </si>
 </sst>
 </file>
@@ -825,7 +825,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP44"/>
+  <dimension ref="A1:BP45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1084,7 +1084,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1702,7 +1702,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1908,7 +1908,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2114,7 +2114,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2195,7 +2195,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2526,7 +2526,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2938,7 +2938,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3144,7 +3144,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3350,7 +3350,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q13">
         <v>1.83</v>
@@ -4174,7 +4174,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4380,7 +4380,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4586,7 +4586,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -4998,7 +4998,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5204,7 +5204,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q22">
         <v>1.73</v>
@@ -5410,7 +5410,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5616,7 +5616,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5697,7 +5697,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ24">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
         <v>1.85</v>
@@ -5822,7 +5822,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6028,7 +6028,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6234,7 +6234,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6440,7 +6440,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6646,7 +6646,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6852,7 +6852,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7058,7 +7058,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7264,7 +7264,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7470,7 +7470,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7676,7 +7676,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -7882,7 +7882,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7963,7 +7963,7 @@
         <v>2</v>
       </c>
       <c r="AQ35">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
         <v>1.81</v>
@@ -8088,7 +8088,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8706,7 +8706,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -8912,7 +8912,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9118,7 +9118,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9324,7 +9324,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9736,7 +9736,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -9893,6 +9893,212 @@
       </c>
       <c r="BP44">
         <v>1.59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7452302</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45549.54166666666</v>
+      </c>
+      <c r="F45">
+        <v>8</v>
+      </c>
+      <c r="G45" t="s">
+        <v>81</v>
+      </c>
+      <c r="H45" t="s">
+        <v>79</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="O45" t="s">
+        <v>117</v>
+      </c>
+      <c r="P45" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q45">
+        <v>2.88</v>
+      </c>
+      <c r="R45">
+        <v>2.4</v>
+      </c>
+      <c r="S45">
+        <v>3.2</v>
+      </c>
+      <c r="T45">
+        <v>1.29</v>
+      </c>
+      <c r="U45">
+        <v>3.5</v>
+      </c>
+      <c r="V45">
+        <v>2.38</v>
+      </c>
+      <c r="W45">
+        <v>1.53</v>
+      </c>
+      <c r="X45">
+        <v>5.5</v>
+      </c>
+      <c r="Y45">
+        <v>1.14</v>
+      </c>
+      <c r="Z45">
+        <v>2.3</v>
+      </c>
+      <c r="AA45">
+        <v>3.7</v>
+      </c>
+      <c r="AB45">
+        <v>2.8</v>
+      </c>
+      <c r="AC45">
+        <v>1.01</v>
+      </c>
+      <c r="AD45">
+        <v>16.5</v>
+      </c>
+      <c r="AE45">
+        <v>1.19</v>
+      </c>
+      <c r="AF45">
+        <v>4.7</v>
+      </c>
+      <c r="AG45">
+        <v>1.5</v>
+      </c>
+      <c r="AH45">
+        <v>2.5</v>
+      </c>
+      <c r="AI45">
+        <v>1.44</v>
+      </c>
+      <c r="AJ45">
+        <v>2.63</v>
+      </c>
+      <c r="AK45">
+        <v>1.48</v>
+      </c>
+      <c r="AL45">
+        <v>1.24</v>
+      </c>
+      <c r="AM45">
+        <v>1.58</v>
+      </c>
+      <c r="AN45">
+        <v>3</v>
+      </c>
+      <c r="AO45">
+        <v>2</v>
+      </c>
+      <c r="AP45">
+        <v>3</v>
+      </c>
+      <c r="AQ45">
+        <v>1.5</v>
+      </c>
+      <c r="AR45">
+        <v>1.88</v>
+      </c>
+      <c r="AS45">
+        <v>1.76</v>
+      </c>
+      <c r="AT45">
+        <v>3.64</v>
+      </c>
+      <c r="AU45">
+        <v>6</v>
+      </c>
+      <c r="AV45">
+        <v>3</v>
+      </c>
+      <c r="AW45">
+        <v>10</v>
+      </c>
+      <c r="AX45">
+        <v>6</v>
+      </c>
+      <c r="AY45">
+        <v>16</v>
+      </c>
+      <c r="AZ45">
+        <v>9</v>
+      </c>
+      <c r="BA45">
+        <v>17</v>
+      </c>
+      <c r="BB45">
+        <v>3</v>
+      </c>
+      <c r="BC45">
+        <v>20</v>
+      </c>
+      <c r="BD45">
+        <v>1.67</v>
+      </c>
+      <c r="BE45">
+        <v>7.7</v>
+      </c>
+      <c r="BF45">
+        <v>2.76</v>
+      </c>
+      <c r="BG45">
+        <v>1.19</v>
+      </c>
+      <c r="BH45">
+        <v>4.3</v>
+      </c>
+      <c r="BI45">
+        <v>1.3</v>
+      </c>
+      <c r="BJ45">
+        <v>3.1</v>
+      </c>
+      <c r="BK45">
+        <v>1.83</v>
+      </c>
+      <c r="BL45">
+        <v>2.37</v>
+      </c>
+      <c r="BM45">
+        <v>1.95</v>
+      </c>
+      <c r="BN45">
+        <v>1.85</v>
+      </c>
+      <c r="BO45">
+        <v>2.3</v>
+      </c>
+      <c r="BP45">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="154">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -370,6 +370,12 @@
     <t>['69', '79']</t>
   </si>
   <si>
+    <t>['3', '75']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -464,6 +470,12 @@
   </si>
   <si>
     <t>['4', '44', '77']</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['45+1', '55', '65', '68', '84']</t>
   </si>
 </sst>
 </file>
@@ -825,7 +837,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP45"/>
+  <dimension ref="A1:BP49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1084,7 +1096,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1162,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ2">
         <v>2</v>
@@ -1368,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ3">
         <v>0.75</v>
@@ -1577,7 +1589,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ4">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1702,7 +1714,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1783,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1908,7 +1920,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2114,7 +2126,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2320,7 +2332,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2526,7 +2538,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2604,7 +2616,7 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ9">
         <v>2</v>
@@ -2813,7 +2825,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2938,7 +2950,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3019,7 +3031,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3144,7 +3156,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3350,7 +3362,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q13">
         <v>1.83</v>
@@ -3428,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ13">
         <v>0</v>
@@ -3634,10 +3646,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ14">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR14">
         <v>1.77</v>
@@ -4049,7 +4061,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>1.37</v>
@@ -4174,7 +4186,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4255,7 +4267,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR17">
         <v>1.41</v>
@@ -4380,7 +4392,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4586,7 +4598,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -4998,7 +5010,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5079,7 +5091,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR21">
         <v>1.14</v>
@@ -5204,7 +5216,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22">
         <v>1.73</v>
@@ -5282,7 +5294,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ22">
         <v>0.5</v>
@@ -5410,7 +5422,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5488,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ23">
         <v>2</v>
@@ -5616,7 +5628,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5822,7 +5834,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6028,7 +6040,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6234,7 +6246,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6315,7 +6327,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR27">
         <v>1.35</v>
@@ -6440,7 +6452,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6646,7 +6658,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6727,7 +6739,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>1.88</v>
@@ -6852,7 +6864,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7058,7 +7070,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7136,7 +7148,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ31">
         <v>0</v>
@@ -7264,7 +7276,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7470,7 +7482,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7551,7 +7563,7 @@
         <v>3</v>
       </c>
       <c r="AQ33">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR33">
         <v>1.8</v>
@@ -7676,7 +7688,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -7757,7 +7769,7 @@
         <v>0</v>
       </c>
       <c r="AQ34">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR34">
         <v>1.05</v>
@@ -7882,7 +7894,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7960,7 +7972,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ35">
         <v>1.5</v>
@@ -8088,7 +8100,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8166,10 +8178,10 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ36">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR36">
         <v>1.69</v>
@@ -8706,7 +8718,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -8784,7 +8796,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -8912,7 +8924,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9118,7 +9130,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9199,7 +9211,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.35</v>
@@ -9324,7 +9336,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9736,7 +9748,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -9942,7 +9954,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10099,6 +10111,830 @@
       </c>
       <c r="BP45">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7452297</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45550.375</v>
+      </c>
+      <c r="F46">
+        <v>8</v>
+      </c>
+      <c r="G46" t="s">
+        <v>70</v>
+      </c>
+      <c r="H46" t="s">
+        <v>72</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46" t="s">
+        <v>114</v>
+      </c>
+      <c r="P46" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q46">
+        <v>2.1</v>
+      </c>
+      <c r="R46">
+        <v>2.38</v>
+      </c>
+      <c r="S46">
+        <v>5.5</v>
+      </c>
+      <c r="T46">
+        <v>1.3</v>
+      </c>
+      <c r="U46">
+        <v>3.4</v>
+      </c>
+      <c r="V46">
+        <v>2.5</v>
+      </c>
+      <c r="W46">
+        <v>1.5</v>
+      </c>
+      <c r="X46">
+        <v>6</v>
+      </c>
+      <c r="Y46">
+        <v>1.13</v>
+      </c>
+      <c r="Z46">
+        <v>1.57</v>
+      </c>
+      <c r="AA46">
+        <v>4.1</v>
+      </c>
+      <c r="AB46">
+        <v>5.75</v>
+      </c>
+      <c r="AC46">
+        <v>1.02</v>
+      </c>
+      <c r="AD46">
+        <v>14.5</v>
+      </c>
+      <c r="AE46">
+        <v>1.18</v>
+      </c>
+      <c r="AF46">
+        <v>4.05</v>
+      </c>
+      <c r="AG46">
+        <v>1.73</v>
+      </c>
+      <c r="AH46">
+        <v>2.08</v>
+      </c>
+      <c r="AI46">
+        <v>1.75</v>
+      </c>
+      <c r="AJ46">
+        <v>2</v>
+      </c>
+      <c r="AK46">
+        <v>1.12</v>
+      </c>
+      <c r="AL46">
+        <v>1.19</v>
+      </c>
+      <c r="AM46">
+        <v>2.19</v>
+      </c>
+      <c r="AN46">
+        <v>2.5</v>
+      </c>
+      <c r="AO46">
+        <v>2</v>
+      </c>
+      <c r="AP46">
+        <v>2.2</v>
+      </c>
+      <c r="AQ46">
+        <v>1.75</v>
+      </c>
+      <c r="AR46">
+        <v>1.69</v>
+      </c>
+      <c r="AS46">
+        <v>1.38</v>
+      </c>
+      <c r="AT46">
+        <v>3.07</v>
+      </c>
+      <c r="AU46">
+        <v>4</v>
+      </c>
+      <c r="AV46">
+        <v>4</v>
+      </c>
+      <c r="AW46">
+        <v>5</v>
+      </c>
+      <c r="AX46">
+        <v>3</v>
+      </c>
+      <c r="AY46">
+        <v>9</v>
+      </c>
+      <c r="AZ46">
+        <v>7</v>
+      </c>
+      <c r="BA46">
+        <v>5</v>
+      </c>
+      <c r="BB46">
+        <v>4</v>
+      </c>
+      <c r="BC46">
+        <v>9</v>
+      </c>
+      <c r="BD46">
+        <v>1.47</v>
+      </c>
+      <c r="BE46">
+        <v>7.8</v>
+      </c>
+      <c r="BF46">
+        <v>3.55</v>
+      </c>
+      <c r="BG46">
+        <v>1.25</v>
+      </c>
+      <c r="BH46">
+        <v>3.42</v>
+      </c>
+      <c r="BI46">
+        <v>1.54</v>
+      </c>
+      <c r="BJ46">
+        <v>2.35</v>
+      </c>
+      <c r="BK46">
+        <v>1.92</v>
+      </c>
+      <c r="BL46">
+        <v>1.88</v>
+      </c>
+      <c r="BM46">
+        <v>2.45</v>
+      </c>
+      <c r="BN46">
+        <v>1.5</v>
+      </c>
+      <c r="BO46">
+        <v>3.18</v>
+      </c>
+      <c r="BP46">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7452300</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45550.45833333334</v>
+      </c>
+      <c r="F47">
+        <v>8</v>
+      </c>
+      <c r="G47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H47" t="s">
+        <v>74</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>5</v>
+      </c>
+      <c r="N47">
+        <v>5</v>
+      </c>
+      <c r="O47" t="s">
+        <v>87</v>
+      </c>
+      <c r="P47" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q47">
+        <v>3.4</v>
+      </c>
+      <c r="R47">
+        <v>2.3</v>
+      </c>
+      <c r="S47">
+        <v>2.88</v>
+      </c>
+      <c r="T47">
+        <v>1.33</v>
+      </c>
+      <c r="U47">
+        <v>3.25</v>
+      </c>
+      <c r="V47">
+        <v>2.5</v>
+      </c>
+      <c r="W47">
+        <v>1.5</v>
+      </c>
+      <c r="X47">
+        <v>6.5</v>
+      </c>
+      <c r="Y47">
+        <v>1.11</v>
+      </c>
+      <c r="Z47">
+        <v>2.9</v>
+      </c>
+      <c r="AA47">
+        <v>3.5</v>
+      </c>
+      <c r="AB47">
+        <v>2.3</v>
+      </c>
+      <c r="AC47">
+        <v>1.01</v>
+      </c>
+      <c r="AD47">
+        <v>9.9</v>
+      </c>
+      <c r="AE47">
+        <v>1.18</v>
+      </c>
+      <c r="AF47">
+        <v>4.05</v>
+      </c>
+      <c r="AG47">
+        <v>1.67</v>
+      </c>
+      <c r="AH47">
+        <v>2.15</v>
+      </c>
+      <c r="AI47">
+        <v>1.57</v>
+      </c>
+      <c r="AJ47">
+        <v>2.25</v>
+      </c>
+      <c r="AK47">
+        <v>1.54</v>
+      </c>
+      <c r="AL47">
+        <v>1.25</v>
+      </c>
+      <c r="AM47">
+        <v>1.36</v>
+      </c>
+      <c r="AN47">
+        <v>0</v>
+      </c>
+      <c r="AO47">
+        <v>0.5</v>
+      </c>
+      <c r="AP47">
+        <v>0</v>
+      </c>
+      <c r="AQ47">
+        <v>1</v>
+      </c>
+      <c r="AR47">
+        <v>1.58</v>
+      </c>
+      <c r="AS47">
+        <v>1.32</v>
+      </c>
+      <c r="AT47">
+        <v>2.9</v>
+      </c>
+      <c r="AU47">
+        <v>5</v>
+      </c>
+      <c r="AV47">
+        <v>11</v>
+      </c>
+      <c r="AW47">
+        <v>9</v>
+      </c>
+      <c r="AX47">
+        <v>7</v>
+      </c>
+      <c r="AY47">
+        <v>14</v>
+      </c>
+      <c r="AZ47">
+        <v>18</v>
+      </c>
+      <c r="BA47">
+        <v>3</v>
+      </c>
+      <c r="BB47">
+        <v>2</v>
+      </c>
+      <c r="BC47">
+        <v>5</v>
+      </c>
+      <c r="BD47">
+        <v>2.14</v>
+      </c>
+      <c r="BE47">
+        <v>7.3</v>
+      </c>
+      <c r="BF47">
+        <v>2.02</v>
+      </c>
+      <c r="BG47">
+        <v>1.14</v>
+      </c>
+      <c r="BH47">
+        <v>4.55</v>
+      </c>
+      <c r="BI47">
+        <v>1.44</v>
+      </c>
+      <c r="BJ47">
+        <v>2.6</v>
+      </c>
+      <c r="BK47">
+        <v>1.91</v>
+      </c>
+      <c r="BL47">
+        <v>1.96</v>
+      </c>
+      <c r="BM47">
+        <v>1.98</v>
+      </c>
+      <c r="BN47">
+        <v>1.82</v>
+      </c>
+      <c r="BO47">
+        <v>2.33</v>
+      </c>
+      <c r="BP47">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7452298</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45550.54166666666</v>
+      </c>
+      <c r="F48">
+        <v>8</v>
+      </c>
+      <c r="G48" t="s">
+        <v>80</v>
+      </c>
+      <c r="H48" t="s">
+        <v>76</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48" t="s">
+        <v>118</v>
+      </c>
+      <c r="P48" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q48">
+        <v>1.8</v>
+      </c>
+      <c r="R48">
+        <v>2.75</v>
+      </c>
+      <c r="S48">
+        <v>7</v>
+      </c>
+      <c r="T48">
+        <v>1.29</v>
+      </c>
+      <c r="U48">
+        <v>3.5</v>
+      </c>
+      <c r="V48">
+        <v>2.25</v>
+      </c>
+      <c r="W48">
+        <v>1.57</v>
+      </c>
+      <c r="X48">
+        <v>5.5</v>
+      </c>
+      <c r="Y48">
+        <v>1.14</v>
+      </c>
+      <c r="Z48">
+        <v>1.39</v>
+      </c>
+      <c r="AA48">
+        <v>4.3</v>
+      </c>
+      <c r="AB48">
+        <v>5.9</v>
+      </c>
+      <c r="AC48">
+        <v>1.01</v>
+      </c>
+      <c r="AD48">
+        <v>18.5</v>
+      </c>
+      <c r="AE48">
+        <v>1.17</v>
+      </c>
+      <c r="AF48">
+        <v>4.95</v>
+      </c>
+      <c r="AG48">
+        <v>1.53</v>
+      </c>
+      <c r="AH48">
+        <v>2.4</v>
+      </c>
+      <c r="AI48">
+        <v>1.75</v>
+      </c>
+      <c r="AJ48">
+        <v>2</v>
+      </c>
+      <c r="AK48">
+        <v>1.07</v>
+      </c>
+      <c r="AL48">
+        <v>1.14</v>
+      </c>
+      <c r="AM48">
+        <v>2.63</v>
+      </c>
+      <c r="AN48">
+        <v>1.33</v>
+      </c>
+      <c r="AO48">
+        <v>0.75</v>
+      </c>
+      <c r="AP48">
+        <v>1.75</v>
+      </c>
+      <c r="AQ48">
+        <v>0.6</v>
+      </c>
+      <c r="AR48">
+        <v>1.96</v>
+      </c>
+      <c r="AS48">
+        <v>1.26</v>
+      </c>
+      <c r="AT48">
+        <v>3.22</v>
+      </c>
+      <c r="AU48">
+        <v>7</v>
+      </c>
+      <c r="AV48">
+        <v>0</v>
+      </c>
+      <c r="AW48">
+        <v>3</v>
+      </c>
+      <c r="AX48">
+        <v>4</v>
+      </c>
+      <c r="AY48">
+        <v>10</v>
+      </c>
+      <c r="AZ48">
+        <v>4</v>
+      </c>
+      <c r="BA48">
+        <v>7</v>
+      </c>
+      <c r="BB48">
+        <v>1</v>
+      </c>
+      <c r="BC48">
+        <v>8</v>
+      </c>
+      <c r="BD48">
+        <v>1.28</v>
+      </c>
+      <c r="BE48">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF48">
+        <v>4.96</v>
+      </c>
+      <c r="BG48">
+        <v>1.17</v>
+      </c>
+      <c r="BH48">
+        <v>4.25</v>
+      </c>
+      <c r="BI48">
+        <v>1.34</v>
+      </c>
+      <c r="BJ48">
+        <v>2.95</v>
+      </c>
+      <c r="BK48">
+        <v>2</v>
+      </c>
+      <c r="BL48">
+        <v>2.2</v>
+      </c>
+      <c r="BM48">
+        <v>1.98</v>
+      </c>
+      <c r="BN48">
+        <v>1.75</v>
+      </c>
+      <c r="BO48">
+        <v>2.5</v>
+      </c>
+      <c r="BP48">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7452299</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45551.58333333334</v>
+      </c>
+      <c r="F49">
+        <v>8</v>
+      </c>
+      <c r="G49" t="s">
+        <v>71</v>
+      </c>
+      <c r="H49" t="s">
+        <v>77</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49" t="s">
+        <v>119</v>
+      </c>
+      <c r="P49" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q49">
+        <v>2.25</v>
+      </c>
+      <c r="R49">
+        <v>2.4</v>
+      </c>
+      <c r="S49">
+        <v>4.5</v>
+      </c>
+      <c r="T49">
+        <v>1.29</v>
+      </c>
+      <c r="U49">
+        <v>3.5</v>
+      </c>
+      <c r="V49">
+        <v>2.38</v>
+      </c>
+      <c r="W49">
+        <v>1.53</v>
+      </c>
+      <c r="X49">
+        <v>5.5</v>
+      </c>
+      <c r="Y49">
+        <v>1.14</v>
+      </c>
+      <c r="Z49">
+        <v>1.7</v>
+      </c>
+      <c r="AA49">
+        <v>3.9</v>
+      </c>
+      <c r="AB49">
+        <v>4.5</v>
+      </c>
+      <c r="AC49">
+        <v>1.02</v>
+      </c>
+      <c r="AD49">
+        <v>18</v>
+      </c>
+      <c r="AE49">
+        <v>1.14</v>
+      </c>
+      <c r="AF49">
+        <v>4.55</v>
+      </c>
+      <c r="AG49">
+        <v>1.62</v>
+      </c>
+      <c r="AH49">
+        <v>2.25</v>
+      </c>
+      <c r="AI49">
+        <v>1.62</v>
+      </c>
+      <c r="AJ49">
+        <v>2.2</v>
+      </c>
+      <c r="AK49">
+        <v>1.22</v>
+      </c>
+      <c r="AL49">
+        <v>1.25</v>
+      </c>
+      <c r="AM49">
+        <v>2.05</v>
+      </c>
+      <c r="AN49">
+        <v>2</v>
+      </c>
+      <c r="AO49">
+        <v>1.67</v>
+      </c>
+      <c r="AP49">
+        <v>1.8</v>
+      </c>
+      <c r="AQ49">
+        <v>1.5</v>
+      </c>
+      <c r="AR49">
+        <v>1.79</v>
+      </c>
+      <c r="AS49">
+        <v>1.13</v>
+      </c>
+      <c r="AT49">
+        <v>2.92</v>
+      </c>
+      <c r="AU49">
+        <v>7</v>
+      </c>
+      <c r="AV49">
+        <v>4</v>
+      </c>
+      <c r="AW49">
+        <v>1</v>
+      </c>
+      <c r="AX49">
+        <v>7</v>
+      </c>
+      <c r="AY49">
+        <v>8</v>
+      </c>
+      <c r="AZ49">
+        <v>11</v>
+      </c>
+      <c r="BA49">
+        <v>7</v>
+      </c>
+      <c r="BB49">
+        <v>3</v>
+      </c>
+      <c r="BC49">
+        <v>10</v>
+      </c>
+      <c r="BD49">
+        <v>1.51</v>
+      </c>
+      <c r="BE49">
+        <v>7.7</v>
+      </c>
+      <c r="BF49">
+        <v>3.35</v>
+      </c>
+      <c r="BG49">
+        <v>1.17</v>
+      </c>
+      <c r="BH49">
+        <v>4.35</v>
+      </c>
+      <c r="BI49">
+        <v>1.32</v>
+      </c>
+      <c r="BJ49">
+        <v>3</v>
+      </c>
+      <c r="BK49">
+        <v>1.91</v>
+      </c>
+      <c r="BL49">
+        <v>2.13</v>
+      </c>
+      <c r="BM49">
+        <v>2.05</v>
+      </c>
+      <c r="BN49">
+        <v>1.7</v>
+      </c>
+      <c r="BO49">
+        <v>2.6</v>
+      </c>
+      <c r="BP49">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="156">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -376,6 +376,9 @@
     <t>['90+6']</t>
   </si>
   <si>
+    <t>['28', '39', '45+1']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -476,6 +479,9 @@
   </si>
   <si>
     <t>['45+1', '55', '65', '68', '84']</t>
+  </si>
+  <si>
+    <t>['15', '86']</t>
   </si>
 </sst>
 </file>
@@ -837,7 +843,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP49"/>
+  <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1096,7 +1102,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1714,7 +1720,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1920,7 +1926,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -1998,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ6">
         <v>1.75</v>
@@ -2126,7 +2132,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2332,7 +2338,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2538,7 +2544,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2950,7 +2956,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3156,7 +3162,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3362,7 +3368,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q13">
         <v>1.83</v>
@@ -4186,7 +4192,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4392,7 +4398,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4598,7 +4604,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -4679,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR19">
         <v>1.07</v>
@@ -5010,7 +5016,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5216,7 +5222,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22">
         <v>1.73</v>
@@ -5422,7 +5428,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5628,7 +5634,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5834,7 +5840,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -5912,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ25">
         <v>0.75</v>
@@ -6040,7 +6046,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6246,7 +6252,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6452,7 +6458,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6533,7 +6539,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR28">
         <v>1.19</v>
@@ -6658,7 +6664,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6864,7 +6870,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7070,7 +7076,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7276,7 +7282,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7482,7 +7488,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7688,7 +7694,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -7894,7 +7900,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8100,7 +8106,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8384,7 +8390,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ37">
         <v>0.5</v>
@@ -8718,7 +8724,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -8799,7 +8805,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR39">
         <v>1.84</v>
@@ -8924,7 +8930,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9130,7 +9136,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9336,7 +9342,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9748,7 +9754,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -9954,7 +9960,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10160,7 +10166,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10366,7 +10372,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10935,6 +10941,212 @@
       </c>
       <c r="BP49">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7452307</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45555.58333333334</v>
+      </c>
+      <c r="F50">
+        <v>9</v>
+      </c>
+      <c r="G50" t="s">
+        <v>74</v>
+      </c>
+      <c r="H50" t="s">
+        <v>71</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>4</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>5</v>
+      </c>
+      <c r="O50" t="s">
+        <v>120</v>
+      </c>
+      <c r="P50" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q50">
+        <v>3.1</v>
+      </c>
+      <c r="R50">
+        <v>2.38</v>
+      </c>
+      <c r="S50">
+        <v>3</v>
+      </c>
+      <c r="T50">
+        <v>1.3</v>
+      </c>
+      <c r="U50">
+        <v>3.4</v>
+      </c>
+      <c r="V50">
+        <v>2.5</v>
+      </c>
+      <c r="W50">
+        <v>1.5</v>
+      </c>
+      <c r="X50">
+        <v>6</v>
+      </c>
+      <c r="Y50">
+        <v>1.13</v>
+      </c>
+      <c r="Z50">
+        <v>2.63</v>
+      </c>
+      <c r="AA50">
+        <v>3.7</v>
+      </c>
+      <c r="AB50">
+        <v>2.4</v>
+      </c>
+      <c r="AC50">
+        <v>1.01</v>
+      </c>
+      <c r="AD50">
+        <v>11</v>
+      </c>
+      <c r="AE50">
+        <v>1.14</v>
+      </c>
+      <c r="AF50">
+        <v>4.8</v>
+      </c>
+      <c r="AG50">
+        <v>1.57</v>
+      </c>
+      <c r="AH50">
+        <v>2.35</v>
+      </c>
+      <c r="AI50">
+        <v>1.5</v>
+      </c>
+      <c r="AJ50">
+        <v>2.5</v>
+      </c>
+      <c r="AK50">
+        <v>1.76</v>
+      </c>
+      <c r="AL50">
+        <v>1.27</v>
+      </c>
+      <c r="AM50">
+        <v>1.34</v>
+      </c>
+      <c r="AN50">
+        <v>1.33</v>
+      </c>
+      <c r="AO50">
+        <v>1</v>
+      </c>
+      <c r="AP50">
+        <v>1.75</v>
+      </c>
+      <c r="AQ50">
+        <v>0.75</v>
+      </c>
+      <c r="AR50">
+        <v>1.51</v>
+      </c>
+      <c r="AS50">
+        <v>1.47</v>
+      </c>
+      <c r="AT50">
+        <v>2.98</v>
+      </c>
+      <c r="AU50">
+        <v>7</v>
+      </c>
+      <c r="AV50">
+        <v>9</v>
+      </c>
+      <c r="AW50">
+        <v>4</v>
+      </c>
+      <c r="AX50">
+        <v>8</v>
+      </c>
+      <c r="AY50">
+        <v>11</v>
+      </c>
+      <c r="AZ50">
+        <v>17</v>
+      </c>
+      <c r="BA50">
+        <v>2</v>
+      </c>
+      <c r="BB50">
+        <v>5</v>
+      </c>
+      <c r="BC50">
+        <v>7</v>
+      </c>
+      <c r="BD50">
+        <v>2.27</v>
+      </c>
+      <c r="BE50">
+        <v>7.6</v>
+      </c>
+      <c r="BF50">
+        <v>1.9</v>
+      </c>
+      <c r="BG50">
+        <v>1.17</v>
+      </c>
+      <c r="BH50">
+        <v>4.6</v>
+      </c>
+      <c r="BI50">
+        <v>1.3</v>
+      </c>
+      <c r="BJ50">
+        <v>3.1</v>
+      </c>
+      <c r="BK50">
+        <v>1.91</v>
+      </c>
+      <c r="BL50">
+        <v>2.3</v>
+      </c>
+      <c r="BM50">
+        <v>2</v>
+      </c>
+      <c r="BN50">
+        <v>1.8</v>
+      </c>
+      <c r="BO50">
+        <v>2.43</v>
+      </c>
+      <c r="BP50">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="162">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -379,6 +379,18 @@
     <t>['28', '39', '45+1']</t>
   </si>
   <si>
+    <t>['27', '90+7']</t>
+  </si>
+  <si>
+    <t>['16', '45+3']</t>
+  </si>
+  <si>
+    <t>['13', '57', '73']</t>
+  </si>
+  <si>
+    <t>['63', '72']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -482,6 +494,12 @@
   </si>
   <si>
     <t>['15', '86']</t>
+  </si>
+  <si>
+    <t>['19', '90+1']</t>
+  </si>
+  <si>
+    <t>['23', '63', '67']</t>
   </si>
 </sst>
 </file>
@@ -843,7 +861,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP50"/>
+  <dimension ref="A1:BP55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1102,7 +1120,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1183,7 +1201,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ2">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1389,7 +1407,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ3">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1592,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
         <v>0.6</v>
@@ -1720,7 +1738,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1926,7 +1944,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2007,7 +2025,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ6">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2132,7 +2150,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2210,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ7">
         <v>1.5</v>
@@ -2338,7 +2356,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2416,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ8">
         <v>0.5</v>
@@ -2544,7 +2562,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2625,7 +2643,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR9">
         <v>1.96</v>
@@ -2828,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -2956,7 +2974,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3162,7 +3180,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3240,10 +3258,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3368,7 +3386,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q13">
         <v>1.83</v>
@@ -3861,7 +3879,7 @@
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4064,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4192,7 +4210,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4270,7 +4288,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ17">
         <v>1.5</v>
@@ -4398,7 +4416,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4476,10 +4494,10 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ18">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR18">
         <v>1.15</v>
@@ -4604,7 +4622,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -5016,7 +5034,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5094,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ21">
         <v>1.75</v>
@@ -5222,7 +5240,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q22">
         <v>1.73</v>
@@ -5428,7 +5446,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5509,7 +5527,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR23">
         <v>1.53</v>
@@ -5634,7 +5652,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5712,7 +5730,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ24">
         <v>1.5</v>
@@ -5840,7 +5858,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -5921,7 +5939,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ25">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR25">
         <v>0.91</v>
@@ -6046,7 +6064,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6124,10 +6142,10 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ26">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR26">
         <v>1.11</v>
@@ -6252,7 +6270,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6330,7 +6348,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ27">
         <v>0.6</v>
@@ -6458,7 +6476,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6536,7 +6554,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>0.75</v>
@@ -6664,7 +6682,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6742,7 +6760,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -6870,7 +6888,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6951,7 +6969,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ30">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR30">
         <v>1.16</v>
@@ -7076,7 +7094,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7282,7 +7300,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7363,7 +7381,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ32">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR32">
         <v>1.14</v>
@@ -7488,7 +7506,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7694,7 +7712,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -7900,7 +7918,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8106,7 +8124,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8596,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ38">
         <v>0</v>
@@ -8724,7 +8742,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -8930,7 +8948,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9008,10 +9026,10 @@
         <v>2.33</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ40">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR40">
         <v>1.87</v>
@@ -9136,7 +9154,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9214,7 +9232,7 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9342,7 +9360,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9420,10 +9438,10 @@
         <v>1.67</v>
       </c>
       <c r="AP42">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR42">
         <v>1.27</v>
@@ -9626,10 +9644,10 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ43">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR43">
         <v>1.52</v>
@@ -9754,7 +9772,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -9960,7 +9978,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10166,7 +10184,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10372,7 +10390,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10990,7 +11008,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11146,6 +11164,1036 @@
         <v>2.43</v>
       </c>
       <c r="BP50">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7452303</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45557.375</v>
+      </c>
+      <c r="F51">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>76</v>
+      </c>
+      <c r="H51" t="s">
+        <v>73</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>3</v>
+      </c>
+      <c r="O51" t="s">
+        <v>121</v>
+      </c>
+      <c r="P51" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q51">
+        <v>2.75</v>
+      </c>
+      <c r="R51">
+        <v>2.25</v>
+      </c>
+      <c r="S51">
+        <v>3.75</v>
+      </c>
+      <c r="T51">
+        <v>1.33</v>
+      </c>
+      <c r="U51">
+        <v>3.25</v>
+      </c>
+      <c r="V51">
+        <v>2.5</v>
+      </c>
+      <c r="W51">
+        <v>1.5</v>
+      </c>
+      <c r="X51">
+        <v>6.5</v>
+      </c>
+      <c r="Y51">
+        <v>1.11</v>
+      </c>
+      <c r="Z51">
+        <v>2.1</v>
+      </c>
+      <c r="AA51">
+        <v>3.5</v>
+      </c>
+      <c r="AB51">
+        <v>3.3</v>
+      </c>
+      <c r="AC51">
+        <v>1.01</v>
+      </c>
+      <c r="AD51">
+        <v>10.5</v>
+      </c>
+      <c r="AE51">
+        <v>1.18</v>
+      </c>
+      <c r="AF51">
+        <v>3.8</v>
+      </c>
+      <c r="AG51">
+        <v>1.73</v>
+      </c>
+      <c r="AH51">
+        <v>2.08</v>
+      </c>
+      <c r="AI51">
+        <v>1.62</v>
+      </c>
+      <c r="AJ51">
+        <v>2.2</v>
+      </c>
+      <c r="AK51">
+        <v>1.29</v>
+      </c>
+      <c r="AL51">
+        <v>1.28</v>
+      </c>
+      <c r="AM51">
+        <v>1.84</v>
+      </c>
+      <c r="AN51">
+        <v>0.67</v>
+      </c>
+      <c r="AO51">
+        <v>0</v>
+      </c>
+      <c r="AP51">
+        <v>1.25</v>
+      </c>
+      <c r="AQ51">
+        <v>0</v>
+      </c>
+      <c r="AR51">
+        <v>1.45</v>
+      </c>
+      <c r="AS51">
+        <v>1.24</v>
+      </c>
+      <c r="AT51">
+        <v>2.69</v>
+      </c>
+      <c r="AU51">
+        <v>7</v>
+      </c>
+      <c r="AV51">
+        <v>4</v>
+      </c>
+      <c r="AW51">
+        <v>5</v>
+      </c>
+      <c r="AX51">
+        <v>4</v>
+      </c>
+      <c r="AY51">
+        <v>12</v>
+      </c>
+      <c r="AZ51">
+        <v>8</v>
+      </c>
+      <c r="BA51">
+        <v>4</v>
+      </c>
+      <c r="BB51">
+        <v>2</v>
+      </c>
+      <c r="BC51">
+        <v>6</v>
+      </c>
+      <c r="BD51">
+        <v>1.55</v>
+      </c>
+      <c r="BE51">
+        <v>8.5</v>
+      </c>
+      <c r="BF51">
+        <v>2.91</v>
+      </c>
+      <c r="BG51">
+        <v>1.21</v>
+      </c>
+      <c r="BH51">
+        <v>4.1</v>
+      </c>
+      <c r="BI51">
+        <v>1.4</v>
+      </c>
+      <c r="BJ51">
+        <v>2.8</v>
+      </c>
+      <c r="BK51">
+        <v>2</v>
+      </c>
+      <c r="BL51">
+        <v>2.13</v>
+      </c>
+      <c r="BM51">
+        <v>2.08</v>
+      </c>
+      <c r="BN51">
+        <v>1.7</v>
+      </c>
+      <c r="BO51">
+        <v>2.65</v>
+      </c>
+      <c r="BP51">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7452306</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45557.375</v>
+      </c>
+      <c r="F52">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>77</v>
+      </c>
+      <c r="H52" t="s">
+        <v>81</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>3</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>2</v>
+      </c>
+      <c r="N52">
+        <v>4</v>
+      </c>
+      <c r="O52" t="s">
+        <v>122</v>
+      </c>
+      <c r="P52" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q52">
+        <v>3.6</v>
+      </c>
+      <c r="R52">
+        <v>2.38</v>
+      </c>
+      <c r="S52">
+        <v>2.6</v>
+      </c>
+      <c r="T52">
+        <v>1.3</v>
+      </c>
+      <c r="U52">
+        <v>3.4</v>
+      </c>
+      <c r="V52">
+        <v>2.5</v>
+      </c>
+      <c r="W52">
+        <v>1.5</v>
+      </c>
+      <c r="X52">
+        <v>6</v>
+      </c>
+      <c r="Y52">
+        <v>1.13</v>
+      </c>
+      <c r="Z52">
+        <v>3.2</v>
+      </c>
+      <c r="AA52">
+        <v>3.9</v>
+      </c>
+      <c r="AB52">
+        <v>2.05</v>
+      </c>
+      <c r="AC52">
+        <v>1.01</v>
+      </c>
+      <c r="AD52">
+        <v>16.5</v>
+      </c>
+      <c r="AE52">
+        <v>1.2</v>
+      </c>
+      <c r="AF52">
+        <v>4.5</v>
+      </c>
+      <c r="AG52">
+        <v>1.57</v>
+      </c>
+      <c r="AH52">
+        <v>2.35</v>
+      </c>
+      <c r="AI52">
+        <v>1.53</v>
+      </c>
+      <c r="AJ52">
+        <v>2.38</v>
+      </c>
+      <c r="AK52">
+        <v>1.7</v>
+      </c>
+      <c r="AL52">
+        <v>1.29</v>
+      </c>
+      <c r="AM52">
+        <v>1.36</v>
+      </c>
+      <c r="AN52">
+        <v>1.5</v>
+      </c>
+      <c r="AO52">
+        <v>2</v>
+      </c>
+      <c r="AP52">
+        <v>1.4</v>
+      </c>
+      <c r="AQ52">
+        <v>1.8</v>
+      </c>
+      <c r="AR52">
+        <v>1.41</v>
+      </c>
+      <c r="AS52">
+        <v>1.48</v>
+      </c>
+      <c r="AT52">
+        <v>2.89</v>
+      </c>
+      <c r="AU52">
+        <v>5</v>
+      </c>
+      <c r="AV52">
+        <v>7</v>
+      </c>
+      <c r="AW52">
+        <v>8</v>
+      </c>
+      <c r="AX52">
+        <v>3</v>
+      </c>
+      <c r="AY52">
+        <v>13</v>
+      </c>
+      <c r="AZ52">
+        <v>10</v>
+      </c>
+      <c r="BA52">
+        <v>6</v>
+      </c>
+      <c r="BB52">
+        <v>4</v>
+      </c>
+      <c r="BC52">
+        <v>10</v>
+      </c>
+      <c r="BD52">
+        <v>2.58</v>
+      </c>
+      <c r="BE52">
+        <v>6.85</v>
+      </c>
+      <c r="BF52">
+        <v>1.81</v>
+      </c>
+      <c r="BG52">
+        <v>1.11</v>
+      </c>
+      <c r="BH52">
+        <v>4.55</v>
+      </c>
+      <c r="BI52">
+        <v>1.26</v>
+      </c>
+      <c r="BJ52">
+        <v>3.08</v>
+      </c>
+      <c r="BK52">
+        <v>2.1</v>
+      </c>
+      <c r="BL52">
+        <v>2.32</v>
+      </c>
+      <c r="BM52">
+        <v>1.89</v>
+      </c>
+      <c r="BN52">
+        <v>1.85</v>
+      </c>
+      <c r="BO52">
+        <v>2.38</v>
+      </c>
+      <c r="BP52">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7452304</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45557.45833333334</v>
+      </c>
+      <c r="F53">
+        <v>9</v>
+      </c>
+      <c r="G53" t="s">
+        <v>75</v>
+      </c>
+      <c r="H53" t="s">
+        <v>70</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53" t="s">
+        <v>87</v>
+      </c>
+      <c r="P53" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q53">
+        <v>4.33</v>
+      </c>
+      <c r="R53">
+        <v>2.2</v>
+      </c>
+      <c r="S53">
+        <v>2.5</v>
+      </c>
+      <c r="T53">
+        <v>1.36</v>
+      </c>
+      <c r="U53">
+        <v>3</v>
+      </c>
+      <c r="V53">
+        <v>2.63</v>
+      </c>
+      <c r="W53">
+        <v>1.44</v>
+      </c>
+      <c r="X53">
+        <v>7</v>
+      </c>
+      <c r="Y53">
+        <v>1.1</v>
+      </c>
+      <c r="Z53">
+        <v>3.6</v>
+      </c>
+      <c r="AA53">
+        <v>3.75</v>
+      </c>
+      <c r="AB53">
+        <v>1.9</v>
+      </c>
+      <c r="AC53">
+        <v>1.03</v>
+      </c>
+      <c r="AD53">
+        <v>12.5</v>
+      </c>
+      <c r="AE53">
+        <v>1.27</v>
+      </c>
+      <c r="AF53">
+        <v>3.7</v>
+      </c>
+      <c r="AG53">
+        <v>1.85</v>
+      </c>
+      <c r="AH53">
+        <v>1.95</v>
+      </c>
+      <c r="AI53">
+        <v>1.8</v>
+      </c>
+      <c r="AJ53">
+        <v>1.95</v>
+      </c>
+      <c r="AK53">
+        <v>2</v>
+      </c>
+      <c r="AL53">
+        <v>1.22</v>
+      </c>
+      <c r="AM53">
+        <v>1.24</v>
+      </c>
+      <c r="AN53">
+        <v>0.75</v>
+      </c>
+      <c r="AO53">
+        <v>2</v>
+      </c>
+      <c r="AP53">
+        <v>0.8</v>
+      </c>
+      <c r="AQ53">
+        <v>1.75</v>
+      </c>
+      <c r="AR53">
+        <v>1.13</v>
+      </c>
+      <c r="AS53">
+        <v>1.04</v>
+      </c>
+      <c r="AT53">
+        <v>2.17</v>
+      </c>
+      <c r="AU53">
+        <v>3</v>
+      </c>
+      <c r="AV53">
+        <v>4</v>
+      </c>
+      <c r="AW53">
+        <v>2</v>
+      </c>
+      <c r="AX53">
+        <v>6</v>
+      </c>
+      <c r="AY53">
+        <v>5</v>
+      </c>
+      <c r="AZ53">
+        <v>10</v>
+      </c>
+      <c r="BA53">
+        <v>5</v>
+      </c>
+      <c r="BB53">
+        <v>12</v>
+      </c>
+      <c r="BC53">
+        <v>17</v>
+      </c>
+      <c r="BD53">
+        <v>3</v>
+      </c>
+      <c r="BE53">
+        <v>7.8</v>
+      </c>
+      <c r="BF53">
+        <v>1.59</v>
+      </c>
+      <c r="BG53">
+        <v>1.12</v>
+      </c>
+      <c r="BH53">
+        <v>4.4</v>
+      </c>
+      <c r="BI53">
+        <v>1.28</v>
+      </c>
+      <c r="BJ53">
+        <v>2.97</v>
+      </c>
+      <c r="BK53">
+        <v>2</v>
+      </c>
+      <c r="BL53">
+        <v>2.25</v>
+      </c>
+      <c r="BM53">
+        <v>1.93</v>
+      </c>
+      <c r="BN53">
+        <v>1.81</v>
+      </c>
+      <c r="BO53">
+        <v>2.45</v>
+      </c>
+      <c r="BP53">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7452305</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45557.54166666666</v>
+      </c>
+      <c r="F54">
+        <v>9</v>
+      </c>
+      <c r="G54" t="s">
+        <v>72</v>
+      </c>
+      <c r="H54" t="s">
+        <v>80</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54">
+        <v>3</v>
+      </c>
+      <c r="N54">
+        <v>6</v>
+      </c>
+      <c r="O54" t="s">
+        <v>123</v>
+      </c>
+      <c r="P54" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q54">
+        <v>4.5</v>
+      </c>
+      <c r="R54">
+        <v>2.4</v>
+      </c>
+      <c r="S54">
+        <v>2.25</v>
+      </c>
+      <c r="T54">
+        <v>1.33</v>
+      </c>
+      <c r="U54">
+        <v>3.25</v>
+      </c>
+      <c r="V54">
+        <v>2.5</v>
+      </c>
+      <c r="W54">
+        <v>1.5</v>
+      </c>
+      <c r="X54">
+        <v>6</v>
+      </c>
+      <c r="Y54">
+        <v>1.13</v>
+      </c>
+      <c r="Z54">
+        <v>3.55</v>
+      </c>
+      <c r="AA54">
+        <v>3.75</v>
+      </c>
+      <c r="AB54">
+        <v>2</v>
+      </c>
+      <c r="AC54">
+        <v>1.03</v>
+      </c>
+      <c r="AD54">
+        <v>15.5</v>
+      </c>
+      <c r="AE54">
+        <v>1.2</v>
+      </c>
+      <c r="AF54">
+        <v>4.37</v>
+      </c>
+      <c r="AG54">
+        <v>1.68</v>
+      </c>
+      <c r="AH54">
+        <v>2.2</v>
+      </c>
+      <c r="AI54">
+        <v>1.62</v>
+      </c>
+      <c r="AJ54">
+        <v>2.2</v>
+      </c>
+      <c r="AK54">
+        <v>1.87</v>
+      </c>
+      <c r="AL54">
+        <v>1.27</v>
+      </c>
+      <c r="AM54">
+        <v>1.28</v>
+      </c>
+      <c r="AN54">
+        <v>2.25</v>
+      </c>
+      <c r="AO54">
+        <v>1.75</v>
+      </c>
+      <c r="AP54">
+        <v>2</v>
+      </c>
+      <c r="AQ54">
+        <v>1.6</v>
+      </c>
+      <c r="AR54">
+        <v>1.24</v>
+      </c>
+      <c r="AS54">
+        <v>2.11</v>
+      </c>
+      <c r="AT54">
+        <v>3.35</v>
+      </c>
+      <c r="AU54">
+        <v>4</v>
+      </c>
+      <c r="AV54">
+        <v>8</v>
+      </c>
+      <c r="AW54">
+        <v>6</v>
+      </c>
+      <c r="AX54">
+        <v>7</v>
+      </c>
+      <c r="AY54">
+        <v>10</v>
+      </c>
+      <c r="AZ54">
+        <v>15</v>
+      </c>
+      <c r="BA54">
+        <v>1</v>
+      </c>
+      <c r="BB54">
+        <v>7</v>
+      </c>
+      <c r="BC54">
+        <v>8</v>
+      </c>
+      <c r="BD54">
+        <v>2.81</v>
+      </c>
+      <c r="BE54">
+        <v>7.8</v>
+      </c>
+      <c r="BF54">
+        <v>1.65</v>
+      </c>
+      <c r="BG54">
+        <v>1.18</v>
+      </c>
+      <c r="BH54">
+        <v>3.72</v>
+      </c>
+      <c r="BI54">
+        <v>1.39</v>
+      </c>
+      <c r="BJ54">
+        <v>2.67</v>
+      </c>
+      <c r="BK54">
+        <v>2.2</v>
+      </c>
+      <c r="BL54">
+        <v>1.95</v>
+      </c>
+      <c r="BM54">
+        <v>2.14</v>
+      </c>
+      <c r="BN54">
+        <v>1.6</v>
+      </c>
+      <c r="BO54">
+        <v>2.78</v>
+      </c>
+      <c r="BP54">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7452308</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45558.58333333334</v>
+      </c>
+      <c r="F55">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>79</v>
+      </c>
+      <c r="H55" t="s">
+        <v>78</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+      <c r="O55" t="s">
+        <v>124</v>
+      </c>
+      <c r="P55" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q55">
+        <v>1.67</v>
+      </c>
+      <c r="R55">
+        <v>2.88</v>
+      </c>
+      <c r="S55">
+        <v>7.5</v>
+      </c>
+      <c r="T55">
+        <v>1.22</v>
+      </c>
+      <c r="U55">
+        <v>4</v>
+      </c>
+      <c r="V55">
+        <v>2</v>
+      </c>
+      <c r="W55">
+        <v>1.73</v>
+      </c>
+      <c r="X55">
+        <v>4.33</v>
+      </c>
+      <c r="Y55">
+        <v>1.2</v>
+      </c>
+      <c r="Z55">
+        <v>1.29</v>
+      </c>
+      <c r="AA55">
+        <v>5.5</v>
+      </c>
+      <c r="AB55">
+        <v>10</v>
+      </c>
+      <c r="AC55">
+        <v>1.01</v>
+      </c>
+      <c r="AD55">
+        <v>13.75</v>
+      </c>
+      <c r="AE55">
+        <v>1.12</v>
+      </c>
+      <c r="AF55">
+        <v>5.45</v>
+      </c>
+      <c r="AG55">
+        <v>1.44</v>
+      </c>
+      <c r="AH55">
+        <v>2.7</v>
+      </c>
+      <c r="AI55">
+        <v>1.75</v>
+      </c>
+      <c r="AJ55">
+        <v>2</v>
+      </c>
+      <c r="AK55">
+        <v>1.07</v>
+      </c>
+      <c r="AL55">
+        <v>1.13</v>
+      </c>
+      <c r="AM55">
+        <v>3.3</v>
+      </c>
+      <c r="AN55">
+        <v>2</v>
+      </c>
+      <c r="AO55">
+        <v>0.75</v>
+      </c>
+      <c r="AP55">
+        <v>2.2</v>
+      </c>
+      <c r="AQ55">
+        <v>0.6</v>
+      </c>
+      <c r="AR55">
+        <v>1.59</v>
+      </c>
+      <c r="AS55">
+        <v>1.36</v>
+      </c>
+      <c r="AT55">
+        <v>2.95</v>
+      </c>
+      <c r="AU55">
+        <v>7</v>
+      </c>
+      <c r="AV55">
+        <v>0</v>
+      </c>
+      <c r="AW55">
+        <v>16</v>
+      </c>
+      <c r="AX55">
+        <v>3</v>
+      </c>
+      <c r="AY55">
+        <v>23</v>
+      </c>
+      <c r="AZ55">
+        <v>3</v>
+      </c>
+      <c r="BA55">
+        <v>7</v>
+      </c>
+      <c r="BB55">
+        <v>2</v>
+      </c>
+      <c r="BC55">
+        <v>9</v>
+      </c>
+      <c r="BD55">
+        <v>1.18</v>
+      </c>
+      <c r="BE55">
+        <v>11</v>
+      </c>
+      <c r="BF55">
+        <v>6.57</v>
+      </c>
+      <c r="BG55">
+        <v>1.19</v>
+      </c>
+      <c r="BH55">
+        <v>4.4</v>
+      </c>
+      <c r="BI55">
+        <v>1.3</v>
+      </c>
+      <c r="BJ55">
+        <v>3.1</v>
+      </c>
+      <c r="BK55">
+        <v>1.91</v>
+      </c>
+      <c r="BL55">
+        <v>2.3</v>
+      </c>
+      <c r="BM55">
+        <v>2</v>
+      </c>
+      <c r="BN55">
+        <v>1.8</v>
+      </c>
+      <c r="BO55">
+        <v>2.43</v>
+      </c>
+      <c r="BP55">
         <v>1.48</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="164">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -391,6 +391,9 @@
     <t>['63', '72']</t>
   </si>
   <si>
+    <t>['25', '79']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -500,6 +503,9 @@
   </si>
   <si>
     <t>['23', '63', '67']</t>
+  </si>
+  <si>
+    <t>['44', '61']</t>
   </si>
 </sst>
 </file>
@@ -861,7 +867,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP55"/>
+  <dimension ref="A1:BP56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1120,7 +1126,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1198,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
         <v>1.8</v>
@@ -1738,7 +1744,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1819,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1944,7 +1950,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2150,7 +2156,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2356,7 +2362,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2562,7 +2568,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2974,7 +2980,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3180,7 +3186,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3386,7 +3392,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q13">
         <v>1.83</v>
@@ -3670,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>0.6</v>
@@ -4210,7 +4216,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4291,7 +4297,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ17">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR17">
         <v>1.41</v>
@@ -4416,7 +4422,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4622,7 +4628,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -5034,7 +5040,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5240,7 +5246,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q22">
         <v>1.73</v>
@@ -5446,7 +5452,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5652,7 +5658,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5858,7 +5864,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6064,7 +6070,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6270,7 +6276,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6476,7 +6482,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6682,7 +6688,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6888,7 +6894,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7094,7 +7100,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7172,7 +7178,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>0</v>
@@ -7300,7 +7306,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7506,7 +7512,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7712,7 +7718,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -7918,7 +7924,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8124,7 +8130,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8205,7 +8211,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ36">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR36">
         <v>1.69</v>
@@ -8742,7 +8748,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -8820,7 +8826,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
         <v>0.75</v>
@@ -8948,7 +8954,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9154,7 +9160,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9360,7 +9366,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9772,7 +9778,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -9978,7 +9984,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10184,7 +10190,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10262,7 +10268,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>1.75</v>
@@ -10390,7 +10396,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10883,7 +10889,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ49">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR49">
         <v>1.79</v>
@@ -11008,7 +11014,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11420,7 +11426,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11832,7 +11838,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12195,6 +12201,212 @@
       </c>
       <c r="BP55">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7452309</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>70</v>
+      </c>
+      <c r="H56" t="s">
+        <v>77</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="N56">
+        <v>4</v>
+      </c>
+      <c r="O56" t="s">
+        <v>125</v>
+      </c>
+      <c r="P56" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q56">
+        <v>2.5</v>
+      </c>
+      <c r="R56">
+        <v>2.2</v>
+      </c>
+      <c r="S56">
+        <v>4.33</v>
+      </c>
+      <c r="T56">
+        <v>1.33</v>
+      </c>
+      <c r="U56">
+        <v>3.25</v>
+      </c>
+      <c r="V56">
+        <v>2.63</v>
+      </c>
+      <c r="W56">
+        <v>1.44</v>
+      </c>
+      <c r="X56">
+        <v>6.5</v>
+      </c>
+      <c r="Y56">
+        <v>1.11</v>
+      </c>
+      <c r="Z56">
+        <v>1.91</v>
+      </c>
+      <c r="AA56">
+        <v>3.5</v>
+      </c>
+      <c r="AB56">
+        <v>4</v>
+      </c>
+      <c r="AC56">
+        <v>1.04</v>
+      </c>
+      <c r="AD56">
+        <v>10</v>
+      </c>
+      <c r="AE56">
+        <v>1.25</v>
+      </c>
+      <c r="AF56">
+        <v>3.95</v>
+      </c>
+      <c r="AG56">
+        <v>1.95</v>
+      </c>
+      <c r="AH56">
+        <v>1.85</v>
+      </c>
+      <c r="AI56">
+        <v>1.75</v>
+      </c>
+      <c r="AJ56">
+        <v>2</v>
+      </c>
+      <c r="AK56">
+        <v>1.2</v>
+      </c>
+      <c r="AL56">
+        <v>1.22</v>
+      </c>
+      <c r="AM56">
+        <v>2</v>
+      </c>
+      <c r="AN56">
+        <v>2.2</v>
+      </c>
+      <c r="AO56">
+        <v>1.5</v>
+      </c>
+      <c r="AP56">
+        <v>2</v>
+      </c>
+      <c r="AQ56">
+        <v>1.4</v>
+      </c>
+      <c r="AR56">
+        <v>1.6</v>
+      </c>
+      <c r="AS56">
+        <v>1.15</v>
+      </c>
+      <c r="AT56">
+        <v>2.75</v>
+      </c>
+      <c r="AU56">
+        <v>7</v>
+      </c>
+      <c r="AV56">
+        <v>3</v>
+      </c>
+      <c r="AW56">
+        <v>5</v>
+      </c>
+      <c r="AX56">
+        <v>3</v>
+      </c>
+      <c r="AY56">
+        <v>12</v>
+      </c>
+      <c r="AZ56">
+        <v>6</v>
+      </c>
+      <c r="BA56">
+        <v>2</v>
+      </c>
+      <c r="BB56">
+        <v>5</v>
+      </c>
+      <c r="BC56">
+        <v>7</v>
+      </c>
+      <c r="BD56">
+        <v>1.49</v>
+      </c>
+      <c r="BE56">
+        <v>7.4</v>
+      </c>
+      <c r="BF56">
+        <v>3.58</v>
+      </c>
+      <c r="BG56">
+        <v>1.17</v>
+      </c>
+      <c r="BH56">
+        <v>4.3</v>
+      </c>
+      <c r="BI56">
+        <v>1.33</v>
+      </c>
+      <c r="BJ56">
+        <v>2.95</v>
+      </c>
+      <c r="BK56">
+        <v>1.83</v>
+      </c>
+      <c r="BL56">
+        <v>2.44</v>
+      </c>
+      <c r="BM56">
+        <v>1.86</v>
+      </c>
+      <c r="BN56">
+        <v>1.93</v>
+      </c>
+      <c r="BO56">
+        <v>2.31</v>
+      </c>
+      <c r="BP56">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -12343,22 +12343,22 @@
         <v>2.75</v>
       </c>
       <c r="AU56">
+        <v>8</v>
+      </c>
+      <c r="AV56">
+        <v>5</v>
+      </c>
+      <c r="AW56">
+        <v>2</v>
+      </c>
+      <c r="AX56">
+        <v>2</v>
+      </c>
+      <c r="AY56">
+        <v>10</v>
+      </c>
+      <c r="AZ56">
         <v>7</v>
-      </c>
-      <c r="AV56">
-        <v>3</v>
-      </c>
-      <c r="AW56">
-        <v>5</v>
-      </c>
-      <c r="AX56">
-        <v>3</v>
-      </c>
-      <c r="AY56">
-        <v>12</v>
-      </c>
-      <c r="AZ56">
-        <v>6</v>
       </c>
       <c r="BA56">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="170">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -394,6 +394,18 @@
     <t>['25', '79']</t>
   </si>
   <si>
+    <t>['39', '71', '73']</t>
+  </si>
+  <si>
+    <t>['48', '61', '77']</t>
+  </si>
+  <si>
+    <t>['59', '90+4']</t>
+  </si>
+  <si>
+    <t>['46']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -506,6 +518,12 @@
   </si>
   <si>
     <t>['44', '61']</t>
+  </si>
+  <si>
+    <t>['28', '84']</t>
+  </si>
+  <si>
+    <t>['62', '85']</t>
   </si>
 </sst>
 </file>
@@ -867,7 +885,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP56"/>
+  <dimension ref="A1:BP60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1126,7 +1144,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1619,7 +1637,7 @@
         <v>2</v>
       </c>
       <c r="AQ4">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1744,7 +1762,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1950,7 +1968,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2156,7 +2174,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2234,10 +2252,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2362,7 +2380,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2568,7 +2586,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2855,7 +2873,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2980,7 +2998,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3058,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ11">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3186,7 +3204,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3392,7 +3410,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q13">
         <v>1.83</v>
@@ -3679,7 +3697,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR14">
         <v>1.77</v>
@@ -4091,7 +4109,7 @@
         <v>2</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR16">
         <v>1.37</v>
@@ -4216,7 +4234,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4422,7 +4440,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4500,7 +4518,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ18">
         <v>1.6</v>
@@ -4628,7 +4646,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -5040,7 +5058,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5121,7 +5139,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ21">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR21">
         <v>1.14</v>
@@ -5246,7 +5264,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q22">
         <v>1.73</v>
@@ -5452,7 +5470,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5658,7 +5676,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5739,7 +5757,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR24">
         <v>1.85</v>
@@ -5864,7 +5882,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6070,7 +6088,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6148,7 +6166,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ26">
         <v>1.8</v>
@@ -6276,7 +6294,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6357,7 +6375,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ27">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR27">
         <v>1.35</v>
@@ -6482,7 +6500,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6688,7 +6706,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6769,7 +6787,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR29">
         <v>1.88</v>
@@ -6894,7 +6912,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6972,7 +6990,7 @@
         <v>2</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ30">
         <v>1.6</v>
@@ -7100,7 +7118,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7306,7 +7324,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7384,7 +7402,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ32">
         <v>1.75</v>
@@ -7512,7 +7530,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7593,7 +7611,7 @@
         <v>3</v>
       </c>
       <c r="AQ33">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR33">
         <v>1.8</v>
@@ -7718,7 +7736,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -7799,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="AQ34">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR34">
         <v>1.05</v>
@@ -7924,7 +7942,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8005,7 +8023,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR35">
         <v>1.81</v>
@@ -8130,7 +8148,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8620,7 +8638,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ38">
         <v>0</v>
@@ -8748,7 +8766,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -8954,7 +8972,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9160,7 +9178,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9241,7 +9259,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR41">
         <v>1.35</v>
@@ -9366,7 +9384,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9778,7 +9796,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -9856,7 +9874,7 @@
         <v>0.67</v>
       </c>
       <c r="AP44">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ44">
         <v>0.5</v>
@@ -9984,7 +10002,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10065,7 +10083,7 @@
         <v>3</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR45">
         <v>1.88</v>
@@ -10190,7 +10208,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10271,7 +10289,7 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR46">
         <v>1.69</v>
@@ -10396,7 +10414,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10477,7 +10495,7 @@
         <v>0</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR47">
         <v>1.58</v>
@@ -10683,7 +10701,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ48">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR48">
         <v>1.96</v>
@@ -11014,7 +11032,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11426,7 +11444,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11710,7 +11728,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ53">
         <v>1.75</v>
@@ -11838,7 +11856,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12250,7 +12268,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12407,6 +12425,830 @@
       </c>
       <c r="BP56">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7452310</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45564.375</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>81</v>
+      </c>
+      <c r="H57" t="s">
+        <v>74</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57">
+        <v>3</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>4</v>
+      </c>
+      <c r="O57" t="s">
+        <v>126</v>
+      </c>
+      <c r="P57" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q57">
+        <v>2.25</v>
+      </c>
+      <c r="R57">
+        <v>2.5</v>
+      </c>
+      <c r="S57">
+        <v>4.33</v>
+      </c>
+      <c r="T57">
+        <v>1.25</v>
+      </c>
+      <c r="U57">
+        <v>3.75</v>
+      </c>
+      <c r="V57">
+        <v>2.2</v>
+      </c>
+      <c r="W57">
+        <v>1.62</v>
+      </c>
+      <c r="X57">
+        <v>5</v>
+      </c>
+      <c r="Y57">
+        <v>1.17</v>
+      </c>
+      <c r="Z57">
+        <v>1.7</v>
+      </c>
+      <c r="AA57">
+        <v>4</v>
+      </c>
+      <c r="AB57">
+        <v>4.2</v>
+      </c>
+      <c r="AC57">
+        <v>1.01</v>
+      </c>
+      <c r="AD57">
+        <v>13</v>
+      </c>
+      <c r="AE57">
+        <v>1.12</v>
+      </c>
+      <c r="AF57">
+        <v>5.25</v>
+      </c>
+      <c r="AG57">
+        <v>1.4</v>
+      </c>
+      <c r="AH57">
+        <v>2.88</v>
+      </c>
+      <c r="AI57">
+        <v>1.5</v>
+      </c>
+      <c r="AJ57">
+        <v>2.5</v>
+      </c>
+      <c r="AK57">
+        <v>1.22</v>
+      </c>
+      <c r="AL57">
+        <v>1.22</v>
+      </c>
+      <c r="AM57">
+        <v>2.15</v>
+      </c>
+      <c r="AN57">
+        <v>3</v>
+      </c>
+      <c r="AO57">
+        <v>1</v>
+      </c>
+      <c r="AP57">
+        <v>3</v>
+      </c>
+      <c r="AQ57">
+        <v>0.83</v>
+      </c>
+      <c r="AR57">
+        <v>1.87</v>
+      </c>
+      <c r="AS57">
+        <v>1.5</v>
+      </c>
+      <c r="AT57">
+        <v>3.37</v>
+      </c>
+      <c r="AU57">
+        <v>10</v>
+      </c>
+      <c r="AV57">
+        <v>4</v>
+      </c>
+      <c r="AW57">
+        <v>4</v>
+      </c>
+      <c r="AX57">
+        <v>6</v>
+      </c>
+      <c r="AY57">
+        <v>14</v>
+      </c>
+      <c r="AZ57">
+        <v>10</v>
+      </c>
+      <c r="BA57">
+        <v>10</v>
+      </c>
+      <c r="BB57">
+        <v>0</v>
+      </c>
+      <c r="BC57">
+        <v>10</v>
+      </c>
+      <c r="BD57">
+        <v>1.38</v>
+      </c>
+      <c r="BE57">
+        <v>8.4</v>
+      </c>
+      <c r="BF57">
+        <v>4.06</v>
+      </c>
+      <c r="BG57">
+        <v>1.1</v>
+      </c>
+      <c r="BH57">
+        <v>4.75</v>
+      </c>
+      <c r="BI57">
+        <v>1.24</v>
+      </c>
+      <c r="BJ57">
+        <v>3.55</v>
+      </c>
+      <c r="BK57">
+        <v>2.1</v>
+      </c>
+      <c r="BL57">
+        <v>2.44</v>
+      </c>
+      <c r="BM57">
+        <v>1.75</v>
+      </c>
+      <c r="BN57">
+        <v>2.04</v>
+      </c>
+      <c r="BO57">
+        <v>2.19</v>
+      </c>
+      <c r="BP57">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7452312</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45564.375</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>78</v>
+      </c>
+      <c r="H58" t="s">
+        <v>76</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>3</v>
+      </c>
+      <c r="O58" t="s">
+        <v>127</v>
+      </c>
+      <c r="P58" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q58">
+        <v>3</v>
+      </c>
+      <c r="R58">
+        <v>2.3</v>
+      </c>
+      <c r="S58">
+        <v>3.1</v>
+      </c>
+      <c r="T58">
+        <v>1.3</v>
+      </c>
+      <c r="U58">
+        <v>3.4</v>
+      </c>
+      <c r="V58">
+        <v>2.5</v>
+      </c>
+      <c r="W58">
+        <v>1.5</v>
+      </c>
+      <c r="X58">
+        <v>6</v>
+      </c>
+      <c r="Y58">
+        <v>1.13</v>
+      </c>
+      <c r="Z58">
+        <v>2.5</v>
+      </c>
+      <c r="AA58">
+        <v>3.6</v>
+      </c>
+      <c r="AB58">
+        <v>2.63</v>
+      </c>
+      <c r="AC58">
+        <v>1.04</v>
+      </c>
+      <c r="AD58">
+        <v>10</v>
+      </c>
+      <c r="AE58">
+        <v>1.16</v>
+      </c>
+      <c r="AF58">
+        <v>4.05</v>
+      </c>
+      <c r="AG58">
+        <v>1.65</v>
+      </c>
+      <c r="AH58">
+        <v>2.2</v>
+      </c>
+      <c r="AI58">
+        <v>1.53</v>
+      </c>
+      <c r="AJ58">
+        <v>2.38</v>
+      </c>
+      <c r="AK58">
+        <v>1.45</v>
+      </c>
+      <c r="AL58">
+        <v>1.28</v>
+      </c>
+      <c r="AM58">
+        <v>1.57</v>
+      </c>
+      <c r="AN58">
+        <v>1.5</v>
+      </c>
+      <c r="AO58">
+        <v>0.6</v>
+      </c>
+      <c r="AP58">
+        <v>1.8</v>
+      </c>
+      <c r="AQ58">
+        <v>0.5</v>
+      </c>
+      <c r="AR58">
+        <v>1.05</v>
+      </c>
+      <c r="AS58">
+        <v>1.11</v>
+      </c>
+      <c r="AT58">
+        <v>2.16</v>
+      </c>
+      <c r="AU58">
+        <v>6</v>
+      </c>
+      <c r="AV58">
+        <v>5</v>
+      </c>
+      <c r="AW58">
+        <v>6</v>
+      </c>
+      <c r="AX58">
+        <v>10</v>
+      </c>
+      <c r="AY58">
+        <v>12</v>
+      </c>
+      <c r="AZ58">
+        <v>15</v>
+      </c>
+      <c r="BA58">
+        <v>3</v>
+      </c>
+      <c r="BB58">
+        <v>4</v>
+      </c>
+      <c r="BC58">
+        <v>7</v>
+      </c>
+      <c r="BD58">
+        <v>2</v>
+      </c>
+      <c r="BE58">
+        <v>8.5</v>
+      </c>
+      <c r="BF58">
+        <v>2.05</v>
+      </c>
+      <c r="BG58">
+        <v>1.13</v>
+      </c>
+      <c r="BH58">
+        <v>5.75</v>
+      </c>
+      <c r="BI58">
+        <v>0</v>
+      </c>
+      <c r="BJ58">
+        <v>0</v>
+      </c>
+      <c r="BK58">
+        <v>1.5</v>
+      </c>
+      <c r="BL58">
+        <v>2.47</v>
+      </c>
+      <c r="BM58">
+        <v>1.73</v>
+      </c>
+      <c r="BN58">
+        <v>2.01</v>
+      </c>
+      <c r="BO58">
+        <v>2.17</v>
+      </c>
+      <c r="BP58">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7452311</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45564.45833333334</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>75</v>
+      </c>
+      <c r="H59" t="s">
+        <v>72</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59">
+        <v>4</v>
+      </c>
+      <c r="O59" t="s">
+        <v>128</v>
+      </c>
+      <c r="P59" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q59">
+        <v>3.6</v>
+      </c>
+      <c r="R59">
+        <v>2.2</v>
+      </c>
+      <c r="S59">
+        <v>2.88</v>
+      </c>
+      <c r="T59">
+        <v>1.36</v>
+      </c>
+      <c r="U59">
+        <v>3</v>
+      </c>
+      <c r="V59">
+        <v>2.75</v>
+      </c>
+      <c r="W59">
+        <v>1.4</v>
+      </c>
+      <c r="X59">
+        <v>7</v>
+      </c>
+      <c r="Y59">
+        <v>1.1</v>
+      </c>
+      <c r="Z59">
+        <v>3.1</v>
+      </c>
+      <c r="AA59">
+        <v>3.5</v>
+      </c>
+      <c r="AB59">
+        <v>2.2</v>
+      </c>
+      <c r="AC59">
+        <v>1.04</v>
+      </c>
+      <c r="AD59">
+        <v>9.75</v>
+      </c>
+      <c r="AE59">
+        <v>1.27</v>
+      </c>
+      <c r="AF59">
+        <v>3.65</v>
+      </c>
+      <c r="AG59">
+        <v>1.8</v>
+      </c>
+      <c r="AH59">
+        <v>2</v>
+      </c>
+      <c r="AI59">
+        <v>1.67</v>
+      </c>
+      <c r="AJ59">
+        <v>2.1</v>
+      </c>
+      <c r="AK59">
+        <v>1.57</v>
+      </c>
+      <c r="AL59">
+        <v>1.25</v>
+      </c>
+      <c r="AM59">
+        <v>1.4</v>
+      </c>
+      <c r="AN59">
+        <v>0.8</v>
+      </c>
+      <c r="AO59">
+        <v>1.75</v>
+      </c>
+      <c r="AP59">
+        <v>0.83</v>
+      </c>
+      <c r="AQ59">
+        <v>1.6</v>
+      </c>
+      <c r="AR59">
+        <v>1.04</v>
+      </c>
+      <c r="AS59">
+        <v>1.28</v>
+      </c>
+      <c r="AT59">
+        <v>2.32</v>
+      </c>
+      <c r="AU59">
+        <v>6</v>
+      </c>
+      <c r="AV59">
+        <v>6</v>
+      </c>
+      <c r="AW59">
+        <v>10</v>
+      </c>
+      <c r="AX59">
+        <v>2</v>
+      </c>
+      <c r="AY59">
+        <v>16</v>
+      </c>
+      <c r="AZ59">
+        <v>8</v>
+      </c>
+      <c r="BA59">
+        <v>5</v>
+      </c>
+      <c r="BB59">
+        <v>9</v>
+      </c>
+      <c r="BC59">
+        <v>14</v>
+      </c>
+      <c r="BD59">
+        <v>2.13</v>
+      </c>
+      <c r="BE59">
+        <v>6.55</v>
+      </c>
+      <c r="BF59">
+        <v>2.12</v>
+      </c>
+      <c r="BG59">
+        <v>1.22</v>
+      </c>
+      <c r="BH59">
+        <v>3.7</v>
+      </c>
+      <c r="BI59">
+        <v>1.42</v>
+      </c>
+      <c r="BJ59">
+        <v>2.6</v>
+      </c>
+      <c r="BK59">
+        <v>2.2</v>
+      </c>
+      <c r="BL59">
+        <v>2.13</v>
+      </c>
+      <c r="BM59">
+        <v>2.07</v>
+      </c>
+      <c r="BN59">
+        <v>1.72</v>
+      </c>
+      <c r="BO59">
+        <v>2.9</v>
+      </c>
+      <c r="BP59">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7452314</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45564.54166666666</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>73</v>
+      </c>
+      <c r="H60" t="s">
+        <v>79</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="O60" t="s">
+        <v>129</v>
+      </c>
+      <c r="P60" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q60">
+        <v>6.5</v>
+      </c>
+      <c r="R60">
+        <v>2.6</v>
+      </c>
+      <c r="S60">
+        <v>1.83</v>
+      </c>
+      <c r="T60">
+        <v>1.29</v>
+      </c>
+      <c r="U60">
+        <v>3.5</v>
+      </c>
+      <c r="V60">
+        <v>2.25</v>
+      </c>
+      <c r="W60">
+        <v>1.57</v>
+      </c>
+      <c r="X60">
+        <v>5.5</v>
+      </c>
+      <c r="Y60">
+        <v>1.14</v>
+      </c>
+      <c r="Z60">
+        <v>7</v>
+      </c>
+      <c r="AA60">
+        <v>4.5</v>
+      </c>
+      <c r="AB60">
+        <v>1.38</v>
+      </c>
+      <c r="AC60">
+        <v>1.02</v>
+      </c>
+      <c r="AD60">
+        <v>12</v>
+      </c>
+      <c r="AE60">
+        <v>1.13</v>
+      </c>
+      <c r="AF60">
+        <v>4.45</v>
+      </c>
+      <c r="AG60">
+        <v>1.57</v>
+      </c>
+      <c r="AH60">
+        <v>2.4</v>
+      </c>
+      <c r="AI60">
+        <v>1.8</v>
+      </c>
+      <c r="AJ60">
+        <v>1.95</v>
+      </c>
+      <c r="AK60">
+        <v>2.55</v>
+      </c>
+      <c r="AL60">
+        <v>1.19</v>
+      </c>
+      <c r="AM60">
+        <v>1.13</v>
+      </c>
+      <c r="AN60">
+        <v>0</v>
+      </c>
+      <c r="AO60">
+        <v>1.5</v>
+      </c>
+      <c r="AP60">
+        <v>0</v>
+      </c>
+      <c r="AQ60">
+        <v>1.8</v>
+      </c>
+      <c r="AR60">
+        <v>1.56</v>
+      </c>
+      <c r="AS60">
+        <v>1.58</v>
+      </c>
+      <c r="AT60">
+        <v>3.14</v>
+      </c>
+      <c r="AU60">
+        <v>2</v>
+      </c>
+      <c r="AV60">
+        <v>11</v>
+      </c>
+      <c r="AW60">
+        <v>1</v>
+      </c>
+      <c r="AX60">
+        <v>7</v>
+      </c>
+      <c r="AY60">
+        <v>3</v>
+      </c>
+      <c r="AZ60">
+        <v>18</v>
+      </c>
+      <c r="BA60">
+        <v>4</v>
+      </c>
+      <c r="BB60">
+        <v>9</v>
+      </c>
+      <c r="BC60">
+        <v>13</v>
+      </c>
+      <c r="BD60">
+        <v>4.89</v>
+      </c>
+      <c r="BE60">
+        <v>8.5</v>
+      </c>
+      <c r="BF60">
+        <v>1.31</v>
+      </c>
+      <c r="BG60">
+        <v>1.08</v>
+      </c>
+      <c r="BH60">
+        <v>5.3</v>
+      </c>
+      <c r="BI60">
+        <v>1.21</v>
+      </c>
+      <c r="BJ60">
+        <v>3.8</v>
+      </c>
+      <c r="BK60">
+        <v>1.5</v>
+      </c>
+      <c r="BL60">
+        <v>2.47</v>
+      </c>
+      <c r="BM60">
+        <v>1.82</v>
+      </c>
+      <c r="BN60">
+        <v>1.97</v>
+      </c>
+      <c r="BO60">
+        <v>2.23</v>
+      </c>
+      <c r="BP60">
+        <v>1.61</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="172">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -406,6 +406,9 @@
     <t>['46']</t>
   </si>
   <si>
+    <t>['18', '21', '25', '34']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -524,6 +527,9 @@
   </si>
   <si>
     <t>['62', '85']</t>
+  </si>
+  <si>
+    <t>['13']</t>
   </si>
 </sst>
 </file>
@@ -885,7 +891,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP60"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1144,7 +1150,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1428,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>0.6</v>
@@ -1762,7 +1768,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1968,7 +1974,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2049,7 +2055,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ6">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2174,7 +2180,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2380,7 +2386,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2586,7 +2592,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2664,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>1.8</v>
@@ -2998,7 +3004,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3204,7 +3210,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3410,7 +3416,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q13">
         <v>1.83</v>
@@ -4234,7 +4240,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4440,7 +4446,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4521,7 +4527,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ18">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR18">
         <v>1.15</v>
@@ -4646,7 +4652,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -5058,7 +5064,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5264,7 +5270,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q22">
         <v>1.73</v>
@@ -5342,7 +5348,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
         <v>0.5</v>
@@ -5470,7 +5476,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5676,7 +5682,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5882,7 +5888,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6088,7 +6094,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6294,7 +6300,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6500,7 +6506,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6706,7 +6712,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6912,7 +6918,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6993,7 +6999,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ30">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR30">
         <v>1.16</v>
@@ -7118,7 +7124,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7324,7 +7330,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7530,7 +7536,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7736,7 +7742,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -7942,7 +7948,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8020,7 +8026,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>1.8</v>
@@ -8148,7 +8154,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8766,7 +8772,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -8972,7 +8978,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9053,7 +9059,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ40">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR40">
         <v>1.87</v>
@@ -9178,7 +9184,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9384,7 +9390,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9796,7 +9802,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10002,7 +10008,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10208,7 +10214,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10414,7 +10420,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10904,7 +10910,7 @@
         <v>1.67</v>
       </c>
       <c r="AP49">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
         <v>1.4</v>
@@ -11032,7 +11038,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11444,7 +11450,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11856,7 +11862,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -11937,7 +11943,7 @@
         <v>2</v>
       </c>
       <c r="AQ54">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR54">
         <v>1.24</v>
@@ -12268,7 +12274,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12886,7 +12892,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13092,7 +13098,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q60">
         <v>6.5</v>
@@ -13249,6 +13255,212 @@
       </c>
       <c r="BP60">
         <v>1.61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7452313</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45565.58333333334</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>71</v>
+      </c>
+      <c r="H61" t="s">
+        <v>80</v>
+      </c>
+      <c r="I61">
+        <v>4</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>5</v>
+      </c>
+      <c r="L61">
+        <v>4</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>5</v>
+      </c>
+      <c r="O61" t="s">
+        <v>130</v>
+      </c>
+      <c r="P61" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q61">
+        <v>3</v>
+      </c>
+      <c r="R61">
+        <v>2.4</v>
+      </c>
+      <c r="S61">
+        <v>3</v>
+      </c>
+      <c r="T61">
+        <v>1.29</v>
+      </c>
+      <c r="U61">
+        <v>3.5</v>
+      </c>
+      <c r="V61">
+        <v>2.25</v>
+      </c>
+      <c r="W61">
+        <v>1.57</v>
+      </c>
+      <c r="X61">
+        <v>5.5</v>
+      </c>
+      <c r="Y61">
+        <v>1.14</v>
+      </c>
+      <c r="Z61">
+        <v>2.5</v>
+      </c>
+      <c r="AA61">
+        <v>3.75</v>
+      </c>
+      <c r="AB61">
+        <v>2.55</v>
+      </c>
+      <c r="AC61">
+        <v>1.01</v>
+      </c>
+      <c r="AD61">
+        <v>16.5</v>
+      </c>
+      <c r="AE61">
+        <v>1.12</v>
+      </c>
+      <c r="AF61">
+        <v>4.4</v>
+      </c>
+      <c r="AG61">
+        <v>1.53</v>
+      </c>
+      <c r="AH61">
+        <v>2.4</v>
+      </c>
+      <c r="AI61">
+        <v>1.5</v>
+      </c>
+      <c r="AJ61">
+        <v>2.5</v>
+      </c>
+      <c r="AK61">
+        <v>1.5</v>
+      </c>
+      <c r="AL61">
+        <v>1.24</v>
+      </c>
+      <c r="AM61">
+        <v>1.58</v>
+      </c>
+      <c r="AN61">
+        <v>1.8</v>
+      </c>
+      <c r="AO61">
+        <v>1.6</v>
+      </c>
+      <c r="AP61">
+        <v>2</v>
+      </c>
+      <c r="AQ61">
+        <v>1.33</v>
+      </c>
+      <c r="AR61">
+        <v>1.74</v>
+      </c>
+      <c r="AS61">
+        <v>2.05</v>
+      </c>
+      <c r="AT61">
+        <v>3.79</v>
+      </c>
+      <c r="AU61">
+        <v>7</v>
+      </c>
+      <c r="AV61">
+        <v>3</v>
+      </c>
+      <c r="AW61">
+        <v>4</v>
+      </c>
+      <c r="AX61">
+        <v>7</v>
+      </c>
+      <c r="AY61">
+        <v>11</v>
+      </c>
+      <c r="AZ61">
+        <v>10</v>
+      </c>
+      <c r="BA61">
+        <v>3</v>
+      </c>
+      <c r="BB61">
+        <v>4</v>
+      </c>
+      <c r="BC61">
+        <v>7</v>
+      </c>
+      <c r="BD61">
+        <v>1.95</v>
+      </c>
+      <c r="BE61">
+        <v>7.6</v>
+      </c>
+      <c r="BF61">
+        <v>2.2</v>
+      </c>
+      <c r="BG61">
+        <v>1.21</v>
+      </c>
+      <c r="BH61">
+        <v>3.8</v>
+      </c>
+      <c r="BI61">
+        <v>1.4</v>
+      </c>
+      <c r="BJ61">
+        <v>2.65</v>
+      </c>
+      <c r="BK61">
+        <v>2.1</v>
+      </c>
+      <c r="BL61">
+        <v>2</v>
+      </c>
+      <c r="BM61">
+        <v>2.15</v>
+      </c>
+      <c r="BN61">
+        <v>1.61</v>
+      </c>
+      <c r="BO61">
+        <v>2.8</v>
+      </c>
+      <c r="BP61">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -1255,10 +1255,10 @@
         <v>5</v>
       </c>
       <c r="AY2">
+        <v>18</v>
+      </c>
+      <c r="AZ2">
         <v>14</v>
-      </c>
-      <c r="AZ2">
-        <v>9</v>
       </c>
       <c r="BA2">
         <v>6</v>
@@ -1461,10 +1461,10 @@
         <v>8</v>
       </c>
       <c r="AY3">
+        <v>20</v>
+      </c>
+      <c r="AZ3">
         <v>16</v>
-      </c>
-      <c r="AZ3">
-        <v>12</v>
       </c>
       <c r="BA3">
         <v>2</v>
@@ -1667,7 +1667,7 @@
         <v>5</v>
       </c>
       <c r="AY4">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AZ4">
         <v>9</v>
@@ -1876,7 +1876,7 @@
         <v>9</v>
       </c>
       <c r="AZ5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA5">
         <v>6</v>
@@ -2079,10 +2079,10 @@
         <v>11</v>
       </c>
       <c r="AY6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ6">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="BA6">
         <v>4</v>
@@ -2285,7 +2285,7 @@
         <v>6</v>
       </c>
       <c r="AY7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ7">
         <v>11</v>
@@ -2491,10 +2491,10 @@
         <v>4</v>
       </c>
       <c r="AY8">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA8">
         <v>6</v>
@@ -2700,7 +2700,7 @@
         <v>5</v>
       </c>
       <c r="AZ9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA9">
         <v>3</v>
@@ -2903,10 +2903,10 @@
         <v>4</v>
       </c>
       <c r="AY10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ10">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BA10">
         <v>5</v>
@@ -3109,10 +3109,10 @@
         <v>8</v>
       </c>
       <c r="AY11">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ11">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA11">
         <v>5</v>
@@ -3315,10 +3315,10 @@
         <v>3</v>
       </c>
       <c r="AY12">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA12">
         <v>2</v>
@@ -3521,10 +3521,10 @@
         <v>8</v>
       </c>
       <c r="AY13">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ13">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA13">
         <v>8</v>
@@ -3727,10 +3727,10 @@
         <v>3</v>
       </c>
       <c r="AY14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA14">
         <v>8</v>
@@ -3933,10 +3933,10 @@
         <v>9</v>
       </c>
       <c r="AY15">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ15">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA15">
         <v>7</v>
@@ -4139,10 +4139,10 @@
         <v>4</v>
       </c>
       <c r="AY16">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ16">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA16">
         <v>4</v>
@@ -4345,10 +4345,10 @@
         <v>1</v>
       </c>
       <c r="AY17">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="AZ17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA17">
         <v>12</v>
@@ -4551,7 +4551,7 @@
         <v>5</v>
       </c>
       <c r="AY18">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ18">
         <v>12</v>
@@ -4757,10 +4757,10 @@
         <v>8</v>
       </c>
       <c r="AY19">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ19">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BA19">
         <v>4</v>
@@ -4963,10 +4963,10 @@
         <v>6</v>
       </c>
       <c r="AY20">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AZ20">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA20">
         <v>14</v>
@@ -5169,10 +5169,10 @@
         <v>3</v>
       </c>
       <c r="AY21">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AZ21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA21">
         <v>12</v>
@@ -5375,10 +5375,10 @@
         <v>2</v>
       </c>
       <c r="AY22">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AZ22">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA22">
         <v>12</v>
@@ -5581,10 +5581,10 @@
         <v>2</v>
       </c>
       <c r="AY23">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ23">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BA23">
         <v>6</v>
@@ -5787,10 +5787,10 @@
         <v>8</v>
       </c>
       <c r="AY24">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AZ24">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="BA24">
         <v>5</v>
@@ -5993,10 +5993,10 @@
         <v>4</v>
       </c>
       <c r="AY25">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ25">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA25">
         <v>12</v>
@@ -6199,10 +6199,10 @@
         <v>10</v>
       </c>
       <c r="AY26">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ26">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="BA26">
         <v>4</v>
@@ -6405,10 +6405,10 @@
         <v>6</v>
       </c>
       <c r="AY27">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ27">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA27">
         <v>7</v>
@@ -6611,10 +6611,10 @@
         <v>7</v>
       </c>
       <c r="AY28">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ28">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA28">
         <v>3</v>
@@ -6817,10 +6817,10 @@
         <v>9</v>
       </c>
       <c r="AY29">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AZ29">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA29">
         <v>11</v>
@@ -7023,10 +7023,10 @@
         <v>9</v>
       </c>
       <c r="AY30">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ30">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="BA30">
         <v>3</v>
@@ -7229,10 +7229,10 @@
         <v>2</v>
       </c>
       <c r="AY31">
+        <v>18</v>
+      </c>
+      <c r="AZ31">
         <v>14</v>
-      </c>
-      <c r="AZ31">
-        <v>9</v>
       </c>
       <c r="BA31">
         <v>8</v>
@@ -7435,10 +7435,10 @@
         <v>3</v>
       </c>
       <c r="AY32">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AZ32">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA32">
         <v>4</v>
@@ -7641,10 +7641,10 @@
         <v>6</v>
       </c>
       <c r="AY33">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ33">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA33">
         <v>7</v>
@@ -7847,7 +7847,7 @@
         <v>4</v>
       </c>
       <c r="AY34">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ34">
         <v>11</v>
@@ -8053,10 +8053,10 @@
         <v>6</v>
       </c>
       <c r="AY35">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ35">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="BA35">
         <v>3</v>
@@ -8259,10 +8259,10 @@
         <v>3</v>
       </c>
       <c r="AY36">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ36">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA36">
         <v>7</v>
@@ -8465,10 +8465,10 @@
         <v>13</v>
       </c>
       <c r="AY37">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ37">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="BA37">
         <v>6</v>
@@ -8671,10 +8671,10 @@
         <v>8</v>
       </c>
       <c r="AY38">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ38">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA38">
         <v>10</v>
@@ -8877,10 +8877,10 @@
         <v>3</v>
       </c>
       <c r="AY39">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ39">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA39">
         <v>7</v>
@@ -9086,7 +9086,7 @@
         <v>6</v>
       </c>
       <c r="AZ40">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA40">
         <v>0</v>
@@ -9292,7 +9292,7 @@
         <v>12</v>
       </c>
       <c r="AZ41">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="BA41">
         <v>7</v>
@@ -9495,10 +9495,10 @@
         <v>3</v>
       </c>
       <c r="AY42">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ42">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA42">
         <v>3</v>
@@ -9701,10 +9701,10 @@
         <v>8</v>
       </c>
       <c r="AY43">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ43">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="BA43">
         <v>4</v>
@@ -9907,10 +9907,10 @@
         <v>5</v>
       </c>
       <c r="AY44">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ44">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="BA44">
         <v>1</v>
@@ -10113,10 +10113,10 @@
         <v>6</v>
       </c>
       <c r="AY45">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ45">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA45">
         <v>17</v>
@@ -10319,7 +10319,7 @@
         <v>3</v>
       </c>
       <c r="AY46">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ46">
         <v>7</v>
@@ -10525,10 +10525,10 @@
         <v>7</v>
       </c>
       <c r="AY47">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ47">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BA47">
         <v>3</v>
@@ -10731,10 +10731,10 @@
         <v>4</v>
       </c>
       <c r="AY48">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AZ48">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA48">
         <v>7</v>
@@ -10937,10 +10937,10 @@
         <v>7</v>
       </c>
       <c r="AY49">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ49">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA49">
         <v>7</v>
@@ -11143,10 +11143,10 @@
         <v>8</v>
       </c>
       <c r="AY50">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ50">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="BA50">
         <v>2</v>
@@ -11349,10 +11349,10 @@
         <v>4</v>
       </c>
       <c r="AY51">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ51">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA51">
         <v>4</v>
@@ -11555,10 +11555,10 @@
         <v>3</v>
       </c>
       <c r="AY52">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ52">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA52">
         <v>6</v>
@@ -11761,10 +11761,10 @@
         <v>6</v>
       </c>
       <c r="AY53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ53">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA53">
         <v>5</v>
@@ -11967,10 +11967,10 @@
         <v>7</v>
       </c>
       <c r="AY54">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ54">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="BA54">
         <v>1</v>
@@ -12173,7 +12173,7 @@
         <v>3</v>
       </c>
       <c r="AY55">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ55">
         <v>3</v>
@@ -12379,10 +12379,10 @@
         <v>2</v>
       </c>
       <c r="AY56">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ56">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA56">
         <v>2</v>
@@ -12585,10 +12585,10 @@
         <v>6</v>
       </c>
       <c r="AY57">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ57">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA57">
         <v>10</v>
@@ -12791,10 +12791,10 @@
         <v>10</v>
       </c>
       <c r="AY58">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AZ58">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA58">
         <v>3</v>
@@ -12997,10 +12997,10 @@
         <v>2</v>
       </c>
       <c r="AY59">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ59">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA59">
         <v>5</v>
@@ -13203,10 +13203,10 @@
         <v>7</v>
       </c>
       <c r="AY60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ60">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="BA60">
         <v>4</v>
@@ -13409,10 +13409,10 @@
         <v>7</v>
       </c>
       <c r="AY61">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ61">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA61">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="174">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -409,6 +409,9 @@
     <t>['18', '21', '25', '34']</t>
   </si>
   <si>
+    <t>['24', '50']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -530,6 +533,9 @@
   </si>
   <si>
     <t>['13']</t>
+  </si>
+  <si>
+    <t>['55', '83']</t>
   </si>
 </sst>
 </file>
@@ -891,7 +897,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP61"/>
+  <dimension ref="A1:BP62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1150,7 +1156,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1437,7 +1443,7 @@
         <v>2</v>
       </c>
       <c r="AQ3">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1768,7 +1774,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1846,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AQ5">
         <v>1.4</v>
@@ -1974,7 +1980,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2180,7 +2186,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2386,7 +2392,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2592,7 +2598,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -3004,7 +3010,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3210,7 +3216,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3416,7 +3422,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q13">
         <v>1.83</v>
@@ -3909,7 +3915,7 @@
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4240,7 +4246,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4446,7 +4452,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4652,7 +4658,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -4730,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AQ19">
         <v>0.75</v>
@@ -5064,7 +5070,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5270,7 +5276,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q22">
         <v>1.73</v>
@@ -5476,7 +5482,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5682,7 +5688,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5888,7 +5894,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -5969,7 +5975,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ25">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR25">
         <v>0.91</v>
@@ -6094,7 +6100,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6300,7 +6306,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6506,7 +6512,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6712,7 +6718,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6918,7 +6924,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7124,7 +7130,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7330,7 +7336,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7536,7 +7542,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7742,7 +7748,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -7820,7 +7826,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AQ34">
         <v>1.6</v>
@@ -7948,7 +7954,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8154,7 +8160,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8772,7 +8778,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -8978,7 +8984,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9184,7 +9190,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9390,7 +9396,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9677,7 +9683,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ43">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR43">
         <v>1.52</v>
@@ -9802,7 +9808,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10008,7 +10014,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10214,7 +10220,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10420,7 +10426,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10498,7 +10504,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AQ47">
         <v>0.83</v>
@@ -11038,7 +11044,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11450,7 +11456,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11862,7 +11868,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12149,7 +12155,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ55">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR55">
         <v>1.59</v>
@@ -12274,7 +12280,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12892,7 +12898,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13098,7 +13104,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q60">
         <v>6.5</v>
@@ -13176,7 +13182,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AQ60">
         <v>1.8</v>
@@ -13304,7 +13310,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13461,6 +13467,212 @@
       </c>
       <c r="BP61">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7452320</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45569.58333333334</v>
+      </c>
+      <c r="F62">
+        <v>11</v>
+      </c>
+      <c r="G62" t="s">
+        <v>73</v>
+      </c>
+      <c r="H62" t="s">
+        <v>78</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62">
+        <v>4</v>
+      </c>
+      <c r="O62" t="s">
+        <v>131</v>
+      </c>
+      <c r="P62" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q62">
+        <v>3.1</v>
+      </c>
+      <c r="R62">
+        <v>2.25</v>
+      </c>
+      <c r="S62">
+        <v>3.2</v>
+      </c>
+      <c r="T62">
+        <v>1.33</v>
+      </c>
+      <c r="U62">
+        <v>3.25</v>
+      </c>
+      <c r="V62">
+        <v>2.63</v>
+      </c>
+      <c r="W62">
+        <v>1.44</v>
+      </c>
+      <c r="X62">
+        <v>6.5</v>
+      </c>
+      <c r="Y62">
+        <v>1.11</v>
+      </c>
+      <c r="Z62">
+        <v>2.5</v>
+      </c>
+      <c r="AA62">
+        <v>3.6</v>
+      </c>
+      <c r="AB62">
+        <v>2.63</v>
+      </c>
+      <c r="AC62">
+        <v>1.01</v>
+      </c>
+      <c r="AD62">
+        <v>11</v>
+      </c>
+      <c r="AE62">
+        <v>1.2</v>
+      </c>
+      <c r="AF62">
+        <v>4</v>
+      </c>
+      <c r="AG62">
+        <v>1.7</v>
+      </c>
+      <c r="AH62">
+        <v>2.1</v>
+      </c>
+      <c r="AI62">
+        <v>1.62</v>
+      </c>
+      <c r="AJ62">
+        <v>2.2</v>
+      </c>
+      <c r="AK62">
+        <v>1.43</v>
+      </c>
+      <c r="AL62">
+        <v>1.29</v>
+      </c>
+      <c r="AM62">
+        <v>1.59</v>
+      </c>
+      <c r="AN62">
+        <v>0</v>
+      </c>
+      <c r="AO62">
+        <v>0.6</v>
+      </c>
+      <c r="AP62">
+        <v>0.17</v>
+      </c>
+      <c r="AQ62">
+        <v>0.67</v>
+      </c>
+      <c r="AR62">
+        <v>1.34</v>
+      </c>
+      <c r="AS62">
+        <v>1.15</v>
+      </c>
+      <c r="AT62">
+        <v>2.49</v>
+      </c>
+      <c r="AU62">
+        <v>6</v>
+      </c>
+      <c r="AV62">
+        <v>6</v>
+      </c>
+      <c r="AW62">
+        <v>8</v>
+      </c>
+      <c r="AX62">
+        <v>12</v>
+      </c>
+      <c r="AY62">
+        <v>17</v>
+      </c>
+      <c r="AZ62">
+        <v>22</v>
+      </c>
+      <c r="BA62">
+        <v>8</v>
+      </c>
+      <c r="BB62">
+        <v>6</v>
+      </c>
+      <c r="BC62">
+        <v>14</v>
+      </c>
+      <c r="BD62">
+        <v>2.07</v>
+      </c>
+      <c r="BE62">
+        <v>7.5</v>
+      </c>
+      <c r="BF62">
+        <v>2.07</v>
+      </c>
+      <c r="BG62">
+        <v>1.14</v>
+      </c>
+      <c r="BH62">
+        <v>4.9</v>
+      </c>
+      <c r="BI62">
+        <v>1.28</v>
+      </c>
+      <c r="BJ62">
+        <v>3.3</v>
+      </c>
+      <c r="BK62">
+        <v>1.91</v>
+      </c>
+      <c r="BL62">
+        <v>2.65</v>
+      </c>
+      <c r="BM62">
+        <v>1.85</v>
+      </c>
+      <c r="BN62">
+        <v>1.85</v>
+      </c>
+      <c r="BO62">
+        <v>2.25</v>
+      </c>
+      <c r="BP62">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -13609,22 +13609,22 @@
         <v>2.49</v>
       </c>
       <c r="AU62">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV62">
         <v>6</v>
       </c>
       <c r="AW62">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AX62">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY62">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ62">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA62">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="182">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -412,6 +412,21 @@
     <t>['24', '50']</t>
   </si>
   <si>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['9', '68']</t>
+  </si>
+  <si>
+    <t>['6', '28']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -436,9 +451,6 @@
     <t>['13', '32']</t>
   </si>
   <si>
-    <t>['40']</t>
-  </si>
-  <si>
     <t>['10']</t>
   </si>
   <si>
@@ -536,6 +548,18 @@
   </si>
   <si>
     <t>['55', '83']</t>
+  </si>
+  <si>
+    <t>['24', '36', '85', '90+3']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['71', '85']</t>
   </si>
 </sst>
 </file>
@@ -897,7 +921,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP62"/>
+  <dimension ref="A1:BP67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1156,7 +1180,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1237,7 +1261,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1646,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ4">
         <v>0.5</v>
@@ -1774,7 +1798,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1980,7 +2004,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2058,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ6">
         <v>1.33</v>
@@ -2186,7 +2210,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2267,7 +2291,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ7">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2392,7 +2416,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2470,10 +2494,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2598,7 +2622,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2679,7 +2703,7 @@
         <v>2</v>
       </c>
       <c r="AQ9">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
         <v>1.96</v>
@@ -2882,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10">
         <v>0.83</v>
@@ -3010,7 +3034,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3216,7 +3240,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3297,7 +3321,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ12">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3422,7 +3446,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q13">
         <v>1.83</v>
@@ -3500,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
         <v>0</v>
@@ -4118,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ16">
         <v>0.83</v>
@@ -4246,7 +4270,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4452,7 +4476,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4658,7 +4682,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -4739,7 +4763,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ19">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR19">
         <v>1.07</v>
@@ -5070,7 +5094,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5148,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ21">
         <v>1.6</v>
@@ -5276,7 +5300,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q22">
         <v>1.73</v>
@@ -5357,7 +5381,7 @@
         <v>2</v>
       </c>
       <c r="AQ22">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR22">
         <v>1.44</v>
@@ -5482,7 +5506,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5560,10 +5584,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR23">
         <v>1.53</v>
@@ -5688,7 +5712,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5766,10 +5790,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR24">
         <v>1.85</v>
@@ -5894,7 +5918,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -5972,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ25">
         <v>0.67</v>
@@ -6100,7 +6124,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6181,7 +6205,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ26">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
         <v>1.11</v>
@@ -6306,7 +6330,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6384,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27">
         <v>0.5</v>
@@ -6512,7 +6536,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6590,10 +6614,10 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ28">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR28">
         <v>1.19</v>
@@ -6718,7 +6742,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6924,7 +6948,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7130,7 +7154,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7336,7 +7360,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7417,7 +7441,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ32">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR32">
         <v>1.14</v>
@@ -7542,7 +7566,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7748,7 +7772,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -7954,7 +7978,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8035,7 +8059,7 @@
         <v>2</v>
       </c>
       <c r="AQ35">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR35">
         <v>1.81</v>
@@ -8160,7 +8184,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8238,7 +8262,7 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>1.4</v>
@@ -8444,10 +8468,10 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ37">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR37">
         <v>1.54</v>
@@ -8778,7 +8802,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -8859,7 +8883,7 @@
         <v>2</v>
       </c>
       <c r="AQ39">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR39">
         <v>1.84</v>
@@ -8984,7 +9008,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9190,7 +9214,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9268,7 +9292,7 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
         <v>0.83</v>
@@ -9396,7 +9420,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9474,10 +9498,10 @@
         <v>1.67</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ42">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR42">
         <v>1.27</v>
@@ -9680,7 +9704,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ43">
         <v>0.67</v>
@@ -9808,7 +9832,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -9889,7 +9913,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ44">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR44">
         <v>0.9</v>
@@ -10014,7 +10038,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10095,7 +10119,7 @@
         <v>3</v>
       </c>
       <c r="AQ45">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR45">
         <v>1.88</v>
@@ -10220,7 +10244,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10426,7 +10450,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10710,7 +10734,7 @@
         <v>0.75</v>
       </c>
       <c r="AP48">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
         <v>0.5</v>
@@ -11044,7 +11068,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11122,10 +11146,10 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ50">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR50">
         <v>1.51</v>
@@ -11328,7 +11352,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ51">
         <v>0</v>
@@ -11456,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11534,10 +11558,10 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ52">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR52">
         <v>1.41</v>
@@ -11743,7 +11767,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ53">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR53">
         <v>1.13</v>
@@ -11868,7 +11892,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -11946,7 +11970,7 @@
         <v>1.75</v>
       </c>
       <c r="AP54">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ54">
         <v>1.33</v>
@@ -12280,7 +12304,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12898,7 +12922,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13104,7 +13128,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q60">
         <v>6.5</v>
@@ -13185,7 +13209,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ60">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR60">
         <v>1.56</v>
@@ -13310,7 +13334,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13516,7 +13540,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13673,6 +13697,1036 @@
       </c>
       <c r="BP62">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7452318</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45571.375</v>
+      </c>
+      <c r="F63">
+        <v>11</v>
+      </c>
+      <c r="G63" t="s">
+        <v>76</v>
+      </c>
+      <c r="H63" t="s">
+        <v>71</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>3</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>4</v>
+      </c>
+      <c r="N63">
+        <v>5</v>
+      </c>
+      <c r="O63" t="s">
+        <v>132</v>
+      </c>
+      <c r="P63" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q63">
+        <v>4.5</v>
+      </c>
+      <c r="R63">
+        <v>2.4</v>
+      </c>
+      <c r="S63">
+        <v>2.25</v>
+      </c>
+      <c r="T63">
+        <v>1.29</v>
+      </c>
+      <c r="U63">
+        <v>3.5</v>
+      </c>
+      <c r="V63">
+        <v>2.38</v>
+      </c>
+      <c r="W63">
+        <v>1.53</v>
+      </c>
+      <c r="X63">
+        <v>5.5</v>
+      </c>
+      <c r="Y63">
+        <v>1.14</v>
+      </c>
+      <c r="Z63">
+        <v>4.5</v>
+      </c>
+      <c r="AA63">
+        <v>3.9</v>
+      </c>
+      <c r="AB63">
+        <v>1.7</v>
+      </c>
+      <c r="AC63">
+        <v>1.04</v>
+      </c>
+      <c r="AD63">
+        <v>10</v>
+      </c>
+      <c r="AE63">
+        <v>1.13</v>
+      </c>
+      <c r="AF63">
+        <v>4.3</v>
+      </c>
+      <c r="AG63">
+        <v>1.57</v>
+      </c>
+      <c r="AH63">
+        <v>2.35</v>
+      </c>
+      <c r="AI63">
+        <v>1.57</v>
+      </c>
+      <c r="AJ63">
+        <v>2.25</v>
+      </c>
+      <c r="AK63">
+        <v>2.02</v>
+      </c>
+      <c r="AL63">
+        <v>1.24</v>
+      </c>
+      <c r="AM63">
+        <v>1.25</v>
+      </c>
+      <c r="AN63">
+        <v>1.25</v>
+      </c>
+      <c r="AO63">
+        <v>0.75</v>
+      </c>
+      <c r="AP63">
+        <v>1</v>
+      </c>
+      <c r="AQ63">
+        <v>1.2</v>
+      </c>
+      <c r="AR63">
+        <v>1.52</v>
+      </c>
+      <c r="AS63">
+        <v>1.67</v>
+      </c>
+      <c r="AT63">
+        <v>3.19</v>
+      </c>
+      <c r="AU63">
+        <v>3</v>
+      </c>
+      <c r="AV63">
+        <v>11</v>
+      </c>
+      <c r="AW63">
+        <v>2</v>
+      </c>
+      <c r="AX63">
+        <v>10</v>
+      </c>
+      <c r="AY63">
+        <v>8</v>
+      </c>
+      <c r="AZ63">
+        <v>24</v>
+      </c>
+      <c r="BA63">
+        <v>1</v>
+      </c>
+      <c r="BB63">
+        <v>9</v>
+      </c>
+      <c r="BC63">
+        <v>10</v>
+      </c>
+      <c r="BD63">
+        <v>2.91</v>
+      </c>
+      <c r="BE63">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF63">
+        <v>1.6</v>
+      </c>
+      <c r="BG63">
+        <v>1.15</v>
+      </c>
+      <c r="BH63">
+        <v>4.05</v>
+      </c>
+      <c r="BI63">
+        <v>1.32</v>
+      </c>
+      <c r="BJ63">
+        <v>2.78</v>
+      </c>
+      <c r="BK63">
+        <v>2</v>
+      </c>
+      <c r="BL63">
+        <v>1.95</v>
+      </c>
+      <c r="BM63">
+        <v>2.06</v>
+      </c>
+      <c r="BN63">
+        <v>1.71</v>
+      </c>
+      <c r="BO63">
+        <v>2.64</v>
+      </c>
+      <c r="BP63">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7452319</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45571.375</v>
+      </c>
+      <c r="F64">
+        <v>11</v>
+      </c>
+      <c r="G64" t="s">
+        <v>77</v>
+      </c>
+      <c r="H64" t="s">
+        <v>75</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64" t="s">
+        <v>133</v>
+      </c>
+      <c r="P64" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q64">
+        <v>2.3</v>
+      </c>
+      <c r="R64">
+        <v>2.3</v>
+      </c>
+      <c r="S64">
+        <v>4.75</v>
+      </c>
+      <c r="T64">
+        <v>1.33</v>
+      </c>
+      <c r="U64">
+        <v>3.25</v>
+      </c>
+      <c r="V64">
+        <v>2.63</v>
+      </c>
+      <c r="W64">
+        <v>1.44</v>
+      </c>
+      <c r="X64">
+        <v>7</v>
+      </c>
+      <c r="Y64">
+        <v>1.1</v>
+      </c>
+      <c r="Z64">
+        <v>1.73</v>
+      </c>
+      <c r="AA64">
+        <v>3.9</v>
+      </c>
+      <c r="AB64">
+        <v>4.75</v>
+      </c>
+      <c r="AC64">
+        <v>1.05</v>
+      </c>
+      <c r="AD64">
+        <v>9.5</v>
+      </c>
+      <c r="AE64">
+        <v>1.2</v>
+      </c>
+      <c r="AF64">
+        <v>3.58</v>
+      </c>
+      <c r="AG64">
+        <v>1.73</v>
+      </c>
+      <c r="AH64">
+        <v>2.08</v>
+      </c>
+      <c r="AI64">
+        <v>1.7</v>
+      </c>
+      <c r="AJ64">
+        <v>2.05</v>
+      </c>
+      <c r="AK64">
+        <v>1.18</v>
+      </c>
+      <c r="AL64">
+        <v>1.25</v>
+      </c>
+      <c r="AM64">
+        <v>2.14</v>
+      </c>
+      <c r="AN64">
+        <v>1.4</v>
+      </c>
+      <c r="AO64">
+        <v>0.5</v>
+      </c>
+      <c r="AP64">
+        <v>1.33</v>
+      </c>
+      <c r="AQ64">
+        <v>0.6</v>
+      </c>
+      <c r="AR64">
+        <v>1.45</v>
+      </c>
+      <c r="AS64">
+        <v>1.23</v>
+      </c>
+      <c r="AT64">
+        <v>2.68</v>
+      </c>
+      <c r="AU64">
+        <v>2</v>
+      </c>
+      <c r="AV64">
+        <v>3</v>
+      </c>
+      <c r="AW64">
+        <v>4</v>
+      </c>
+      <c r="AX64">
+        <v>9</v>
+      </c>
+      <c r="AY64">
+        <v>8</v>
+      </c>
+      <c r="AZ64">
+        <v>16</v>
+      </c>
+      <c r="BA64">
+        <v>5</v>
+      </c>
+      <c r="BB64">
+        <v>7</v>
+      </c>
+      <c r="BC64">
+        <v>12</v>
+      </c>
+      <c r="BD64">
+        <v>1.51</v>
+      </c>
+      <c r="BE64">
+        <v>8.4</v>
+      </c>
+      <c r="BF64">
+        <v>3.24</v>
+      </c>
+      <c r="BG64">
+        <v>1.08</v>
+      </c>
+      <c r="BH64">
+        <v>5.2</v>
+      </c>
+      <c r="BI64">
+        <v>1.2</v>
+      </c>
+      <c r="BJ64">
+        <v>3.52</v>
+      </c>
+      <c r="BK64">
+        <v>1.42</v>
+      </c>
+      <c r="BL64">
+        <v>2.57</v>
+      </c>
+      <c r="BM64">
+        <v>1.85</v>
+      </c>
+      <c r="BN64">
+        <v>1.85</v>
+      </c>
+      <c r="BO64">
+        <v>2.14</v>
+      </c>
+      <c r="BP64">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7452316</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45571.45833333334</v>
+      </c>
+      <c r="F65">
+        <v>11</v>
+      </c>
+      <c r="G65" t="s">
+        <v>74</v>
+      </c>
+      <c r="H65" t="s">
+        <v>70</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
+      <c r="O65" t="s">
+        <v>134</v>
+      </c>
+      <c r="P65" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q65">
+        <v>3.2</v>
+      </c>
+      <c r="R65">
+        <v>2.25</v>
+      </c>
+      <c r="S65">
+        <v>3.1</v>
+      </c>
+      <c r="T65">
+        <v>1.33</v>
+      </c>
+      <c r="U65">
+        <v>3.25</v>
+      </c>
+      <c r="V65">
+        <v>2.5</v>
+      </c>
+      <c r="W65">
+        <v>1.5</v>
+      </c>
+      <c r="X65">
+        <v>6.5</v>
+      </c>
+      <c r="Y65">
+        <v>1.11</v>
+      </c>
+      <c r="Z65">
+        <v>2.63</v>
+      </c>
+      <c r="AA65">
+        <v>3.4</v>
+      </c>
+      <c r="AB65">
+        <v>2.55</v>
+      </c>
+      <c r="AC65">
+        <v>1.01</v>
+      </c>
+      <c r="AD65">
+        <v>11</v>
+      </c>
+      <c r="AE65">
+        <v>1.17</v>
+      </c>
+      <c r="AF65">
+        <v>4.5</v>
+      </c>
+      <c r="AG65">
+        <v>1.73</v>
+      </c>
+      <c r="AH65">
+        <v>2.08</v>
+      </c>
+      <c r="AI65">
+        <v>1.62</v>
+      </c>
+      <c r="AJ65">
+        <v>2.2</v>
+      </c>
+      <c r="AK65">
+        <v>1.53</v>
+      </c>
+      <c r="AL65">
+        <v>1.29</v>
+      </c>
+      <c r="AM65">
+        <v>1.46</v>
+      </c>
+      <c r="AN65">
+        <v>1.75</v>
+      </c>
+      <c r="AO65">
+        <v>1.75</v>
+      </c>
+      <c r="AP65">
+        <v>1.6</v>
+      </c>
+      <c r="AQ65">
+        <v>1.6</v>
+      </c>
+      <c r="AR65">
+        <v>1.5</v>
+      </c>
+      <c r="AS65">
+        <v>1.15</v>
+      </c>
+      <c r="AT65">
+        <v>2.65</v>
+      </c>
+      <c r="AU65">
+        <v>4</v>
+      </c>
+      <c r="AV65">
+        <v>4</v>
+      </c>
+      <c r="AW65">
+        <v>6</v>
+      </c>
+      <c r="AX65">
+        <v>6</v>
+      </c>
+      <c r="AY65">
+        <v>14</v>
+      </c>
+      <c r="AZ65">
+        <v>14</v>
+      </c>
+      <c r="BA65">
+        <v>2</v>
+      </c>
+      <c r="BB65">
+        <v>6</v>
+      </c>
+      <c r="BC65">
+        <v>8</v>
+      </c>
+      <c r="BD65">
+        <v>2.37</v>
+      </c>
+      <c r="BE65">
+        <v>7.5</v>
+      </c>
+      <c r="BF65">
+        <v>1.87</v>
+      </c>
+      <c r="BG65">
+        <v>1.2</v>
+      </c>
+      <c r="BH65">
+        <v>3.95</v>
+      </c>
+      <c r="BI65">
+        <v>1.38</v>
+      </c>
+      <c r="BJ65">
+        <v>2.75</v>
+      </c>
+      <c r="BK65">
+        <v>2.1</v>
+      </c>
+      <c r="BL65">
+        <v>2.05</v>
+      </c>
+      <c r="BM65">
+        <v>2.05</v>
+      </c>
+      <c r="BN65">
+        <v>1.7</v>
+      </c>
+      <c r="BO65">
+        <v>2.7</v>
+      </c>
+      <c r="BP65">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7452315</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45571.54166666666</v>
+      </c>
+      <c r="F66">
+        <v>11</v>
+      </c>
+      <c r="G66" t="s">
+        <v>80</v>
+      </c>
+      <c r="H66" t="s">
+        <v>81</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2</v>
+      </c>
+      <c r="O66" t="s">
+        <v>135</v>
+      </c>
+      <c r="P66" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q66">
+        <v>2.5</v>
+      </c>
+      <c r="R66">
+        <v>2.4</v>
+      </c>
+      <c r="S66">
+        <v>3.6</v>
+      </c>
+      <c r="T66">
+        <v>1.29</v>
+      </c>
+      <c r="U66">
+        <v>3.5</v>
+      </c>
+      <c r="V66">
+        <v>2.25</v>
+      </c>
+      <c r="W66">
+        <v>1.57</v>
+      </c>
+      <c r="X66">
+        <v>5.5</v>
+      </c>
+      <c r="Y66">
+        <v>1.14</v>
+      </c>
+      <c r="Z66">
+        <v>2.1</v>
+      </c>
+      <c r="AA66">
+        <v>3.8</v>
+      </c>
+      <c r="AB66">
+        <v>3.1</v>
+      </c>
+      <c r="AC66">
+        <v>1.01</v>
+      </c>
+      <c r="AD66">
+        <v>13</v>
+      </c>
+      <c r="AE66">
+        <v>1.11</v>
+      </c>
+      <c r="AF66">
+        <v>5.5</v>
+      </c>
+      <c r="AG66">
+        <v>1.53</v>
+      </c>
+      <c r="AH66">
+        <v>2.4</v>
+      </c>
+      <c r="AI66">
+        <v>1.5</v>
+      </c>
+      <c r="AJ66">
+        <v>2.5</v>
+      </c>
+      <c r="AK66">
+        <v>1.42</v>
+      </c>
+      <c r="AL66">
+        <v>1.26</v>
+      </c>
+      <c r="AM66">
+        <v>1.62</v>
+      </c>
+      <c r="AN66">
+        <v>1.75</v>
+      </c>
+      <c r="AO66">
+        <v>1.8</v>
+      </c>
+      <c r="AP66">
+        <v>2</v>
+      </c>
+      <c r="AQ66">
+        <v>1.5</v>
+      </c>
+      <c r="AR66">
+        <v>1.84</v>
+      </c>
+      <c r="AS66">
+        <v>1.5</v>
+      </c>
+      <c r="AT66">
+        <v>3.34</v>
+      </c>
+      <c r="AU66">
+        <v>6</v>
+      </c>
+      <c r="AV66">
+        <v>6</v>
+      </c>
+      <c r="AW66">
+        <v>7</v>
+      </c>
+      <c r="AX66">
+        <v>3</v>
+      </c>
+      <c r="AY66">
+        <v>17</v>
+      </c>
+      <c r="AZ66">
+        <v>11</v>
+      </c>
+      <c r="BA66">
+        <v>8</v>
+      </c>
+      <c r="BB66">
+        <v>5</v>
+      </c>
+      <c r="BC66">
+        <v>13</v>
+      </c>
+      <c r="BD66">
+        <v>1.82</v>
+      </c>
+      <c r="BE66">
+        <v>7.9</v>
+      </c>
+      <c r="BF66">
+        <v>2.42</v>
+      </c>
+      <c r="BG66">
+        <v>1.22</v>
+      </c>
+      <c r="BH66">
+        <v>3.75</v>
+      </c>
+      <c r="BI66">
+        <v>1.41</v>
+      </c>
+      <c r="BJ66">
+        <v>2.63</v>
+      </c>
+      <c r="BK66">
+        <v>2</v>
+      </c>
+      <c r="BL66">
+        <v>2</v>
+      </c>
+      <c r="BM66">
+        <v>2.18</v>
+      </c>
+      <c r="BN66">
+        <v>1.6</v>
+      </c>
+      <c r="BO66">
+        <v>2.88</v>
+      </c>
+      <c r="BP66">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7452317</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45571.625</v>
+      </c>
+      <c r="F67">
+        <v>11</v>
+      </c>
+      <c r="G67" t="s">
+        <v>72</v>
+      </c>
+      <c r="H67" t="s">
+        <v>79</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+      <c r="N67">
+        <v>4</v>
+      </c>
+      <c r="O67" t="s">
+        <v>136</v>
+      </c>
+      <c r="P67" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q67">
+        <v>4.5</v>
+      </c>
+      <c r="R67">
+        <v>2.4</v>
+      </c>
+      <c r="S67">
+        <v>2.25</v>
+      </c>
+      <c r="T67">
+        <v>1.3</v>
+      </c>
+      <c r="U67">
+        <v>3.4</v>
+      </c>
+      <c r="V67">
+        <v>2.38</v>
+      </c>
+      <c r="W67">
+        <v>1.53</v>
+      </c>
+      <c r="X67">
+        <v>6</v>
+      </c>
+      <c r="Y67">
+        <v>1.13</v>
+      </c>
+      <c r="Z67">
+        <v>4.75</v>
+      </c>
+      <c r="AA67">
+        <v>3.9</v>
+      </c>
+      <c r="AB67">
+        <v>1.7</v>
+      </c>
+      <c r="AC67">
+        <v>1.01</v>
+      </c>
+      <c r="AD67">
+        <v>13</v>
+      </c>
+      <c r="AE67">
+        <v>1.14</v>
+      </c>
+      <c r="AF67">
+        <v>4.2</v>
+      </c>
+      <c r="AG67">
+        <v>1.6</v>
+      </c>
+      <c r="AH67">
+        <v>2.3</v>
+      </c>
+      <c r="AI67">
+        <v>1.62</v>
+      </c>
+      <c r="AJ67">
+        <v>2.2</v>
+      </c>
+      <c r="AK67">
+        <v>2.09</v>
+      </c>
+      <c r="AL67">
+        <v>1.24</v>
+      </c>
+      <c r="AM67">
+        <v>1.22</v>
+      </c>
+      <c r="AN67">
+        <v>2</v>
+      </c>
+      <c r="AO67">
+        <v>1.8</v>
+      </c>
+      <c r="AP67">
+        <v>1.83</v>
+      </c>
+      <c r="AQ67">
+        <v>1.67</v>
+      </c>
+      <c r="AR67">
+        <v>1.23</v>
+      </c>
+      <c r="AS67">
+        <v>1.75</v>
+      </c>
+      <c r="AT67">
+        <v>2.98</v>
+      </c>
+      <c r="AU67">
+        <v>4</v>
+      </c>
+      <c r="AV67">
+        <v>7</v>
+      </c>
+      <c r="AW67">
+        <v>2</v>
+      </c>
+      <c r="AX67">
+        <v>10</v>
+      </c>
+      <c r="AY67">
+        <v>6</v>
+      </c>
+      <c r="AZ67">
+        <v>22</v>
+      </c>
+      <c r="BA67">
+        <v>1</v>
+      </c>
+      <c r="BB67">
+        <v>7</v>
+      </c>
+      <c r="BC67">
+        <v>8</v>
+      </c>
+      <c r="BD67">
+        <v>2.81</v>
+      </c>
+      <c r="BE67">
+        <v>8.6</v>
+      </c>
+      <c r="BF67">
+        <v>1.62</v>
+      </c>
+      <c r="BG67">
+        <v>1.2</v>
+      </c>
+      <c r="BH67">
+        <v>4</v>
+      </c>
+      <c r="BI67">
+        <v>1.38</v>
+      </c>
+      <c r="BJ67">
+        <v>2.8</v>
+      </c>
+      <c r="BK67">
+        <v>2.1</v>
+      </c>
+      <c r="BL67">
+        <v>2.08</v>
+      </c>
+      <c r="BM67">
+        <v>2.05</v>
+      </c>
+      <c r="BN67">
+        <v>1.7</v>
+      </c>
+      <c r="BO67">
+        <v>2.7</v>
+      </c>
+      <c r="BP67">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="184">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -427,6 +427,9 @@
     <t>['6', '28']</t>
   </si>
   <si>
+    <t>['25', '59', '90+2']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -560,6 +563,9 @@
   </si>
   <si>
     <t>['71', '85']</t>
+  </si>
+  <si>
+    <t>['77']</t>
   </si>
 </sst>
 </file>
@@ -921,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP67"/>
+  <dimension ref="A1:BP68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1180,7 +1186,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1798,7 +1804,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2004,7 +2010,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2210,7 +2216,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2416,7 +2422,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2622,7 +2628,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -3034,7 +3040,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3240,7 +3246,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3318,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ12">
         <v>1.6</v>
@@ -4270,7 +4276,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4348,7 +4354,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ17">
         <v>1.4</v>
@@ -4476,7 +4482,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4682,7 +4688,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -5094,7 +5100,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5300,7 +5306,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q22">
         <v>1.73</v>
@@ -5506,7 +5512,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5712,7 +5718,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5918,7 +5924,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6124,7 +6130,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6330,7 +6336,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6536,7 +6542,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6742,7 +6748,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6820,7 +6826,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ29">
         <v>0.83</v>
@@ -6948,7 +6954,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7154,7 +7160,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7360,7 +7366,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7566,7 +7572,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7772,7 +7778,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -7978,7 +7984,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8184,7 +8190,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8802,7 +8808,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9008,7 +9014,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9086,7 +9092,7 @@
         <v>2.33</v>
       </c>
       <c r="AP40">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ40">
         <v>1.33</v>
@@ -9214,7 +9220,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9420,7 +9426,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9832,7 +9838,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10038,7 +10044,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10244,7 +10250,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10450,7 +10456,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -11068,7 +11074,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11480,7 +11486,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11892,7 +11898,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12176,7 +12182,7 @@
         <v>0.75</v>
       </c>
       <c r="AP55">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ55">
         <v>0.67</v>
@@ -12304,7 +12310,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12922,7 +12928,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13128,7 +13134,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q60">
         <v>6.5</v>
@@ -13334,7 +13340,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13540,7 +13546,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13746,7 +13752,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q63">
         <v>4.5</v>
@@ -13952,7 +13958,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q64">
         <v>2.3</v>
@@ -14158,7 +14164,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -14570,7 +14576,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q67">
         <v>4.5</v>
@@ -14727,6 +14733,212 @@
       </c>
       <c r="BP67">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7452322</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45583.58333333334</v>
+      </c>
+      <c r="F68">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s">
+        <v>73</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>3</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>4</v>
+      </c>
+      <c r="O68" t="s">
+        <v>137</v>
+      </c>
+      <c r="P68" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q68">
+        <v>1.53</v>
+      </c>
+      <c r="R68">
+        <v>3.1</v>
+      </c>
+      <c r="S68">
+        <v>10</v>
+      </c>
+      <c r="T68">
+        <v>1.22</v>
+      </c>
+      <c r="U68">
+        <v>4</v>
+      </c>
+      <c r="V68">
+        <v>2</v>
+      </c>
+      <c r="W68">
+        <v>1.73</v>
+      </c>
+      <c r="X68">
+        <v>4.33</v>
+      </c>
+      <c r="Y68">
+        <v>1.2</v>
+      </c>
+      <c r="Z68">
+        <v>1.22</v>
+      </c>
+      <c r="AA68">
+        <v>6</v>
+      </c>
+      <c r="AB68">
+        <v>11</v>
+      </c>
+      <c r="AC68">
+        <v>0</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
+      </c>
+      <c r="AF68">
+        <v>0</v>
+      </c>
+      <c r="AG68">
+        <v>1.4</v>
+      </c>
+      <c r="AH68">
+        <v>2.75</v>
+      </c>
+      <c r="AI68">
+        <v>2</v>
+      </c>
+      <c r="AJ68">
+        <v>1.75</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+      <c r="AL68">
+        <v>0</v>
+      </c>
+      <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <v>2.2</v>
+      </c>
+      <c r="AO68">
+        <v>0</v>
+      </c>
+      <c r="AP68">
+        <v>2.33</v>
+      </c>
+      <c r="AQ68">
+        <v>0</v>
+      </c>
+      <c r="AR68">
+        <v>1.76</v>
+      </c>
+      <c r="AS68">
+        <v>1.21</v>
+      </c>
+      <c r="AT68">
+        <v>2.97</v>
+      </c>
+      <c r="AU68">
+        <v>8</v>
+      </c>
+      <c r="AV68">
+        <v>5</v>
+      </c>
+      <c r="AW68">
+        <v>5</v>
+      </c>
+      <c r="AX68">
+        <v>3</v>
+      </c>
+      <c r="AY68">
+        <v>16</v>
+      </c>
+      <c r="AZ68">
+        <v>11</v>
+      </c>
+      <c r="BA68">
+        <v>0</v>
+      </c>
+      <c r="BB68">
+        <v>5</v>
+      </c>
+      <c r="BC68">
+        <v>5</v>
+      </c>
+      <c r="BD68">
+        <v>0</v>
+      </c>
+      <c r="BE68">
+        <v>0</v>
+      </c>
+      <c r="BF68">
+        <v>0</v>
+      </c>
+      <c r="BG68">
+        <v>0</v>
+      </c>
+      <c r="BH68">
+        <v>0</v>
+      </c>
+      <c r="BI68">
+        <v>0</v>
+      </c>
+      <c r="BJ68">
+        <v>0</v>
+      </c>
+      <c r="BK68">
+        <v>1.91</v>
+      </c>
+      <c r="BL68">
+        <v>0</v>
+      </c>
+      <c r="BM68">
+        <v>0</v>
+      </c>
+      <c r="BN68">
+        <v>0</v>
+      </c>
+      <c r="BO68">
+        <v>0</v>
+      </c>
+      <c r="BP68">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="188">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -430,6 +430,12 @@
     <t>['25', '59', '90+2']</t>
   </si>
   <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['41', '51', '78']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -566,6 +572,12 @@
   </si>
   <si>
     <t>['77']</t>
+  </si>
+  <si>
+    <t>['3']</t>
+  </si>
+  <si>
+    <t>['63', '85']</t>
   </si>
 </sst>
 </file>
@@ -927,7 +939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP68"/>
+  <dimension ref="A1:BP72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1186,7 +1198,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1267,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1470,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ3">
         <v>0.67</v>
@@ -1804,7 +1816,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1885,7 +1897,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ5">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2010,7 +2022,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2216,7 +2228,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2294,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ7">
         <v>1.67</v>
@@ -2422,7 +2434,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2500,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ8">
         <v>0.6</v>
@@ -2628,7 +2640,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2706,10 +2718,10 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR9">
         <v>1.96</v>
@@ -2915,7 +2927,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ10">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3040,7 +3052,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3118,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3246,7 +3258,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -4151,7 +4163,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ16">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR16">
         <v>1.37</v>
@@ -4276,7 +4288,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4357,7 +4369,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ17">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR17">
         <v>1.41</v>
@@ -4482,7 +4494,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4560,7 +4572,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ18">
         <v>1.33</v>
@@ -4688,7 +4700,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -5100,7 +5112,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5181,7 +5193,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ21">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR21">
         <v>1.14</v>
@@ -5306,7 +5318,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q22">
         <v>1.73</v>
@@ -5384,7 +5396,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ22">
         <v>0.6</v>
@@ -5512,7 +5524,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5718,7 +5730,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5796,7 +5808,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ24">
         <v>1.67</v>
@@ -5924,7 +5936,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6130,7 +6142,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6208,10 +6220,10 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR26">
         <v>1.11</v>
@@ -6336,7 +6348,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6542,7 +6554,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6748,7 +6760,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6829,7 +6841,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ29">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR29">
         <v>1.88</v>
@@ -6954,7 +6966,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7032,7 +7044,7 @@
         <v>2</v>
       </c>
       <c r="AP30">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30">
         <v>1.33</v>
@@ -7160,7 +7172,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7366,7 +7378,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7444,7 +7456,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32">
         <v>1.6</v>
@@ -7572,7 +7584,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7778,7 +7790,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -7859,7 +7871,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ34">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR34">
         <v>1.05</v>
@@ -7984,7 +7996,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8062,7 +8074,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ35">
         <v>1.67</v>
@@ -8190,7 +8202,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8271,7 +8283,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR36">
         <v>1.69</v>
@@ -8680,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ38">
         <v>0</v>
@@ -8808,7 +8820,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9014,7 +9026,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9220,7 +9232,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9298,10 +9310,10 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ41">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR41">
         <v>1.35</v>
@@ -9426,7 +9438,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9507,7 +9519,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ42">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR42">
         <v>1.27</v>
@@ -9838,7 +9850,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -9916,7 +9928,7 @@
         <v>0.67</v>
       </c>
       <c r="AP44">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ44">
         <v>0.6</v>
@@ -10044,7 +10056,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10250,7 +10262,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10331,7 +10343,7 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR46">
         <v>1.69</v>
@@ -10456,7 +10468,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10537,7 +10549,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ47">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR47">
         <v>1.58</v>
@@ -10946,10 +10958,10 @@
         <v>1.67</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ49">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR49">
         <v>1.79</v>
@@ -11074,7 +11086,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11358,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ51">
         <v>0</v>
@@ -11486,7 +11498,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11567,7 +11579,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ52">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR52">
         <v>1.41</v>
@@ -11770,7 +11782,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ53">
         <v>1.6</v>
@@ -11898,7 +11910,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12310,7 +12322,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12391,7 +12403,7 @@
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR56">
         <v>1.6</v>
@@ -12597,7 +12609,7 @@
         <v>3</v>
       </c>
       <c r="AQ57">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR57">
         <v>1.87</v>
@@ -12800,7 +12812,7 @@
         <v>0.6</v>
       </c>
       <c r="AP58">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
         <v>0.5</v>
@@ -12928,7 +12940,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13006,10 +13018,10 @@
         <v>1.75</v>
       </c>
       <c r="AP59">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ59">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR59">
         <v>1.04</v>
@@ -13134,7 +13146,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q60">
         <v>6.5</v>
@@ -13340,7 +13352,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13418,7 +13430,7 @@
         <v>1.6</v>
       </c>
       <c r="AP61">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ61">
         <v>1.33</v>
@@ -13546,7 +13558,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13752,7 +13764,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q63">
         <v>4.5</v>
@@ -13830,7 +13842,7 @@
         <v>0.75</v>
       </c>
       <c r="AP63">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ63">
         <v>1.2</v>
@@ -13958,7 +13970,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q64">
         <v>2.3</v>
@@ -14164,7 +14176,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -14451,7 +14463,7 @@
         <v>2</v>
       </c>
       <c r="AQ66">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR66">
         <v>1.84</v>
@@ -14576,7 +14588,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q67">
         <v>4.5</v>
@@ -14782,7 +14794,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q68">
         <v>1.53</v>
@@ -14939,6 +14951,830 @@
       </c>
       <c r="BP68">
         <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7452324</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45585.375</v>
+      </c>
+      <c r="F69">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>75</v>
+      </c>
+      <c r="H69" t="s">
+        <v>74</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69" t="s">
+        <v>87</v>
+      </c>
+      <c r="P69" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q69">
+        <v>3.6</v>
+      </c>
+      <c r="R69">
+        <v>2.25</v>
+      </c>
+      <c r="S69">
+        <v>2.75</v>
+      </c>
+      <c r="T69">
+        <v>1.33</v>
+      </c>
+      <c r="U69">
+        <v>3.25</v>
+      </c>
+      <c r="V69">
+        <v>2.63</v>
+      </c>
+      <c r="W69">
+        <v>1.44</v>
+      </c>
+      <c r="X69">
+        <v>6.5</v>
+      </c>
+      <c r="Y69">
+        <v>1.11</v>
+      </c>
+      <c r="Z69">
+        <v>3.1</v>
+      </c>
+      <c r="AA69">
+        <v>3.6</v>
+      </c>
+      <c r="AB69">
+        <v>2.15</v>
+      </c>
+      <c r="AC69">
+        <v>6</v>
+      </c>
+      <c r="AD69">
+        <v>1.07</v>
+      </c>
+      <c r="AE69">
+        <v>1.24</v>
+      </c>
+      <c r="AF69">
+        <v>4.1</v>
+      </c>
+      <c r="AG69">
+        <v>1.73</v>
+      </c>
+      <c r="AH69">
+        <v>2.08</v>
+      </c>
+      <c r="AI69">
+        <v>1.62</v>
+      </c>
+      <c r="AJ69">
+        <v>2.2</v>
+      </c>
+      <c r="AK69">
+        <v>1.7</v>
+      </c>
+      <c r="AL69">
+        <v>1.26</v>
+      </c>
+      <c r="AM69">
+        <v>1.35</v>
+      </c>
+      <c r="AN69">
+        <v>0.83</v>
+      </c>
+      <c r="AO69">
+        <v>0.83</v>
+      </c>
+      <c r="AP69">
+        <v>0.86</v>
+      </c>
+      <c r="AQ69">
+        <v>0.86</v>
+      </c>
+      <c r="AR69">
+        <v>1.17</v>
+      </c>
+      <c r="AS69">
+        <v>1.44</v>
+      </c>
+      <c r="AT69">
+        <v>2.61</v>
+      </c>
+      <c r="AU69">
+        <v>4</v>
+      </c>
+      <c r="AV69">
+        <v>6</v>
+      </c>
+      <c r="AW69">
+        <v>6</v>
+      </c>
+      <c r="AX69">
+        <v>5</v>
+      </c>
+      <c r="AY69">
+        <v>11</v>
+      </c>
+      <c r="AZ69">
+        <v>15</v>
+      </c>
+      <c r="BA69">
+        <v>10</v>
+      </c>
+      <c r="BB69">
+        <v>4</v>
+      </c>
+      <c r="BC69">
+        <v>14</v>
+      </c>
+      <c r="BD69">
+        <v>2.23</v>
+      </c>
+      <c r="BE69">
+        <v>7</v>
+      </c>
+      <c r="BF69">
+        <v>1.87</v>
+      </c>
+      <c r="BG69">
+        <v>1.12</v>
+      </c>
+      <c r="BH69">
+        <v>4.55</v>
+      </c>
+      <c r="BI69">
+        <v>1.26</v>
+      </c>
+      <c r="BJ69">
+        <v>3.08</v>
+      </c>
+      <c r="BK69">
+        <v>1.91</v>
+      </c>
+      <c r="BL69">
+        <v>2.18</v>
+      </c>
+      <c r="BM69">
+        <v>1.96</v>
+      </c>
+      <c r="BN69">
+        <v>1.77</v>
+      </c>
+      <c r="BO69">
+        <v>2.5</v>
+      </c>
+      <c r="BP69">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7452325</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45585.375</v>
+      </c>
+      <c r="F70">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H70" t="s">
+        <v>77</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+      <c r="N70">
+        <v>2</v>
+      </c>
+      <c r="O70" t="s">
+        <v>87</v>
+      </c>
+      <c r="P70" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q70">
+        <v>3.6</v>
+      </c>
+      <c r="R70">
+        <v>2.3</v>
+      </c>
+      <c r="S70">
+        <v>2.75</v>
+      </c>
+      <c r="T70">
+        <v>1.3</v>
+      </c>
+      <c r="U70">
+        <v>3.4</v>
+      </c>
+      <c r="V70">
+        <v>2.5</v>
+      </c>
+      <c r="W70">
+        <v>1.5</v>
+      </c>
+      <c r="X70">
+        <v>6</v>
+      </c>
+      <c r="Y70">
+        <v>1.13</v>
+      </c>
+      <c r="Z70">
+        <v>3.1</v>
+      </c>
+      <c r="AA70">
+        <v>3.7</v>
+      </c>
+      <c r="AB70">
+        <v>2.15</v>
+      </c>
+      <c r="AC70">
+        <v>1.01</v>
+      </c>
+      <c r="AD70">
+        <v>13</v>
+      </c>
+      <c r="AE70">
+        <v>3.92</v>
+      </c>
+      <c r="AF70">
+        <v>1.25</v>
+      </c>
+      <c r="AG70">
+        <v>1.67</v>
+      </c>
+      <c r="AH70">
+        <v>2.15</v>
+      </c>
+      <c r="AI70">
+        <v>1.62</v>
+      </c>
+      <c r="AJ70">
+        <v>2.2</v>
+      </c>
+      <c r="AK70">
+        <v>1.78</v>
+      </c>
+      <c r="AL70">
+        <v>1.25</v>
+      </c>
+      <c r="AM70">
+        <v>1.33</v>
+      </c>
+      <c r="AN70">
+        <v>1.8</v>
+      </c>
+      <c r="AO70">
+        <v>1.4</v>
+      </c>
+      <c r="AP70">
+        <v>1.5</v>
+      </c>
+      <c r="AQ70">
+        <v>1.67</v>
+      </c>
+      <c r="AR70">
+        <v>1.17</v>
+      </c>
+      <c r="AS70">
+        <v>1.13</v>
+      </c>
+      <c r="AT70">
+        <v>2.3</v>
+      </c>
+      <c r="AU70">
+        <v>7</v>
+      </c>
+      <c r="AV70">
+        <v>6</v>
+      </c>
+      <c r="AW70">
+        <v>11</v>
+      </c>
+      <c r="AX70">
+        <v>6</v>
+      </c>
+      <c r="AY70">
+        <v>24</v>
+      </c>
+      <c r="AZ70">
+        <v>12</v>
+      </c>
+      <c r="BA70">
+        <v>6</v>
+      </c>
+      <c r="BB70">
+        <v>1</v>
+      </c>
+      <c r="BC70">
+        <v>7</v>
+      </c>
+      <c r="BD70">
+        <v>2.37</v>
+      </c>
+      <c r="BE70">
+        <v>6.5</v>
+      </c>
+      <c r="BF70">
+        <v>1.82</v>
+      </c>
+      <c r="BG70">
+        <v>1.13</v>
+      </c>
+      <c r="BH70">
+        <v>4.35</v>
+      </c>
+      <c r="BI70">
+        <v>1.28</v>
+      </c>
+      <c r="BJ70">
+        <v>2.97</v>
+      </c>
+      <c r="BK70">
+        <v>1.83</v>
+      </c>
+      <c r="BL70">
+        <v>2.17</v>
+      </c>
+      <c r="BM70">
+        <v>1.99</v>
+      </c>
+      <c r="BN70">
+        <v>1.75</v>
+      </c>
+      <c r="BO70">
+        <v>2.52</v>
+      </c>
+      <c r="BP70">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7452323</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45585.45833333334</v>
+      </c>
+      <c r="F71">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>71</v>
+      </c>
+      <c r="H71" t="s">
+        <v>72</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>2</v>
+      </c>
+      <c r="O71" t="s">
+        <v>138</v>
+      </c>
+      <c r="P71" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q71">
+        <v>1.95</v>
+      </c>
+      <c r="R71">
+        <v>2.6</v>
+      </c>
+      <c r="S71">
+        <v>5.5</v>
+      </c>
+      <c r="T71">
+        <v>1.25</v>
+      </c>
+      <c r="U71">
+        <v>3.75</v>
+      </c>
+      <c r="V71">
+        <v>2.2</v>
+      </c>
+      <c r="W71">
+        <v>1.62</v>
+      </c>
+      <c r="X71">
+        <v>5</v>
+      </c>
+      <c r="Y71">
+        <v>1.17</v>
+      </c>
+      <c r="Z71">
+        <v>1.48</v>
+      </c>
+      <c r="AA71">
+        <v>4.5</v>
+      </c>
+      <c r="AB71">
+        <v>5.75</v>
+      </c>
+      <c r="AC71">
+        <v>1.01</v>
+      </c>
+      <c r="AD71">
+        <v>20</v>
+      </c>
+      <c r="AE71">
+        <v>1.15</v>
+      </c>
+      <c r="AF71">
+        <v>5.45</v>
+      </c>
+      <c r="AG71">
+        <v>1.5</v>
+      </c>
+      <c r="AH71">
+        <v>2.5</v>
+      </c>
+      <c r="AI71">
+        <v>1.62</v>
+      </c>
+      <c r="AJ71">
+        <v>2.2</v>
+      </c>
+      <c r="AK71">
+        <v>1.17</v>
+      </c>
+      <c r="AL71">
+        <v>1.17</v>
+      </c>
+      <c r="AM71">
+        <v>2.4</v>
+      </c>
+      <c r="AN71">
+        <v>2</v>
+      </c>
+      <c r="AO71">
+        <v>1.6</v>
+      </c>
+      <c r="AP71">
+        <v>1.86</v>
+      </c>
+      <c r="AQ71">
+        <v>1.5</v>
+      </c>
+      <c r="AR71">
+        <v>1.7</v>
+      </c>
+      <c r="AS71">
+        <v>1.28</v>
+      </c>
+      <c r="AT71">
+        <v>2.98</v>
+      </c>
+      <c r="AU71">
+        <v>4</v>
+      </c>
+      <c r="AV71">
+        <v>3</v>
+      </c>
+      <c r="AW71">
+        <v>7</v>
+      </c>
+      <c r="AX71">
+        <v>1</v>
+      </c>
+      <c r="AY71">
+        <v>16</v>
+      </c>
+      <c r="AZ71">
+        <v>6</v>
+      </c>
+      <c r="BA71">
+        <v>7</v>
+      </c>
+      <c r="BB71">
+        <v>3</v>
+      </c>
+      <c r="BC71">
+        <v>10</v>
+      </c>
+      <c r="BD71">
+        <v>1.51</v>
+      </c>
+      <c r="BE71">
+        <v>7</v>
+      </c>
+      <c r="BF71">
+        <v>3.1</v>
+      </c>
+      <c r="BG71">
+        <v>1.19</v>
+      </c>
+      <c r="BH71">
+        <v>3.58</v>
+      </c>
+      <c r="BI71">
+        <v>1.42</v>
+      </c>
+      <c r="BJ71">
+        <v>2.57</v>
+      </c>
+      <c r="BK71">
+        <v>2.2</v>
+      </c>
+      <c r="BL71">
+        <v>2.04</v>
+      </c>
+      <c r="BM71">
+        <v>2.12</v>
+      </c>
+      <c r="BN71">
+        <v>1.66</v>
+      </c>
+      <c r="BO71">
+        <v>2.72</v>
+      </c>
+      <c r="BP71">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7452326</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45585.54166666666</v>
+      </c>
+      <c r="F72">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>76</v>
+      </c>
+      <c r="H72" t="s">
+        <v>81</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>3</v>
+      </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
+      <c r="N72">
+        <v>5</v>
+      </c>
+      <c r="O72" t="s">
+        <v>139</v>
+      </c>
+      <c r="P72" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q72">
+        <v>5</v>
+      </c>
+      <c r="R72">
+        <v>2.6</v>
+      </c>
+      <c r="S72">
+        <v>2</v>
+      </c>
+      <c r="T72">
+        <v>1.25</v>
+      </c>
+      <c r="U72">
+        <v>3.75</v>
+      </c>
+      <c r="V72">
+        <v>2.2</v>
+      </c>
+      <c r="W72">
+        <v>1.62</v>
+      </c>
+      <c r="X72">
+        <v>5</v>
+      </c>
+      <c r="Y72">
+        <v>1.17</v>
+      </c>
+      <c r="Z72">
+        <v>5.5</v>
+      </c>
+      <c r="AA72">
+        <v>4.5</v>
+      </c>
+      <c r="AB72">
+        <v>1.53</v>
+      </c>
+      <c r="AC72">
+        <v>1.01</v>
+      </c>
+      <c r="AD72">
+        <v>20</v>
+      </c>
+      <c r="AE72">
+        <v>1.15</v>
+      </c>
+      <c r="AF72">
+        <v>5.45</v>
+      </c>
+      <c r="AG72">
+        <v>1.48</v>
+      </c>
+      <c r="AH72">
+        <v>2.6</v>
+      </c>
+      <c r="AI72">
+        <v>1.57</v>
+      </c>
+      <c r="AJ72">
+        <v>2.25</v>
+      </c>
+      <c r="AK72">
+        <v>2.55</v>
+      </c>
+      <c r="AL72">
+        <v>1.17</v>
+      </c>
+      <c r="AM72">
+        <v>1.14</v>
+      </c>
+      <c r="AN72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
+        <v>1.5</v>
+      </c>
+      <c r="AP72">
+        <v>1.33</v>
+      </c>
+      <c r="AQ72">
+        <v>1.29</v>
+      </c>
+      <c r="AR72">
+        <v>1.35</v>
+      </c>
+      <c r="AS72">
+        <v>1.49</v>
+      </c>
+      <c r="AT72">
+        <v>2.84</v>
+      </c>
+      <c r="AU72">
+        <v>6</v>
+      </c>
+      <c r="AV72">
+        <v>6</v>
+      </c>
+      <c r="AW72">
+        <v>6</v>
+      </c>
+      <c r="AX72">
+        <v>8</v>
+      </c>
+      <c r="AY72">
+        <v>16</v>
+      </c>
+      <c r="AZ72">
+        <v>20</v>
+      </c>
+      <c r="BA72">
+        <v>4</v>
+      </c>
+      <c r="BB72">
+        <v>10</v>
+      </c>
+      <c r="BC72">
+        <v>14</v>
+      </c>
+      <c r="BD72">
+        <v>3.25</v>
+      </c>
+      <c r="BE72">
+        <v>7</v>
+      </c>
+      <c r="BF72">
+        <v>1.48</v>
+      </c>
+      <c r="BG72">
+        <v>1.19</v>
+      </c>
+      <c r="BH72">
+        <v>3.6</v>
+      </c>
+      <c r="BI72">
+        <v>1.39</v>
+      </c>
+      <c r="BJ72">
+        <v>2.51</v>
+      </c>
+      <c r="BK72">
+        <v>2.38</v>
+      </c>
+      <c r="BL72">
+        <v>2.04</v>
+      </c>
+      <c r="BM72">
+        <v>2.15</v>
+      </c>
+      <c r="BN72">
+        <v>1.64</v>
+      </c>
+      <c r="BO72">
+        <v>2.8</v>
+      </c>
+      <c r="BP72">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="189">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -434,6 +434,9 @@
   </si>
   <si>
     <t>['41', '51', '78']</t>
+  </si>
+  <si>
+    <t>['32']</t>
   </si>
   <si>
     <t>['47']</t>
@@ -939,7 +942,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP72"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1198,7 +1201,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1276,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ2">
         <v>1.29</v>
@@ -1816,7 +1819,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2022,7 +2025,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2103,7 +2106,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ6">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2228,7 +2231,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2434,7 +2437,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2640,7 +2643,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -3052,7 +3055,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3258,7 +3261,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3748,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ14">
         <v>0.5</v>
@@ -4288,7 +4291,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4494,7 +4497,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4575,7 +4578,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ18">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR18">
         <v>1.15</v>
@@ -4700,7 +4703,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -5112,7 +5115,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5318,7 +5321,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q22">
         <v>1.73</v>
@@ -5524,7 +5527,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5730,7 +5733,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5936,7 +5939,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6142,7 +6145,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6348,7 +6351,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6554,7 +6557,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6760,7 +6763,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6966,7 +6969,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7047,7 +7050,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ30">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR30">
         <v>1.16</v>
@@ -7172,7 +7175,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7250,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ31">
         <v>0</v>
@@ -7378,7 +7381,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7584,7 +7587,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7790,7 +7793,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -7996,7 +7999,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8202,7 +8205,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8820,7 +8823,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -8898,7 +8901,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ39">
         <v>1.2</v>
@@ -9026,7 +9029,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9107,7 +9110,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ40">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR40">
         <v>1.87</v>
@@ -9232,7 +9235,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9438,7 +9441,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9850,7 +9853,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10056,7 +10059,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10262,7 +10265,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10340,7 +10343,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ46">
         <v>1.5</v>
@@ -10468,7 +10471,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -11086,7 +11089,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11498,7 +11501,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11910,7 +11913,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -11991,7 +11994,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ54">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR54">
         <v>1.24</v>
@@ -12322,7 +12325,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12400,7 +12403,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ56">
         <v>1.67</v>
@@ -12940,7 +12943,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13146,7 +13149,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q60">
         <v>6.5</v>
@@ -13352,7 +13355,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13433,7 +13436,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ61">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR61">
         <v>1.74</v>
@@ -13558,7 +13561,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13764,7 +13767,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q63">
         <v>4.5</v>
@@ -13970,7 +13973,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q64">
         <v>2.3</v>
@@ -14176,7 +14179,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -14588,7 +14591,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q67">
         <v>4.5</v>
@@ -14794,7 +14797,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q68">
         <v>1.53</v>
@@ -15206,7 +15209,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q70">
         <v>3.6</v>
@@ -15412,7 +15415,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q71">
         <v>1.95</v>
@@ -15618,7 +15621,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -15775,6 +15778,212 @@
       </c>
       <c r="BP72">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7452321</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45586.58333333334</v>
+      </c>
+      <c r="F73">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>70</v>
+      </c>
+      <c r="H73" t="s">
+        <v>80</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73" t="s">
+        <v>140</v>
+      </c>
+      <c r="P73" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q73">
+        <v>3.25</v>
+      </c>
+      <c r="R73">
+        <v>2.2</v>
+      </c>
+      <c r="S73">
+        <v>3.25</v>
+      </c>
+      <c r="T73">
+        <v>1.36</v>
+      </c>
+      <c r="U73">
+        <v>3</v>
+      </c>
+      <c r="V73">
+        <v>2.63</v>
+      </c>
+      <c r="W73">
+        <v>1.44</v>
+      </c>
+      <c r="X73">
+        <v>7</v>
+      </c>
+      <c r="Y73">
+        <v>1.1</v>
+      </c>
+      <c r="Z73">
+        <v>2.63</v>
+      </c>
+      <c r="AA73">
+        <v>3.4</v>
+      </c>
+      <c r="AB73">
+        <v>2.55</v>
+      </c>
+      <c r="AC73">
+        <v>1.03</v>
+      </c>
+      <c r="AD73">
+        <v>12.5</v>
+      </c>
+      <c r="AE73">
+        <v>1.27</v>
+      </c>
+      <c r="AF73">
+        <v>3.7</v>
+      </c>
+      <c r="AG73">
+        <v>1.9</v>
+      </c>
+      <c r="AH73">
+        <v>1.9</v>
+      </c>
+      <c r="AI73">
+        <v>1.7</v>
+      </c>
+      <c r="AJ73">
+        <v>2.05</v>
+      </c>
+      <c r="AK73">
+        <v>1.5</v>
+      </c>
+      <c r="AL73">
+        <v>1.24</v>
+      </c>
+      <c r="AM73">
+        <v>1.55</v>
+      </c>
+      <c r="AN73">
+        <v>2</v>
+      </c>
+      <c r="AO73">
+        <v>1.33</v>
+      </c>
+      <c r="AP73">
+        <v>2.14</v>
+      </c>
+      <c r="AQ73">
+        <v>1.14</v>
+      </c>
+      <c r="AR73">
+        <v>1.58</v>
+      </c>
+      <c r="AS73">
+        <v>1.91</v>
+      </c>
+      <c r="AT73">
+        <v>3.49</v>
+      </c>
+      <c r="AU73">
+        <v>4</v>
+      </c>
+      <c r="AV73">
+        <v>2</v>
+      </c>
+      <c r="AW73">
+        <v>10</v>
+      </c>
+      <c r="AX73">
+        <v>7</v>
+      </c>
+      <c r="AY73">
+        <v>15</v>
+      </c>
+      <c r="AZ73">
+        <v>11</v>
+      </c>
+      <c r="BA73">
+        <v>6</v>
+      </c>
+      <c r="BB73">
+        <v>4</v>
+      </c>
+      <c r="BC73">
+        <v>10</v>
+      </c>
+      <c r="BD73">
+        <v>2</v>
+      </c>
+      <c r="BE73">
+        <v>6.9</v>
+      </c>
+      <c r="BF73">
+        <v>2.08</v>
+      </c>
+      <c r="BG73">
+        <v>1.17</v>
+      </c>
+      <c r="BH73">
+        <v>3.8</v>
+      </c>
+      <c r="BI73">
+        <v>1.38</v>
+      </c>
+      <c r="BJ73">
+        <v>2.71</v>
+      </c>
+      <c r="BK73">
+        <v>2.2</v>
+      </c>
+      <c r="BL73">
+        <v>2.11</v>
+      </c>
+      <c r="BM73">
+        <v>2.05</v>
+      </c>
+      <c r="BN73">
+        <v>1.7</v>
+      </c>
+      <c r="BO73">
+        <v>2.61</v>
+      </c>
+      <c r="BP73">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -15920,22 +15920,22 @@
         <v>3.49</v>
       </c>
       <c r="AU73">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV73">
         <v>2</v>
       </c>
       <c r="AW73">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX73">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY73">
         <v>15</v>
       </c>
       <c r="AZ73">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA73">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="190">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t>['32']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
   </si>
   <si>
     <t>['47']</t>
@@ -942,7 +945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1201,7 +1204,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1488,7 +1491,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ3">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1691,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ4">
         <v>0.5</v>
@@ -1819,7 +1822,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2025,7 +2028,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2231,7 +2234,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2437,7 +2440,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2643,7 +2646,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -3055,7 +3058,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3261,7 +3264,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3960,7 +3963,7 @@
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4163,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ16">
         <v>0.86</v>
@@ -4291,7 +4294,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4497,7 +4500,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4703,7 +4706,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -5115,7 +5118,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5321,7 +5324,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q22">
         <v>1.73</v>
@@ -5527,7 +5530,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5733,7 +5736,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5939,7 +5942,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6020,7 +6023,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ25">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR25">
         <v>0.91</v>
@@ -6145,7 +6148,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6351,7 +6354,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6557,7 +6560,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6635,7 +6638,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ28">
         <v>1.2</v>
@@ -6763,7 +6766,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6969,7 +6972,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7175,7 +7178,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7381,7 +7384,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7587,7 +7590,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7793,7 +7796,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -7999,7 +8002,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8205,7 +8208,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8823,7 +8826,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9029,7 +9032,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9235,7 +9238,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9441,7 +9444,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9519,7 +9522,7 @@
         <v>1.67</v>
       </c>
       <c r="AP42">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ42">
         <v>1.29</v>
@@ -9728,7 +9731,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ43">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR43">
         <v>1.52</v>
@@ -9853,7 +9856,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10059,7 +10062,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10265,7 +10268,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10471,7 +10474,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -11089,7 +11092,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11501,7 +11504,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11913,7 +11916,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -11991,7 +11994,7 @@
         <v>1.75</v>
       </c>
       <c r="AP54">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ54">
         <v>1.14</v>
@@ -12200,7 +12203,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ55">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR55">
         <v>1.59</v>
@@ -12325,7 +12328,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12943,7 +12946,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13149,7 +13152,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q60">
         <v>6.5</v>
@@ -13355,7 +13358,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13561,7 +13564,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13642,7 +13645,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ62">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR62">
         <v>1.34</v>
@@ -13767,7 +13770,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q63">
         <v>4.5</v>
@@ -13973,7 +13976,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q64">
         <v>2.3</v>
@@ -14179,7 +14182,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -14591,7 +14594,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q67">
         <v>4.5</v>
@@ -14669,7 +14672,7 @@
         <v>1.8</v>
       </c>
       <c r="AP67">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ67">
         <v>1.67</v>
@@ -14797,7 +14800,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q68">
         <v>1.53</v>
@@ -15209,7 +15212,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q70">
         <v>3.6</v>
@@ -15415,7 +15418,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q71">
         <v>1.95</v>
@@ -15621,7 +15624,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -15984,6 +15987,212 @@
       </c>
       <c r="BP73">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7452332</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45590.58333333334</v>
+      </c>
+      <c r="F74">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s">
+        <v>72</v>
+      </c>
+      <c r="H74" t="s">
+        <v>78</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>2</v>
+      </c>
+      <c r="O74" t="s">
+        <v>141</v>
+      </c>
+      <c r="P74" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q74">
+        <v>2.4</v>
+      </c>
+      <c r="R74">
+        <v>2.4</v>
+      </c>
+      <c r="S74">
+        <v>3.75</v>
+      </c>
+      <c r="T74">
+        <v>1.3</v>
+      </c>
+      <c r="U74">
+        <v>3.2</v>
+      </c>
+      <c r="V74">
+        <v>2.3</v>
+      </c>
+      <c r="W74">
+        <v>1.55</v>
+      </c>
+      <c r="X74">
+        <v>5.4</v>
+      </c>
+      <c r="Y74">
+        <v>1.12</v>
+      </c>
+      <c r="Z74">
+        <v>1.9</v>
+      </c>
+      <c r="AA74">
+        <v>4</v>
+      </c>
+      <c r="AB74">
+        <v>3.6</v>
+      </c>
+      <c r="AC74">
+        <v>1.04</v>
+      </c>
+      <c r="AD74">
+        <v>10</v>
+      </c>
+      <c r="AE74">
+        <v>1.2</v>
+      </c>
+      <c r="AF74">
+        <v>4.33</v>
+      </c>
+      <c r="AG74">
+        <v>1.53</v>
+      </c>
+      <c r="AH74">
+        <v>2.4</v>
+      </c>
+      <c r="AI74">
+        <v>1.5</v>
+      </c>
+      <c r="AJ74">
+        <v>2.5</v>
+      </c>
+      <c r="AK74">
+        <v>1.2</v>
+      </c>
+      <c r="AL74">
+        <v>1.22</v>
+      </c>
+      <c r="AM74">
+        <v>2</v>
+      </c>
+      <c r="AN74">
+        <v>1.83</v>
+      </c>
+      <c r="AO74">
+        <v>0.67</v>
+      </c>
+      <c r="AP74">
+        <v>1.71</v>
+      </c>
+      <c r="AQ74">
+        <v>0.71</v>
+      </c>
+      <c r="AR74">
+        <v>1.16</v>
+      </c>
+      <c r="AS74">
+        <v>1.25</v>
+      </c>
+      <c r="AT74">
+        <v>2.41</v>
+      </c>
+      <c r="AU74">
+        <v>5</v>
+      </c>
+      <c r="AV74">
+        <v>3</v>
+      </c>
+      <c r="AW74">
+        <v>8</v>
+      </c>
+      <c r="AX74">
+        <v>4</v>
+      </c>
+      <c r="AY74">
+        <v>17</v>
+      </c>
+      <c r="AZ74">
+        <v>9</v>
+      </c>
+      <c r="BA74">
+        <v>6</v>
+      </c>
+      <c r="BB74">
+        <v>2</v>
+      </c>
+      <c r="BC74">
+        <v>8</v>
+      </c>
+      <c r="BD74">
+        <v>1.53</v>
+      </c>
+      <c r="BE74">
+        <v>6.5</v>
+      </c>
+      <c r="BF74">
+        <v>2.55</v>
+      </c>
+      <c r="BG74">
+        <v>1.2</v>
+      </c>
+      <c r="BH74">
+        <v>3.9</v>
+      </c>
+      <c r="BI74">
+        <v>1.48</v>
+      </c>
+      <c r="BJ74">
+        <v>2.5</v>
+      </c>
+      <c r="BK74">
+        <v>2.1</v>
+      </c>
+      <c r="BL74">
+        <v>1.92</v>
+      </c>
+      <c r="BM74">
+        <v>2.27</v>
+      </c>
+      <c r="BN74">
+        <v>1.58</v>
+      </c>
+      <c r="BO74">
+        <v>2.4</v>
+      </c>
+      <c r="BP74">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="194">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -442,6 +442,15 @@
     <t>['90+2']</t>
   </si>
   <si>
+    <t>['51', '62']</t>
+  </si>
+  <si>
+    <t>['4', '43', '70', '82']</t>
+  </si>
+  <si>
+    <t>['34', '90']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -584,6 +593,9 @@
   </si>
   <si>
     <t>['63', '85']</t>
+  </si>
+  <si>
+    <t>['58', '75']</t>
   </si>
 </sst>
 </file>
@@ -945,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP74"/>
+  <dimension ref="A1:BP78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1204,7 +1216,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1697,7 +1709,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ4">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1822,7 +1834,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1900,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ5">
         <v>1.67</v>
@@ -2028,7 +2040,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2106,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ6">
         <v>1.14</v>
@@ -2234,7 +2246,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2315,7 +2327,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ7">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2440,7 +2452,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2521,7 +2533,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ8">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2646,7 +2658,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -3058,7 +3070,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3264,7 +3276,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3345,7 +3357,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ12">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3548,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ13">
         <v>0</v>
@@ -3757,7 +3769,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ14">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR14">
         <v>1.77</v>
@@ -4294,7 +4306,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4500,7 +4512,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4706,7 +4718,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -4784,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ19">
         <v>1.2</v>
@@ -5118,7 +5130,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5324,7 +5336,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q22">
         <v>1.73</v>
@@ -5405,7 +5417,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ22">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR22">
         <v>1.44</v>
@@ -5530,7 +5542,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5608,10 +5620,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ23">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR23">
         <v>1.53</v>
@@ -5736,7 +5748,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5817,7 +5829,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ24">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR24">
         <v>1.85</v>
@@ -5942,7 +5954,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6020,7 +6032,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ25">
         <v>0.71</v>
@@ -6148,7 +6160,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6354,7 +6366,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6435,7 +6447,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ27">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR27">
         <v>1.35</v>
@@ -6560,7 +6572,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6766,7 +6778,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6972,7 +6984,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7178,7 +7190,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7384,7 +7396,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7465,7 +7477,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ32">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR32">
         <v>1.14</v>
@@ -7590,7 +7602,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7671,7 +7683,7 @@
         <v>3</v>
       </c>
       <c r="AQ33">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR33">
         <v>1.8</v>
@@ -7796,7 +7808,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -7874,7 +7886,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ34">
         <v>1.5</v>
@@ -8002,7 +8014,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8083,7 +8095,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ35">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR35">
         <v>1.81</v>
@@ -8208,7 +8220,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8286,7 +8298,7 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ36">
         <v>1.67</v>
@@ -8492,10 +8504,10 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ37">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR37">
         <v>1.54</v>
@@ -8826,7 +8838,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9032,7 +9044,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9238,7 +9250,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9444,7 +9456,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9856,7 +9868,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -9937,7 +9949,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ44">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR44">
         <v>0.9</v>
@@ -10062,7 +10074,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10143,7 +10155,7 @@
         <v>3</v>
       </c>
       <c r="AQ45">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR45">
         <v>1.88</v>
@@ -10268,7 +10280,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10474,7 +10486,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10552,7 +10564,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ47">
         <v>0.86</v>
@@ -10758,10 +10770,10 @@
         <v>0.75</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ48">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR48">
         <v>1.96</v>
@@ -11092,7 +11104,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11170,7 +11182,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ50">
         <v>1.2</v>
@@ -11504,7 +11516,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11791,7 +11803,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ53">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR53">
         <v>1.13</v>
@@ -11916,7 +11928,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12328,7 +12340,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12821,7 +12833,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ58">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR58">
         <v>1.05</v>
@@ -12946,7 +12958,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13152,7 +13164,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q60">
         <v>6.5</v>
@@ -13230,10 +13242,10 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ60">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR60">
         <v>1.56</v>
@@ -13358,7 +13370,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13564,7 +13576,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13642,7 +13654,7 @@
         <v>0.6</v>
       </c>
       <c r="AP62">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ62">
         <v>0.71</v>
@@ -13770,7 +13782,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q63">
         <v>4.5</v>
@@ -13976,7 +13988,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q64">
         <v>2.3</v>
@@ -14057,7 +14069,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ64">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR64">
         <v>1.45</v>
@@ -14182,7 +14194,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -14260,10 +14272,10 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ65">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR65">
         <v>1.5</v>
@@ -14466,7 +14478,7 @@
         <v>1.8</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ66">
         <v>1.29</v>
@@ -14594,7 +14606,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q67">
         <v>4.5</v>
@@ -14675,7 +14687,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ67">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR67">
         <v>1.23</v>
@@ -14800,7 +14812,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q68">
         <v>1.53</v>
@@ -15212,7 +15224,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q70">
         <v>3.6</v>
@@ -15418,7 +15430,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q71">
         <v>1.95</v>
@@ -15624,7 +15636,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -16193,6 +16205,830 @@
       </c>
       <c r="BP74">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7452327</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45592.33333333334</v>
+      </c>
+      <c r="F75">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s">
+        <v>80</v>
+      </c>
+      <c r="H75" t="s">
+        <v>79</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75" t="s">
+        <v>87</v>
+      </c>
+      <c r="P75" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q75">
+        <v>3</v>
+      </c>
+      <c r="R75">
+        <v>2.25</v>
+      </c>
+      <c r="S75">
+        <v>3.25</v>
+      </c>
+      <c r="T75">
+        <v>1.33</v>
+      </c>
+      <c r="U75">
+        <v>3.25</v>
+      </c>
+      <c r="V75">
+        <v>2.63</v>
+      </c>
+      <c r="W75">
+        <v>1.44</v>
+      </c>
+      <c r="X75">
+        <v>6.5</v>
+      </c>
+      <c r="Y75">
+        <v>1.11</v>
+      </c>
+      <c r="Z75">
+        <v>2.4</v>
+      </c>
+      <c r="AA75">
+        <v>3.5</v>
+      </c>
+      <c r="AB75">
+        <v>2.7</v>
+      </c>
+      <c r="AC75">
+        <v>1.03</v>
+      </c>
+      <c r="AD75">
+        <v>12.5</v>
+      </c>
+      <c r="AE75">
+        <v>1.23</v>
+      </c>
+      <c r="AF75">
+        <v>4.15</v>
+      </c>
+      <c r="AG75">
+        <v>1.65</v>
+      </c>
+      <c r="AH75">
+        <v>2.2</v>
+      </c>
+      <c r="AI75">
+        <v>1.62</v>
+      </c>
+      <c r="AJ75">
+        <v>2.2</v>
+      </c>
+      <c r="AK75">
+        <v>1.52</v>
+      </c>
+      <c r="AL75">
+        <v>1.25</v>
+      </c>
+      <c r="AM75">
+        <v>1.53</v>
+      </c>
+      <c r="AN75">
+        <v>2</v>
+      </c>
+      <c r="AO75">
+        <v>1.67</v>
+      </c>
+      <c r="AP75">
+        <v>1.83</v>
+      </c>
+      <c r="AQ75">
+        <v>1.57</v>
+      </c>
+      <c r="AR75">
+        <v>1.81</v>
+      </c>
+      <c r="AS75">
+        <v>1.81</v>
+      </c>
+      <c r="AT75">
+        <v>3.62</v>
+      </c>
+      <c r="AU75">
+        <v>2</v>
+      </c>
+      <c r="AV75">
+        <v>3</v>
+      </c>
+      <c r="AW75">
+        <v>5</v>
+      </c>
+      <c r="AX75">
+        <v>4</v>
+      </c>
+      <c r="AY75">
+        <v>13</v>
+      </c>
+      <c r="AZ75">
+        <v>11</v>
+      </c>
+      <c r="BA75">
+        <v>5</v>
+      </c>
+      <c r="BB75">
+        <v>5</v>
+      </c>
+      <c r="BC75">
+        <v>10</v>
+      </c>
+      <c r="BD75">
+        <v>1.93</v>
+      </c>
+      <c r="BE75">
+        <v>6.4</v>
+      </c>
+      <c r="BF75">
+        <v>1.95</v>
+      </c>
+      <c r="BG75">
+        <v>1.2</v>
+      </c>
+      <c r="BH75">
+        <v>3.95</v>
+      </c>
+      <c r="BI75">
+        <v>1.36</v>
+      </c>
+      <c r="BJ75">
+        <v>2.85</v>
+      </c>
+      <c r="BK75">
+        <v>1.91</v>
+      </c>
+      <c r="BL75">
+        <v>2.55</v>
+      </c>
+      <c r="BM75">
+        <v>1.75</v>
+      </c>
+      <c r="BN75">
+        <v>1.98</v>
+      </c>
+      <c r="BO75">
+        <v>2.18</v>
+      </c>
+      <c r="BP75">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7452330</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45592.41666666666</v>
+      </c>
+      <c r="F76">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s">
+        <v>73</v>
+      </c>
+      <c r="H76" t="s">
+        <v>75</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>2</v>
+      </c>
+      <c r="O76" t="s">
+        <v>142</v>
+      </c>
+      <c r="P76" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q76">
+        <v>3.2</v>
+      </c>
+      <c r="R76">
+        <v>2.1</v>
+      </c>
+      <c r="S76">
+        <v>3.4</v>
+      </c>
+      <c r="T76">
+        <v>1.4</v>
+      </c>
+      <c r="U76">
+        <v>2.75</v>
+      </c>
+      <c r="V76">
+        <v>3</v>
+      </c>
+      <c r="W76">
+        <v>1.36</v>
+      </c>
+      <c r="X76">
+        <v>8</v>
+      </c>
+      <c r="Y76">
+        <v>1.08</v>
+      </c>
+      <c r="Z76">
+        <v>2.5</v>
+      </c>
+      <c r="AA76">
+        <v>3.25</v>
+      </c>
+      <c r="AB76">
+        <v>2.8</v>
+      </c>
+      <c r="AC76">
+        <v>1.04</v>
+      </c>
+      <c r="AD76">
+        <v>10.5</v>
+      </c>
+      <c r="AE76">
+        <v>1.32</v>
+      </c>
+      <c r="AF76">
+        <v>3.35</v>
+      </c>
+      <c r="AG76">
+        <v>1.95</v>
+      </c>
+      <c r="AH76">
+        <v>1.85</v>
+      </c>
+      <c r="AI76">
+        <v>1.75</v>
+      </c>
+      <c r="AJ76">
+        <v>2</v>
+      </c>
+      <c r="AK76">
+        <v>1.48</v>
+      </c>
+      <c r="AL76">
+        <v>1.28</v>
+      </c>
+      <c r="AM76">
+        <v>1.53</v>
+      </c>
+      <c r="AN76">
+        <v>0.17</v>
+      </c>
+      <c r="AO76">
+        <v>0.6</v>
+      </c>
+      <c r="AP76">
+        <v>0.57</v>
+      </c>
+      <c r="AQ76">
+        <v>0.5</v>
+      </c>
+      <c r="AR76">
+        <v>1.38</v>
+      </c>
+      <c r="AS76">
+        <v>1.25</v>
+      </c>
+      <c r="AT76">
+        <v>2.63</v>
+      </c>
+      <c r="AU76">
+        <v>6</v>
+      </c>
+      <c r="AV76">
+        <v>4</v>
+      </c>
+      <c r="AW76">
+        <v>8</v>
+      </c>
+      <c r="AX76">
+        <v>4</v>
+      </c>
+      <c r="AY76">
+        <v>17</v>
+      </c>
+      <c r="AZ76">
+        <v>13</v>
+      </c>
+      <c r="BA76">
+        <v>3</v>
+      </c>
+      <c r="BB76">
+        <v>8</v>
+      </c>
+      <c r="BC76">
+        <v>11</v>
+      </c>
+      <c r="BD76">
+        <v>1.88</v>
+      </c>
+      <c r="BE76">
+        <v>6.4</v>
+      </c>
+      <c r="BF76">
+        <v>1.98</v>
+      </c>
+      <c r="BG76">
+        <v>1.18</v>
+      </c>
+      <c r="BH76">
+        <v>4.2</v>
+      </c>
+      <c r="BI76">
+        <v>1.32</v>
+      </c>
+      <c r="BJ76">
+        <v>3.15</v>
+      </c>
+      <c r="BK76">
+        <v>2</v>
+      </c>
+      <c r="BL76">
+        <v>2.3</v>
+      </c>
+      <c r="BM76">
+        <v>1.86</v>
+      </c>
+      <c r="BN76">
+        <v>1.86</v>
+      </c>
+      <c r="BO76">
+        <v>2.3</v>
+      </c>
+      <c r="BP76">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7452331</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45592.5</v>
+      </c>
+      <c r="F77">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s">
+        <v>74</v>
+      </c>
+      <c r="H77" t="s">
+        <v>76</v>
+      </c>
+      <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
+      <c r="L77">
+        <v>4</v>
+      </c>
+      <c r="M77">
+        <v>2</v>
+      </c>
+      <c r="N77">
+        <v>6</v>
+      </c>
+      <c r="O77" t="s">
+        <v>143</v>
+      </c>
+      <c r="P77" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q77">
+        <v>2.2</v>
+      </c>
+      <c r="R77">
+        <v>2.5</v>
+      </c>
+      <c r="S77">
+        <v>4.33</v>
+      </c>
+      <c r="T77">
+        <v>1.29</v>
+      </c>
+      <c r="U77">
+        <v>3.5</v>
+      </c>
+      <c r="V77">
+        <v>2.25</v>
+      </c>
+      <c r="W77">
+        <v>1.57</v>
+      </c>
+      <c r="X77">
+        <v>5.5</v>
+      </c>
+      <c r="Y77">
+        <v>1.14</v>
+      </c>
+      <c r="Z77">
+        <v>1.7</v>
+      </c>
+      <c r="AA77">
+        <v>4</v>
+      </c>
+      <c r="AB77">
+        <v>4.33</v>
+      </c>
+      <c r="AC77">
+        <v>1.03</v>
+      </c>
+      <c r="AD77">
+        <v>18.5</v>
+      </c>
+      <c r="AE77">
+        <v>1.19</v>
+      </c>
+      <c r="AF77">
+        <v>4.7</v>
+      </c>
+      <c r="AG77">
+        <v>1.6</v>
+      </c>
+      <c r="AH77">
+        <v>2.3</v>
+      </c>
+      <c r="AI77">
+        <v>1.57</v>
+      </c>
+      <c r="AJ77">
+        <v>2.25</v>
+      </c>
+      <c r="AK77">
+        <v>1.26</v>
+      </c>
+      <c r="AL77">
+        <v>1.22</v>
+      </c>
+      <c r="AM77">
+        <v>1.98</v>
+      </c>
+      <c r="AN77">
+        <v>1.6</v>
+      </c>
+      <c r="AO77">
+        <v>0.5</v>
+      </c>
+      <c r="AP77">
+        <v>1.83</v>
+      </c>
+      <c r="AQ77">
+        <v>0.43</v>
+      </c>
+      <c r="AR77">
+        <v>1.44</v>
+      </c>
+      <c r="AS77">
+        <v>1.19</v>
+      </c>
+      <c r="AT77">
+        <v>2.63</v>
+      </c>
+      <c r="AU77">
+        <v>7</v>
+      </c>
+      <c r="AV77">
+        <v>5</v>
+      </c>
+      <c r="AW77">
+        <v>2</v>
+      </c>
+      <c r="AX77">
+        <v>4</v>
+      </c>
+      <c r="AY77">
+        <v>11</v>
+      </c>
+      <c r="AZ77">
+        <v>14</v>
+      </c>
+      <c r="BA77">
+        <v>4</v>
+      </c>
+      <c r="BB77">
+        <v>10</v>
+      </c>
+      <c r="BC77">
+        <v>14</v>
+      </c>
+      <c r="BD77">
+        <v>1.56</v>
+      </c>
+      <c r="BE77">
+        <v>6.4</v>
+      </c>
+      <c r="BF77">
+        <v>2.55</v>
+      </c>
+      <c r="BG77">
+        <v>1.19</v>
+      </c>
+      <c r="BH77">
+        <v>4</v>
+      </c>
+      <c r="BI77">
+        <v>1.35</v>
+      </c>
+      <c r="BJ77">
+        <v>2.9</v>
+      </c>
+      <c r="BK77">
+        <v>1.91</v>
+      </c>
+      <c r="BL77">
+        <v>2.05</v>
+      </c>
+      <c r="BM77">
+        <v>2.12</v>
+      </c>
+      <c r="BN77">
+        <v>1.66</v>
+      </c>
+      <c r="BO77">
+        <v>2.35</v>
+      </c>
+      <c r="BP77">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7452328</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45592.58333333334</v>
+      </c>
+      <c r="F78">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s">
+        <v>81</v>
+      </c>
+      <c r="H78" t="s">
+        <v>70</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>2</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2</v>
+      </c>
+      <c r="O78" t="s">
+        <v>144</v>
+      </c>
+      <c r="P78" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q78">
+        <v>2.75</v>
+      </c>
+      <c r="R78">
+        <v>2.3</v>
+      </c>
+      <c r="S78">
+        <v>3.75</v>
+      </c>
+      <c r="T78">
+        <v>1.33</v>
+      </c>
+      <c r="U78">
+        <v>3.25</v>
+      </c>
+      <c r="V78">
+        <v>2.63</v>
+      </c>
+      <c r="W78">
+        <v>1.44</v>
+      </c>
+      <c r="X78">
+        <v>6.5</v>
+      </c>
+      <c r="Y78">
+        <v>1.11</v>
+      </c>
+      <c r="Z78">
+        <v>2.15</v>
+      </c>
+      <c r="AA78">
+        <v>3.64</v>
+      </c>
+      <c r="AB78">
+        <v>3.23</v>
+      </c>
+      <c r="AC78">
+        <v>1.03</v>
+      </c>
+      <c r="AD78">
+        <v>12.5</v>
+      </c>
+      <c r="AE78">
+        <v>1.23</v>
+      </c>
+      <c r="AF78">
+        <v>4.15</v>
+      </c>
+      <c r="AG78">
+        <v>1.7</v>
+      </c>
+      <c r="AH78">
+        <v>2.08</v>
+      </c>
+      <c r="AI78">
+        <v>1.62</v>
+      </c>
+      <c r="AJ78">
+        <v>2.2</v>
+      </c>
+      <c r="AK78">
+        <v>1.36</v>
+      </c>
+      <c r="AL78">
+        <v>1.25</v>
+      </c>
+      <c r="AM78">
+        <v>1.72</v>
+      </c>
+      <c r="AN78">
+        <v>3</v>
+      </c>
+      <c r="AO78">
+        <v>1.6</v>
+      </c>
+      <c r="AP78">
+        <v>3</v>
+      </c>
+      <c r="AQ78">
+        <v>1.33</v>
+      </c>
+      <c r="AR78">
+        <v>1.92</v>
+      </c>
+      <c r="AS78">
+        <v>1.18</v>
+      </c>
+      <c r="AT78">
+        <v>3.1</v>
+      </c>
+      <c r="AU78">
+        <v>5</v>
+      </c>
+      <c r="AV78">
+        <v>4</v>
+      </c>
+      <c r="AW78">
+        <v>2</v>
+      </c>
+      <c r="AX78">
+        <v>3</v>
+      </c>
+      <c r="AY78">
+        <v>14</v>
+      </c>
+      <c r="AZ78">
+        <v>10</v>
+      </c>
+      <c r="BA78">
+        <v>5</v>
+      </c>
+      <c r="BB78">
+        <v>12</v>
+      </c>
+      <c r="BC78">
+        <v>17</v>
+      </c>
+      <c r="BD78">
+        <v>1.74</v>
+      </c>
+      <c r="BE78">
+        <v>6.25</v>
+      </c>
+      <c r="BF78">
+        <v>2.18</v>
+      </c>
+      <c r="BG78">
+        <v>1.24</v>
+      </c>
+      <c r="BH78">
+        <v>3.55</v>
+      </c>
+      <c r="BI78">
+        <v>1.41</v>
+      </c>
+      <c r="BJ78">
+        <v>2.63</v>
+      </c>
+      <c r="BK78">
+        <v>2.1</v>
+      </c>
+      <c r="BL78">
+        <v>2.22</v>
+      </c>
+      <c r="BM78">
+        <v>1.96</v>
+      </c>
+      <c r="BN78">
+        <v>1.77</v>
+      </c>
+      <c r="BO78">
+        <v>2.49</v>
+      </c>
+      <c r="BP78">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="195">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t>['34', '90']</t>
+  </si>
+  <si>
+    <t>['11', '33', '75', '79']</t>
   </si>
   <si>
     <t>['47']</t>
@@ -957,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP78"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1216,7 +1219,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1834,7 +1837,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2040,7 +2043,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2246,7 +2249,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2452,7 +2455,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2658,7 +2661,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2942,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ10">
         <v>0.86</v>
@@ -3070,7 +3073,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3276,7 +3279,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -4306,7 +4309,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4512,7 +4515,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4718,7 +4721,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -4799,7 +4802,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ19">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>1.07</v>
@@ -5130,7 +5133,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5208,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ21">
         <v>1.5</v>
@@ -5336,7 +5339,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22">
         <v>1.73</v>
@@ -5542,7 +5545,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5748,7 +5751,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5954,7 +5957,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6160,7 +6163,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6366,7 +6369,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6444,7 +6447,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ27">
         <v>0.43</v>
@@ -6572,7 +6575,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6653,7 +6656,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ28">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.19</v>
@@ -6778,7 +6781,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6984,7 +6987,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7190,7 +7193,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7396,7 +7399,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7602,7 +7605,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7808,7 +7811,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8014,7 +8017,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8220,7 +8223,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8838,7 +8841,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -8919,7 +8922,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ39">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>1.84</v>
@@ -9044,7 +9047,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9250,7 +9253,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9456,7 +9459,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9740,7 +9743,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ43">
         <v>0.71</v>
@@ -9868,7 +9871,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10074,7 +10077,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10280,7 +10283,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10486,7 +10489,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -11104,7 +11107,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11185,7 +11188,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ50">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>1.51</v>
@@ -11516,7 +11519,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11594,7 +11597,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ52">
         <v>1.29</v>
@@ -11928,7 +11931,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12340,7 +12343,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12958,7 +12961,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13164,7 +13167,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q60">
         <v>6.5</v>
@@ -13370,7 +13373,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13576,7 +13579,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13782,7 +13785,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q63">
         <v>4.5</v>
@@ -13863,7 +13866,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ63">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR63">
         <v>1.52</v>
@@ -13988,7 +13991,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q64">
         <v>2.3</v>
@@ -14066,7 +14069,7 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ64">
         <v>0.5</v>
@@ -14194,7 +14197,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -14606,7 +14609,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q67">
         <v>4.5</v>
@@ -14812,7 +14815,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q68">
         <v>1.53</v>
@@ -15224,7 +15227,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q70">
         <v>3.6</v>
@@ -15430,7 +15433,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q71">
         <v>1.95</v>
@@ -15636,7 +15639,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -16666,7 +16669,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -17029,6 +17032,212 @@
       </c>
       <c r="BP78">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7452329</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45593.625</v>
+      </c>
+      <c r="F79">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>77</v>
+      </c>
+      <c r="H79" t="s">
+        <v>71</v>
+      </c>
+      <c r="I79">
+        <v>2</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>2</v>
+      </c>
+      <c r="L79">
+        <v>4</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>4</v>
+      </c>
+      <c r="O79" t="s">
+        <v>145</v>
+      </c>
+      <c r="P79" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q79">
+        <v>3.6</v>
+      </c>
+      <c r="R79">
+        <v>2.38</v>
+      </c>
+      <c r="S79">
+        <v>2.6</v>
+      </c>
+      <c r="T79">
+        <v>1.29</v>
+      </c>
+      <c r="U79">
+        <v>3.5</v>
+      </c>
+      <c r="V79">
+        <v>2.38</v>
+      </c>
+      <c r="W79">
+        <v>1.53</v>
+      </c>
+      <c r="X79">
+        <v>5.5</v>
+      </c>
+      <c r="Y79">
+        <v>1.14</v>
+      </c>
+      <c r="Z79">
+        <v>3.4</v>
+      </c>
+      <c r="AA79">
+        <v>3.7</v>
+      </c>
+      <c r="AB79">
+        <v>2</v>
+      </c>
+      <c r="AC79">
+        <v>1.01</v>
+      </c>
+      <c r="AD79">
+        <v>16.5</v>
+      </c>
+      <c r="AE79">
+        <v>1.19</v>
+      </c>
+      <c r="AF79">
+        <v>4.7</v>
+      </c>
+      <c r="AG79">
+        <v>1.57</v>
+      </c>
+      <c r="AH79">
+        <v>2.35</v>
+      </c>
+      <c r="AI79">
+        <v>1.53</v>
+      </c>
+      <c r="AJ79">
+        <v>2.38</v>
+      </c>
+      <c r="AK79">
+        <v>1.78</v>
+      </c>
+      <c r="AL79">
+        <v>1.24</v>
+      </c>
+      <c r="AM79">
+        <v>1.35</v>
+      </c>
+      <c r="AN79">
+        <v>1.33</v>
+      </c>
+      <c r="AO79">
+        <v>1.2</v>
+      </c>
+      <c r="AP79">
+        <v>1.57</v>
+      </c>
+      <c r="AQ79">
+        <v>1</v>
+      </c>
+      <c r="AR79">
+        <v>1.38</v>
+      </c>
+      <c r="AS79">
+        <v>1.87</v>
+      </c>
+      <c r="AT79">
+        <v>3.25</v>
+      </c>
+      <c r="AU79">
+        <v>5</v>
+      </c>
+      <c r="AV79">
+        <v>4</v>
+      </c>
+      <c r="AW79">
+        <v>12</v>
+      </c>
+      <c r="AX79">
+        <v>6</v>
+      </c>
+      <c r="AY79">
+        <v>18</v>
+      </c>
+      <c r="AZ79">
+        <v>12</v>
+      </c>
+      <c r="BA79">
+        <v>6</v>
+      </c>
+      <c r="BB79">
+        <v>5</v>
+      </c>
+      <c r="BC79">
+        <v>11</v>
+      </c>
+      <c r="BD79">
+        <v>2.28</v>
+      </c>
+      <c r="BE79">
+        <v>6.5</v>
+      </c>
+      <c r="BF79">
+        <v>1.68</v>
+      </c>
+      <c r="BG79">
+        <v>1.23</v>
+      </c>
+      <c r="BH79">
+        <v>3.65</v>
+      </c>
+      <c r="BI79">
+        <v>1.41</v>
+      </c>
+      <c r="BJ79">
+        <v>2.65</v>
+      </c>
+      <c r="BK79">
+        <v>2</v>
+      </c>
+      <c r="BL79">
+        <v>2.33</v>
+      </c>
+      <c r="BM79">
+        <v>1.88</v>
+      </c>
+      <c r="BN79">
+        <v>1.84</v>
+      </c>
+      <c r="BO79">
+        <v>2.37</v>
+      </c>
+      <c r="BP79">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -17174,22 +17174,22 @@
         <v>3.25</v>
       </c>
       <c r="AU79">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AV79">
         <v>4</v>
       </c>
       <c r="AW79">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AX79">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AY79">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ79">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA79">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="207">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -454,6 +454,24 @@
     <t>['11', '33', '75', '79']</t>
   </si>
   <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['45+7']</t>
+  </si>
+  <si>
+    <t>['6', '44']</t>
+  </si>
+  <si>
+    <t>['34', '90+5']</t>
+  </si>
+  <si>
+    <t>['49', '51', '80']</t>
+  </si>
+  <si>
+    <t>['2', '90+1']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -599,6 +617,24 @@
   </si>
   <si>
     <t>['58', '75']</t>
+  </si>
+  <si>
+    <t>['10', '13', '24', '42']</t>
+  </si>
+  <si>
+    <t>['10', '52', '61', '71', '83']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['24', '56', '89']</t>
+  </si>
+  <si>
+    <t>['45+3', '90+9']</t>
   </si>
 </sst>
 </file>
@@ -960,7 +996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP79"/>
+  <dimension ref="A1:BP85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1219,7 +1255,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1297,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ2">
         <v>1.29</v>
@@ -1503,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>0.71</v>
@@ -1837,7 +1873,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1918,7 +1954,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ5">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2043,7 +2079,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2124,7 +2160,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ6">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2249,7 +2285,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2455,7 +2491,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2533,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2661,7 +2697,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2739,7 +2775,7 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>1.29</v>
@@ -2948,7 +2984,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ10">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3073,7 +3109,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3151,10 +3187,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3279,7 +3315,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3357,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ12">
         <v>1.33</v>
@@ -3566,7 +3602,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3769,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ14">
         <v>0.43</v>
@@ -3975,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AQ15">
         <v>0.71</v>
@@ -4184,7 +4220,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ16">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR16">
         <v>1.37</v>
@@ -4309,7 +4345,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4387,10 +4423,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ17">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR17">
         <v>1.41</v>
@@ -4515,7 +4551,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4596,7 +4632,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ18">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR18">
         <v>1.15</v>
@@ -4721,7 +4757,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -5005,10 +5041,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR20">
         <v>1.75</v>
@@ -5133,7 +5169,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5214,7 +5250,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR21">
         <v>1.14</v>
@@ -5339,7 +5375,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q22">
         <v>1.73</v>
@@ -5417,10 +5453,10 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR22">
         <v>1.44</v>
@@ -5545,7 +5581,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5751,7 +5787,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5829,7 +5865,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ24">
         <v>1.57</v>
@@ -5957,7 +5993,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6163,7 +6199,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6369,7 +6405,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6575,7 +6611,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6781,7 +6817,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6859,10 +6895,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ29">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR29">
         <v>1.88</v>
@@ -6987,7 +7023,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7065,10 +7101,10 @@
         <v>2</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ30">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR30">
         <v>1.16</v>
@@ -7193,7 +7229,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7271,10 +7307,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR31">
         <v>1.74</v>
@@ -7399,7 +7435,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7477,7 +7513,7 @@
         <v>1.5</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ32">
         <v>1.33</v>
@@ -7605,7 +7641,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7683,7 +7719,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AQ33">
         <v>0.43</v>
@@ -7811,7 +7847,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -7892,7 +7928,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ34">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR34">
         <v>1.05</v>
@@ -8017,7 +8053,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8095,7 +8131,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>1.57</v>
@@ -8223,7 +8259,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8304,7 +8340,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ36">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR36">
         <v>1.69</v>
@@ -8510,7 +8546,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ37">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR37">
         <v>1.54</v>
@@ -8716,7 +8752,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ38">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR38">
         <v>1.09</v>
@@ -8841,7 +8877,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -8919,7 +8955,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9047,7 +9083,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9125,10 +9161,10 @@
         <v>2.33</v>
       </c>
       <c r="AP40">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ40">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR40">
         <v>1.87</v>
@@ -9253,7 +9289,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9331,10 +9367,10 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ41">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR41">
         <v>1.35</v>
@@ -9459,7 +9495,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9871,7 +9907,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -9949,10 +9985,10 @@
         <v>0.67</v>
       </c>
       <c r="AP44">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ44">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR44">
         <v>0.9</v>
@@ -10077,7 +10113,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10155,7 +10191,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AQ45">
         <v>1.57</v>
@@ -10283,7 +10319,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10361,10 +10397,10 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ46">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR46">
         <v>1.69</v>
@@ -10489,7 +10525,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10570,7 +10606,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ47">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR47">
         <v>1.58</v>
@@ -10979,10 +11015,10 @@
         <v>1.67</v>
       </c>
       <c r="AP49">
+        <v>2</v>
+      </c>
+      <c r="AQ49">
         <v>1.86</v>
-      </c>
-      <c r="AQ49">
-        <v>1.67</v>
       </c>
       <c r="AR49">
         <v>1.79</v>
@@ -11107,7 +11143,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11391,10 +11427,10 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ51">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR51">
         <v>1.45</v>
@@ -11519,7 +11555,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11931,7 +11967,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12012,7 +12048,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ54">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR54">
         <v>1.24</v>
@@ -12215,7 +12251,7 @@
         <v>0.75</v>
       </c>
       <c r="AP55">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ55">
         <v>0.71</v>
@@ -12343,7 +12379,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12421,10 +12457,10 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ56">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR56">
         <v>1.6</v>
@@ -12627,10 +12663,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AQ57">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR57">
         <v>1.87</v>
@@ -12833,7 +12869,7 @@
         <v>0.6</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ58">
         <v>0.43</v>
@@ -12961,7 +12997,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13042,7 +13078,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ59">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR59">
         <v>1.04</v>
@@ -13167,7 +13203,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q60">
         <v>6.5</v>
@@ -13373,7 +13409,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13451,10 +13487,10 @@
         <v>1.6</v>
       </c>
       <c r="AP61">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR61">
         <v>1.74</v>
@@ -13579,7 +13615,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13785,7 +13821,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q63">
         <v>4.5</v>
@@ -13863,7 +13899,7 @@
         <v>0.75</v>
       </c>
       <c r="AP63">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -13991,7 +14027,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q64">
         <v>2.3</v>
@@ -14072,7 +14108,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ64">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR64">
         <v>1.45</v>
@@ -14197,7 +14233,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -14609,7 +14645,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q67">
         <v>4.5</v>
@@ -14815,7 +14851,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q68">
         <v>1.53</v>
@@ -14893,10 +14929,10 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ68">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR68">
         <v>1.76</v>
@@ -15102,7 +15138,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ69">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR69">
         <v>1.17</v>
@@ -15227,7 +15263,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q70">
         <v>3.6</v>
@@ -15305,10 +15341,10 @@
         <v>1.4</v>
       </c>
       <c r="AP70">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ70">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR70">
         <v>1.17</v>
@@ -15433,7 +15469,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q71">
         <v>1.95</v>
@@ -15511,10 +15547,10 @@
         <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ71">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR71">
         <v>1.7</v>
@@ -15639,7 +15675,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -15717,7 +15753,7 @@
         <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ72">
         <v>1.29</v>
@@ -15923,10 +15959,10 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ73">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR73">
         <v>1.58</v>
@@ -16544,7 +16580,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ76">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR76">
         <v>1.38</v>
@@ -16669,7 +16705,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -16953,7 +16989,7 @@
         <v>1.6</v>
       </c>
       <c r="AP78">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AQ78">
         <v>1.33</v>
@@ -17238,6 +17274,1242 @@
       </c>
       <c r="BP79">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7452338</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45598.54166666666</v>
+      </c>
+      <c r="F80">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s">
+        <v>76</v>
+      </c>
+      <c r="H80" t="s">
+        <v>77</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>4</v>
+      </c>
+      <c r="K80">
+        <v>5</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>4</v>
+      </c>
+      <c r="N80">
+        <v>5</v>
+      </c>
+      <c r="O80" t="s">
+        <v>146</v>
+      </c>
+      <c r="P80" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q80">
+        <v>3.6</v>
+      </c>
+      <c r="R80">
+        <v>2.3</v>
+      </c>
+      <c r="S80">
+        <v>2.63</v>
+      </c>
+      <c r="T80">
+        <v>1.33</v>
+      </c>
+      <c r="U80">
+        <v>3.25</v>
+      </c>
+      <c r="V80">
+        <v>2.5</v>
+      </c>
+      <c r="W80">
+        <v>1.5</v>
+      </c>
+      <c r="X80">
+        <v>6</v>
+      </c>
+      <c r="Y80">
+        <v>1.13</v>
+      </c>
+      <c r="Z80">
+        <v>3.25</v>
+      </c>
+      <c r="AA80">
+        <v>3.6</v>
+      </c>
+      <c r="AB80">
+        <v>2.1</v>
+      </c>
+      <c r="AC80">
+        <v>1.04</v>
+      </c>
+      <c r="AD80">
+        <v>10</v>
+      </c>
+      <c r="AE80">
+        <v>1.22</v>
+      </c>
+      <c r="AF80">
+        <v>4.2</v>
+      </c>
+      <c r="AG80">
+        <v>1.67</v>
+      </c>
+      <c r="AH80">
+        <v>2.15</v>
+      </c>
+      <c r="AI80">
+        <v>1.57</v>
+      </c>
+      <c r="AJ80">
+        <v>2.25</v>
+      </c>
+      <c r="AK80">
+        <v>1.7</v>
+      </c>
+      <c r="AL80">
+        <v>1.22</v>
+      </c>
+      <c r="AM80">
+        <v>1.33</v>
+      </c>
+      <c r="AN80">
+        <v>1.33</v>
+      </c>
+      <c r="AO80">
+        <v>1.67</v>
+      </c>
+      <c r="AP80">
+        <v>1.14</v>
+      </c>
+      <c r="AQ80">
+        <v>1.86</v>
+      </c>
+      <c r="AR80">
+        <v>1.37</v>
+      </c>
+      <c r="AS80">
+        <v>1.2</v>
+      </c>
+      <c r="AT80">
+        <v>2.57</v>
+      </c>
+      <c r="AU80">
+        <v>4</v>
+      </c>
+      <c r="AV80">
+        <v>10</v>
+      </c>
+      <c r="AW80">
+        <v>8</v>
+      </c>
+      <c r="AX80">
+        <v>4</v>
+      </c>
+      <c r="AY80">
+        <v>13</v>
+      </c>
+      <c r="AZ80">
+        <v>15</v>
+      </c>
+      <c r="BA80">
+        <v>3</v>
+      </c>
+      <c r="BB80">
+        <v>4</v>
+      </c>
+      <c r="BC80">
+        <v>7</v>
+      </c>
+      <c r="BD80">
+        <v>2.52</v>
+      </c>
+      <c r="BE80">
+        <v>6.1</v>
+      </c>
+      <c r="BF80">
+        <v>1.75</v>
+      </c>
+      <c r="BG80">
+        <v>1.14</v>
+      </c>
+      <c r="BH80">
+        <v>4.2</v>
+      </c>
+      <c r="BI80">
+        <v>1.29</v>
+      </c>
+      <c r="BJ80">
+        <v>3.2</v>
+      </c>
+      <c r="BK80">
+        <v>2.1</v>
+      </c>
+      <c r="BL80">
+        <v>2.3</v>
+      </c>
+      <c r="BM80">
+        <v>1.92</v>
+      </c>
+      <c r="BN80">
+        <v>1.78</v>
+      </c>
+      <c r="BO80">
+        <v>2.5</v>
+      </c>
+      <c r="BP80">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7452337</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45599.41666666666</v>
+      </c>
+      <c r="F81">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s">
+        <v>81</v>
+      </c>
+      <c r="H81" t="s">
+        <v>80</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>2</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>5</v>
+      </c>
+      <c r="N81">
+        <v>6</v>
+      </c>
+      <c r="O81" t="s">
+        <v>147</v>
+      </c>
+      <c r="P81" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q81">
+        <v>3</v>
+      </c>
+      <c r="R81">
+        <v>2.25</v>
+      </c>
+      <c r="S81">
+        <v>3.25</v>
+      </c>
+      <c r="T81">
+        <v>1.33</v>
+      </c>
+      <c r="U81">
+        <v>3.25</v>
+      </c>
+      <c r="V81">
+        <v>2.5</v>
+      </c>
+      <c r="W81">
+        <v>1.5</v>
+      </c>
+      <c r="X81">
+        <v>6.5</v>
+      </c>
+      <c r="Y81">
+        <v>1.11</v>
+      </c>
+      <c r="Z81">
+        <v>2.38</v>
+      </c>
+      <c r="AA81">
+        <v>3.5</v>
+      </c>
+      <c r="AB81">
+        <v>2.75</v>
+      </c>
+      <c r="AC81">
+        <v>1.04</v>
+      </c>
+      <c r="AD81">
+        <v>10</v>
+      </c>
+      <c r="AE81">
+        <v>1.22</v>
+      </c>
+      <c r="AF81">
+        <v>4.2</v>
+      </c>
+      <c r="AG81">
+        <v>1.67</v>
+      </c>
+      <c r="AH81">
+        <v>2.15</v>
+      </c>
+      <c r="AI81">
+        <v>1.57</v>
+      </c>
+      <c r="AJ81">
+        <v>2.25</v>
+      </c>
+      <c r="AK81">
+        <v>1.38</v>
+      </c>
+      <c r="AL81">
+        <v>1.22</v>
+      </c>
+      <c r="AM81">
+        <v>1.62</v>
+      </c>
+      <c r="AN81">
+        <v>3</v>
+      </c>
+      <c r="AO81">
+        <v>1.14</v>
+      </c>
+      <c r="AP81">
+        <v>2.57</v>
+      </c>
+      <c r="AQ81">
+        <v>1.38</v>
+      </c>
+      <c r="AR81">
+        <v>1.78</v>
+      </c>
+      <c r="AS81">
+        <v>1.78</v>
+      </c>
+      <c r="AT81">
+        <v>3.56</v>
+      </c>
+      <c r="AU81">
+        <v>7</v>
+      </c>
+      <c r="AV81">
+        <v>12</v>
+      </c>
+      <c r="AW81">
+        <v>5</v>
+      </c>
+      <c r="AX81">
+        <v>4</v>
+      </c>
+      <c r="AY81">
+        <v>15</v>
+      </c>
+      <c r="AZ81">
+        <v>17</v>
+      </c>
+      <c r="BA81">
+        <v>5</v>
+      </c>
+      <c r="BB81">
+        <v>2</v>
+      </c>
+      <c r="BC81">
+        <v>7</v>
+      </c>
+      <c r="BD81">
+        <v>1.82</v>
+      </c>
+      <c r="BE81">
+        <v>7.2</v>
+      </c>
+      <c r="BF81">
+        <v>2.25</v>
+      </c>
+      <c r="BG81">
+        <v>1.12</v>
+      </c>
+      <c r="BH81">
+        <v>4.5</v>
+      </c>
+      <c r="BI81">
+        <v>1.28</v>
+      </c>
+      <c r="BJ81">
+        <v>3.25</v>
+      </c>
+      <c r="BK81">
+        <v>2</v>
+      </c>
+      <c r="BL81">
+        <v>2.35</v>
+      </c>
+      <c r="BM81">
+        <v>1.88</v>
+      </c>
+      <c r="BN81">
+        <v>1.8</v>
+      </c>
+      <c r="BO81">
+        <v>2.5</v>
+      </c>
+      <c r="BP81">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7452335</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45599.41666666666</v>
+      </c>
+      <c r="F82">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s">
+        <v>71</v>
+      </c>
+      <c r="H82" t="s">
+        <v>74</v>
+      </c>
+      <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <v>2</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>3</v>
+      </c>
+      <c r="O82" t="s">
+        <v>148</v>
+      </c>
+      <c r="P82" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q82">
+        <v>2</v>
+      </c>
+      <c r="R82">
+        <v>2.6</v>
+      </c>
+      <c r="S82">
+        <v>5.5</v>
+      </c>
+      <c r="T82">
+        <v>1.25</v>
+      </c>
+      <c r="U82">
+        <v>3.75</v>
+      </c>
+      <c r="V82">
+        <v>2.2</v>
+      </c>
+      <c r="W82">
+        <v>1.62</v>
+      </c>
+      <c r="X82">
+        <v>5</v>
+      </c>
+      <c r="Y82">
+        <v>1.17</v>
+      </c>
+      <c r="Z82">
+        <v>1.5</v>
+      </c>
+      <c r="AA82">
+        <v>4.33</v>
+      </c>
+      <c r="AB82">
+        <v>6</v>
+      </c>
+      <c r="AC82">
+        <v>1.01</v>
+      </c>
+      <c r="AD82">
+        <v>13</v>
+      </c>
+      <c r="AE82">
+        <v>1.17</v>
+      </c>
+      <c r="AF82">
+        <v>5</v>
+      </c>
+      <c r="AG82">
+        <v>1.5</v>
+      </c>
+      <c r="AH82">
+        <v>2.5</v>
+      </c>
+      <c r="AI82">
+        <v>1.62</v>
+      </c>
+      <c r="AJ82">
+        <v>2.2</v>
+      </c>
+      <c r="AK82">
+        <v>1.15</v>
+      </c>
+      <c r="AL82">
+        <v>1.18</v>
+      </c>
+      <c r="AM82">
+        <v>2.3</v>
+      </c>
+      <c r="AN82">
+        <v>1.86</v>
+      </c>
+      <c r="AO82">
+        <v>0.86</v>
+      </c>
+      <c r="AP82">
+        <v>2</v>
+      </c>
+      <c r="AQ82">
+        <v>0.75</v>
+      </c>
+      <c r="AR82">
+        <v>1.65</v>
+      </c>
+      <c r="AS82">
+        <v>1.45</v>
+      </c>
+      <c r="AT82">
+        <v>3.1</v>
+      </c>
+      <c r="AU82">
+        <v>8</v>
+      </c>
+      <c r="AV82">
+        <v>4</v>
+      </c>
+      <c r="AW82">
+        <v>7</v>
+      </c>
+      <c r="AX82">
+        <v>2</v>
+      </c>
+      <c r="AY82">
+        <v>23</v>
+      </c>
+      <c r="AZ82">
+        <v>9</v>
+      </c>
+      <c r="BA82">
+        <v>6</v>
+      </c>
+      <c r="BB82">
+        <v>4</v>
+      </c>
+      <c r="BC82">
+        <v>10</v>
+      </c>
+      <c r="BD82">
+        <v>1.2</v>
+      </c>
+      <c r="BE82">
+        <v>9.6</v>
+      </c>
+      <c r="BF82">
+        <v>5.15</v>
+      </c>
+      <c r="BG82">
+        <v>1.22</v>
+      </c>
+      <c r="BH82">
+        <v>3.9</v>
+      </c>
+      <c r="BI82">
+        <v>1.25</v>
+      </c>
+      <c r="BJ82">
+        <v>3.5</v>
+      </c>
+      <c r="BK82">
+        <v>2</v>
+      </c>
+      <c r="BL82">
+        <v>2.45</v>
+      </c>
+      <c r="BM82">
+        <v>1.82</v>
+      </c>
+      <c r="BN82">
+        <v>1.85</v>
+      </c>
+      <c r="BO82">
+        <v>2.42</v>
+      </c>
+      <c r="BP82">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7452333</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45599.5</v>
+      </c>
+      <c r="F83">
+        <v>14</v>
+      </c>
+      <c r="G83" t="s">
+        <v>70</v>
+      </c>
+      <c r="H83" t="s">
+        <v>75</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>2</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>3</v>
+      </c>
+      <c r="O83" t="s">
+        <v>149</v>
+      </c>
+      <c r="P83" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q83">
+        <v>2</v>
+      </c>
+      <c r="R83">
+        <v>2.3</v>
+      </c>
+      <c r="S83">
+        <v>7</v>
+      </c>
+      <c r="T83">
+        <v>1.36</v>
+      </c>
+      <c r="U83">
+        <v>3</v>
+      </c>
+      <c r="V83">
+        <v>2.63</v>
+      </c>
+      <c r="W83">
+        <v>1.44</v>
+      </c>
+      <c r="X83">
+        <v>7</v>
+      </c>
+      <c r="Y83">
+        <v>1.1</v>
+      </c>
+      <c r="Z83">
+        <v>1.45</v>
+      </c>
+      <c r="AA83">
+        <v>4.2</v>
+      </c>
+      <c r="AB83">
+        <v>7</v>
+      </c>
+      <c r="AC83">
+        <v>1.04</v>
+      </c>
+      <c r="AD83">
+        <v>10</v>
+      </c>
+      <c r="AE83">
+        <v>1.2</v>
+      </c>
+      <c r="AF83">
+        <v>4.33</v>
+      </c>
+      <c r="AG83">
+        <v>1.95</v>
+      </c>
+      <c r="AH83">
+        <v>1.85</v>
+      </c>
+      <c r="AI83">
+        <v>2.05</v>
+      </c>
+      <c r="AJ83">
+        <v>1.7</v>
+      </c>
+      <c r="AK83">
+        <v>1.1</v>
+      </c>
+      <c r="AL83">
+        <v>1.15</v>
+      </c>
+      <c r="AM83">
+        <v>2.7</v>
+      </c>
+      <c r="AN83">
+        <v>2.14</v>
+      </c>
+      <c r="AO83">
+        <v>0.5</v>
+      </c>
+      <c r="AP83">
+        <v>2.25</v>
+      </c>
+      <c r="AQ83">
+        <v>0.43</v>
+      </c>
+      <c r="AR83">
+        <v>1.59</v>
+      </c>
+      <c r="AS83">
+        <v>1.24</v>
+      </c>
+      <c r="AT83">
+        <v>2.83</v>
+      </c>
+      <c r="AU83">
+        <v>9</v>
+      </c>
+      <c r="AV83">
+        <v>4</v>
+      </c>
+      <c r="AW83">
+        <v>8</v>
+      </c>
+      <c r="AX83">
+        <v>0</v>
+      </c>
+      <c r="AY83">
+        <v>19</v>
+      </c>
+      <c r="AZ83">
+        <v>7</v>
+      </c>
+      <c r="BA83">
+        <v>7</v>
+      </c>
+      <c r="BB83">
+        <v>3</v>
+      </c>
+      <c r="BC83">
+        <v>10</v>
+      </c>
+      <c r="BD83">
+        <v>1.29</v>
+      </c>
+      <c r="BE83">
+        <v>7.4</v>
+      </c>
+      <c r="BF83">
+        <v>4.6</v>
+      </c>
+      <c r="BG83">
+        <v>1.22</v>
+      </c>
+      <c r="BH83">
+        <v>3.9</v>
+      </c>
+      <c r="BI83">
+        <v>1.29</v>
+      </c>
+      <c r="BJ83">
+        <v>3.25</v>
+      </c>
+      <c r="BK83">
+        <v>1.91</v>
+      </c>
+      <c r="BL83">
+        <v>2.32</v>
+      </c>
+      <c r="BM83">
+        <v>1.9</v>
+      </c>
+      <c r="BN83">
+        <v>1.78</v>
+      </c>
+      <c r="BO83">
+        <v>2.48</v>
+      </c>
+      <c r="BP83">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7452336</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45599.58333333334</v>
+      </c>
+      <c r="F84">
+        <v>14</v>
+      </c>
+      <c r="G84" t="s">
+        <v>78</v>
+      </c>
+      <c r="H84" t="s">
+        <v>73</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>3</v>
+      </c>
+      <c r="M84">
+        <v>3</v>
+      </c>
+      <c r="N84">
+        <v>6</v>
+      </c>
+      <c r="O84" t="s">
+        <v>150</v>
+      </c>
+      <c r="P84" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q84">
+        <v>2.63</v>
+      </c>
+      <c r="R84">
+        <v>2.38</v>
+      </c>
+      <c r="S84">
+        <v>3.6</v>
+      </c>
+      <c r="T84">
+        <v>1.33</v>
+      </c>
+      <c r="U84">
+        <v>3.25</v>
+      </c>
+      <c r="V84">
+        <v>2.5</v>
+      </c>
+      <c r="W84">
+        <v>1.5</v>
+      </c>
+      <c r="X84">
+        <v>6</v>
+      </c>
+      <c r="Y84">
+        <v>1.13</v>
+      </c>
+      <c r="Z84">
+        <v>1.99</v>
+      </c>
+      <c r="AA84">
+        <v>3.68</v>
+      </c>
+      <c r="AB84">
+        <v>3.6</v>
+      </c>
+      <c r="AC84">
+        <v>1.04</v>
+      </c>
+      <c r="AD84">
+        <v>10</v>
+      </c>
+      <c r="AE84">
+        <v>1.25</v>
+      </c>
+      <c r="AF84">
+        <v>3.95</v>
+      </c>
+      <c r="AG84">
+        <v>1.71</v>
+      </c>
+      <c r="AH84">
+        <v>2.01</v>
+      </c>
+      <c r="AI84">
+        <v>1.57</v>
+      </c>
+      <c r="AJ84">
+        <v>2.25</v>
+      </c>
+      <c r="AK84">
+        <v>1.28</v>
+      </c>
+      <c r="AL84">
+        <v>1.22</v>
+      </c>
+      <c r="AM84">
+        <v>1.8</v>
+      </c>
+      <c r="AN84">
+        <v>1.5</v>
+      </c>
+      <c r="AO84">
+        <v>0</v>
+      </c>
+      <c r="AP84">
+        <v>1.43</v>
+      </c>
+      <c r="AQ84">
+        <v>0.14</v>
+      </c>
+      <c r="AR84">
+        <v>1.31</v>
+      </c>
+      <c r="AS84">
+        <v>1.21</v>
+      </c>
+      <c r="AT84">
+        <v>2.52</v>
+      </c>
+      <c r="AU84">
+        <v>9</v>
+      </c>
+      <c r="AV84">
+        <v>9</v>
+      </c>
+      <c r="AW84">
+        <v>6</v>
+      </c>
+      <c r="AX84">
+        <v>3</v>
+      </c>
+      <c r="AY84">
+        <v>16</v>
+      </c>
+      <c r="AZ84">
+        <v>15</v>
+      </c>
+      <c r="BA84">
+        <v>7</v>
+      </c>
+      <c r="BB84">
+        <v>5</v>
+      </c>
+      <c r="BC84">
+        <v>12</v>
+      </c>
+      <c r="BD84">
+        <v>1.65</v>
+      </c>
+      <c r="BE84">
+        <v>6.2</v>
+      </c>
+      <c r="BF84">
+        <v>2.72</v>
+      </c>
+      <c r="BG84">
+        <v>1.26</v>
+      </c>
+      <c r="BH84">
+        <v>3.5</v>
+      </c>
+      <c r="BI84">
+        <v>1.25</v>
+      </c>
+      <c r="BJ84">
+        <v>3.45</v>
+      </c>
+      <c r="BK84">
+        <v>2.1</v>
+      </c>
+      <c r="BL84">
+        <v>2.42</v>
+      </c>
+      <c r="BM84">
+        <v>1.85</v>
+      </c>
+      <c r="BN84">
+        <v>1.82</v>
+      </c>
+      <c r="BO84">
+        <v>2.4</v>
+      </c>
+      <c r="BP84">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7452334</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45600.625</v>
+      </c>
+      <c r="F85">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s">
+        <v>79</v>
+      </c>
+      <c r="H85" t="s">
+        <v>72</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>2</v>
+      </c>
+      <c r="N85">
+        <v>4</v>
+      </c>
+      <c r="O85" t="s">
+        <v>151</v>
+      </c>
+      <c r="P85" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q85">
+        <v>1.91</v>
+      </c>
+      <c r="R85">
+        <v>2.6</v>
+      </c>
+      <c r="S85">
+        <v>6.5</v>
+      </c>
+      <c r="T85">
+        <v>1.29</v>
+      </c>
+      <c r="U85">
+        <v>3.5</v>
+      </c>
+      <c r="V85">
+        <v>2.25</v>
+      </c>
+      <c r="W85">
+        <v>1.57</v>
+      </c>
+      <c r="X85">
+        <v>5.5</v>
+      </c>
+      <c r="Y85">
+        <v>1.14</v>
+      </c>
+      <c r="Z85">
+        <v>1.4</v>
+      </c>
+      <c r="AA85">
+        <v>4.5</v>
+      </c>
+      <c r="AB85">
+        <v>7.5</v>
+      </c>
+      <c r="AC85">
+        <v>1.03</v>
+      </c>
+      <c r="AD85">
+        <v>18.5</v>
+      </c>
+      <c r="AE85">
+        <v>1.19</v>
+      </c>
+      <c r="AF85">
+        <v>4.7</v>
+      </c>
+      <c r="AG85">
+        <v>1.57</v>
+      </c>
+      <c r="AH85">
+        <v>2.35</v>
+      </c>
+      <c r="AI85">
+        <v>1.8</v>
+      </c>
+      <c r="AJ85">
+        <v>1.95</v>
+      </c>
+      <c r="AK85">
+        <v>1.11</v>
+      </c>
+      <c r="AL85">
+        <v>1.15</v>
+      </c>
+      <c r="AM85">
+        <v>2.75</v>
+      </c>
+      <c r="AN85">
+        <v>2.33</v>
+      </c>
+      <c r="AO85">
+        <v>1.5</v>
+      </c>
+      <c r="AP85">
+        <v>2.14</v>
+      </c>
+      <c r="AQ85">
+        <v>1.43</v>
+      </c>
+      <c r="AR85">
+        <v>1.76</v>
+      </c>
+      <c r="AS85">
+        <v>1.19</v>
+      </c>
+      <c r="AT85">
+        <v>2.95</v>
+      </c>
+      <c r="AU85">
+        <v>10</v>
+      </c>
+      <c r="AV85">
+        <v>5</v>
+      </c>
+      <c r="AW85">
+        <v>11</v>
+      </c>
+      <c r="AX85">
+        <v>2</v>
+      </c>
+      <c r="AY85">
+        <v>28</v>
+      </c>
+      <c r="AZ85">
+        <v>7</v>
+      </c>
+      <c r="BA85">
+        <v>5</v>
+      </c>
+      <c r="BB85">
+        <v>2</v>
+      </c>
+      <c r="BC85">
+        <v>7</v>
+      </c>
+      <c r="BD85">
+        <v>1.2</v>
+      </c>
+      <c r="BE85">
+        <v>9.4</v>
+      </c>
+      <c r="BF85">
+        <v>5.25</v>
+      </c>
+      <c r="BG85">
+        <v>1.16</v>
+      </c>
+      <c r="BH85">
+        <v>4.45</v>
+      </c>
+      <c r="BI85">
+        <v>1.35</v>
+      </c>
+      <c r="BJ85">
+        <v>2.92</v>
+      </c>
+      <c r="BK85">
+        <v>2.25</v>
+      </c>
+      <c r="BL85">
+        <v>2.1</v>
+      </c>
+      <c r="BM85">
+        <v>2.12</v>
+      </c>
+      <c r="BN85">
+        <v>1.62</v>
+      </c>
+      <c r="BO85">
+        <v>2.88</v>
+      </c>
+      <c r="BP85">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="208">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -470,6 +470,9 @@
   </si>
   <si>
     <t>['2', '90+1']</t>
+  </si>
+  <si>
+    <t>['6']</t>
   </si>
   <si>
     <t>['47']</t>
@@ -996,7 +999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:BP86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1255,7 +1258,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1748,7 +1751,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ4">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1873,7 +1876,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1951,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ5">
         <v>1.86</v>
@@ -2079,7 +2082,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2285,7 +2288,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2491,7 +2494,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2697,7 +2700,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -3109,7 +3112,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3315,7 +3318,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3808,7 +3811,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ14">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR14">
         <v>1.77</v>
@@ -4345,7 +4348,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4551,7 +4554,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4757,7 +4760,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -4835,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -5169,7 +5172,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5375,7 +5378,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q22">
         <v>1.73</v>
@@ -5581,7 +5584,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5787,7 +5790,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5993,7 +5996,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6199,7 +6202,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6405,7 +6408,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6486,7 +6489,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ27">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR27">
         <v>1.35</v>
@@ -6611,7 +6614,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6817,7 +6820,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -7023,7 +7026,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7229,7 +7232,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7435,7 +7438,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7641,7 +7644,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7722,7 +7725,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ33">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR33">
         <v>1.8</v>
@@ -7847,7 +7850,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -7925,7 +7928,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ34">
         <v>1.43</v>
@@ -8053,7 +8056,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8259,7 +8262,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8877,7 +8880,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9083,7 +9086,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9289,7 +9292,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9495,7 +9498,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9907,7 +9910,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10113,7 +10116,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10319,7 +10322,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10525,7 +10528,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10603,7 +10606,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ47">
         <v>0.75</v>
@@ -10812,7 +10815,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ48">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR48">
         <v>1.96</v>
@@ -11143,7 +11146,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11555,7 +11558,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11967,7 +11970,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12379,7 +12382,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12872,7 +12875,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ58">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR58">
         <v>1.05</v>
@@ -12997,7 +13000,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13203,7 +13206,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q60">
         <v>6.5</v>
@@ -13281,7 +13284,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ60">
         <v>1.57</v>
@@ -13409,7 +13412,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13615,7 +13618,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13693,7 +13696,7 @@
         <v>0.6</v>
       </c>
       <c r="AP62">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ62">
         <v>0.71</v>
@@ -13821,7 +13824,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q63">
         <v>4.5</v>
@@ -14027,7 +14030,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q64">
         <v>2.3</v>
@@ -14233,7 +14236,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -14645,7 +14648,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q67">
         <v>4.5</v>
@@ -14851,7 +14854,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q68">
         <v>1.53</v>
@@ -15263,7 +15266,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q70">
         <v>3.6</v>
@@ -15469,7 +15472,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q71">
         <v>1.95</v>
@@ -15675,7 +15678,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -16577,7 +16580,7 @@
         <v>0.6</v>
       </c>
       <c r="AP76">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AQ76">
         <v>0.43</v>
@@ -16705,7 +16708,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -16786,7 +16789,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ77">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR77">
         <v>1.44</v>
@@ -17323,7 +17326,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17529,7 +17532,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -17735,7 +17738,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -17941,7 +17944,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -18147,7 +18150,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18353,7 +18356,7 @@
         <v>151</v>
       </c>
       <c r="P85" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q85">
         <v>1.91</v>
@@ -18510,6 +18513,212 @@
       </c>
       <c r="BP85">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7452343</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45604.625</v>
+      </c>
+      <c r="F86">
+        <v>15</v>
+      </c>
+      <c r="G86" t="s">
+        <v>73</v>
+      </c>
+      <c r="H86" t="s">
+        <v>76</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>2</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86" t="s">
+        <v>152</v>
+      </c>
+      <c r="P86" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q86">
+        <v>2.88</v>
+      </c>
+      <c r="R86">
+        <v>2.3</v>
+      </c>
+      <c r="S86">
+        <v>3.4</v>
+      </c>
+      <c r="T86">
+        <v>1.33</v>
+      </c>
+      <c r="U86">
+        <v>3.25</v>
+      </c>
+      <c r="V86">
+        <v>2.63</v>
+      </c>
+      <c r="W86">
+        <v>1.44</v>
+      </c>
+      <c r="X86">
+        <v>6.5</v>
+      </c>
+      <c r="Y86">
+        <v>1.11</v>
+      </c>
+      <c r="Z86">
+        <v>2.25</v>
+      </c>
+      <c r="AA86">
+        <v>3.9</v>
+      </c>
+      <c r="AB86">
+        <v>2.8</v>
+      </c>
+      <c r="AC86">
+        <v>1.04</v>
+      </c>
+      <c r="AD86">
+        <v>10</v>
+      </c>
+      <c r="AE86">
+        <v>1.22</v>
+      </c>
+      <c r="AF86">
+        <v>4.2</v>
+      </c>
+      <c r="AG86">
+        <v>1.7</v>
+      </c>
+      <c r="AH86">
+        <v>2.1</v>
+      </c>
+      <c r="AI86">
+        <v>1.57</v>
+      </c>
+      <c r="AJ86">
+        <v>2.25</v>
+      </c>
+      <c r="AK86">
+        <v>1.48</v>
+      </c>
+      <c r="AL86">
+        <v>1.22</v>
+      </c>
+      <c r="AM86">
+        <v>1.53</v>
+      </c>
+      <c r="AN86">
+        <v>0.57</v>
+      </c>
+      <c r="AO86">
+        <v>0.43</v>
+      </c>
+      <c r="AP86">
+        <v>0.63</v>
+      </c>
+      <c r="AQ86">
+        <v>0.5</v>
+      </c>
+      <c r="AR86">
+        <v>1.41</v>
+      </c>
+      <c r="AS86">
+        <v>1.22</v>
+      </c>
+      <c r="AT86">
+        <v>2.63</v>
+      </c>
+      <c r="AU86">
+        <v>3</v>
+      </c>
+      <c r="AV86">
+        <v>5</v>
+      </c>
+      <c r="AW86">
+        <v>5</v>
+      </c>
+      <c r="AX86">
+        <v>11</v>
+      </c>
+      <c r="AY86">
+        <v>9</v>
+      </c>
+      <c r="AZ86">
+        <v>19</v>
+      </c>
+      <c r="BA86">
+        <v>6</v>
+      </c>
+      <c r="BB86">
+        <v>7</v>
+      </c>
+      <c r="BC86">
+        <v>13</v>
+      </c>
+      <c r="BD86">
+        <v>2.18</v>
+      </c>
+      <c r="BE86">
+        <v>6.6</v>
+      </c>
+      <c r="BF86">
+        <v>2.07</v>
+      </c>
+      <c r="BG86">
+        <v>1.14</v>
+      </c>
+      <c r="BH86">
+        <v>4.1</v>
+      </c>
+      <c r="BI86">
+        <v>1.37</v>
+      </c>
+      <c r="BJ86">
+        <v>2.87</v>
+      </c>
+      <c r="BK86">
+        <v>2</v>
+      </c>
+      <c r="BL86">
+        <v>2.16</v>
+      </c>
+      <c r="BM86">
+        <v>2</v>
+      </c>
+      <c r="BN86">
+        <v>1.72</v>
+      </c>
+      <c r="BO86">
+        <v>2.57</v>
+      </c>
+      <c r="BP86">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -18655,22 +18655,22 @@
         <v>2.63</v>
       </c>
       <c r="AU86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV86">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AW86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX86">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AY86">
         <v>9</v>
       </c>
       <c r="AZ86">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA86">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Denmark Superliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="213">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -475,6 +475,12 @@
     <t>['6']</t>
   </si>
   <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['8', '89']</t>
+  </si>
+  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -638,6 +644,15 @@
   </si>
   <si>
     <t>['45+3', '90+9']</t>
+  </si>
+  <si>
+    <t>['52', '55']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['45']</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1014,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP86"/>
+  <dimension ref="A1:BP91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1258,7 +1273,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q2">
         <v>3.25</v>
@@ -1336,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ2">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1545,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="AQ3">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1748,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ4">
         <v>0.5</v>
@@ -1876,7 +1891,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -1957,7 +1972,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ5">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2082,7 +2097,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q6">
         <v>3.75</v>
@@ -2160,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>1.38</v>
@@ -2288,7 +2303,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2366,10 +2381,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ7">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2494,7 +2509,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q8">
         <v>2.75</v>
@@ -2700,7 +2715,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q9">
         <v>2.5</v>
@@ -2781,7 +2796,7 @@
         <v>2</v>
       </c>
       <c r="AQ9">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR9">
         <v>1.96</v>
@@ -3112,7 +3127,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q11">
         <v>3.1</v>
@@ -3318,7 +3333,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3602,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ13">
         <v>0.14</v>
@@ -3808,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ14">
         <v>0.5</v>
@@ -4017,7 +4032,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ15">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4220,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ16">
         <v>0.75</v>
@@ -4348,7 +4363,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q17">
         <v>1.95</v>
@@ -4429,7 +4444,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ17">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR17">
         <v>1.41</v>
@@ -4554,7 +4569,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q18">
         <v>4.75</v>
@@ -4632,7 +4647,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ18">
         <v>1.38</v>
@@ -4760,7 +4775,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -5172,7 +5187,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q21">
         <v>2.5</v>
@@ -5378,7 +5393,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q22">
         <v>1.73</v>
@@ -5584,7 +5599,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5662,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ23">
         <v>1.33</v>
@@ -5790,7 +5805,7 @@
         <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5871,7 +5886,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ24">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
         <v>1.85</v>
@@ -5996,7 +6011,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6074,10 +6089,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR25">
         <v>0.91</v>
@@ -6202,7 +6217,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q26">
         <v>4.5</v>
@@ -6280,10 +6295,10 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ26">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR26">
         <v>1.11</v>
@@ -6408,7 +6423,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q27">
         <v>2.25</v>
@@ -6614,7 +6629,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q28">
         <v>3.75</v>
@@ -6692,7 +6707,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -6820,7 +6835,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -7026,7 +7041,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -7232,7 +7247,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7310,7 +7325,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ31">
         <v>0.14</v>
@@ -7438,7 +7453,7 @@
         <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -7644,7 +7659,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q33">
         <v>2.25</v>
@@ -7850,7 +7865,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8056,7 +8071,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8137,7 +8152,7 @@
         <v>2</v>
       </c>
       <c r="AQ35">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
         <v>1.81</v>
@@ -8262,7 +8277,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8340,10 +8355,10 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ36">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR36">
         <v>1.69</v>
@@ -8546,7 +8561,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
         <v>0.43</v>
@@ -8752,7 +8767,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ38">
         <v>0.14</v>
@@ -8880,7 +8895,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -8958,7 +8973,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9086,7 +9101,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q40">
         <v>2.75</v>
@@ -9292,7 +9307,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9498,7 +9513,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9576,10 +9591,10 @@
         <v>1.67</v>
       </c>
       <c r="AP42">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ42">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR42">
         <v>1.27</v>
@@ -9785,7 +9800,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ43">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR43">
         <v>1.52</v>
@@ -9910,7 +9925,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10116,7 +10131,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10197,7 +10212,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ45">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR45">
         <v>1.88</v>
@@ -10322,7 +10337,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10400,7 +10415,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ46">
         <v>1.43</v>
@@ -10528,7 +10543,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q47">
         <v>3.4</v>
@@ -10812,7 +10827,7 @@
         <v>0.75</v>
       </c>
       <c r="AP48">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ48">
         <v>0.5</v>
@@ -11021,7 +11036,7 @@
         <v>2</v>
       </c>
       <c r="AQ49">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR49">
         <v>1.79</v>
@@ -11146,7 +11161,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11224,7 +11239,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -11558,7 +11573,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11639,7 +11654,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ52">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR52">
         <v>1.41</v>
@@ -11842,7 +11857,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ53">
         <v>1.33</v>
@@ -11970,7 +11985,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q54">
         <v>4.5</v>
@@ -12048,7 +12063,7 @@
         <v>1.75</v>
       </c>
       <c r="AP54">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ54">
         <v>1.38</v>
@@ -12257,7 +12272,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ55">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR55">
         <v>1.59</v>
@@ -12382,7 +12397,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12460,10 +12475,10 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ56">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR56">
         <v>1.6</v>
@@ -13000,7 +13015,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13078,7 +13093,7 @@
         <v>1.75</v>
       </c>
       <c r="AP59">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ59">
         <v>1.43</v>
@@ -13206,7 +13221,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q60">
         <v>6.5</v>
@@ -13287,7 +13302,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ60">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR60">
         <v>1.56</v>
@@ -13412,7 +13427,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13618,7 +13633,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q62">
         <v>3.1</v>
@@ -13699,7 +13714,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ62">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR62">
         <v>1.34</v>
@@ -13824,7 +13839,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q63">
         <v>4.5</v>
@@ -14030,7 +14045,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q64">
         <v>2.3</v>
@@ -14236,7 +14251,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -14314,7 +14329,7 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ65">
         <v>1.33</v>
@@ -14520,10 +14535,10 @@
         <v>1.8</v>
       </c>
       <c r="AP66">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ66">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR66">
         <v>1.84</v>
@@ -14648,7 +14663,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q67">
         <v>4.5</v>
@@ -14726,10 +14741,10 @@
         <v>1.8</v>
       </c>
       <c r="AP67">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ67">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR67">
         <v>1.23</v>
@@ -14854,7 +14869,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q68">
         <v>1.53</v>
@@ -15138,7 +15153,7 @@
         <v>0.83</v>
       </c>
       <c r="AP69">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ69">
         <v>0.75</v>
@@ -15266,7 +15281,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q70">
         <v>3.6</v>
@@ -15347,7 +15362,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ70">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR70">
         <v>1.17</v>
@@ -15472,7 +15487,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q71">
         <v>1.95</v>
@@ -15678,7 +15693,7 @@
         <v>139</v>
       </c>
       <c r="P72" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -15759,7 +15774,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ72">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR72">
         <v>1.35</v>
@@ -15962,7 +15977,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ73">
         <v>1.38</v>
@@ -16168,10 +16183,10 @@
         <v>0.67</v>
       </c>
       <c r="AP74">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ74">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR74">
         <v>1.16</v>
@@ -16374,10 +16389,10 @@
         <v>1.67</v>
       </c>
       <c r="AP75">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ75">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR75">
         <v>1.81</v>
@@ -16708,7 +16723,7 @@
         <v>143</v>
       </c>
       <c r="P77" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q77">
         <v>2.2</v>
@@ -16786,7 +16801,7 @@
         <v>0.5</v>
       </c>
       <c r="AP77">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ77">
         <v>0.5</v>
@@ -17326,7 +17341,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17407,7 +17422,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ80">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR80">
         <v>1.37</v>
@@ -17532,7 +17547,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -17738,7 +17753,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -17944,7 +17959,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -18022,7 +18037,7 @@
         <v>0.5</v>
       </c>
       <c r="AP83">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ83">
         <v>0.43</v>
@@ -18150,7 +18165,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18356,7 +18371,7 @@
         <v>151</v>
       </c>
       <c r="P85" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q85">
         <v>1.91</v>
@@ -18719,6 +18734,1036 @@
       </c>
       <c r="BP86">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7452342</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45606.41666666666</v>
+      </c>
+      <c r="F87">
+        <v>15</v>
+      </c>
+      <c r="G87" t="s">
+        <v>72</v>
+      </c>
+      <c r="H87" t="s">
+        <v>77</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87" t="s">
+        <v>153</v>
+      </c>
+      <c r="P87" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q87">
+        <v>3.25</v>
+      </c>
+      <c r="R87">
+        <v>2.25</v>
+      </c>
+      <c r="S87">
+        <v>3</v>
+      </c>
+      <c r="T87">
+        <v>1.33</v>
+      </c>
+      <c r="U87">
+        <v>3.25</v>
+      </c>
+      <c r="V87">
+        <v>2.63</v>
+      </c>
+      <c r="W87">
+        <v>1.44</v>
+      </c>
+      <c r="X87">
+        <v>6.5</v>
+      </c>
+      <c r="Y87">
+        <v>1.11</v>
+      </c>
+      <c r="Z87">
+        <v>2.7</v>
+      </c>
+      <c r="AA87">
+        <v>3.6</v>
+      </c>
+      <c r="AB87">
+        <v>2.4</v>
+      </c>
+      <c r="AC87">
+        <v>1.03</v>
+      </c>
+      <c r="AD87">
+        <v>11</v>
+      </c>
+      <c r="AE87">
+        <v>1.18</v>
+      </c>
+      <c r="AF87">
+        <v>4.75</v>
+      </c>
+      <c r="AG87">
+        <v>1.73</v>
+      </c>
+      <c r="AH87">
+        <v>2.08</v>
+      </c>
+      <c r="AI87">
+        <v>1.62</v>
+      </c>
+      <c r="AJ87">
+        <v>2.2</v>
+      </c>
+      <c r="AK87">
+        <v>1.57</v>
+      </c>
+      <c r="AL87">
+        <v>1.22</v>
+      </c>
+      <c r="AM87">
+        <v>1.45</v>
+      </c>
+      <c r="AN87">
+        <v>1.71</v>
+      </c>
+      <c r="AO87">
+        <v>1.86</v>
+      </c>
+      <c r="AP87">
+        <v>1.88</v>
+      </c>
+      <c r="AQ87">
+        <v>1.63</v>
+      </c>
+      <c r="AR87">
+        <v>1.26</v>
+      </c>
+      <c r="AS87">
+        <v>1.28</v>
+      </c>
+      <c r="AT87">
+        <v>2.54</v>
+      </c>
+      <c r="AU87">
+        <v>5</v>
+      </c>
+      <c r="AV87">
+        <v>4</v>
+      </c>
+      <c r="AW87">
+        <v>4</v>
+      </c>
+      <c r="AX87">
+        <v>7</v>
+      </c>
+      <c r="AY87">
+        <v>13</v>
+      </c>
+      <c r="AZ87">
+        <v>15</v>
+      </c>
+      <c r="BA87">
+        <v>3</v>
+      </c>
+      <c r="BB87">
+        <v>8</v>
+      </c>
+      <c r="BC87">
+        <v>11</v>
+      </c>
+      <c r="BD87">
+        <v>2.02</v>
+      </c>
+      <c r="BE87">
+        <v>6.25</v>
+      </c>
+      <c r="BF87">
+        <v>1.86</v>
+      </c>
+      <c r="BG87">
+        <v>1.26</v>
+      </c>
+      <c r="BH87">
+        <v>3.4</v>
+      </c>
+      <c r="BI87">
+        <v>1.41</v>
+      </c>
+      <c r="BJ87">
+        <v>2.68</v>
+      </c>
+      <c r="BK87">
+        <v>2.1</v>
+      </c>
+      <c r="BL87">
+        <v>2.04</v>
+      </c>
+      <c r="BM87">
+        <v>2.12</v>
+      </c>
+      <c r="BN87">
+        <v>1.64</v>
+      </c>
+      <c r="BO87">
+        <v>2.75</v>
+      </c>
+      <c r="BP87">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7452344</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45606.41666666666</v>
+      </c>
+      <c r="F88">
+        <v>15</v>
+      </c>
+      <c r="G88" t="s">
+        <v>75</v>
+      </c>
+      <c r="H88" t="s">
+        <v>78</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>2</v>
+      </c>
+      <c r="M88">
+        <v>2</v>
+      </c>
+      <c r="N88">
+        <v>4</v>
+      </c>
+      <c r="O88" t="s">
+        <v>154</v>
+      </c>
+      <c r="P88" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q88">
+        <v>3</v>
+      </c>
+      <c r="R88">
+        <v>2.2</v>
+      </c>
+      <c r="S88">
+        <v>3.4</v>
+      </c>
+      <c r="T88">
+        <v>1.33</v>
+      </c>
+      <c r="U88">
+        <v>3.25</v>
+      </c>
+      <c r="V88">
+        <v>2.63</v>
+      </c>
+      <c r="W88">
+        <v>1.44</v>
+      </c>
+      <c r="X88">
+        <v>7</v>
+      </c>
+      <c r="Y88">
+        <v>1.1</v>
+      </c>
+      <c r="Z88">
+        <v>2.38</v>
+      </c>
+      <c r="AA88">
+        <v>3.4</v>
+      </c>
+      <c r="AB88">
+        <v>2.88</v>
+      </c>
+      <c r="AC88">
+        <v>1.05</v>
+      </c>
+      <c r="AD88">
+        <v>9.5</v>
+      </c>
+      <c r="AE88">
+        <v>1.25</v>
+      </c>
+      <c r="AF88">
+        <v>3.9</v>
+      </c>
+      <c r="AG88">
+        <v>1.8</v>
+      </c>
+      <c r="AH88">
+        <v>2</v>
+      </c>
+      <c r="AI88">
+        <v>1.67</v>
+      </c>
+      <c r="AJ88">
+        <v>2.1</v>
+      </c>
+      <c r="AK88">
+        <v>1.45</v>
+      </c>
+      <c r="AL88">
+        <v>1.25</v>
+      </c>
+      <c r="AM88">
+        <v>1.53</v>
+      </c>
+      <c r="AN88">
+        <v>0.86</v>
+      </c>
+      <c r="AO88">
+        <v>0.71</v>
+      </c>
+      <c r="AP88">
+        <v>0.88</v>
+      </c>
+      <c r="AQ88">
+        <v>0.75</v>
+      </c>
+      <c r="AR88">
+        <v>1.19</v>
+      </c>
+      <c r="AS88">
+        <v>1.19</v>
+      </c>
+      <c r="AT88">
+        <v>2.38</v>
+      </c>
+      <c r="AU88">
+        <v>5</v>
+      </c>
+      <c r="AV88">
+        <v>4</v>
+      </c>
+      <c r="AW88">
+        <v>5</v>
+      </c>
+      <c r="AX88">
+        <v>5</v>
+      </c>
+      <c r="AY88">
+        <v>13</v>
+      </c>
+      <c r="AZ88">
+        <v>13</v>
+      </c>
+      <c r="BA88">
+        <v>1</v>
+      </c>
+      <c r="BB88">
+        <v>7</v>
+      </c>
+      <c r="BC88">
+        <v>8</v>
+      </c>
+      <c r="BD88">
+        <v>2.02</v>
+      </c>
+      <c r="BE88">
+        <v>5.95</v>
+      </c>
+      <c r="BF88">
+        <v>2.12</v>
+      </c>
+      <c r="BG88">
+        <v>1.1</v>
+      </c>
+      <c r="BH88">
+        <v>4.75</v>
+      </c>
+      <c r="BI88">
+        <v>1.3</v>
+      </c>
+      <c r="BJ88">
+        <v>3.2</v>
+      </c>
+      <c r="BK88">
+        <v>1.83</v>
+      </c>
+      <c r="BL88">
+        <v>2.35</v>
+      </c>
+      <c r="BM88">
+        <v>1.9</v>
+      </c>
+      <c r="BN88">
+        <v>1.9</v>
+      </c>
+      <c r="BO88">
+        <v>2.34</v>
+      </c>
+      <c r="BP88">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7452341</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45606.5</v>
+      </c>
+      <c r="F89">
+        <v>15</v>
+      </c>
+      <c r="G89" t="s">
+        <v>74</v>
+      </c>
+      <c r="H89" t="s">
+        <v>81</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89" t="s">
+        <v>115</v>
+      </c>
+      <c r="P89" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q89">
+        <v>3.5</v>
+      </c>
+      <c r="R89">
+        <v>2.38</v>
+      </c>
+      <c r="S89">
+        <v>2.63</v>
+      </c>
+      <c r="T89">
+        <v>1.29</v>
+      </c>
+      <c r="U89">
+        <v>3.5</v>
+      </c>
+      <c r="V89">
+        <v>2.25</v>
+      </c>
+      <c r="W89">
+        <v>1.57</v>
+      </c>
+      <c r="X89">
+        <v>5.5</v>
+      </c>
+      <c r="Y89">
+        <v>1.14</v>
+      </c>
+      <c r="Z89">
+        <v>3.25</v>
+      </c>
+      <c r="AA89">
+        <v>3.6</v>
+      </c>
+      <c r="AB89">
+        <v>2.1</v>
+      </c>
+      <c r="AC89">
+        <v>1.04</v>
+      </c>
+      <c r="AD89">
+        <v>10</v>
+      </c>
+      <c r="AE89">
+        <v>1.2</v>
+      </c>
+      <c r="AF89">
+        <v>4.33</v>
+      </c>
+      <c r="AG89">
+        <v>1.6</v>
+      </c>
+      <c r="AH89">
+        <v>2.3</v>
+      </c>
+      <c r="AI89">
+        <v>1.53</v>
+      </c>
+      <c r="AJ89">
+        <v>2.38</v>
+      </c>
+      <c r="AK89">
+        <v>1.67</v>
+      </c>
+      <c r="AL89">
+        <v>1.22</v>
+      </c>
+      <c r="AM89">
+        <v>1.35</v>
+      </c>
+      <c r="AN89">
+        <v>1.83</v>
+      </c>
+      <c r="AO89">
+        <v>1.29</v>
+      </c>
+      <c r="AP89">
+        <v>2</v>
+      </c>
+      <c r="AQ89">
+        <v>1.13</v>
+      </c>
+      <c r="AR89">
+        <v>1.42</v>
+      </c>
+      <c r="AS89">
+        <v>1.53</v>
+      </c>
+      <c r="AT89">
+        <v>2.95</v>
+      </c>
+      <c r="AU89">
+        <v>9</v>
+      </c>
+      <c r="AV89">
+        <v>5</v>
+      </c>
+      <c r="AW89">
+        <v>4</v>
+      </c>
+      <c r="AX89">
+        <v>11</v>
+      </c>
+      <c r="AY89">
+        <v>17</v>
+      </c>
+      <c r="AZ89">
+        <v>17</v>
+      </c>
+      <c r="BA89">
+        <v>3</v>
+      </c>
+      <c r="BB89">
+        <v>10</v>
+      </c>
+      <c r="BC89">
+        <v>13</v>
+      </c>
+      <c r="BD89">
+        <v>2.18</v>
+      </c>
+      <c r="BE89">
+        <v>6.4</v>
+      </c>
+      <c r="BF89">
+        <v>1.74</v>
+      </c>
+      <c r="BG89">
+        <v>1.24</v>
+      </c>
+      <c r="BH89">
+        <v>3.55</v>
+      </c>
+      <c r="BI89">
+        <v>1.39</v>
+      </c>
+      <c r="BJ89">
+        <v>2.75</v>
+      </c>
+      <c r="BK89">
+        <v>2.1</v>
+      </c>
+      <c r="BL89">
+        <v>2.08</v>
+      </c>
+      <c r="BM89">
+        <v>2.08</v>
+      </c>
+      <c r="BN89">
+        <v>1.67</v>
+      </c>
+      <c r="BO89">
+        <v>2.68</v>
+      </c>
+      <c r="BP89">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7452339</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45606.58333333334</v>
+      </c>
+      <c r="F90">
+        <v>15</v>
+      </c>
+      <c r="G90" t="s">
+        <v>70</v>
+      </c>
+      <c r="H90" t="s">
+        <v>79</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90" t="s">
+        <v>155</v>
+      </c>
+      <c r="P90" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q90">
+        <v>3.6</v>
+      </c>
+      <c r="R90">
+        <v>2</v>
+      </c>
+      <c r="S90">
+        <v>3.25</v>
+      </c>
+      <c r="T90">
+        <v>1.4</v>
+      </c>
+      <c r="U90">
+        <v>2.75</v>
+      </c>
+      <c r="V90">
+        <v>2.75</v>
+      </c>
+      <c r="W90">
+        <v>1.4</v>
+      </c>
+      <c r="X90">
+        <v>8</v>
+      </c>
+      <c r="Y90">
+        <v>1.08</v>
+      </c>
+      <c r="Z90">
+        <v>2.8</v>
+      </c>
+      <c r="AA90">
+        <v>3.4</v>
+      </c>
+      <c r="AB90">
+        <v>2.4</v>
+      </c>
+      <c r="AC90">
+        <v>1.04</v>
+      </c>
+      <c r="AD90">
+        <v>10</v>
+      </c>
+      <c r="AE90">
+        <v>1.22</v>
+      </c>
+      <c r="AF90">
+        <v>4.2</v>
+      </c>
+      <c r="AG90">
+        <v>2.25</v>
+      </c>
+      <c r="AH90">
+        <v>1.62</v>
+      </c>
+      <c r="AI90">
+        <v>2</v>
+      </c>
+      <c r="AJ90">
+        <v>1.75</v>
+      </c>
+      <c r="AK90">
+        <v>1.57</v>
+      </c>
+      <c r="AL90">
+        <v>1.22</v>
+      </c>
+      <c r="AM90">
+        <v>1.44</v>
+      </c>
+      <c r="AN90">
+        <v>2.25</v>
+      </c>
+      <c r="AO90">
+        <v>1.57</v>
+      </c>
+      <c r="AP90">
+        <v>2.11</v>
+      </c>
+      <c r="AQ90">
+        <v>1.5</v>
+      </c>
+      <c r="AR90">
+        <v>1.66</v>
+      </c>
+      <c r="AS90">
+        <v>1.69</v>
+      </c>
+      <c r="AT90">
+        <v>3.35</v>
+      </c>
+      <c r="AU90">
+        <v>8</v>
+      </c>
+      <c r="AV90">
+        <v>7</v>
+      </c>
+      <c r="AW90">
+        <v>10</v>
+      </c>
+      <c r="AX90">
+        <v>2</v>
+      </c>
+      <c r="AY90">
+        <v>22</v>
+      </c>
+      <c r="AZ90">
+        <v>10</v>
+      </c>
+      <c r="BA90">
+        <v>9</v>
+      </c>
+      <c r="BB90">
+        <v>5</v>
+      </c>
+      <c r="BC90">
+        <v>14</v>
+      </c>
+      <c r="BD90">
+        <v>1.75</v>
+      </c>
+      <c r="BE90">
+        <v>7.1</v>
+      </c>
+      <c r="BF90">
+        <v>2.42</v>
+      </c>
+      <c r="BG90">
+        <v>1.16</v>
+      </c>
+      <c r="BH90">
+        <v>4.45</v>
+      </c>
+      <c r="BI90">
+        <v>1.4</v>
+      </c>
+      <c r="BJ90">
+        <v>2.72</v>
+      </c>
+      <c r="BK90">
+        <v>2</v>
+      </c>
+      <c r="BL90">
+        <v>2.06</v>
+      </c>
+      <c r="BM90">
+        <v>2.1</v>
+      </c>
+      <c r="BN90">
+        <v>1.66</v>
+      </c>
+      <c r="BO90">
+        <v>2.72</v>
+      </c>
+      <c r="BP90">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7452340</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45606.66666666666</v>
+      </c>
+      <c r="F91">
+        <v>15</v>
+      </c>
+      <c r="G91" t="s">
+        <v>80</v>
+      </c>
+      <c r="H91" t="s">
+        <v>71</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+      <c r="O91" t="s">
+        <v>140</v>
+      </c>
+      <c r="P91" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q91">
+        <v>2.5</v>
+      </c>
+      <c r="R91">
+        <v>2.4</v>
+      </c>
+      <c r="S91">
+        <v>3.75</v>
+      </c>
+      <c r="T91">
+        <v>1.29</v>
+      </c>
+      <c r="U91">
+        <v>3.5</v>
+      </c>
+      <c r="V91">
+        <v>2.38</v>
+      </c>
+      <c r="W91">
+        <v>1.53</v>
+      </c>
+      <c r="X91">
+        <v>5.5</v>
+      </c>
+      <c r="Y91">
+        <v>1.14</v>
+      </c>
+      <c r="Z91">
+        <v>1.91</v>
+      </c>
+      <c r="AA91">
+        <v>3.6</v>
+      </c>
+      <c r="AB91">
+        <v>3.75</v>
+      </c>
+      <c r="AC91">
+        <v>1.04</v>
+      </c>
+      <c r="AD91">
+        <v>10</v>
+      </c>
+      <c r="AE91">
+        <v>1.2</v>
+      </c>
+      <c r="AF91">
+        <v>4.5</v>
+      </c>
+      <c r="AG91">
+        <v>1.62</v>
+      </c>
+      <c r="AH91">
+        <v>2.25</v>
+      </c>
+      <c r="AI91">
+        <v>1.53</v>
+      </c>
+      <c r="AJ91">
+        <v>2.38</v>
+      </c>
+      <c r="AK91">
+        <v>1.25</v>
+      </c>
+      <c r="AL91">
+        <v>1.22</v>
+      </c>
+      <c r="AM91">
+        <v>1.85</v>
+      </c>
+      <c r="AN91">
+        <v>1.83</v>
+      </c>
+      <c r="AO91">
+        <v>1</v>
+      </c>
+      <c r="AP91">
+        <v>1.71</v>
+      </c>
+      <c r="AQ91">
+        <v>1</v>
+      </c>
+      <c r="AR91">
+        <v>1.65</v>
+      </c>
+      <c r="AS91">
+        <v>1.73</v>
+      </c>
+      <c r="AT91">
+        <v>3.38</v>
+      </c>
+      <c r="AU91">
+        <v>3</v>
+      </c>
+      <c r="AV91">
+        <v>5</v>
+      </c>
+      <c r="AW91">
+        <v>5</v>
+      </c>
+      <c r="AX91">
+        <v>2</v>
+      </c>
+      <c r="AY91">
+        <v>8</v>
+      </c>
+      <c r="AZ91">
+        <v>8</v>
+      </c>
+      <c r="BA91">
+        <v>2</v>
+      </c>
+      <c r="BB91">
+        <v>4</v>
+      </c>
+      <c r="BC91">
+        <v>6</v>
+      </c>
+      <c r="BD91">
+        <v>1.7</v>
+      </c>
+      <c r="BE91">
+        <v>6.1</v>
+      </c>
+      <c r="BF91">
+        <v>2.28</v>
+      </c>
+      <c r="BG91">
+        <v>1.25</v>
+      </c>
+      <c r="BH91">
+        <v>3.58</v>
+      </c>
+      <c r="BI91">
+        <v>1.45</v>
+      </c>
+      <c r="BJ91">
+        <v>2.55</v>
+      </c>
+      <c r="BK91">
+        <v>2.2</v>
+      </c>
+      <c r="BL91">
+        <v>1.96</v>
+      </c>
+      <c r="BM91">
+        <v>2.21</v>
+      </c>
+      <c r="BN91">
+        <v>1.59</v>
+      </c>
+      <c r="BO91">
+        <v>2.9</v>
+      </c>
+      <c r="BP91">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>
